--- a/SALE BILL REPORT 2021-22.xlsx
+++ b/SALE BILL REPORT 2021-22.xlsx
@@ -11,7 +11,7 @@
     <sheet name="May 2021" sheetId="69" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'April 2021-22'!$A$2:$X$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'April 2021-22'!$A$2:$X$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'May 2021'!$A$2:$X$59</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="188">
   <si>
     <t>Pataka Premium</t>
   </si>
@@ -580,6 +580,9 @@
   </si>
   <si>
     <t>07.05.2021</t>
+  </si>
+  <si>
+    <t>14.05.2021</t>
   </si>
 </sst>
 </file>
@@ -1499,7 +1502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1827,20 +1830,161 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1854,6 +1998,60 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1862,6 +2060,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1887,42 +2097,6 @@
     <xf numFmtId="2" fontId="6" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1946,174 +2120,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2421,7 +2427,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V48" sqref="V48"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5:K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2451,81 +2457,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="16.5" thickBot="1">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
-      <c r="I1" s="196"/>
-      <c r="J1" s="196"/>
-      <c r="K1" s="196"/>
-      <c r="L1" s="196"/>
-      <c r="M1" s="196"/>
-      <c r="N1" s="196"/>
-      <c r="O1" s="196"/>
-      <c r="P1" s="196"/>
-      <c r="Q1" s="196"/>
-      <c r="R1" s="196"/>
-      <c r="S1" s="196"/>
-      <c r="T1" s="197"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="133"/>
     </row>
     <row r="2" spans="1:20" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A2" s="198" t="s">
+      <c r="A2" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="202" t="s">
+      <c r="C2" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="203"/>
-      <c r="E2" s="206" t="s">
+      <c r="D2" s="139"/>
+      <c r="E2" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="208" t="s">
+      <c r="F2" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="200"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="210" t="s">
+      <c r="G2" s="136"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
-      <c r="L2" s="212"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="210" t="s">
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="211"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="213" t="s">
+      <c r="O2" s="147"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="214"/>
-      <c r="S2" s="200" t="s">
+      <c r="R2" s="150"/>
+      <c r="S2" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="189" t="s">
+      <c r="T2" s="121" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="6" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A3" s="199"/>
-      <c r="B3" s="201"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="191" t="s">
+      <c r="A3" s="135"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="192"/>
+      <c r="G3" s="124"/>
       <c r="H3" s="9" t="s">
         <v>4</v>
       </c>
@@ -2538,10 +2544,10 @@
       <c r="K3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="193" t="s">
+      <c r="L3" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="194"/>
+      <c r="M3" s="126"/>
       <c r="N3" s="8" t="s">
         <v>21</v>
       </c>
@@ -2557,25 +2563,25 @@
       <c r="R3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="201"/>
-      <c r="T3" s="190"/>
+      <c r="S3" s="137"/>
+      <c r="T3" s="122"/>
     </row>
     <row r="4" spans="1:20" s="18" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="85" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="30"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="164"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="128"/>
       <c r="E4" s="31"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="162"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="129"/>
       <c r="H4" s="80"/>
       <c r="I4" s="32"/>
       <c r="J4" s="33"/>
       <c r="K4" s="80"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="164"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="128"/>
       <c r="N4" s="79"/>
       <c r="O4" s="80"/>
       <c r="P4" s="34"/>
@@ -2594,21 +2600,21 @@
       <c r="B5" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="185" t="s">
+      <c r="C5" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="186"/>
+      <c r="D5" s="156"/>
       <c r="E5" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="181"/>
-      <c r="G5" s="183"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="158"/>
       <c r="H5" s="84"/>
       <c r="I5" s="40"/>
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
-      <c r="L5" s="184"/>
-      <c r="M5" s="182"/>
+      <c r="L5" s="159"/>
+      <c r="M5" s="160"/>
       <c r="N5" s="40"/>
       <c r="O5" s="41"/>
       <c r="P5" s="84"/>
@@ -2631,15 +2637,15 @@
       <c r="B6" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="122" t="s">
+      <c r="C6" s="151" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="123"/>
+      <c r="D6" s="152"/>
       <c r="E6" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="118"/>
-      <c r="G6" s="119"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="154"/>
       <c r="H6" s="83"/>
       <c r="I6" s="46">
         <v>60</v>
@@ -2648,8 +2654,8 @@
       <c r="K6" s="47">
         <v>22</v>
       </c>
-      <c r="L6" s="187"/>
-      <c r="M6" s="188"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="162"/>
       <c r="N6" s="48"/>
       <c r="O6" s="83"/>
       <c r="P6" s="49"/>
@@ -2670,21 +2676,21 @@
       <c r="B7" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="122" t="s">
+      <c r="C7" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="123"/>
+      <c r="D7" s="152"/>
       <c r="E7" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="118"/>
-      <c r="G7" s="119"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="154"/>
       <c r="H7" s="83"/>
       <c r="I7" s="48"/>
       <c r="J7" s="52"/>
       <c r="K7" s="52"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="121"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="120"/>
       <c r="N7" s="48">
         <v>600</v>
       </c>
@@ -2711,23 +2717,23 @@
       <c r="B8" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="122" t="s">
+      <c r="C8" s="151" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="123"/>
+      <c r="D8" s="152"/>
       <c r="E8" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="118"/>
-      <c r="G8" s="119"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="154"/>
       <c r="H8" s="83">
         <v>120</v>
       </c>
       <c r="I8" s="48"/>
       <c r="J8" s="52"/>
       <c r="K8" s="52"/>
-      <c r="L8" s="120"/>
-      <c r="M8" s="121"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="120"/>
       <c r="N8" s="48"/>
       <c r="O8" s="83"/>
       <c r="P8" s="49">
@@ -2750,23 +2756,23 @@
       <c r="B9" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="151" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="123"/>
+      <c r="D9" s="152"/>
       <c r="E9" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="118"/>
-      <c r="G9" s="119"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="154"/>
       <c r="H9" s="83"/>
       <c r="I9" s="48">
         <v>150</v>
       </c>
       <c r="J9" s="52"/>
       <c r="K9" s="52"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="121"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="120"/>
       <c r="N9" s="48"/>
       <c r="O9" s="83"/>
       <c r="P9" s="49">
@@ -2789,21 +2795,21 @@
       <c r="B10" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="122" t="s">
+      <c r="C10" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="123"/>
+      <c r="D10" s="152"/>
       <c r="E10" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="118"/>
-      <c r="G10" s="119"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="154"/>
       <c r="H10" s="83"/>
       <c r="I10" s="48"/>
       <c r="J10" s="52"/>
       <c r="K10" s="52"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="121"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="120"/>
       <c r="N10" s="48"/>
       <c r="O10" s="83"/>
       <c r="P10" s="49"/>
@@ -2826,23 +2832,23 @@
       <c r="B11" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="122" t="s">
+      <c r="C11" s="151" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="123"/>
+      <c r="D11" s="152"/>
       <c r="E11" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="118"/>
-      <c r="G11" s="119"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="154"/>
       <c r="H11" s="83">
         <v>24</v>
       </c>
       <c r="I11" s="48"/>
       <c r="J11" s="52"/>
       <c r="K11" s="52"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="121"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="120"/>
       <c r="N11" s="48"/>
       <c r="O11" s="83"/>
       <c r="P11" s="49"/>
@@ -2863,21 +2869,21 @@
       <c r="B12" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="122" t="s">
+      <c r="C12" s="151" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="123"/>
+      <c r="D12" s="152"/>
       <c r="E12" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="F12" s="118"/>
-      <c r="G12" s="119"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="154"/>
       <c r="H12" s="83"/>
       <c r="I12" s="48"/>
       <c r="J12" s="52"/>
       <c r="K12" s="52"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="121"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="120"/>
       <c r="N12" s="48"/>
       <c r="O12" s="83"/>
       <c r="P12" s="49">
@@ -2902,23 +2908,23 @@
       <c r="B13" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="151" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="123"/>
+      <c r="D13" s="152"/>
       <c r="E13" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="118"/>
-      <c r="G13" s="119"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="154"/>
       <c r="H13" s="83">
         <v>48</v>
       </c>
       <c r="I13" s="48"/>
       <c r="J13" s="52"/>
       <c r="K13" s="52"/>
-      <c r="L13" s="120"/>
-      <c r="M13" s="121"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="120"/>
       <c r="N13" s="48"/>
       <c r="O13" s="83"/>
       <c r="P13" s="49"/>
@@ -2939,23 +2945,23 @@
       <c r="B14" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="122" t="s">
+      <c r="C14" s="151" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="123"/>
+      <c r="D14" s="152"/>
       <c r="E14" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="118"/>
-      <c r="G14" s="119"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="154"/>
       <c r="H14" s="83">
         <v>48</v>
       </c>
       <c r="I14" s="48"/>
       <c r="J14" s="52"/>
       <c r="K14" s="52"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="121"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="120"/>
       <c r="N14" s="48"/>
       <c r="O14" s="83"/>
       <c r="P14" s="49"/>
@@ -2976,15 +2982,15 @@
       <c r="B15" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="122" t="s">
+      <c r="C15" s="151" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="123"/>
+      <c r="D15" s="152"/>
       <c r="E15" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="118"/>
-      <c r="G15" s="119"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="154"/>
       <c r="H15" s="83"/>
       <c r="I15" s="48">
         <v>7050</v>
@@ -2995,8 +3001,8 @@
       <c r="K15" s="52">
         <v>440</v>
       </c>
-      <c r="L15" s="120"/>
-      <c r="M15" s="121"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="120"/>
       <c r="N15" s="82">
         <v>840</v>
       </c>
@@ -3025,21 +3031,21 @@
       <c r="B16" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="122" t="s">
+      <c r="C16" s="151" t="s">
         <v>114</v>
       </c>
-      <c r="D16" s="123"/>
+      <c r="D16" s="152"/>
       <c r="E16" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="118"/>
-      <c r="G16" s="119"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="154"/>
       <c r="H16" s="83"/>
       <c r="I16" s="48"/>
       <c r="J16" s="52"/>
       <c r="K16" s="52"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="121"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="120"/>
       <c r="N16" s="82"/>
       <c r="O16" s="83"/>
       <c r="P16" s="49">
@@ -3064,21 +3070,21 @@
       <c r="B17" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="122" t="s">
+      <c r="C17" s="151" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="123"/>
+      <c r="D17" s="152"/>
       <c r="E17" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="F17" s="118"/>
-      <c r="G17" s="119"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="154"/>
       <c r="H17" s="83"/>
       <c r="I17" s="48"/>
       <c r="J17" s="52"/>
       <c r="K17" s="52"/>
-      <c r="L17" s="120"/>
-      <c r="M17" s="121"/>
+      <c r="L17" s="119"/>
+      <c r="M17" s="120"/>
       <c r="N17" s="82"/>
       <c r="O17" s="83"/>
       <c r="P17" s="49">
@@ -3101,21 +3107,21 @@
       <c r="B18" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="122" t="s">
+      <c r="C18" s="151" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="123"/>
+      <c r="D18" s="152"/>
       <c r="E18" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="118"/>
-      <c r="G18" s="119"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="154"/>
       <c r="H18" s="83"/>
       <c r="I18" s="48"/>
       <c r="J18" s="52"/>
       <c r="K18" s="52"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="121"/>
+      <c r="L18" s="119"/>
+      <c r="M18" s="120"/>
       <c r="N18" s="82">
         <v>600</v>
       </c>
@@ -3142,21 +3148,21 @@
       <c r="B19" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="151" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="123"/>
+      <c r="D19" s="152"/>
       <c r="E19" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="118"/>
-      <c r="G19" s="119"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="154"/>
       <c r="H19" s="83"/>
       <c r="I19" s="48"/>
       <c r="J19" s="52"/>
       <c r="K19" s="52"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="121"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="120"/>
       <c r="N19" s="82">
         <v>600</v>
       </c>
@@ -3184,23 +3190,23 @@
       <c r="B20" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="118" t="s">
+      <c r="C20" s="153" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="121"/>
+      <c r="D20" s="120"/>
       <c r="E20" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="118"/>
-      <c r="G20" s="119"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="154"/>
       <c r="H20" s="83"/>
       <c r="I20" s="48">
         <v>600</v>
       </c>
       <c r="J20" s="52"/>
       <c r="K20" s="52"/>
-      <c r="L20" s="120"/>
-      <c r="M20" s="121"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="120"/>
       <c r="N20" s="82"/>
       <c r="O20" s="83"/>
       <c r="P20" s="49">
@@ -3223,23 +3229,23 @@
       <c r="B21" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="118" t="s">
+      <c r="C21" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="121"/>
+      <c r="D21" s="120"/>
       <c r="E21" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="118"/>
-      <c r="G21" s="119"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="154"/>
       <c r="H21" s="83"/>
       <c r="I21" s="48"/>
       <c r="J21" s="52"/>
       <c r="K21" s="52">
         <v>220</v>
       </c>
-      <c r="L21" s="120"/>
-      <c r="M21" s="121"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="120"/>
       <c r="N21" s="82">
         <v>600</v>
       </c>
@@ -3266,25 +3272,25 @@
       <c r="B22" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="118" t="s">
+      <c r="C22" s="153" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="121"/>
+      <c r="D22" s="120"/>
       <c r="E22" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="118">
+      <c r="F22" s="153">
         <v>48</v>
       </c>
-      <c r="G22" s="119"/>
+      <c r="G22" s="154"/>
       <c r="H22" s="83">
         <v>24</v>
       </c>
       <c r="I22" s="48"/>
       <c r="J22" s="52"/>
       <c r="K22" s="52"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="121"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="120"/>
       <c r="N22" s="82"/>
       <c r="O22" s="83"/>
       <c r="P22" s="49">
@@ -3309,15 +3315,15 @@
       <c r="B23" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="118" t="s">
+      <c r="C23" s="153" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="121"/>
+      <c r="D23" s="120"/>
       <c r="E23" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="F23" s="118"/>
-      <c r="G23" s="119"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="154"/>
       <c r="H23" s="83">
         <v>1200</v>
       </c>
@@ -3328,8 +3334,8 @@
       <c r="K23" s="52">
         <v>660</v>
       </c>
-      <c r="L23" s="120"/>
-      <c r="M23" s="121"/>
+      <c r="L23" s="119"/>
+      <c r="M23" s="120"/>
       <c r="N23" s="82"/>
       <c r="O23" s="83"/>
       <c r="P23" s="49">
@@ -3352,23 +3358,23 @@
       <c r="B24" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="118" t="s">
+      <c r="C24" s="153" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="121"/>
+      <c r="D24" s="120"/>
       <c r="E24" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="118"/>
-      <c r="G24" s="119"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="154"/>
       <c r="H24" s="83">
         <v>120</v>
       </c>
       <c r="I24" s="48"/>
       <c r="J24" s="52"/>
       <c r="K24" s="52"/>
-      <c r="L24" s="120"/>
-      <c r="M24" s="121"/>
+      <c r="L24" s="119"/>
+      <c r="M24" s="120"/>
       <c r="N24" s="82"/>
       <c r="O24" s="83"/>
       <c r="P24" s="49"/>
@@ -3391,23 +3397,23 @@
       <c r="B25" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="118" t="s">
+      <c r="C25" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="D25" s="121"/>
+      <c r="D25" s="120"/>
       <c r="E25" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="F25" s="118"/>
-      <c r="G25" s="119"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="154"/>
       <c r="H25" s="83">
         <v>120</v>
       </c>
       <c r="I25" s="48"/>
       <c r="J25" s="52"/>
       <c r="K25" s="52"/>
-      <c r="L25" s="120"/>
-      <c r="M25" s="121"/>
+      <c r="L25" s="119"/>
+      <c r="M25" s="120"/>
       <c r="N25" s="82"/>
       <c r="O25" s="83"/>
       <c r="P25" s="49"/>
@@ -3428,23 +3434,23 @@
       <c r="B26" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="118" t="s">
+      <c r="C26" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="121"/>
+      <c r="D26" s="120"/>
       <c r="E26" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="118"/>
-      <c r="G26" s="119"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="154"/>
       <c r="H26" s="83"/>
       <c r="I26" s="48">
         <v>1200</v>
       </c>
       <c r="J26" s="52"/>
       <c r="K26" s="52"/>
-      <c r="L26" s="120"/>
-      <c r="M26" s="121"/>
+      <c r="L26" s="119"/>
+      <c r="M26" s="120"/>
       <c r="N26" s="82">
         <v>1200</v>
       </c>
@@ -3473,21 +3479,21 @@
       <c r="B27" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="118" t="s">
+      <c r="C27" s="153" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="121"/>
+      <c r="D27" s="120"/>
       <c r="E27" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="F27" s="118"/>
-      <c r="G27" s="119"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="154"/>
       <c r="H27" s="86"/>
       <c r="I27" s="57"/>
       <c r="J27" s="58"/>
       <c r="K27" s="58"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="121"/>
+      <c r="L27" s="119"/>
+      <c r="M27" s="120"/>
       <c r="N27" s="81"/>
       <c r="O27" s="86"/>
       <c r="P27" s="55">
@@ -3510,23 +3516,23 @@
       <c r="B28" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="118" t="s">
+      <c r="C28" s="153" t="s">
         <v>134</v>
       </c>
-      <c r="D28" s="121"/>
+      <c r="D28" s="120"/>
       <c r="E28" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="F28" s="118"/>
-      <c r="G28" s="119"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="154"/>
       <c r="H28" s="86">
         <v>48</v>
       </c>
       <c r="I28" s="57"/>
       <c r="J28" s="58"/>
       <c r="K28" s="58"/>
-      <c r="L28" s="120"/>
-      <c r="M28" s="121"/>
+      <c r="L28" s="119"/>
+      <c r="M28" s="120"/>
       <c r="N28" s="81"/>
       <c r="O28" s="86"/>
       <c r="P28" s="55">
@@ -3551,21 +3557,21 @@
       <c r="B29" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="118" t="s">
+      <c r="C29" s="153" t="s">
         <v>137</v>
       </c>
-      <c r="D29" s="121"/>
+      <c r="D29" s="120"/>
       <c r="E29" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="F29" s="118"/>
-      <c r="G29" s="119"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="154"/>
       <c r="H29" s="86"/>
       <c r="I29" s="57"/>
       <c r="J29" s="58"/>
       <c r="K29" s="58"/>
-      <c r="L29" s="120"/>
-      <c r="M29" s="121"/>
+      <c r="L29" s="119"/>
+      <c r="M29" s="120"/>
       <c r="N29" s="81"/>
       <c r="O29" s="86"/>
       <c r="P29" s="55"/>
@@ -3588,21 +3594,21 @@
       <c r="B30" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="118" t="s">
+      <c r="C30" s="153" t="s">
         <v>140</v>
       </c>
-      <c r="D30" s="121"/>
+      <c r="D30" s="120"/>
       <c r="E30" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="F30" s="118"/>
-      <c r="G30" s="119"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="154"/>
       <c r="H30" s="86"/>
       <c r="I30" s="57"/>
       <c r="J30" s="58"/>
       <c r="K30" s="58"/>
-      <c r="L30" s="120"/>
-      <c r="M30" s="121"/>
+      <c r="L30" s="119"/>
+      <c r="M30" s="120"/>
       <c r="N30" s="81"/>
       <c r="O30" s="86"/>
       <c r="P30" s="55"/>
@@ -3625,21 +3631,21 @@
       <c r="B31" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="118" t="s">
+      <c r="C31" s="153" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="121"/>
+      <c r="D31" s="120"/>
       <c r="E31" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="F31" s="118"/>
-      <c r="G31" s="119"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="154"/>
       <c r="H31" s="86"/>
       <c r="I31" s="57"/>
       <c r="J31" s="58"/>
       <c r="K31" s="58"/>
-      <c r="L31" s="120"/>
-      <c r="M31" s="121"/>
+      <c r="L31" s="119"/>
+      <c r="M31" s="120"/>
       <c r="N31" s="81"/>
       <c r="O31" s="86"/>
       <c r="P31" s="55">
@@ -3662,23 +3668,23 @@
       <c r="B32" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="118" t="s">
+      <c r="C32" s="153" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="121"/>
+      <c r="D32" s="120"/>
       <c r="E32" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="F32" s="118"/>
-      <c r="G32" s="119"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="154"/>
       <c r="H32" s="86"/>
       <c r="I32" s="57">
         <v>120</v>
       </c>
       <c r="J32" s="58"/>
       <c r="K32" s="58"/>
-      <c r="L32" s="120"/>
-      <c r="M32" s="121"/>
+      <c r="L32" s="119"/>
+      <c r="M32" s="120"/>
       <c r="N32" s="81"/>
       <c r="O32" s="86">
         <v>144</v>
@@ -3705,17 +3711,17 @@
       <c r="B33" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="118" t="s">
+      <c r="C33" s="153" t="s">
         <v>127</v>
       </c>
-      <c r="D33" s="121"/>
+      <c r="D33" s="120"/>
       <c r="E33" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="F33" s="118">
+      <c r="F33" s="153">
         <v>720</v>
       </c>
-      <c r="G33" s="119"/>
+      <c r="G33" s="154"/>
       <c r="H33" s="86">
         <v>1440</v>
       </c>
@@ -3724,8 +3730,8 @@
       </c>
       <c r="J33" s="58"/>
       <c r="K33" s="58"/>
-      <c r="L33" s="120"/>
-      <c r="M33" s="121"/>
+      <c r="L33" s="119"/>
+      <c r="M33" s="120"/>
       <c r="N33" s="81">
         <v>480</v>
       </c>
@@ -3752,21 +3758,21 @@
       <c r="B34" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="118" t="s">
+      <c r="C34" s="153" t="s">
         <v>117</v>
       </c>
-      <c r="D34" s="121"/>
+      <c r="D34" s="120"/>
       <c r="E34" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="F34" s="118"/>
-      <c r="G34" s="119"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="154"/>
       <c r="H34" s="86"/>
       <c r="I34" s="57"/>
       <c r="J34" s="58"/>
       <c r="K34" s="58"/>
-      <c r="L34" s="120"/>
-      <c r="M34" s="121"/>
+      <c r="L34" s="119"/>
+      <c r="M34" s="120"/>
       <c r="N34" s="81"/>
       <c r="O34" s="86"/>
       <c r="P34" s="55">
@@ -3789,15 +3795,15 @@
       <c r="B35" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="118" t="s">
+      <c r="C35" s="153" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="121"/>
+      <c r="D35" s="120"/>
       <c r="E35" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="F35" s="118"/>
-      <c r="G35" s="119"/>
+      <c r="F35" s="153"/>
+      <c r="G35" s="154"/>
       <c r="H35" s="86"/>
       <c r="I35" s="57">
         <v>9750</v>
@@ -3806,8 +3812,8 @@
       <c r="K35" s="58">
         <v>330</v>
       </c>
-      <c r="L35" s="120"/>
-      <c r="M35" s="121"/>
+      <c r="L35" s="119"/>
+      <c r="M35" s="120"/>
       <c r="N35" s="81"/>
       <c r="O35" s="86">
         <v>120</v>
@@ -3834,21 +3840,21 @@
       <c r="B36" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="118" t="s">
+      <c r="C36" s="153" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="121"/>
+      <c r="D36" s="120"/>
       <c r="E36" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F36" s="118"/>
-      <c r="G36" s="119"/>
+      <c r="F36" s="153"/>
+      <c r="G36" s="154"/>
       <c r="H36" s="86"/>
       <c r="I36" s="57"/>
       <c r="J36" s="58"/>
       <c r="K36" s="58"/>
-      <c r="L36" s="120"/>
-      <c r="M36" s="121"/>
+      <c r="L36" s="119"/>
+      <c r="M36" s="120"/>
       <c r="N36" s="81"/>
       <c r="O36" s="86"/>
       <c r="P36" s="55"/>
@@ -3871,21 +3877,21 @@
       <c r="B37" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="118" t="s">
+      <c r="C37" s="153" t="s">
         <v>149</v>
       </c>
-      <c r="D37" s="121"/>
+      <c r="D37" s="120"/>
       <c r="E37" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="F37" s="118"/>
-      <c r="G37" s="119"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="154"/>
       <c r="H37" s="86"/>
       <c r="I37" s="57"/>
       <c r="J37" s="58"/>
       <c r="K37" s="58"/>
-      <c r="L37" s="120"/>
-      <c r="M37" s="121"/>
+      <c r="L37" s="119"/>
+      <c r="M37" s="120"/>
       <c r="N37" s="81"/>
       <c r="O37" s="86"/>
       <c r="P37" s="55">
@@ -3910,23 +3916,23 @@
       <c r="B38" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="118" t="s">
+      <c r="C38" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="121"/>
+      <c r="D38" s="120"/>
       <c r="E38" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="F38" s="118"/>
-      <c r="G38" s="119"/>
+      <c r="F38" s="153"/>
+      <c r="G38" s="154"/>
       <c r="H38" s="86"/>
       <c r="I38" s="57">
         <v>600</v>
       </c>
       <c r="J38" s="58"/>
       <c r="K38" s="58"/>
-      <c r="L38" s="120"/>
-      <c r="M38" s="121"/>
+      <c r="L38" s="119"/>
+      <c r="M38" s="120"/>
       <c r="N38" s="81">
         <v>480</v>
       </c>
@@ -3953,23 +3959,23 @@
       <c r="B39" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="122" t="s">
+      <c r="C39" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="123"/>
+      <c r="D39" s="152"/>
       <c r="E39" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="F39" s="118"/>
-      <c r="G39" s="119"/>
+      <c r="F39" s="153"/>
+      <c r="G39" s="154"/>
       <c r="H39" s="86">
         <v>120</v>
       </c>
       <c r="I39" s="57"/>
       <c r="J39" s="58"/>
       <c r="K39" s="58"/>
-      <c r="L39" s="120"/>
-      <c r="M39" s="121"/>
+      <c r="L39" s="119"/>
+      <c r="M39" s="120"/>
       <c r="N39" s="95"/>
       <c r="O39" s="86"/>
       <c r="P39" s="55"/>
@@ -3990,15 +3996,15 @@
       <c r="B40" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="122" t="s">
+      <c r="C40" s="151" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="123"/>
+      <c r="D40" s="152"/>
       <c r="E40" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="118"/>
-      <c r="G40" s="119"/>
+      <c r="F40" s="153"/>
+      <c r="G40" s="154"/>
       <c r="H40" s="86"/>
       <c r="I40" s="57">
         <v>6450</v>
@@ -4007,8 +4013,8 @@
       <c r="K40" s="58">
         <v>110</v>
       </c>
-      <c r="L40" s="120"/>
-      <c r="M40" s="121"/>
+      <c r="L40" s="119"/>
+      <c r="M40" s="120"/>
       <c r="N40" s="95">
         <v>240</v>
       </c>
@@ -4037,23 +4043,23 @@
       <c r="B41" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="122" t="s">
+      <c r="C41" s="151" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="123"/>
+      <c r="D41" s="152"/>
       <c r="E41" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F41" s="118"/>
-      <c r="G41" s="119"/>
+      <c r="F41" s="153"/>
+      <c r="G41" s="154"/>
       <c r="H41" s="86"/>
       <c r="I41" s="57">
         <v>1800</v>
       </c>
       <c r="J41" s="58"/>
       <c r="K41" s="58"/>
-      <c r="L41" s="120"/>
-      <c r="M41" s="121"/>
+      <c r="L41" s="119"/>
+      <c r="M41" s="120"/>
       <c r="N41" s="95">
         <v>240</v>
       </c>
@@ -4080,21 +4086,21 @@
       <c r="B42" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="C42" s="122" t="s">
+      <c r="C42" s="151" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="123"/>
+      <c r="D42" s="152"/>
       <c r="E42" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F42" s="118"/>
-      <c r="G42" s="119"/>
+      <c r="F42" s="153"/>
+      <c r="G42" s="154"/>
       <c r="H42" s="86"/>
       <c r="I42" s="57"/>
       <c r="J42" s="58"/>
       <c r="K42" s="58"/>
-      <c r="L42" s="120"/>
-      <c r="M42" s="121"/>
+      <c r="L42" s="119"/>
+      <c r="M42" s="120"/>
       <c r="N42" s="95">
         <v>600</v>
       </c>
@@ -4119,21 +4125,21 @@
       <c r="B43" s="97" t="s">
         <v>152</v>
       </c>
-      <c r="C43" s="122" t="s">
+      <c r="C43" s="151" t="s">
         <v>123</v>
       </c>
-      <c r="D43" s="123"/>
+      <c r="D43" s="152"/>
       <c r="E43" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F43" s="118"/>
-      <c r="G43" s="119"/>
+      <c r="F43" s="153"/>
+      <c r="G43" s="154"/>
       <c r="H43" s="86"/>
       <c r="I43" s="57"/>
       <c r="J43" s="58"/>
       <c r="K43" s="58"/>
-      <c r="L43" s="120"/>
-      <c r="M43" s="121"/>
+      <c r="L43" s="119"/>
+      <c r="M43" s="120"/>
       <c r="N43" s="95"/>
       <c r="O43" s="86"/>
       <c r="P43" s="55">
@@ -4156,21 +4162,21 @@
       <c r="B44" s="97" t="s">
         <v>153</v>
       </c>
-      <c r="C44" s="122" t="s">
+      <c r="C44" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="123"/>
+      <c r="D44" s="152"/>
       <c r="E44" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="F44" s="118"/>
-      <c r="G44" s="119"/>
+      <c r="F44" s="153"/>
+      <c r="G44" s="154"/>
       <c r="H44" s="86"/>
       <c r="I44" s="57"/>
       <c r="J44" s="58"/>
       <c r="K44" s="58"/>
-      <c r="L44" s="120"/>
-      <c r="M44" s="121"/>
+      <c r="L44" s="119"/>
+      <c r="M44" s="120"/>
       <c r="N44" s="95">
         <v>1200</v>
       </c>
@@ -4197,21 +4203,21 @@
       <c r="B45" s="97" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="122" t="s">
+      <c r="C45" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="123"/>
+      <c r="D45" s="152"/>
       <c r="E45" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F45" s="118"/>
-      <c r="G45" s="119"/>
+      <c r="F45" s="153"/>
+      <c r="G45" s="154"/>
       <c r="H45" s="86"/>
       <c r="I45" s="57"/>
       <c r="J45" s="58"/>
       <c r="K45" s="58"/>
-      <c r="L45" s="120"/>
-      <c r="M45" s="121"/>
+      <c r="L45" s="119"/>
+      <c r="M45" s="120"/>
       <c r="N45" s="95"/>
       <c r="O45" s="86"/>
       <c r="P45" s="55">
@@ -4236,15 +4242,15 @@
       <c r="B46" s="97" t="s">
         <v>155</v>
       </c>
-      <c r="C46" s="122" t="s">
+      <c r="C46" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="123"/>
+      <c r="D46" s="152"/>
       <c r="E46" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="F46" s="118"/>
-      <c r="G46" s="119"/>
+      <c r="F46" s="153"/>
+      <c r="G46" s="154"/>
       <c r="H46" s="86">
         <v>240</v>
       </c>
@@ -4253,10 +4259,10 @@
       </c>
       <c r="J46" s="58"/>
       <c r="K46" s="58"/>
-      <c r="L46" s="120">
+      <c r="L46" s="119">
         <v>110</v>
       </c>
-      <c r="M46" s="121"/>
+      <c r="M46" s="120"/>
       <c r="N46" s="98"/>
       <c r="O46" s="86"/>
       <c r="P46" s="55"/>
@@ -4277,21 +4283,21 @@
       <c r="B47" s="97" t="s">
         <v>156</v>
       </c>
-      <c r="C47" s="122" t="s">
+      <c r="C47" s="151" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="123"/>
+      <c r="D47" s="152"/>
       <c r="E47" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="F47" s="118"/>
-      <c r="G47" s="119"/>
+      <c r="F47" s="153"/>
+      <c r="G47" s="154"/>
       <c r="H47" s="86"/>
       <c r="I47" s="57"/>
       <c r="J47" s="58"/>
       <c r="K47" s="58"/>
-      <c r="L47" s="120"/>
-      <c r="M47" s="121"/>
+      <c r="L47" s="119"/>
+      <c r="M47" s="120"/>
       <c r="N47" s="98"/>
       <c r="O47" s="86"/>
       <c r="P47" s="55">
@@ -4314,15 +4320,15 @@
       <c r="B48" s="97" t="s">
         <v>157</v>
       </c>
-      <c r="C48" s="122" t="s">
+      <c r="C48" s="151" t="s">
         <v>127</v>
       </c>
-      <c r="D48" s="123"/>
+      <c r="D48" s="152"/>
       <c r="E48" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="F48" s="118"/>
-      <c r="G48" s="119"/>
+      <c r="F48" s="153"/>
+      <c r="G48" s="154"/>
       <c r="H48" s="86">
         <v>1200</v>
       </c>
@@ -4331,8 +4337,8 @@
         <v>240</v>
       </c>
       <c r="K48" s="58"/>
-      <c r="L48" s="120"/>
-      <c r="M48" s="121"/>
+      <c r="L48" s="119"/>
+      <c r="M48" s="120"/>
       <c r="N48" s="98">
         <v>1200</v>
       </c>
@@ -4361,21 +4367,21 @@
       <c r="B49" s="97" t="s">
         <v>162</v>
       </c>
-      <c r="C49" s="122" t="s">
+      <c r="C49" s="151" t="s">
         <v>172</v>
       </c>
-      <c r="D49" s="123"/>
+      <c r="D49" s="152"/>
       <c r="E49" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="F49" s="118"/>
-      <c r="G49" s="119"/>
+      <c r="F49" s="153"/>
+      <c r="G49" s="154"/>
       <c r="H49" s="86"/>
       <c r="I49" s="57"/>
       <c r="J49" s="58"/>
       <c r="K49" s="58"/>
-      <c r="L49" s="120"/>
-      <c r="M49" s="121"/>
+      <c r="L49" s="119"/>
+      <c r="M49" s="120"/>
       <c r="N49" s="98"/>
       <c r="O49" s="86"/>
       <c r="P49" s="55">
@@ -4398,21 +4404,21 @@
       <c r="B50" s="97" t="s">
         <v>163</v>
       </c>
-      <c r="C50" s="122" t="s">
+      <c r="C50" s="151" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="123"/>
+      <c r="D50" s="152"/>
       <c r="E50" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="F50" s="118"/>
-      <c r="G50" s="119"/>
+      <c r="F50" s="153"/>
+      <c r="G50" s="154"/>
       <c r="H50" s="86"/>
       <c r="I50" s="57"/>
       <c r="J50" s="58"/>
       <c r="K50" s="58"/>
-      <c r="L50" s="120"/>
-      <c r="M50" s="121"/>
+      <c r="L50" s="119"/>
+      <c r="M50" s="120"/>
       <c r="N50" s="98"/>
       <c r="O50" s="86"/>
       <c r="P50" s="55">
@@ -4435,21 +4441,21 @@
       <c r="B51" s="97" t="s">
         <v>164</v>
       </c>
-      <c r="C51" s="122" t="s">
+      <c r="C51" s="151" t="s">
         <v>175</v>
       </c>
-      <c r="D51" s="123"/>
+      <c r="D51" s="152"/>
       <c r="E51" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="F51" s="118"/>
-      <c r="G51" s="119"/>
+      <c r="F51" s="153"/>
+      <c r="G51" s="154"/>
       <c r="H51" s="86"/>
       <c r="I51" s="57"/>
       <c r="J51" s="58"/>
       <c r="K51" s="58"/>
-      <c r="L51" s="120"/>
-      <c r="M51" s="121"/>
+      <c r="L51" s="119"/>
+      <c r="M51" s="120"/>
       <c r="N51" s="98"/>
       <c r="O51" s="86"/>
       <c r="P51" s="55">
@@ -4472,15 +4478,15 @@
       <c r="B52" s="97" t="s">
         <v>165</v>
       </c>
-      <c r="C52" s="122" t="s">
+      <c r="C52" s="151" t="s">
         <v>127</v>
       </c>
-      <c r="D52" s="123"/>
+      <c r="D52" s="152"/>
       <c r="E52" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="F52" s="118"/>
-      <c r="G52" s="119"/>
+      <c r="F52" s="153"/>
+      <c r="G52" s="154"/>
       <c r="H52" s="86">
         <v>960</v>
       </c>
@@ -4491,10 +4497,10 @@
       <c r="K52" s="58">
         <v>660</v>
       </c>
-      <c r="L52" s="120">
+      <c r="L52" s="119">
         <v>330</v>
       </c>
-      <c r="M52" s="121"/>
+      <c r="M52" s="120"/>
       <c r="N52" s="98">
         <v>360</v>
       </c>
@@ -4523,23 +4529,23 @@
       <c r="B53" s="97" t="s">
         <v>166</v>
       </c>
-      <c r="C53" s="122" t="s">
+      <c r="C53" s="151" t="s">
         <v>120</v>
       </c>
-      <c r="D53" s="123"/>
+      <c r="D53" s="152"/>
       <c r="E53" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F53" s="118"/>
-      <c r="G53" s="119"/>
+      <c r="F53" s="153"/>
+      <c r="G53" s="154"/>
       <c r="H53" s="86"/>
       <c r="I53" s="57">
         <v>1800</v>
       </c>
       <c r="J53" s="58"/>
       <c r="K53" s="58"/>
-      <c r="L53" s="120"/>
-      <c r="M53" s="121"/>
+      <c r="L53" s="119"/>
+      <c r="M53" s="120"/>
       <c r="N53" s="98">
         <v>720</v>
       </c>
@@ -4566,23 +4572,23 @@
       <c r="B54" s="97" t="s">
         <v>167</v>
       </c>
-      <c r="C54" s="122" t="s">
+      <c r="C54" s="151" t="s">
         <v>123</v>
       </c>
-      <c r="D54" s="123"/>
+      <c r="D54" s="152"/>
       <c r="E54" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F54" s="118"/>
-      <c r="G54" s="119"/>
+      <c r="F54" s="153"/>
+      <c r="G54" s="154"/>
       <c r="H54" s="86"/>
       <c r="I54" s="57">
         <v>600</v>
       </c>
       <c r="J54" s="58"/>
       <c r="K54" s="58"/>
-      <c r="L54" s="120"/>
-      <c r="M54" s="121"/>
+      <c r="L54" s="119"/>
+      <c r="M54" s="120"/>
       <c r="N54" s="98"/>
       <c r="O54" s="86"/>
       <c r="P54" s="55">
@@ -4605,21 +4611,21 @@
       <c r="B55" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="C55" s="122" t="s">
+      <c r="C55" s="151" t="s">
         <v>122</v>
       </c>
-      <c r="D55" s="123"/>
+      <c r="D55" s="152"/>
       <c r="E55" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F55" s="118"/>
-      <c r="G55" s="119"/>
+      <c r="F55" s="153"/>
+      <c r="G55" s="154"/>
       <c r="H55" s="86"/>
       <c r="I55" s="57"/>
       <c r="J55" s="58"/>
       <c r="K55" s="58"/>
-      <c r="L55" s="120"/>
-      <c r="M55" s="121"/>
+      <c r="L55" s="119"/>
+      <c r="M55" s="120"/>
       <c r="N55" s="98">
         <v>480</v>
       </c>
@@ -4640,18 +4646,18 @@
       </c>
     </row>
     <row r="56" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A56" s="159" t="s">
+      <c r="A56" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="B56" s="160"/>
-      <c r="C56" s="160"/>
+      <c r="B56" s="167"/>
+      <c r="C56" s="167"/>
       <c r="D56" s="62"/>
       <c r="E56" s="60"/>
-      <c r="F56" s="161">
+      <c r="F56" s="127">
         <f>SUM(F5:G55)</f>
         <v>768</v>
       </c>
-      <c r="G56" s="162"/>
+      <c r="G56" s="129"/>
       <c r="H56" s="34">
         <f>SUM(H5:H55)</f>
         <v>5712</v>
@@ -4668,37 +4674,37 @@
         <f>SUM(K5:K55)</f>
         <v>2442</v>
       </c>
-      <c r="L56" s="163">
+      <c r="L56" s="130">
         <f>SUM(L5:M55)</f>
         <v>440</v>
       </c>
-      <c r="M56" s="164"/>
+      <c r="M56" s="128"/>
       <c r="N56" s="77">
-        <f>SUM(N5:N55)</f>
+        <f t="shared" ref="N56:T56" si="1">SUM(N5:N55)</f>
         <v>10440</v>
       </c>
       <c r="O56" s="78">
-        <f>SUM(O5:O55)</f>
+        <f t="shared" si="1"/>
         <v>6504</v>
       </c>
       <c r="P56" s="34">
-        <f>SUM(P5:P55)</f>
+        <f t="shared" si="1"/>
         <v>55848</v>
       </c>
       <c r="Q56" s="77">
-        <f>SUM(Q5:Q55)</f>
+        <f t="shared" si="1"/>
         <v>6672</v>
       </c>
       <c r="R56" s="34">
-        <f>SUM(R5:R55)</f>
+        <f t="shared" si="1"/>
         <v>900</v>
       </c>
       <c r="S56" s="61">
-        <f>SUM(S5:S55)</f>
+        <f t="shared" si="1"/>
         <v>122966</v>
       </c>
       <c r="T56" s="36">
-        <f>SUM(T5:T55)</f>
+        <f t="shared" si="1"/>
         <v>39031428</v>
       </c>
       <c r="V56" s="13"/>
@@ -4706,16 +4712,16 @@
       <c r="X56" s="13"/>
     </row>
     <row r="57" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A57" s="159"/>
-      <c r="B57" s="160"/>
-      <c r="C57" s="160"/>
+      <c r="A57" s="166"/>
+      <c r="B57" s="167"/>
+      <c r="C57" s="167"/>
       <c r="D57" s="62"/>
       <c r="E57" s="60"/>
-      <c r="F57" s="161">
+      <c r="F57" s="127">
         <f>F4+F56</f>
         <v>768</v>
       </c>
-      <c r="G57" s="162"/>
+      <c r="G57" s="129"/>
       <c r="H57" s="34">
         <f>H4+H56</f>
         <v>5712</v>
@@ -4732,37 +4738,37 @@
         <f>K4+K56</f>
         <v>2442</v>
       </c>
-      <c r="L57" s="163">
+      <c r="L57" s="130">
         <f>L4+L56</f>
         <v>440</v>
       </c>
-      <c r="M57" s="164"/>
+      <c r="M57" s="128"/>
       <c r="N57" s="77">
-        <f>N4+N56</f>
+        <f t="shared" ref="N57:T57" si="2">N4+N56</f>
         <v>10440</v>
       </c>
       <c r="O57" s="78">
-        <f>O4+O56</f>
+        <f t="shared" si="2"/>
         <v>6504</v>
       </c>
       <c r="P57" s="34">
-        <f>P4+P56</f>
+        <f t="shared" si="2"/>
         <v>55848</v>
       </c>
       <c r="Q57" s="62">
-        <f>Q4+Q56</f>
+        <f t="shared" si="2"/>
         <v>6672</v>
       </c>
       <c r="R57" s="78">
-        <f>R4+R56</f>
+        <f t="shared" si="2"/>
         <v>900</v>
       </c>
       <c r="S57" s="63">
-        <f>S4+S56</f>
+        <f t="shared" si="2"/>
         <v>122966</v>
       </c>
       <c r="T57" s="36">
-        <f>T4+T56</f>
+        <f t="shared" si="2"/>
         <v>39031428</v>
       </c>
       <c r="W57" s="13"/>
@@ -4772,63 +4778,63 @@
       <c r="V58" s="13"/>
     </row>
     <row r="59" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A59" s="165" t="s">
+      <c r="A59" s="168" t="s">
         <v>161</v>
       </c>
-      <c r="B59" s="166"/>
-      <c r="C59" s="166"/>
-      <c r="D59" s="166"/>
-      <c r="E59" s="166"/>
-      <c r="F59" s="166"/>
-      <c r="G59" s="166"/>
-      <c r="H59" s="166"/>
-      <c r="I59" s="166"/>
-      <c r="J59" s="166"/>
-      <c r="K59" s="166"/>
-      <c r="L59" s="166"/>
-      <c r="M59" s="166"/>
-      <c r="N59" s="166"/>
-      <c r="O59" s="166"/>
-      <c r="P59" s="166"/>
-      <c r="Q59" s="167"/>
+      <c r="B59" s="169"/>
+      <c r="C59" s="169"/>
+      <c r="D59" s="169"/>
+      <c r="E59" s="169"/>
+      <c r="F59" s="169"/>
+      <c r="G59" s="169"/>
+      <c r="H59" s="169"/>
+      <c r="I59" s="169"/>
+      <c r="J59" s="169"/>
+      <c r="K59" s="169"/>
+      <c r="L59" s="169"/>
+      <c r="M59" s="169"/>
+      <c r="N59" s="169"/>
+      <c r="O59" s="169"/>
+      <c r="P59" s="169"/>
+      <c r="Q59" s="170"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="28"/>
     </row>
     <row r="60" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A60" s="124" t="s">
+      <c r="A60" s="171" t="s">
         <v>34</v>
       </c>
-      <c r="B60" s="125"/>
-      <c r="C60" s="168" t="s">
+      <c r="B60" s="172"/>
+      <c r="C60" s="175" t="s">
         <v>33</v>
       </c>
-      <c r="D60" s="168" t="s">
+      <c r="D60" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="171" t="s">
+      <c r="E60" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="F60" s="124" t="s">
+      <c r="F60" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="G60" s="125"/>
-      <c r="H60" s="173" t="s">
+      <c r="G60" s="172"/>
+      <c r="H60" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="I60" s="174"/>
-      <c r="J60" s="175"/>
-      <c r="K60" s="176" t="s">
+      <c r="I60" s="181"/>
+      <c r="J60" s="182"/>
+      <c r="K60" s="183" t="s">
         <v>25</v>
       </c>
-      <c r="L60" s="177"/>
-      <c r="M60" s="177"/>
-      <c r="N60" s="177"/>
-      <c r="O60" s="178"/>
-      <c r="P60" s="168" t="s">
+      <c r="L60" s="184"/>
+      <c r="M60" s="184"/>
+      <c r="N60" s="184"/>
+      <c r="O60" s="185"/>
+      <c r="P60" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="Q60" s="179" t="s">
+      <c r="Q60" s="186" t="s">
         <v>38</v>
       </c>
       <c r="R60" s="1"/>
@@ -4836,13 +4842,13 @@
       <c r="T60" s="28"/>
     </row>
     <row r="61" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A61" s="126"/>
-      <c r="B61" s="127"/>
-      <c r="C61" s="169"/>
-      <c r="D61" s="170"/>
-      <c r="E61" s="172"/>
-      <c r="F61" s="126"/>
-      <c r="G61" s="127"/>
+      <c r="A61" s="173"/>
+      <c r="B61" s="174"/>
+      <c r="C61" s="176"/>
+      <c r="D61" s="177"/>
+      <c r="E61" s="179"/>
+      <c r="F61" s="173"/>
+      <c r="G61" s="174"/>
       <c r="H61" s="70" t="s">
         <v>49</v>
       </c>
@@ -4855,25 +4861,25 @@
       <c r="K61" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="L61" s="176" t="s">
+      <c r="L61" s="183" t="s">
         <v>47</v>
       </c>
-      <c r="M61" s="178"/>
+      <c r="M61" s="185"/>
       <c r="N61" s="70" t="s">
         <v>46</v>
       </c>
       <c r="O61" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="P61" s="170"/>
-      <c r="Q61" s="180"/>
+      <c r="P61" s="177"/>
+      <c r="Q61" s="187"/>
       <c r="T61" s="28"/>
     </row>
     <row r="62" spans="1:24" ht="15" customHeight="1">
-      <c r="A62" s="124" t="s">
+      <c r="A62" s="171" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="125"/>
+      <c r="B62" s="172"/>
       <c r="C62" s="66" t="s">
         <v>28</v>
       </c>
@@ -4881,14 +4887,14 @@
       <c r="E62" s="4">
         <v>720</v>
       </c>
-      <c r="F62" s="128"/>
-      <c r="G62" s="128"/>
+      <c r="F62" s="193"/>
+      <c r="G62" s="193"/>
       <c r="H62" s="4"/>
       <c r="I62" s="67"/>
       <c r="J62" s="4"/>
       <c r="K62" s="67"/>
-      <c r="L62" s="129"/>
-      <c r="M62" s="130"/>
+      <c r="L62" s="194"/>
+      <c r="M62" s="195"/>
       <c r="N62" s="67"/>
       <c r="O62" s="4">
         <v>48</v>
@@ -4905,8 +4911,8 @@
       </c>
     </row>
     <row r="63" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A63" s="126"/>
-      <c r="B63" s="127"/>
+      <c r="A63" s="173"/>
+      <c r="B63" s="174"/>
       <c r="C63" s="74" t="s">
         <v>29</v>
       </c>
@@ -4914,16 +4920,16 @@
       <c r="E63" s="14">
         <v>2640</v>
       </c>
-      <c r="F63" s="131">
+      <c r="F63" s="200">
         <v>2160</v>
       </c>
-      <c r="G63" s="131"/>
+      <c r="G63" s="200"/>
       <c r="H63" s="14"/>
       <c r="I63" s="71"/>
       <c r="J63" s="14"/>
       <c r="K63" s="71"/>
-      <c r="L63" s="132"/>
-      <c r="M63" s="133"/>
+      <c r="L63" s="201"/>
+      <c r="M63" s="202"/>
       <c r="N63" s="71"/>
       <c r="O63" s="14">
         <v>672</v>
@@ -4932,7 +4938,7 @@
         <v>240</v>
       </c>
       <c r="Q63" s="16">
-        <f t="shared" ref="Q63:Q72" si="1">SUM(D63:P63)</f>
+        <f t="shared" ref="Q63:Q72" si="3">SUM(D63:P63)</f>
         <v>5712</v>
       </c>
       <c r="T63" s="28"/>
@@ -4942,10 +4948,10 @@
       </c>
     </row>
     <row r="64" spans="1:24">
-      <c r="A64" s="124" t="s">
+      <c r="A64" s="171" t="s">
         <v>41</v>
       </c>
-      <c r="B64" s="125"/>
+      <c r="B64" s="172"/>
       <c r="C64" s="4" t="s">
         <v>30</v>
       </c>
@@ -4955,10 +4961,10 @@
       <c r="E64" s="4">
         <v>600</v>
       </c>
-      <c r="F64" s="128">
+      <c r="F64" s="193">
         <v>1650</v>
       </c>
-      <c r="G64" s="128"/>
+      <c r="G64" s="193"/>
       <c r="H64" s="4"/>
       <c r="I64" s="67">
         <v>3600</v>
@@ -4967,10 +4973,10 @@
         <v>1200</v>
       </c>
       <c r="K64" s="67"/>
-      <c r="L64" s="129">
+      <c r="L64" s="194">
         <v>120</v>
       </c>
-      <c r="M64" s="130"/>
+      <c r="M64" s="195"/>
       <c r="N64" s="67"/>
       <c r="O64" s="4">
         <v>210</v>
@@ -4979,7 +4985,7 @@
         <v>2250</v>
       </c>
       <c r="Q64" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32880</v>
       </c>
       <c r="T64" s="28"/>
@@ -4989,8 +4995,8 @@
       </c>
     </row>
     <row r="65" spans="1:22">
-      <c r="A65" s="151"/>
-      <c r="B65" s="152"/>
+      <c r="A65" s="208"/>
+      <c r="B65" s="209"/>
       <c r="C65" s="5" t="s">
         <v>32</v>
       </c>
@@ -5000,19 +5006,19 @@
       <c r="E65" s="5">
         <v>240</v>
       </c>
-      <c r="F65" s="156"/>
-      <c r="G65" s="156"/>
+      <c r="F65" s="213"/>
+      <c r="G65" s="213"/>
       <c r="H65" s="5"/>
       <c r="I65" s="69"/>
       <c r="J65" s="5"/>
       <c r="K65" s="69"/>
-      <c r="L65" s="157"/>
-      <c r="M65" s="158"/>
+      <c r="L65" s="214"/>
+      <c r="M65" s="215"/>
       <c r="N65" s="69"/>
       <c r="O65" s="5"/>
       <c r="P65" s="69"/>
       <c r="Q65" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>360</v>
       </c>
       <c r="T65" s="28"/>
@@ -5022,8 +5028,8 @@
       </c>
     </row>
     <row r="66" spans="1:22">
-      <c r="A66" s="151"/>
-      <c r="B66" s="152"/>
+      <c r="A66" s="208"/>
+      <c r="B66" s="209"/>
       <c r="C66" s="5" t="s">
         <v>43</v>
       </c>
@@ -5031,16 +5037,16 @@
         <v>880</v>
       </c>
       <c r="E66" s="5"/>
-      <c r="F66" s="156">
+      <c r="F66" s="213">
         <v>1320</v>
       </c>
-      <c r="G66" s="156"/>
+      <c r="G66" s="213"/>
       <c r="H66" s="5"/>
       <c r="I66" s="69"/>
       <c r="J66" s="5"/>
       <c r="K66" s="69"/>
-      <c r="L66" s="157"/>
-      <c r="M66" s="158"/>
+      <c r="L66" s="214"/>
+      <c r="M66" s="215"/>
       <c r="N66" s="69"/>
       <c r="O66" s="5">
         <v>22</v>
@@ -5049,7 +5055,7 @@
         <v>220</v>
       </c>
       <c r="Q66" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2442</v>
       </c>
       <c r="T66" s="28"/>
@@ -5059,30 +5065,30 @@
       </c>
     </row>
     <row r="67" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A67" s="126"/>
-      <c r="B67" s="127"/>
+      <c r="A67" s="173"/>
+      <c r="B67" s="174"/>
       <c r="C67" s="65" t="s">
         <v>44</v>
       </c>
       <c r="D67" s="73"/>
       <c r="E67" s="15"/>
-      <c r="F67" s="144">
+      <c r="F67" s="163">
         <v>330</v>
       </c>
-      <c r="G67" s="144"/>
+      <c r="G67" s="163"/>
       <c r="H67" s="15"/>
       <c r="I67" s="72"/>
       <c r="J67" s="15"/>
       <c r="K67" s="72"/>
-      <c r="L67" s="145"/>
-      <c r="M67" s="146"/>
+      <c r="L67" s="164"/>
+      <c r="M67" s="165"/>
       <c r="N67" s="72"/>
       <c r="O67" s="15"/>
       <c r="P67" s="72">
         <v>110</v>
       </c>
       <c r="Q67" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>440</v>
       </c>
       <c r="T67" s="28"/>
@@ -5092,10 +5098,10 @@
       </c>
     </row>
     <row r="68" spans="1:22">
-      <c r="A68" s="124" t="s">
+      <c r="A68" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="B68" s="125"/>
+      <c r="B68" s="172"/>
       <c r="C68" s="76" t="s">
         <v>28</v>
       </c>
@@ -5105,10 +5111,10 @@
       <c r="E68" s="16">
         <v>1680</v>
       </c>
-      <c r="F68" s="153">
+      <c r="F68" s="210">
         <v>360</v>
       </c>
-      <c r="G68" s="153"/>
+      <c r="G68" s="210"/>
       <c r="H68" s="16">
         <v>1680</v>
       </c>
@@ -5117,15 +5123,15 @@
       </c>
       <c r="J68" s="16"/>
       <c r="K68" s="75"/>
-      <c r="L68" s="154"/>
-      <c r="M68" s="155"/>
+      <c r="L68" s="211"/>
+      <c r="M68" s="212"/>
       <c r="N68" s="75"/>
       <c r="O68" s="16"/>
       <c r="P68" s="75">
         <v>4080</v>
       </c>
       <c r="Q68" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10440</v>
       </c>
       <c r="T68" s="28"/>
@@ -5135,8 +5141,8 @@
       </c>
     </row>
     <row r="69" spans="1:22">
-      <c r="A69" s="151"/>
-      <c r="B69" s="152"/>
+      <c r="A69" s="208"/>
+      <c r="B69" s="209"/>
       <c r="C69" s="68" t="s">
         <v>31</v>
       </c>
@@ -5146,10 +5152,10 @@
       <c r="E69" s="5">
         <v>1440</v>
       </c>
-      <c r="F69" s="156">
+      <c r="F69" s="213">
         <v>240</v>
       </c>
-      <c r="G69" s="156"/>
+      <c r="G69" s="213"/>
       <c r="H69" s="5">
         <v>720</v>
       </c>
@@ -5158,17 +5164,17 @@
       </c>
       <c r="J69" s="5"/>
       <c r="K69" s="69"/>
-      <c r="L69" s="157">
+      <c r="L69" s="214">
         <v>144</v>
       </c>
-      <c r="M69" s="158"/>
+      <c r="M69" s="215"/>
       <c r="N69" s="69"/>
       <c r="O69" s="5"/>
       <c r="P69" s="69">
         <v>3000</v>
       </c>
       <c r="Q69" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6504</v>
       </c>
       <c r="T69" s="28"/>
@@ -5178,8 +5184,8 @@
       </c>
     </row>
     <row r="70" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A70" s="126"/>
-      <c r="B70" s="127"/>
+      <c r="A70" s="173"/>
+      <c r="B70" s="174"/>
       <c r="C70" s="65" t="s">
         <v>29</v>
       </c>
@@ -5189,10 +5195,10 @@
       <c r="E70" s="14">
         <v>8400</v>
       </c>
-      <c r="F70" s="131">
+      <c r="F70" s="200">
         <v>5520</v>
       </c>
-      <c r="G70" s="131"/>
+      <c r="G70" s="200"/>
       <c r="H70" s="14">
         <v>2520</v>
       </c>
@@ -5203,10 +5209,10 @@
         <v>4920</v>
       </c>
       <c r="K70" s="71"/>
-      <c r="L70" s="132">
+      <c r="L70" s="201">
         <v>720</v>
       </c>
-      <c r="M70" s="133"/>
+      <c r="M70" s="202"/>
       <c r="N70" s="71"/>
       <c r="O70" s="14">
         <v>3648</v>
@@ -5215,7 +5221,7 @@
         <v>12240</v>
       </c>
       <c r="Q70" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>55848</v>
       </c>
       <c r="T70" s="28"/>
@@ -5225,10 +5231,10 @@
       </c>
     </row>
     <row r="71" spans="1:22">
-      <c r="A71" s="124" t="s">
+      <c r="A71" s="171" t="s">
         <v>42</v>
       </c>
-      <c r="B71" s="125"/>
+      <c r="B71" s="172"/>
       <c r="C71" s="66" t="s">
         <v>31</v>
       </c>
@@ -5238,18 +5244,18 @@
       <c r="E71" s="4">
         <v>240</v>
       </c>
-      <c r="F71" s="128">
+      <c r="F71" s="193">
         <v>360</v>
       </c>
-      <c r="G71" s="128"/>
+      <c r="G71" s="193"/>
       <c r="H71" s="4"/>
       <c r="I71" s="67"/>
       <c r="J71" s="4"/>
       <c r="K71" s="67"/>
-      <c r="L71" s="129">
+      <c r="L71" s="194">
         <v>120</v>
       </c>
-      <c r="M71" s="130"/>
+      <c r="M71" s="195"/>
       <c r="N71" s="67"/>
       <c r="O71" s="4">
         <v>672</v>
@@ -5258,7 +5264,7 @@
         <v>120</v>
       </c>
       <c r="Q71" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6672</v>
       </c>
       <c r="T71" s="28"/>
@@ -5268,8 +5274,8 @@
       </c>
     </row>
     <row r="72" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A72" s="126"/>
-      <c r="B72" s="127"/>
+      <c r="A72" s="173"/>
+      <c r="B72" s="174"/>
       <c r="C72" s="65" t="s">
         <v>29</v>
       </c>
@@ -5277,19 +5283,19 @@
         <v>900</v>
       </c>
       <c r="E72" s="15"/>
-      <c r="F72" s="144"/>
-      <c r="G72" s="144"/>
+      <c r="F72" s="163"/>
+      <c r="G72" s="163"/>
       <c r="H72" s="15"/>
       <c r="I72" s="72"/>
       <c r="J72" s="15"/>
       <c r="K72" s="72"/>
-      <c r="L72" s="145"/>
-      <c r="M72" s="146"/>
+      <c r="L72" s="164"/>
+      <c r="M72" s="165"/>
       <c r="N72" s="72"/>
       <c r="O72" s="15"/>
       <c r="P72" s="72"/>
       <c r="Q72" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>900</v>
       </c>
       <c r="T72" s="28"/>
@@ -5299,24 +5305,24 @@
       </c>
     </row>
     <row r="73" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A73" s="147" t="s">
+      <c r="A73" s="196" t="s">
         <v>37</v>
       </c>
-      <c r="B73" s="148"/>
-      <c r="C73" s="148"/>
+      <c r="B73" s="197"/>
+      <c r="C73" s="197"/>
       <c r="D73" s="23">
         <f>SUM(D62:D72)</f>
         <v>40630</v>
       </c>
       <c r="E73" s="23">
-        <f t="shared" ref="E73" si="2">SUM(E62:E72)</f>
+        <f t="shared" ref="E73" si="4">SUM(E62:E72)</f>
         <v>15960</v>
       </c>
-      <c r="F73" s="149">
+      <c r="F73" s="198">
         <f>SUM(F62:G72)</f>
         <v>11940</v>
       </c>
-      <c r="G73" s="150"/>
+      <c r="G73" s="199"/>
       <c r="H73" s="23">
         <f>SUM(H62:H72)</f>
         <v>4920</v>
@@ -5333,11 +5339,11 @@
         <f>SUM(K62:K72)</f>
         <v>0</v>
       </c>
-      <c r="L73" s="149">
+      <c r="L73" s="198">
         <f>SUM(L62:M72)</f>
         <v>1104</v>
       </c>
-      <c r="M73" s="150"/>
+      <c r="M73" s="199"/>
       <c r="N73" s="23">
         <f>SUM(N62:N72)</f>
         <v>0</v>
@@ -5363,47 +5369,47 @@
       </c>
     </row>
     <row r="74" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A74" s="134" t="s">
+      <c r="A74" s="203" t="s">
         <v>36</v>
       </c>
-      <c r="B74" s="135"/>
-      <c r="C74" s="135"/>
-      <c r="D74" s="136">
+      <c r="B74" s="204"/>
+      <c r="C74" s="204"/>
+      <c r="D74" s="205">
         <f>D73+E73+F73+H73+I73+J73+K73+L73+N73+O73+P73</f>
         <v>122966</v>
       </c>
-      <c r="E74" s="137"/>
-      <c r="F74" s="137"/>
-      <c r="G74" s="137"/>
-      <c r="H74" s="137"/>
-      <c r="I74" s="137"/>
-      <c r="J74" s="137"/>
-      <c r="K74" s="137"/>
-      <c r="L74" s="137"/>
-      <c r="M74" s="137"/>
-      <c r="N74" s="137"/>
-      <c r="O74" s="137"/>
-      <c r="P74" s="137"/>
-      <c r="Q74" s="138"/>
+      <c r="E74" s="206"/>
+      <c r="F74" s="206"/>
+      <c r="G74" s="206"/>
+      <c r="H74" s="206"/>
+      <c r="I74" s="206"/>
+      <c r="J74" s="206"/>
+      <c r="K74" s="206"/>
+      <c r="L74" s="206"/>
+      <c r="M74" s="206"/>
+      <c r="N74" s="206"/>
+      <c r="O74" s="206"/>
+      <c r="P74" s="206"/>
+      <c r="Q74" s="207"/>
       <c r="T74" s="28"/>
       <c r="V74" s="13"/>
     </row>
     <row r="75" spans="1:22" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A75" s="139" t="s">
+      <c r="A75" s="188" t="s">
         <v>26</v>
       </c>
-      <c r="B75" s="140"/>
-      <c r="C75" s="140"/>
+      <c r="B75" s="189"/>
+      <c r="C75" s="189"/>
       <c r="D75" s="25">
         <v>12859514</v>
       </c>
       <c r="E75" s="22">
         <v>5003124</v>
       </c>
-      <c r="F75" s="141">
+      <c r="F75" s="190">
         <v>3781158</v>
       </c>
-      <c r="G75" s="142"/>
+      <c r="G75" s="191"/>
       <c r="H75" s="22">
         <v>1562741</v>
       </c>
@@ -5414,10 +5420,10 @@
         <v>1941728</v>
       </c>
       <c r="K75" s="22"/>
-      <c r="L75" s="143">
+      <c r="L75" s="192">
         <v>357629</v>
       </c>
-      <c r="M75" s="142"/>
+      <c r="M75" s="191"/>
       <c r="N75" s="26"/>
       <c r="O75" s="22">
         <v>1792633</v>
@@ -5441,149 +5447,80 @@
       <c r="V76" s="13"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:X3">
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="5" showButton="0"/>
+    <filterColumn colId="6" showButton="0"/>
+    <filterColumn colId="8" showButton="0"/>
+    <filterColumn colId="9" showButton="0"/>
+    <filterColumn colId="10" showButton="0"/>
+    <filterColumn colId="11" showButton="0"/>
+    <filterColumn colId="13" showButton="0"/>
+    <filterColumn colId="14" showButton="0"/>
+    <filterColumn colId="16" showButton="0"/>
+  </autoFilter>
   <mergeCells count="220">
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="A62:B63"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="D74:Q74"/>
+    <mergeCell ref="A68:B70"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="A64:B67"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="A71:B72"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="L67:M67"/>
     <mergeCell ref="A56:C56"/>
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="L56:M56"/>
@@ -5601,67 +5538,148 @@
     <mergeCell ref="P60:P61"/>
     <mergeCell ref="Q60:Q61"/>
     <mergeCell ref="L61:M61"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="A64:B67"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="A62:B63"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="D74:Q74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="A71:B72"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="A68:B70"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.16" right="0.16" top="0.34" bottom="0.16" header="0.23" footer="0.16"/>
   <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -5673,8 +5691,8 @@
   <dimension ref="A1:X78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S74" sqref="S74"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R3" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5704,81 +5722,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="16.5" thickBot="1">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="131" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
-      <c r="I1" s="196"/>
-      <c r="J1" s="196"/>
-      <c r="K1" s="196"/>
-      <c r="L1" s="196"/>
-      <c r="M1" s="196"/>
-      <c r="N1" s="196"/>
-      <c r="O1" s="196"/>
-      <c r="P1" s="196"/>
-      <c r="Q1" s="196"/>
-      <c r="R1" s="196"/>
-      <c r="S1" s="196"/>
-      <c r="T1" s="197"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="133"/>
     </row>
     <row r="2" spans="1:20" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A2" s="198" t="s">
+      <c r="A2" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="202" t="s">
+      <c r="C2" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="203"/>
-      <c r="E2" s="206" t="s">
+      <c r="D2" s="139"/>
+      <c r="E2" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="208" t="s">
+      <c r="F2" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="200"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="210" t="s">
+      <c r="G2" s="136"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
-      <c r="L2" s="212"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="210" t="s">
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="211"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="213" t="s">
+      <c r="O2" s="147"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="214"/>
-      <c r="S2" s="200" t="s">
+      <c r="R2" s="150"/>
+      <c r="S2" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="189" t="s">
+      <c r="T2" s="121" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="6" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A3" s="199"/>
-      <c r="B3" s="201"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="191" t="s">
+      <c r="A3" s="135"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="192"/>
+      <c r="G3" s="124"/>
       <c r="H3" s="9" t="s">
         <v>4</v>
       </c>
@@ -5791,10 +5809,10 @@
       <c r="K3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="193" t="s">
+      <c r="L3" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="194"/>
+      <c r="M3" s="126"/>
       <c r="N3" s="8" t="s">
         <v>21</v>
       </c>
@@ -5810,21 +5828,21 @@
       <c r="R3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="201"/>
-      <c r="T3" s="190"/>
+      <c r="S3" s="137"/>
+      <c r="T3" s="122"/>
     </row>
     <row r="4" spans="1:20" s="18" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="114" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="30"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="164"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="128"/>
       <c r="E4" s="31"/>
-      <c r="F4" s="161">
+      <c r="F4" s="127">
         <v>768</v>
       </c>
-      <c r="G4" s="162"/>
+      <c r="G4" s="129"/>
       <c r="H4" s="116">
         <v>5712</v>
       </c>
@@ -5837,10 +5855,10 @@
       <c r="K4" s="116">
         <v>2442</v>
       </c>
-      <c r="L4" s="163">
+      <c r="L4" s="130">
         <v>440</v>
       </c>
-      <c r="M4" s="164"/>
+      <c r="M4" s="128"/>
       <c r="N4" s="115">
         <v>10440</v>
       </c>
@@ -5871,23 +5889,23 @@
       <c r="B5" s="38">
         <v>52</v>
       </c>
-      <c r="C5" s="181" t="s">
+      <c r="C5" s="157" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="182"/>
+      <c r="D5" s="160"/>
       <c r="E5" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="118"/>
-      <c r="G5" s="119"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="154"/>
       <c r="H5" s="102"/>
       <c r="I5" s="46">
         <v>90</v>
       </c>
       <c r="J5" s="47"/>
       <c r="K5" s="47"/>
-      <c r="L5" s="187"/>
-      <c r="M5" s="188"/>
+      <c r="L5" s="161"/>
+      <c r="M5" s="162"/>
       <c r="N5" s="48"/>
       <c r="O5" s="102"/>
       <c r="P5" s="49"/>
@@ -5897,7 +5915,9 @@
         <f t="shared" ref="S5:S57" si="0">SUM(F5:R5)</f>
         <v>90</v>
       </c>
-      <c r="T5" s="51"/>
+      <c r="T5" s="51">
+        <v>28368</v>
+      </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="37" t="s">
@@ -5906,21 +5926,21 @@
       <c r="B6" s="38">
         <v>53</v>
       </c>
-      <c r="C6" s="122" t="s">
+      <c r="C6" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="123"/>
+      <c r="D6" s="152"/>
       <c r="E6" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="118"/>
-      <c r="G6" s="119"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="154"/>
       <c r="H6" s="102"/>
       <c r="I6" s="48"/>
       <c r="J6" s="52"/>
       <c r="K6" s="52"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="121"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="120"/>
       <c r="N6" s="48">
         <v>960</v>
       </c>
@@ -5947,23 +5967,23 @@
       <c r="B7" s="38">
         <v>54</v>
       </c>
-      <c r="C7" s="122" t="s">
+      <c r="C7" s="151" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="123"/>
+      <c r="D7" s="152"/>
       <c r="E7" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="118"/>
-      <c r="G7" s="119"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="154"/>
       <c r="H7" s="102">
         <v>48</v>
       </c>
       <c r="I7" s="48"/>
       <c r="J7" s="52"/>
       <c r="K7" s="52"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="121"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="120"/>
       <c r="N7" s="48"/>
       <c r="O7" s="102"/>
       <c r="P7" s="49"/>
@@ -5984,21 +6004,21 @@
       <c r="B8" s="38">
         <v>55</v>
       </c>
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="153" t="s">
         <v>149</v>
       </c>
-      <c r="D8" s="121"/>
+      <c r="D8" s="120"/>
       <c r="E8" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="118"/>
-      <c r="G8" s="119"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="154"/>
       <c r="H8" s="102"/>
       <c r="I8" s="48"/>
       <c r="J8" s="52"/>
       <c r="K8" s="52"/>
-      <c r="L8" s="120"/>
-      <c r="M8" s="121"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="120"/>
       <c r="N8" s="48"/>
       <c r="O8" s="102"/>
       <c r="P8" s="49">
@@ -6021,21 +6041,21 @@
       <c r="B9" s="38">
         <v>56</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="151" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="123"/>
+      <c r="D9" s="152"/>
       <c r="E9" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="118"/>
-      <c r="G9" s="119"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="154"/>
       <c r="H9" s="102"/>
       <c r="I9" s="48"/>
       <c r="J9" s="52"/>
       <c r="K9" s="52"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="121"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="120"/>
       <c r="N9" s="48"/>
       <c r="O9" s="102"/>
       <c r="P9" s="49"/>
@@ -6058,23 +6078,23 @@
       <c r="B10" s="38">
         <v>57</v>
       </c>
-      <c r="C10" s="122" t="s">
+      <c r="C10" s="151" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="123"/>
+      <c r="D10" s="152"/>
       <c r="E10" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F10" s="118"/>
-      <c r="G10" s="119"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="154"/>
       <c r="H10" s="102"/>
       <c r="I10" s="48">
         <v>750</v>
       </c>
       <c r="J10" s="52"/>
       <c r="K10" s="52"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="121"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="120"/>
       <c r="N10" s="48">
         <v>600</v>
       </c>
@@ -6101,21 +6121,21 @@
       <c r="B11" s="38">
         <v>58</v>
       </c>
-      <c r="C11" s="122" t="s">
+      <c r="C11" s="151" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="123"/>
+      <c r="D11" s="152"/>
       <c r="E11" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F11" s="118"/>
-      <c r="G11" s="119"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="154"/>
       <c r="H11" s="102"/>
       <c r="I11" s="48"/>
       <c r="J11" s="52"/>
       <c r="K11" s="52"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="121"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="120"/>
       <c r="N11" s="48">
         <v>960</v>
       </c>
@@ -6142,23 +6162,23 @@
       <c r="B12" s="38">
         <v>59</v>
       </c>
-      <c r="C12" s="122" t="s">
+      <c r="C12" s="151" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="123"/>
+      <c r="D12" s="152"/>
       <c r="E12" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="118"/>
-      <c r="G12" s="119"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="154"/>
       <c r="H12" s="102"/>
       <c r="I12" s="48">
         <v>450</v>
       </c>
       <c r="J12" s="52"/>
       <c r="K12" s="52"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="121"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="120"/>
       <c r="N12" s="48"/>
       <c r="O12" s="102"/>
       <c r="P12" s="49">
@@ -6181,21 +6201,21 @@
       <c r="B13" s="38">
         <v>60</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="151" t="s">
         <v>183</v>
       </c>
-      <c r="D13" s="123"/>
+      <c r="D13" s="152"/>
       <c r="E13" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="F13" s="118"/>
-      <c r="G13" s="119"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="154"/>
       <c r="H13" s="102"/>
       <c r="I13" s="48"/>
       <c r="J13" s="52"/>
       <c r="K13" s="52"/>
-      <c r="L13" s="120"/>
-      <c r="M13" s="121"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="120"/>
       <c r="N13" s="48"/>
       <c r="O13" s="102"/>
       <c r="P13" s="49"/>
@@ -6218,23 +6238,23 @@
       <c r="B14" s="38">
         <v>61</v>
       </c>
-      <c r="C14" s="122" t="s">
+      <c r="C14" s="151" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="123"/>
+      <c r="D14" s="152"/>
       <c r="E14" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="118"/>
-      <c r="G14" s="119"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="154"/>
       <c r="H14" s="102"/>
       <c r="I14" s="48">
         <v>6450</v>
       </c>
       <c r="J14" s="52"/>
       <c r="K14" s="52"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="121"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="120"/>
       <c r="N14" s="101"/>
       <c r="O14" s="102"/>
       <c r="P14" s="49"/>
@@ -6251,48 +6271,72 @@
       </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="101"/>
+      <c r="A15" s="118" t="s">
+        <v>187</v>
+      </c>
       <c r="B15" s="38">
         <v>62</v>
       </c>
-      <c r="C15" s="122"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="48"/>
+      <c r="C15" s="151" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="152"/>
+      <c r="E15" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="153">
+        <v>24</v>
+      </c>
+      <c r="G15" s="154"/>
+      <c r="H15" s="102">
+        <v>1200</v>
+      </c>
+      <c r="I15" s="48">
+        <v>690</v>
+      </c>
       <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="121"/>
-      <c r="N15" s="101"/>
+      <c r="K15" s="52">
+        <v>220</v>
+      </c>
+      <c r="L15" s="119">
+        <v>110</v>
+      </c>
+      <c r="M15" s="120"/>
+      <c r="N15" s="101">
+        <v>240</v>
+      </c>
       <c r="O15" s="102"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="101"/>
+      <c r="P15" s="49">
+        <v>4200</v>
+      </c>
+      <c r="Q15" s="101">
+        <v>360</v>
+      </c>
       <c r="R15" s="55"/>
       <c r="S15" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="54"/>
+        <v>7044</v>
+      </c>
+      <c r="T15" s="54">
+        <v>2226736</v>
+      </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="101"/>
       <c r="B16" s="38">
         <v>63</v>
       </c>
-      <c r="C16" s="122"/>
-      <c r="D16" s="123"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="152"/>
       <c r="E16" s="45"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="119"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="154"/>
       <c r="H16" s="102"/>
       <c r="I16" s="48"/>
       <c r="J16" s="52"/>
       <c r="K16" s="52"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="121"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="120"/>
       <c r="N16" s="101"/>
       <c r="O16" s="102"/>
       <c r="P16" s="49"/>
@@ -6309,17 +6353,17 @@
       <c r="B17" s="38">
         <v>64</v>
       </c>
-      <c r="C17" s="122"/>
-      <c r="D17" s="123"/>
+      <c r="C17" s="151"/>
+      <c r="D17" s="152"/>
       <c r="E17" s="45"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="119"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="154"/>
       <c r="H17" s="102"/>
       <c r="I17" s="48"/>
       <c r="J17" s="52"/>
       <c r="K17" s="52"/>
-      <c r="L17" s="120"/>
-      <c r="M17" s="121"/>
+      <c r="L17" s="119"/>
+      <c r="M17" s="120"/>
       <c r="N17" s="101"/>
       <c r="O17" s="102"/>
       <c r="P17" s="49"/>
@@ -6336,17 +6380,17 @@
       <c r="B18" s="38">
         <v>65</v>
       </c>
-      <c r="C18" s="122"/>
-      <c r="D18" s="123"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="152"/>
       <c r="E18" s="45"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="119"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="154"/>
       <c r="H18" s="102"/>
       <c r="I18" s="48"/>
       <c r="J18" s="52"/>
       <c r="K18" s="52"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="121"/>
+      <c r="L18" s="119"/>
+      <c r="M18" s="120"/>
       <c r="N18" s="101"/>
       <c r="O18" s="102"/>
       <c r="P18" s="49"/>
@@ -6364,17 +6408,17 @@
       <c r="B19" s="38">
         <v>66</v>
       </c>
-      <c r="C19" s="118"/>
-      <c r="D19" s="121"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="120"/>
       <c r="E19" s="45"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="119"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="154"/>
       <c r="H19" s="102"/>
       <c r="I19" s="48"/>
       <c r="J19" s="52"/>
       <c r="K19" s="52"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="121"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="120"/>
       <c r="N19" s="101"/>
       <c r="O19" s="102"/>
       <c r="P19" s="49"/>
@@ -6391,17 +6435,17 @@
       <c r="B20" s="38">
         <v>67</v>
       </c>
-      <c r="C20" s="118"/>
-      <c r="D20" s="121"/>
+      <c r="C20" s="153"/>
+      <c r="D20" s="120"/>
       <c r="E20" s="45"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="119"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="154"/>
       <c r="H20" s="102"/>
       <c r="I20" s="48"/>
       <c r="J20" s="52"/>
       <c r="K20" s="52"/>
-      <c r="L20" s="120"/>
-      <c r="M20" s="121"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="120"/>
       <c r="N20" s="101"/>
       <c r="O20" s="102"/>
       <c r="P20" s="49"/>
@@ -6418,17 +6462,17 @@
       <c r="B21" s="38">
         <v>68</v>
       </c>
-      <c r="C21" s="118"/>
-      <c r="D21" s="121"/>
+      <c r="C21" s="153"/>
+      <c r="D21" s="120"/>
       <c r="E21" s="45"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="119"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="154"/>
       <c r="H21" s="102"/>
       <c r="I21" s="48"/>
       <c r="J21" s="52"/>
       <c r="K21" s="52"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="121"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="120"/>
       <c r="N21" s="101"/>
       <c r="O21" s="102"/>
       <c r="P21" s="49"/>
@@ -6445,17 +6489,17 @@
       <c r="B22" s="38">
         <v>69</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="121"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="120"/>
       <c r="E22" s="45"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="119"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="154"/>
       <c r="H22" s="102"/>
       <c r="I22" s="48"/>
       <c r="J22" s="52"/>
       <c r="K22" s="52"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="121"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="120"/>
       <c r="N22" s="101"/>
       <c r="O22" s="102"/>
       <c r="P22" s="49"/>
@@ -6472,17 +6516,17 @@
       <c r="B23" s="38">
         <v>70</v>
       </c>
-      <c r="C23" s="118"/>
-      <c r="D23" s="121"/>
+      <c r="C23" s="153"/>
+      <c r="D23" s="120"/>
       <c r="E23" s="45"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="119"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="154"/>
       <c r="H23" s="102"/>
       <c r="I23" s="48"/>
       <c r="J23" s="52"/>
       <c r="K23" s="52"/>
-      <c r="L23" s="120"/>
-      <c r="M23" s="121"/>
+      <c r="L23" s="119"/>
+      <c r="M23" s="120"/>
       <c r="N23" s="101"/>
       <c r="O23" s="102"/>
       <c r="P23" s="49"/>
@@ -6499,17 +6543,17 @@
       <c r="B24" s="38">
         <v>71</v>
       </c>
-      <c r="C24" s="118"/>
-      <c r="D24" s="121"/>
+      <c r="C24" s="153"/>
+      <c r="D24" s="120"/>
       <c r="E24" s="45"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="119"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="154"/>
       <c r="H24" s="102"/>
       <c r="I24" s="48"/>
       <c r="J24" s="52"/>
       <c r="K24" s="52"/>
-      <c r="L24" s="120"/>
-      <c r="M24" s="121"/>
+      <c r="L24" s="119"/>
+      <c r="M24" s="120"/>
       <c r="N24" s="101"/>
       <c r="O24" s="102"/>
       <c r="P24" s="49"/>
@@ -6526,17 +6570,17 @@
       <c r="B25" s="38">
         <v>72</v>
       </c>
-      <c r="C25" s="118"/>
-      <c r="D25" s="121"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="120"/>
       <c r="E25" s="45"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="119"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="154"/>
       <c r="H25" s="102"/>
       <c r="I25" s="48"/>
       <c r="J25" s="52"/>
       <c r="K25" s="52"/>
-      <c r="L25" s="120"/>
-      <c r="M25" s="121"/>
+      <c r="L25" s="119"/>
+      <c r="M25" s="120"/>
       <c r="N25" s="101"/>
       <c r="O25" s="102"/>
       <c r="P25" s="49"/>
@@ -6553,17 +6597,17 @@
       <c r="B26" s="38">
         <v>73</v>
       </c>
-      <c r="C26" s="118"/>
-      <c r="D26" s="121"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="120"/>
       <c r="E26" s="56"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="119"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="154"/>
       <c r="H26" s="86"/>
       <c r="I26" s="57"/>
       <c r="J26" s="58"/>
       <c r="K26" s="58"/>
-      <c r="L26" s="120"/>
-      <c r="M26" s="121"/>
+      <c r="L26" s="119"/>
+      <c r="M26" s="120"/>
       <c r="N26" s="103"/>
       <c r="O26" s="86"/>
       <c r="P26" s="55"/>
@@ -6580,17 +6624,17 @@
       <c r="B27" s="38">
         <v>74</v>
       </c>
-      <c r="C27" s="118"/>
-      <c r="D27" s="121"/>
+      <c r="C27" s="153"/>
+      <c r="D27" s="120"/>
       <c r="E27" s="56"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="119"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="154"/>
       <c r="H27" s="86"/>
       <c r="I27" s="57"/>
       <c r="J27" s="58"/>
       <c r="K27" s="58"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="121"/>
+      <c r="L27" s="119"/>
+      <c r="M27" s="120"/>
       <c r="N27" s="103"/>
       <c r="O27" s="86"/>
       <c r="P27" s="55"/>
@@ -6607,17 +6651,17 @@
       <c r="B28" s="38">
         <v>75</v>
       </c>
-      <c r="C28" s="118"/>
-      <c r="D28" s="121"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="120"/>
       <c r="E28" s="56"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="119"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="154"/>
       <c r="H28" s="86"/>
       <c r="I28" s="57"/>
       <c r="J28" s="58"/>
       <c r="K28" s="58"/>
-      <c r="L28" s="120"/>
-      <c r="M28" s="121"/>
+      <c r="L28" s="119"/>
+      <c r="M28" s="120"/>
       <c r="N28" s="103"/>
       <c r="O28" s="86"/>
       <c r="P28" s="55"/>
@@ -6634,17 +6678,17 @@
       <c r="B29" s="38">
         <v>76</v>
       </c>
-      <c r="C29" s="118"/>
-      <c r="D29" s="121"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="120"/>
       <c r="E29" s="56"/>
-      <c r="F29" s="118"/>
-      <c r="G29" s="119"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="154"/>
       <c r="H29" s="86"/>
       <c r="I29" s="57"/>
       <c r="J29" s="58"/>
       <c r="K29" s="58"/>
-      <c r="L29" s="120"/>
-      <c r="M29" s="121"/>
+      <c r="L29" s="119"/>
+      <c r="M29" s="120"/>
       <c r="N29" s="103"/>
       <c r="O29" s="86"/>
       <c r="P29" s="55"/>
@@ -6661,17 +6705,17 @@
       <c r="B30" s="38">
         <v>77</v>
       </c>
-      <c r="C30" s="118"/>
-      <c r="D30" s="121"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="120"/>
       <c r="E30" s="56"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="119"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="154"/>
       <c r="H30" s="86"/>
       <c r="I30" s="57"/>
       <c r="J30" s="58"/>
       <c r="K30" s="58"/>
-      <c r="L30" s="120"/>
-      <c r="M30" s="121"/>
+      <c r="L30" s="119"/>
+      <c r="M30" s="120"/>
       <c r="N30" s="103"/>
       <c r="O30" s="86"/>
       <c r="P30" s="55"/>
@@ -6688,17 +6732,17 @@
       <c r="B31" s="38">
         <v>78</v>
       </c>
-      <c r="C31" s="118"/>
-      <c r="D31" s="121"/>
+      <c r="C31" s="153"/>
+      <c r="D31" s="120"/>
       <c r="E31" s="56"/>
-      <c r="F31" s="118"/>
-      <c r="G31" s="119"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="154"/>
       <c r="H31" s="86"/>
       <c r="I31" s="57"/>
       <c r="J31" s="58"/>
       <c r="K31" s="58"/>
-      <c r="L31" s="120"/>
-      <c r="M31" s="121"/>
+      <c r="L31" s="119"/>
+      <c r="M31" s="120"/>
       <c r="N31" s="103"/>
       <c r="O31" s="86"/>
       <c r="P31" s="55"/>
@@ -6715,17 +6759,17 @@
       <c r="B32" s="38">
         <v>79</v>
       </c>
-      <c r="C32" s="118"/>
-      <c r="D32" s="121"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="120"/>
       <c r="E32" s="56"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="119"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="154"/>
       <c r="H32" s="86"/>
       <c r="I32" s="57"/>
       <c r="J32" s="58"/>
       <c r="K32" s="58"/>
-      <c r="L32" s="120"/>
-      <c r="M32" s="121"/>
+      <c r="L32" s="119"/>
+      <c r="M32" s="120"/>
       <c r="N32" s="103"/>
       <c r="O32" s="86"/>
       <c r="P32" s="55"/>
@@ -6742,17 +6786,17 @@
       <c r="B33" s="38">
         <v>80</v>
       </c>
-      <c r="C33" s="118"/>
-      <c r="D33" s="121"/>
+      <c r="C33" s="153"/>
+      <c r="D33" s="120"/>
       <c r="E33" s="56"/>
-      <c r="F33" s="118"/>
-      <c r="G33" s="119"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="154"/>
       <c r="H33" s="86"/>
       <c r="I33" s="57"/>
       <c r="J33" s="58"/>
       <c r="K33" s="58"/>
-      <c r="L33" s="120"/>
-      <c r="M33" s="121"/>
+      <c r="L33" s="119"/>
+      <c r="M33" s="120"/>
       <c r="N33" s="103"/>
       <c r="O33" s="86"/>
       <c r="P33" s="55"/>
@@ -6769,17 +6813,17 @@
       <c r="B34" s="38">
         <v>81</v>
       </c>
-      <c r="C34" s="118"/>
-      <c r="D34" s="121"/>
+      <c r="C34" s="153"/>
+      <c r="D34" s="120"/>
       <c r="E34" s="56"/>
-      <c r="F34" s="118"/>
-      <c r="G34" s="119"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="154"/>
       <c r="H34" s="86"/>
       <c r="I34" s="57"/>
       <c r="J34" s="58"/>
       <c r="K34" s="58"/>
-      <c r="L34" s="120"/>
-      <c r="M34" s="121"/>
+      <c r="L34" s="119"/>
+      <c r="M34" s="120"/>
       <c r="N34" s="103"/>
       <c r="O34" s="86"/>
       <c r="P34" s="55"/>
@@ -6796,17 +6840,17 @@
       <c r="B35" s="38">
         <v>82</v>
       </c>
-      <c r="C35" s="118"/>
-      <c r="D35" s="121"/>
+      <c r="C35" s="153"/>
+      <c r="D35" s="120"/>
       <c r="E35" s="56"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="119"/>
+      <c r="F35" s="153"/>
+      <c r="G35" s="154"/>
       <c r="H35" s="86"/>
       <c r="I35" s="57"/>
       <c r="J35" s="58"/>
       <c r="K35" s="58"/>
-      <c r="L35" s="120"/>
-      <c r="M35" s="121"/>
+      <c r="L35" s="119"/>
+      <c r="M35" s="120"/>
       <c r="N35" s="103"/>
       <c r="O35" s="86"/>
       <c r="P35" s="55"/>
@@ -6823,17 +6867,17 @@
       <c r="B36" s="38">
         <v>83</v>
       </c>
-      <c r="C36" s="118"/>
-      <c r="D36" s="121"/>
+      <c r="C36" s="153"/>
+      <c r="D36" s="120"/>
       <c r="E36" s="56"/>
-      <c r="F36" s="118"/>
-      <c r="G36" s="119"/>
+      <c r="F36" s="153"/>
+      <c r="G36" s="154"/>
       <c r="H36" s="86"/>
       <c r="I36" s="57"/>
       <c r="J36" s="58"/>
       <c r="K36" s="58"/>
-      <c r="L36" s="120"/>
-      <c r="M36" s="121"/>
+      <c r="L36" s="119"/>
+      <c r="M36" s="120"/>
       <c r="N36" s="103"/>
       <c r="O36" s="86"/>
       <c r="P36" s="55"/>
@@ -6850,17 +6894,17 @@
       <c r="B37" s="38">
         <v>84</v>
       </c>
-      <c r="C37" s="118"/>
-      <c r="D37" s="121"/>
+      <c r="C37" s="153"/>
+      <c r="D37" s="120"/>
       <c r="E37" s="56"/>
-      <c r="F37" s="118"/>
-      <c r="G37" s="119"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="154"/>
       <c r="H37" s="86"/>
       <c r="I37" s="57"/>
       <c r="J37" s="58"/>
       <c r="K37" s="58"/>
-      <c r="L37" s="120"/>
-      <c r="M37" s="121"/>
+      <c r="L37" s="119"/>
+      <c r="M37" s="120"/>
       <c r="N37" s="103"/>
       <c r="O37" s="86"/>
       <c r="P37" s="55"/>
@@ -6877,17 +6921,17 @@
       <c r="B38" s="38">
         <v>85</v>
       </c>
-      <c r="C38" s="122"/>
-      <c r="D38" s="123"/>
+      <c r="C38" s="151"/>
+      <c r="D38" s="152"/>
       <c r="E38" s="56"/>
-      <c r="F38" s="118"/>
-      <c r="G38" s="119"/>
+      <c r="F38" s="153"/>
+      <c r="G38" s="154"/>
       <c r="H38" s="86"/>
       <c r="I38" s="57"/>
       <c r="J38" s="58"/>
       <c r="K38" s="58"/>
-      <c r="L38" s="120"/>
-      <c r="M38" s="121"/>
+      <c r="L38" s="119"/>
+      <c r="M38" s="120"/>
       <c r="N38" s="103"/>
       <c r="O38" s="86"/>
       <c r="P38" s="55"/>
@@ -6904,17 +6948,17 @@
       <c r="B39" s="38">
         <v>86</v>
       </c>
-      <c r="C39" s="122"/>
-      <c r="D39" s="123"/>
+      <c r="C39" s="151"/>
+      <c r="D39" s="152"/>
       <c r="E39" s="56"/>
-      <c r="F39" s="118"/>
-      <c r="G39" s="119"/>
+      <c r="F39" s="153"/>
+      <c r="G39" s="154"/>
       <c r="H39" s="86"/>
       <c r="I39" s="57"/>
       <c r="J39" s="58"/>
       <c r="K39" s="58"/>
-      <c r="L39" s="120"/>
-      <c r="M39" s="121"/>
+      <c r="L39" s="119"/>
+      <c r="M39" s="120"/>
       <c r="N39" s="103"/>
       <c r="O39" s="86"/>
       <c r="P39" s="55"/>
@@ -6931,17 +6975,17 @@
       <c r="B40" s="38">
         <v>87</v>
       </c>
-      <c r="C40" s="122"/>
-      <c r="D40" s="123"/>
+      <c r="C40" s="151"/>
+      <c r="D40" s="152"/>
       <c r="E40" s="56"/>
-      <c r="F40" s="118"/>
-      <c r="G40" s="119"/>
+      <c r="F40" s="153"/>
+      <c r="G40" s="154"/>
       <c r="H40" s="86"/>
       <c r="I40" s="57"/>
       <c r="J40" s="58"/>
       <c r="K40" s="58"/>
-      <c r="L40" s="120"/>
-      <c r="M40" s="121"/>
+      <c r="L40" s="119"/>
+      <c r="M40" s="120"/>
       <c r="N40" s="103"/>
       <c r="O40" s="86"/>
       <c r="P40" s="55"/>
@@ -6958,17 +7002,17 @@
       <c r="B41" s="38">
         <v>88</v>
       </c>
-      <c r="C41" s="122"/>
-      <c r="D41" s="123"/>
+      <c r="C41" s="151"/>
+      <c r="D41" s="152"/>
       <c r="E41" s="56"/>
-      <c r="F41" s="118"/>
-      <c r="G41" s="119"/>
+      <c r="F41" s="153"/>
+      <c r="G41" s="154"/>
       <c r="H41" s="86"/>
       <c r="I41" s="57"/>
       <c r="J41" s="58"/>
       <c r="K41" s="58"/>
-      <c r="L41" s="120"/>
-      <c r="M41" s="121"/>
+      <c r="L41" s="119"/>
+      <c r="M41" s="120"/>
       <c r="N41" s="103"/>
       <c r="O41" s="86"/>
       <c r="P41" s="55"/>
@@ -6985,17 +7029,17 @@
       <c r="B42" s="38">
         <v>89</v>
       </c>
-      <c r="C42" s="122"/>
-      <c r="D42" s="123"/>
+      <c r="C42" s="151"/>
+      <c r="D42" s="152"/>
       <c r="E42" s="56"/>
-      <c r="F42" s="118"/>
-      <c r="G42" s="119"/>
+      <c r="F42" s="153"/>
+      <c r="G42" s="154"/>
       <c r="H42" s="86"/>
       <c r="I42" s="57"/>
       <c r="J42" s="58"/>
       <c r="K42" s="58"/>
-      <c r="L42" s="120"/>
-      <c r="M42" s="121"/>
+      <c r="L42" s="119"/>
+      <c r="M42" s="120"/>
       <c r="N42" s="103"/>
       <c r="O42" s="86"/>
       <c r="P42" s="55"/>
@@ -7012,17 +7056,17 @@
       <c r="B43" s="38">
         <v>90</v>
       </c>
-      <c r="C43" s="122"/>
-      <c r="D43" s="123"/>
+      <c r="C43" s="151"/>
+      <c r="D43" s="152"/>
       <c r="E43" s="56"/>
-      <c r="F43" s="118"/>
-      <c r="G43" s="119"/>
+      <c r="F43" s="153"/>
+      <c r="G43" s="154"/>
       <c r="H43" s="86"/>
       <c r="I43" s="57"/>
       <c r="J43" s="58"/>
       <c r="K43" s="58"/>
-      <c r="L43" s="120"/>
-      <c r="M43" s="121"/>
+      <c r="L43" s="119"/>
+      <c r="M43" s="120"/>
       <c r="N43" s="103"/>
       <c r="O43" s="86"/>
       <c r="P43" s="55"/>
@@ -7039,17 +7083,17 @@
       <c r="B44" s="38">
         <v>91</v>
       </c>
-      <c r="C44" s="122"/>
-      <c r="D44" s="123"/>
+      <c r="C44" s="151"/>
+      <c r="D44" s="152"/>
       <c r="E44" s="56"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="119"/>
+      <c r="F44" s="153"/>
+      <c r="G44" s="154"/>
       <c r="H44" s="86"/>
       <c r="I44" s="57"/>
       <c r="J44" s="58"/>
       <c r="K44" s="58"/>
-      <c r="L44" s="120"/>
-      <c r="M44" s="121"/>
+      <c r="L44" s="119"/>
+      <c r="M44" s="120"/>
       <c r="N44" s="103"/>
       <c r="O44" s="86"/>
       <c r="P44" s="55"/>
@@ -7066,17 +7110,17 @@
       <c r="B45" s="38">
         <v>92</v>
       </c>
-      <c r="C45" s="122"/>
-      <c r="D45" s="123"/>
+      <c r="C45" s="151"/>
+      <c r="D45" s="152"/>
       <c r="E45" s="56"/>
-      <c r="F45" s="118"/>
-      <c r="G45" s="119"/>
+      <c r="F45" s="153"/>
+      <c r="G45" s="154"/>
       <c r="H45" s="86"/>
       <c r="I45" s="57"/>
       <c r="J45" s="58"/>
       <c r="K45" s="58"/>
-      <c r="L45" s="120"/>
-      <c r="M45" s="121"/>
+      <c r="L45" s="119"/>
+      <c r="M45" s="120"/>
       <c r="N45" s="103"/>
       <c r="O45" s="86"/>
       <c r="P45" s="55"/>
@@ -7093,17 +7137,17 @@
       <c r="B46" s="38">
         <v>93</v>
       </c>
-      <c r="C46" s="122"/>
-      <c r="D46" s="123"/>
+      <c r="C46" s="151"/>
+      <c r="D46" s="152"/>
       <c r="E46" s="56"/>
-      <c r="F46" s="118"/>
-      <c r="G46" s="119"/>
+      <c r="F46" s="153"/>
+      <c r="G46" s="154"/>
       <c r="H46" s="86"/>
       <c r="I46" s="57"/>
       <c r="J46" s="58"/>
       <c r="K46" s="58"/>
-      <c r="L46" s="120"/>
-      <c r="M46" s="121"/>
+      <c r="L46" s="119"/>
+      <c r="M46" s="120"/>
       <c r="N46" s="103"/>
       <c r="O46" s="86"/>
       <c r="P46" s="55"/>
@@ -7120,17 +7164,17 @@
       <c r="B47" s="38">
         <v>94</v>
       </c>
-      <c r="C47" s="122"/>
-      <c r="D47" s="123"/>
+      <c r="C47" s="151"/>
+      <c r="D47" s="152"/>
       <c r="E47" s="56"/>
-      <c r="F47" s="118"/>
-      <c r="G47" s="119"/>
+      <c r="F47" s="153"/>
+      <c r="G47" s="154"/>
       <c r="H47" s="86"/>
       <c r="I47" s="57"/>
       <c r="J47" s="58"/>
       <c r="K47" s="58"/>
-      <c r="L47" s="120"/>
-      <c r="M47" s="121"/>
+      <c r="L47" s="119"/>
+      <c r="M47" s="120"/>
       <c r="N47" s="103"/>
       <c r="O47" s="86"/>
       <c r="P47" s="55"/>
@@ -7147,17 +7191,17 @@
       <c r="B48" s="38">
         <v>95</v>
       </c>
-      <c r="C48" s="122"/>
-      <c r="D48" s="123"/>
+      <c r="C48" s="151"/>
+      <c r="D48" s="152"/>
       <c r="E48" s="99"/>
-      <c r="F48" s="118"/>
-      <c r="G48" s="119"/>
+      <c r="F48" s="153"/>
+      <c r="G48" s="154"/>
       <c r="H48" s="86"/>
       <c r="I48" s="57"/>
       <c r="J48" s="58"/>
       <c r="K48" s="58"/>
-      <c r="L48" s="120"/>
-      <c r="M48" s="121"/>
+      <c r="L48" s="119"/>
+      <c r="M48" s="120"/>
       <c r="N48" s="103"/>
       <c r="O48" s="86"/>
       <c r="P48" s="55"/>
@@ -7174,17 +7218,17 @@
       <c r="B49" s="38">
         <v>96</v>
       </c>
-      <c r="C49" s="122"/>
-      <c r="D49" s="123"/>
+      <c r="C49" s="151"/>
+      <c r="D49" s="152"/>
       <c r="E49" s="56"/>
-      <c r="F49" s="118"/>
-      <c r="G49" s="119"/>
+      <c r="F49" s="153"/>
+      <c r="G49" s="154"/>
       <c r="H49" s="86"/>
       <c r="I49" s="57"/>
       <c r="J49" s="58"/>
       <c r="K49" s="58"/>
-      <c r="L49" s="120"/>
-      <c r="M49" s="121"/>
+      <c r="L49" s="119"/>
+      <c r="M49" s="120"/>
       <c r="N49" s="103"/>
       <c r="O49" s="86"/>
       <c r="P49" s="55"/>
@@ -7201,17 +7245,17 @@
       <c r="B50" s="38">
         <v>97</v>
       </c>
-      <c r="C50" s="122"/>
-      <c r="D50" s="123"/>
+      <c r="C50" s="151"/>
+      <c r="D50" s="152"/>
       <c r="E50" s="56"/>
-      <c r="F50" s="118"/>
-      <c r="G50" s="119"/>
+      <c r="F50" s="153"/>
+      <c r="G50" s="154"/>
       <c r="H50" s="86"/>
       <c r="I50" s="57"/>
       <c r="J50" s="58"/>
       <c r="K50" s="58"/>
-      <c r="L50" s="120"/>
-      <c r="M50" s="121"/>
+      <c r="L50" s="119"/>
+      <c r="M50" s="120"/>
       <c r="N50" s="103"/>
       <c r="O50" s="86"/>
       <c r="P50" s="55"/>
@@ -7228,17 +7272,17 @@
       <c r="B51" s="38">
         <v>98</v>
       </c>
-      <c r="C51" s="122"/>
-      <c r="D51" s="123"/>
+      <c r="C51" s="151"/>
+      <c r="D51" s="152"/>
       <c r="E51" s="56"/>
-      <c r="F51" s="118"/>
-      <c r="G51" s="119"/>
+      <c r="F51" s="153"/>
+      <c r="G51" s="154"/>
       <c r="H51" s="86"/>
       <c r="I51" s="57"/>
       <c r="J51" s="58"/>
       <c r="K51" s="58"/>
-      <c r="L51" s="120"/>
-      <c r="M51" s="121"/>
+      <c r="L51" s="119"/>
+      <c r="M51" s="120"/>
       <c r="N51" s="103"/>
       <c r="O51" s="86"/>
       <c r="P51" s="55"/>
@@ -7255,17 +7299,17 @@
       <c r="B52" s="38">
         <v>99</v>
       </c>
-      <c r="C52" s="122"/>
-      <c r="D52" s="123"/>
+      <c r="C52" s="151"/>
+      <c r="D52" s="152"/>
       <c r="E52" s="56"/>
-      <c r="F52" s="118"/>
-      <c r="G52" s="119"/>
+      <c r="F52" s="153"/>
+      <c r="G52" s="154"/>
       <c r="H52" s="86"/>
       <c r="I52" s="57"/>
       <c r="J52" s="58"/>
       <c r="K52" s="58"/>
-      <c r="L52" s="120"/>
-      <c r="M52" s="121"/>
+      <c r="L52" s="119"/>
+      <c r="M52" s="120"/>
       <c r="N52" s="103"/>
       <c r="O52" s="86"/>
       <c r="P52" s="55"/>
@@ -7282,17 +7326,17 @@
       <c r="B53" s="38">
         <v>100</v>
       </c>
-      <c r="C53" s="122"/>
-      <c r="D53" s="123"/>
+      <c r="C53" s="151"/>
+      <c r="D53" s="152"/>
       <c r="E53" s="56"/>
-      <c r="F53" s="118"/>
-      <c r="G53" s="119"/>
+      <c r="F53" s="153"/>
+      <c r="G53" s="154"/>
       <c r="H53" s="86"/>
       <c r="I53" s="57"/>
       <c r="J53" s="58"/>
       <c r="K53" s="58"/>
-      <c r="L53" s="120"/>
-      <c r="M53" s="121"/>
+      <c r="L53" s="119"/>
+      <c r="M53" s="120"/>
       <c r="N53" s="103"/>
       <c r="O53" s="86"/>
       <c r="P53" s="55"/>
@@ -7309,17 +7353,17 @@
       <c r="B54" s="38">
         <v>101</v>
       </c>
-      <c r="C54" s="122"/>
-      <c r="D54" s="123"/>
+      <c r="C54" s="151"/>
+      <c r="D54" s="152"/>
       <c r="E54" s="56"/>
-      <c r="F54" s="118"/>
-      <c r="G54" s="119"/>
+      <c r="F54" s="153"/>
+      <c r="G54" s="154"/>
       <c r="H54" s="86"/>
       <c r="I54" s="57"/>
       <c r="J54" s="58"/>
       <c r="K54" s="58"/>
-      <c r="L54" s="120"/>
-      <c r="M54" s="121"/>
+      <c r="L54" s="119"/>
+      <c r="M54" s="120"/>
       <c r="N54" s="103"/>
       <c r="O54" s="86"/>
       <c r="P54" s="55"/>
@@ -7336,17 +7380,17 @@
       <c r="B55" s="38">
         <v>102</v>
       </c>
-      <c r="C55" s="122"/>
-      <c r="D55" s="123"/>
+      <c r="C55" s="151"/>
+      <c r="D55" s="152"/>
       <c r="E55" s="56"/>
-      <c r="F55" s="118"/>
-      <c r="G55" s="119"/>
+      <c r="F55" s="153"/>
+      <c r="G55" s="154"/>
       <c r="H55" s="86"/>
       <c r="I55" s="57"/>
       <c r="J55" s="58"/>
       <c r="K55" s="58"/>
-      <c r="L55" s="120"/>
-      <c r="M55" s="121"/>
+      <c r="L55" s="119"/>
+      <c r="M55" s="120"/>
       <c r="N55" s="103"/>
       <c r="O55" s="86"/>
       <c r="P55" s="55"/>
@@ -7363,17 +7407,17 @@
       <c r="B56" s="38">
         <v>103</v>
       </c>
-      <c r="C56" s="122"/>
-      <c r="D56" s="123"/>
+      <c r="C56" s="151"/>
+      <c r="D56" s="152"/>
       <c r="E56" s="56"/>
-      <c r="F56" s="118"/>
-      <c r="G56" s="119"/>
+      <c r="F56" s="153"/>
+      <c r="G56" s="154"/>
       <c r="H56" s="86"/>
       <c r="I56" s="57"/>
       <c r="J56" s="58"/>
       <c r="K56" s="58"/>
-      <c r="L56" s="120"/>
-      <c r="M56" s="121"/>
+      <c r="L56" s="119"/>
+      <c r="M56" s="120"/>
       <c r="N56" s="103"/>
       <c r="O56" s="86"/>
       <c r="P56" s="55"/>
@@ -7390,17 +7434,17 @@
       <c r="B57" s="38">
         <v>104</v>
       </c>
-      <c r="C57" s="122"/>
-      <c r="D57" s="123"/>
+      <c r="C57" s="151"/>
+      <c r="D57" s="152"/>
       <c r="E57" s="56"/>
-      <c r="F57" s="118"/>
-      <c r="G57" s="119"/>
+      <c r="F57" s="153"/>
+      <c r="G57" s="154"/>
       <c r="H57" s="86"/>
       <c r="I57" s="57"/>
       <c r="J57" s="58"/>
       <c r="K57" s="58"/>
-      <c r="L57" s="120"/>
-      <c r="M57" s="121"/>
+      <c r="L57" s="119"/>
+      <c r="M57" s="120"/>
       <c r="N57" s="103"/>
       <c r="O57" s="86"/>
       <c r="P57" s="55"/>
@@ -7413,25 +7457,25 @@
       <c r="T57" s="59"/>
     </row>
     <row r="58" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A58" s="159" t="s">
+      <c r="A58" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="B58" s="160"/>
-      <c r="C58" s="160"/>
+      <c r="B58" s="167"/>
+      <c r="C58" s="167"/>
       <c r="D58" s="62"/>
       <c r="E58" s="60"/>
-      <c r="F58" s="161">
+      <c r="F58" s="127">
         <f>SUM(F5:G57)</f>
-        <v>0</v>
-      </c>
-      <c r="G58" s="162"/>
+        <v>24</v>
+      </c>
+      <c r="G58" s="129"/>
       <c r="H58" s="34">
         <f>SUM(H5:H57)</f>
-        <v>48</v>
+        <v>1248</v>
       </c>
       <c r="I58" s="115">
         <f>SUM(I5:I57)</f>
-        <v>7740</v>
+        <v>8430</v>
       </c>
       <c r="J58" s="116">
         <f>SUM(J5:J57)</f>
@@ -7439,63 +7483,63 @@
       </c>
       <c r="K58" s="116">
         <f>SUM(K5:K57)</f>
-        <v>0</v>
-      </c>
-      <c r="L58" s="163">
+        <v>220</v>
+      </c>
+      <c r="L58" s="130">
         <f>SUM(L5:M57)</f>
-        <v>0</v>
-      </c>
-      <c r="M58" s="164"/>
+        <v>110</v>
+      </c>
+      <c r="M58" s="128"/>
       <c r="N58" s="115">
-        <f>SUM(N5:N57)</f>
-        <v>2520</v>
+        <f t="shared" ref="N58:T58" si="1">SUM(N5:N57)</f>
+        <v>2760</v>
       </c>
       <c r="O58" s="116">
-        <f>SUM(O5:O57)</f>
+        <f t="shared" si="1"/>
         <v>1080</v>
       </c>
       <c r="P58" s="34">
-        <f>SUM(P5:P57)</f>
-        <v>7080</v>
+        <f t="shared" si="1"/>
+        <v>11280</v>
       </c>
       <c r="Q58" s="115">
-        <f>SUM(Q5:Q57)</f>
-        <v>180</v>
+        <f t="shared" si="1"/>
+        <v>540</v>
       </c>
       <c r="R58" s="34">
-        <f>SUM(R5:R57)</f>
+        <f t="shared" si="1"/>
         <v>3132</v>
       </c>
       <c r="S58" s="61">
-        <f>SUM(S5:S57)</f>
-        <v>21780</v>
+        <f t="shared" si="1"/>
+        <v>28824</v>
       </c>
       <c r="T58" s="36">
-        <f>SUM(T5:T57)</f>
-        <v>7007495</v>
+        <f t="shared" si="1"/>
+        <v>9262599</v>
       </c>
       <c r="V58" s="13"/>
       <c r="W58" s="13"/>
       <c r="X58" s="13"/>
     </row>
     <row r="59" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A59" s="159"/>
-      <c r="B59" s="160"/>
-      <c r="C59" s="160"/>
+      <c r="A59" s="166"/>
+      <c r="B59" s="167"/>
+      <c r="C59" s="167"/>
       <c r="D59" s="62"/>
       <c r="E59" s="60"/>
-      <c r="F59" s="161">
+      <c r="F59" s="127">
         <f>F4+F58</f>
-        <v>768</v>
-      </c>
-      <c r="G59" s="162"/>
+        <v>792</v>
+      </c>
+      <c r="G59" s="129"/>
       <c r="H59" s="34">
         <f>H4+H58</f>
-        <v>5760</v>
+        <v>6960</v>
       </c>
       <c r="I59" s="62">
         <f>I4+I58</f>
-        <v>40620</v>
+        <v>41310</v>
       </c>
       <c r="J59" s="116">
         <f>J4+J58</f>
@@ -7503,40 +7547,40 @@
       </c>
       <c r="K59" s="116">
         <f>K4+K58</f>
-        <v>2442</v>
-      </c>
-      <c r="L59" s="163">
+        <v>2662</v>
+      </c>
+      <c r="L59" s="130">
         <f>L4+L58</f>
-        <v>440</v>
-      </c>
-      <c r="M59" s="164"/>
+        <v>550</v>
+      </c>
+      <c r="M59" s="128"/>
       <c r="N59" s="115">
-        <f>N4+N58</f>
-        <v>12960</v>
+        <f t="shared" ref="N59:T59" si="2">N4+N58</f>
+        <v>13200</v>
       </c>
       <c r="O59" s="116">
-        <f>O4+O58</f>
+        <f t="shared" si="2"/>
         <v>7584</v>
       </c>
       <c r="P59" s="34">
-        <f>P4+P58</f>
-        <v>62928</v>
+        <f t="shared" si="2"/>
+        <v>67128</v>
       </c>
       <c r="Q59" s="62">
-        <f>Q4+Q58</f>
-        <v>6852</v>
+        <f t="shared" si="2"/>
+        <v>7212</v>
       </c>
       <c r="R59" s="116">
-        <f>R4+R58</f>
+        <f t="shared" si="2"/>
         <v>4032</v>
       </c>
       <c r="S59" s="63">
-        <f>S4+S58</f>
-        <v>144746</v>
+        <f t="shared" si="2"/>
+        <v>151790</v>
       </c>
       <c r="T59" s="36">
-        <f>T4+T58</f>
-        <v>46038923</v>
+        <f t="shared" si="2"/>
+        <v>48294027</v>
       </c>
       <c r="W59" s="13"/>
       <c r="X59" s="13"/>
@@ -7545,63 +7589,63 @@
       <c r="V60" s="13"/>
     </row>
     <row r="61" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A61" s="165" t="s">
+      <c r="A61" s="168" t="s">
         <v>178</v>
       </c>
-      <c r="B61" s="166"/>
-      <c r="C61" s="166"/>
-      <c r="D61" s="166"/>
-      <c r="E61" s="166"/>
-      <c r="F61" s="166"/>
-      <c r="G61" s="166"/>
-      <c r="H61" s="166"/>
-      <c r="I61" s="166"/>
-      <c r="J61" s="166"/>
-      <c r="K61" s="166"/>
-      <c r="L61" s="166"/>
-      <c r="M61" s="166"/>
-      <c r="N61" s="166"/>
-      <c r="O61" s="166"/>
-      <c r="P61" s="166"/>
-      <c r="Q61" s="167"/>
+      <c r="B61" s="169"/>
+      <c r="C61" s="169"/>
+      <c r="D61" s="169"/>
+      <c r="E61" s="169"/>
+      <c r="F61" s="169"/>
+      <c r="G61" s="169"/>
+      <c r="H61" s="169"/>
+      <c r="I61" s="169"/>
+      <c r="J61" s="169"/>
+      <c r="K61" s="169"/>
+      <c r="L61" s="169"/>
+      <c r="M61" s="169"/>
+      <c r="N61" s="169"/>
+      <c r="O61" s="169"/>
+      <c r="P61" s="169"/>
+      <c r="Q61" s="170"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="28"/>
     </row>
     <row r="62" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A62" s="124" t="s">
+      <c r="A62" s="171" t="s">
         <v>34</v>
       </c>
-      <c r="B62" s="125"/>
-      <c r="C62" s="168" t="s">
+      <c r="B62" s="172"/>
+      <c r="C62" s="175" t="s">
         <v>33</v>
       </c>
-      <c r="D62" s="168" t="s">
+      <c r="D62" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="171" t="s">
+      <c r="E62" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="F62" s="124" t="s">
+      <c r="F62" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="125"/>
-      <c r="H62" s="173" t="s">
+      <c r="G62" s="172"/>
+      <c r="H62" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="I62" s="174"/>
-      <c r="J62" s="175"/>
-      <c r="K62" s="176" t="s">
+      <c r="I62" s="181"/>
+      <c r="J62" s="182"/>
+      <c r="K62" s="183" t="s">
         <v>25</v>
       </c>
-      <c r="L62" s="177"/>
-      <c r="M62" s="177"/>
-      <c r="N62" s="177"/>
-      <c r="O62" s="178"/>
-      <c r="P62" s="168" t="s">
+      <c r="L62" s="184"/>
+      <c r="M62" s="184"/>
+      <c r="N62" s="184"/>
+      <c r="O62" s="185"/>
+      <c r="P62" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="Q62" s="179" t="s">
+      <c r="Q62" s="186" t="s">
         <v>38</v>
       </c>
       <c r="R62" s="1"/>
@@ -7609,13 +7653,13 @@
       <c r="T62" s="28"/>
     </row>
     <row r="63" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A63" s="126"/>
-      <c r="B63" s="127"/>
-      <c r="C63" s="169"/>
-      <c r="D63" s="170"/>
-      <c r="E63" s="172"/>
-      <c r="F63" s="126"/>
-      <c r="G63" s="127"/>
+      <c r="A63" s="173"/>
+      <c r="B63" s="174"/>
+      <c r="C63" s="176"/>
+      <c r="D63" s="177"/>
+      <c r="E63" s="179"/>
+      <c r="F63" s="173"/>
+      <c r="G63" s="174"/>
       <c r="H63" s="70" t="s">
         <v>49</v>
       </c>
@@ -7628,44 +7672,46 @@
       <c r="K63" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="L63" s="176" t="s">
+      <c r="L63" s="183" t="s">
         <v>47</v>
       </c>
-      <c r="M63" s="178"/>
+      <c r="M63" s="185"/>
       <c r="N63" s="70" t="s">
         <v>46</v>
       </c>
       <c r="O63" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="P63" s="170"/>
-      <c r="Q63" s="180"/>
+      <c r="P63" s="177"/>
+      <c r="Q63" s="187"/>
       <c r="T63" s="28"/>
     </row>
     <row r="64" spans="1:24" ht="15" customHeight="1">
-      <c r="A64" s="124" t="s">
+      <c r="A64" s="171" t="s">
         <v>27</v>
       </c>
-      <c r="B64" s="125"/>
+      <c r="B64" s="172"/>
       <c r="C64" s="105" t="s">
         <v>28</v>
       </c>
       <c r="D64" s="105"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="128"/>
-      <c r="G64" s="128"/>
+      <c r="F64" s="193">
+        <v>24</v>
+      </c>
+      <c r="G64" s="193"/>
       <c r="H64" s="4"/>
       <c r="I64" s="104"/>
       <c r="J64" s="4"/>
       <c r="K64" s="104"/>
-      <c r="L64" s="129"/>
-      <c r="M64" s="130"/>
+      <c r="L64" s="194"/>
+      <c r="M64" s="195"/>
       <c r="N64" s="104"/>
       <c r="O64" s="4"/>
       <c r="P64" s="104"/>
       <c r="Q64" s="4">
         <f>SUM(D64:P64)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="T64" s="28"/>
       <c r="V64" s="13">
@@ -7674,29 +7720,31 @@
       </c>
     </row>
     <row r="65" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A65" s="126"/>
-      <c r="B65" s="127"/>
+      <c r="A65" s="173"/>
+      <c r="B65" s="174"/>
       <c r="C65" s="107" t="s">
         <v>29</v>
       </c>
       <c r="D65" s="107"/>
       <c r="E65" s="14"/>
-      <c r="F65" s="131"/>
-      <c r="G65" s="131"/>
+      <c r="F65" s="200">
+        <v>1200</v>
+      </c>
+      <c r="G65" s="200"/>
       <c r="H65" s="14"/>
       <c r="I65" s="106"/>
       <c r="J65" s="14"/>
       <c r="K65" s="106"/>
-      <c r="L65" s="132"/>
-      <c r="M65" s="133"/>
+      <c r="L65" s="201"/>
+      <c r="M65" s="202"/>
       <c r="N65" s="106"/>
       <c r="O65" s="14">
         <v>48</v>
       </c>
       <c r="P65" s="106"/>
       <c r="Q65" s="16">
-        <f t="shared" ref="Q65:Q74" si="1">SUM(D65:P65)</f>
-        <v>48</v>
+        <f t="shared" ref="Q65:Q74" si="3">SUM(D65:P65)</f>
+        <v>1248</v>
       </c>
       <c r="T65" s="28"/>
       <c r="V65" s="13">
@@ -7705,10 +7753,10 @@
       </c>
     </row>
     <row r="66" spans="1:22">
-      <c r="A66" s="124" t="s">
+      <c r="A66" s="171" t="s">
         <v>41</v>
       </c>
-      <c r="B66" s="125"/>
+      <c r="B66" s="172"/>
       <c r="C66" s="4" t="s">
         <v>30</v>
       </c>
@@ -7716,8 +7764,10 @@
         <v>6450</v>
       </c>
       <c r="E66" s="4"/>
-      <c r="F66" s="128"/>
-      <c r="G66" s="128"/>
+      <c r="F66" s="193">
+        <v>690</v>
+      </c>
+      <c r="G66" s="193"/>
       <c r="H66" s="4"/>
       <c r="I66" s="104">
         <v>750</v>
@@ -7726,16 +7776,16 @@
         <v>450</v>
       </c>
       <c r="K66" s="104"/>
-      <c r="L66" s="129"/>
-      <c r="M66" s="130"/>
+      <c r="L66" s="194"/>
+      <c r="M66" s="195"/>
       <c r="N66" s="104"/>
       <c r="O66" s="4">
         <v>90</v>
       </c>
       <c r="P66" s="104"/>
       <c r="Q66" s="4">
-        <f t="shared" si="1"/>
-        <v>7740</v>
+        <f t="shared" si="3"/>
+        <v>8430</v>
       </c>
       <c r="T66" s="28"/>
       <c r="V66" s="13">
@@ -7744,26 +7794,26 @@
       </c>
     </row>
     <row r="67" spans="1:22">
-      <c r="A67" s="151"/>
-      <c r="B67" s="152"/>
+      <c r="A67" s="208"/>
+      <c r="B67" s="209"/>
       <c r="C67" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D67" s="113"/>
       <c r="E67" s="5"/>
-      <c r="F67" s="156"/>
-      <c r="G67" s="156"/>
+      <c r="F67" s="213"/>
+      <c r="G67" s="213"/>
       <c r="H67" s="5"/>
       <c r="I67" s="112"/>
       <c r="J67" s="5"/>
       <c r="K67" s="112"/>
-      <c r="L67" s="157"/>
-      <c r="M67" s="158"/>
+      <c r="L67" s="214"/>
+      <c r="M67" s="215"/>
       <c r="N67" s="112"/>
       <c r="O67" s="5"/>
       <c r="P67" s="112"/>
       <c r="Q67" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T67" s="28"/>
@@ -7773,27 +7823,29 @@
       </c>
     </row>
     <row r="68" spans="1:22">
-      <c r="A68" s="151"/>
-      <c r="B68" s="152"/>
+      <c r="A68" s="208"/>
+      <c r="B68" s="209"/>
       <c r="C68" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D68" s="113"/>
       <c r="E68" s="5"/>
-      <c r="F68" s="156"/>
-      <c r="G68" s="156"/>
+      <c r="F68" s="213">
+        <v>220</v>
+      </c>
+      <c r="G68" s="213"/>
       <c r="H68" s="5"/>
       <c r="I68" s="112"/>
       <c r="J68" s="5"/>
       <c r="K68" s="112"/>
-      <c r="L68" s="157"/>
-      <c r="M68" s="158"/>
+      <c r="L68" s="214"/>
+      <c r="M68" s="215"/>
       <c r="N68" s="112"/>
       <c r="O68" s="5"/>
       <c r="P68" s="112"/>
       <c r="Q68" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>220</v>
       </c>
       <c r="T68" s="28"/>
       <c r="V68" s="13">
@@ -7802,27 +7854,29 @@
       </c>
     </row>
     <row r="69" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A69" s="126"/>
-      <c r="B69" s="127"/>
+      <c r="A69" s="173"/>
+      <c r="B69" s="174"/>
       <c r="C69" s="65" t="s">
         <v>44</v>
       </c>
       <c r="D69" s="109"/>
       <c r="E69" s="15"/>
-      <c r="F69" s="144"/>
-      <c r="G69" s="144"/>
+      <c r="F69" s="163">
+        <v>110</v>
+      </c>
+      <c r="G69" s="163"/>
       <c r="H69" s="15"/>
       <c r="I69" s="108"/>
       <c r="J69" s="15"/>
       <c r="K69" s="108"/>
-      <c r="L69" s="145"/>
-      <c r="M69" s="146"/>
+      <c r="L69" s="164"/>
+      <c r="M69" s="165"/>
       <c r="N69" s="108"/>
       <c r="O69" s="15"/>
       <c r="P69" s="108"/>
       <c r="Q69" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>110</v>
       </c>
       <c r="T69" s="28"/>
       <c r="V69" s="13">
@@ -7831,17 +7885,19 @@
       </c>
     </row>
     <row r="70" spans="1:22">
-      <c r="A70" s="124" t="s">
+      <c r="A70" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="B70" s="125"/>
+      <c r="B70" s="172"/>
       <c r="C70" s="111" t="s">
         <v>28</v>
       </c>
       <c r="D70" s="111"/>
       <c r="E70" s="16"/>
-      <c r="F70" s="153"/>
-      <c r="G70" s="153"/>
+      <c r="F70" s="210">
+        <v>240</v>
+      </c>
+      <c r="G70" s="210"/>
       <c r="H70" s="16">
         <v>960</v>
       </c>
@@ -7850,16 +7906,16 @@
       </c>
       <c r="J70" s="16"/>
       <c r="K70" s="110"/>
-      <c r="L70" s="154"/>
-      <c r="M70" s="155"/>
+      <c r="L70" s="211"/>
+      <c r="M70" s="212"/>
       <c r="N70" s="110"/>
       <c r="O70" s="16"/>
       <c r="P70" s="110">
         <v>960</v>
       </c>
       <c r="Q70" s="4">
-        <f t="shared" si="1"/>
-        <v>2520</v>
+        <f t="shared" si="3"/>
+        <v>2760</v>
       </c>
       <c r="T70" s="28"/>
       <c r="V70" s="13">
@@ -7868,30 +7924,30 @@
       </c>
     </row>
     <row r="71" spans="1:22">
-      <c r="A71" s="151"/>
-      <c r="B71" s="152"/>
+      <c r="A71" s="208"/>
+      <c r="B71" s="209"/>
       <c r="C71" s="113" t="s">
         <v>31</v>
       </c>
       <c r="D71" s="113"/>
       <c r="E71" s="5"/>
-      <c r="F71" s="156"/>
-      <c r="G71" s="156"/>
+      <c r="F71" s="213"/>
+      <c r="G71" s="213"/>
       <c r="H71" s="5">
         <v>480</v>
       </c>
       <c r="I71" s="112"/>
       <c r="J71" s="5"/>
       <c r="K71" s="112"/>
-      <c r="L71" s="157"/>
-      <c r="M71" s="158"/>
+      <c r="L71" s="214"/>
+      <c r="M71" s="215"/>
       <c r="N71" s="112"/>
       <c r="O71" s="5"/>
       <c r="P71" s="112">
         <v>600</v>
       </c>
       <c r="Q71" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1080</v>
       </c>
       <c r="T71" s="28"/>
@@ -7901,15 +7957,17 @@
       </c>
     </row>
     <row r="72" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A72" s="126"/>
-      <c r="B72" s="127"/>
+      <c r="A72" s="173"/>
+      <c r="B72" s="174"/>
       <c r="C72" s="65" t="s">
         <v>29</v>
       </c>
       <c r="D72" s="107"/>
       <c r="E72" s="14"/>
-      <c r="F72" s="131"/>
-      <c r="G72" s="131"/>
+      <c r="F72" s="200">
+        <v>4200</v>
+      </c>
+      <c r="G72" s="200"/>
       <c r="H72" s="14">
         <v>840</v>
       </c>
@@ -7920,8 +7978,8 @@
         <v>1320</v>
       </c>
       <c r="K72" s="106"/>
-      <c r="L72" s="132"/>
-      <c r="M72" s="133"/>
+      <c r="L72" s="201"/>
+      <c r="M72" s="202"/>
       <c r="N72" s="106"/>
       <c r="O72" s="14">
         <v>120</v>
@@ -7930,8 +7988,8 @@
         <v>2400</v>
       </c>
       <c r="Q72" s="16">
-        <f t="shared" si="1"/>
-        <v>7080</v>
+        <f t="shared" si="3"/>
+        <v>11280</v>
       </c>
       <c r="T72" s="28"/>
       <c r="V72" s="13">
@@ -7940,31 +7998,33 @@
       </c>
     </row>
     <row r="73" spans="1:22">
-      <c r="A73" s="124" t="s">
+      <c r="A73" s="171" t="s">
         <v>42</v>
       </c>
-      <c r="B73" s="125"/>
+      <c r="B73" s="172"/>
       <c r="C73" s="105" t="s">
         <v>31</v>
       </c>
       <c r="D73" s="105"/>
       <c r="E73" s="4"/>
-      <c r="F73" s="128"/>
-      <c r="G73" s="128"/>
+      <c r="F73" s="193">
+        <v>360</v>
+      </c>
+      <c r="G73" s="193"/>
       <c r="H73" s="4"/>
       <c r="I73" s="104"/>
       <c r="J73" s="4"/>
       <c r="K73" s="104"/>
-      <c r="L73" s="129"/>
-      <c r="M73" s="130"/>
+      <c r="L73" s="194"/>
+      <c r="M73" s="195"/>
       <c r="N73" s="104"/>
       <c r="O73" s="4">
         <v>180</v>
       </c>
       <c r="P73" s="104"/>
       <c r="Q73" s="4">
-        <f t="shared" si="1"/>
-        <v>180</v>
+        <f t="shared" si="3"/>
+        <v>540</v>
       </c>
       <c r="T73" s="28"/>
       <c r="V73" s="13">
@@ -7973,8 +8033,8 @@
       </c>
     </row>
     <row r="74" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A74" s="126"/>
-      <c r="B74" s="127"/>
+      <c r="A74" s="173"/>
+      <c r="B74" s="174"/>
       <c r="C74" s="65" t="s">
         <v>29</v>
       </c>
@@ -7982,21 +8042,21 @@
         <v>2412</v>
       </c>
       <c r="E74" s="15"/>
-      <c r="F74" s="144"/>
-      <c r="G74" s="144"/>
+      <c r="F74" s="163"/>
+      <c r="G74" s="163"/>
       <c r="H74" s="15"/>
       <c r="I74" s="108">
         <v>720</v>
       </c>
       <c r="J74" s="15"/>
       <c r="K74" s="108"/>
-      <c r="L74" s="145"/>
-      <c r="M74" s="146"/>
+      <c r="L74" s="164"/>
+      <c r="M74" s="165"/>
       <c r="N74" s="108"/>
       <c r="O74" s="15"/>
       <c r="P74" s="108"/>
       <c r="Q74" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3132</v>
       </c>
       <c r="T74" s="28"/>
@@ -8006,24 +8066,24 @@
       </c>
     </row>
     <row r="75" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A75" s="147" t="s">
+      <c r="A75" s="196" t="s">
         <v>37</v>
       </c>
-      <c r="B75" s="148"/>
-      <c r="C75" s="148"/>
+      <c r="B75" s="197"/>
+      <c r="C75" s="197"/>
       <c r="D75" s="23">
         <f>SUM(D64:D74)</f>
         <v>8862</v>
       </c>
       <c r="E75" s="23">
-        <f t="shared" ref="E75" si="2">SUM(E64:E74)</f>
+        <f t="shared" ref="E75" si="4">SUM(E64:E74)</f>
         <v>0</v>
       </c>
-      <c r="F75" s="149">
+      <c r="F75" s="198">
         <f>SUM(F64:G74)</f>
-        <v>0</v>
-      </c>
-      <c r="G75" s="150"/>
+        <v>7044</v>
+      </c>
+      <c r="G75" s="199"/>
       <c r="H75" s="23">
         <f>SUM(H64:H74)</f>
         <v>2280</v>
@@ -8040,11 +8100,11 @@
         <f>SUM(K64:K74)</f>
         <v>0</v>
       </c>
-      <c r="L75" s="149">
+      <c r="L75" s="198">
         <f>SUM(L64:M74)</f>
         <v>0</v>
       </c>
-      <c r="M75" s="150"/>
+      <c r="M75" s="199"/>
       <c r="N75" s="23">
         <f>SUM(N64:N74)</f>
         <v>0</v>
@@ -8059,7 +8119,7 @@
       </c>
       <c r="Q75" s="24">
         <f>SUM(Q64:Q74)</f>
-        <v>21780</v>
+        <v>28824</v>
       </c>
       <c r="R75" s="12"/>
       <c r="S75" s="1"/>
@@ -8070,43 +8130,45 @@
       </c>
     </row>
     <row r="76" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A76" s="134" t="s">
+      <c r="A76" s="203" t="s">
         <v>36</v>
       </c>
-      <c r="B76" s="135"/>
-      <c r="C76" s="135"/>
-      <c r="D76" s="136">
+      <c r="B76" s="204"/>
+      <c r="C76" s="204"/>
+      <c r="D76" s="205">
         <f>D75+E75+F75+H75+I75+J75+K75+L75+N75+O75+P75</f>
-        <v>21780</v>
-      </c>
-      <c r="E76" s="137"/>
-      <c r="F76" s="137"/>
-      <c r="G76" s="137"/>
-      <c r="H76" s="137"/>
-      <c r="I76" s="137"/>
-      <c r="J76" s="137"/>
-      <c r="K76" s="137"/>
-      <c r="L76" s="137"/>
-      <c r="M76" s="137"/>
-      <c r="N76" s="137"/>
-      <c r="O76" s="137"/>
-      <c r="P76" s="137"/>
-      <c r="Q76" s="138"/>
+        <v>28824</v>
+      </c>
+      <c r="E76" s="206"/>
+      <c r="F76" s="206"/>
+      <c r="G76" s="206"/>
+      <c r="H76" s="206"/>
+      <c r="I76" s="206"/>
+      <c r="J76" s="206"/>
+      <c r="K76" s="206"/>
+      <c r="L76" s="206"/>
+      <c r="M76" s="206"/>
+      <c r="N76" s="206"/>
+      <c r="O76" s="206"/>
+      <c r="P76" s="206"/>
+      <c r="Q76" s="207"/>
       <c r="T76" s="28"/>
       <c r="V76" s="13"/>
     </row>
     <row r="77" spans="1:22" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A77" s="139" t="s">
+      <c r="A77" s="188" t="s">
         <v>26</v>
       </c>
-      <c r="B77" s="140"/>
-      <c r="C77" s="140"/>
+      <c r="B77" s="189"/>
+      <c r="C77" s="189"/>
       <c r="D77" s="22">
         <v>2866322</v>
       </c>
       <c r="E77" s="22"/>
-      <c r="F77" s="141"/>
-      <c r="G77" s="142"/>
+      <c r="F77" s="190">
+        <v>2226736</v>
+      </c>
+      <c r="G77" s="191"/>
       <c r="H77" s="22">
         <v>722340</v>
       </c>
@@ -8117,18 +8179,19 @@
         <v>559829</v>
       </c>
       <c r="K77" s="22"/>
-      <c r="L77" s="143"/>
-      <c r="M77" s="142"/>
+      <c r="L77" s="192"/>
+      <c r="M77" s="191"/>
       <c r="N77" s="26"/>
       <c r="O77" s="22">
-        <v>125874</v>
+        <f>125874+28368</f>
+        <v>154242</v>
       </c>
       <c r="P77" s="26">
         <v>1260480</v>
       </c>
       <c r="Q77" s="100">
-        <f>6881621+125874</f>
-        <v>7007495</v>
+        <f>6881621+154242+2226736</f>
+        <v>9262599</v>
       </c>
       <c r="R77" s="19"/>
       <c r="S77" s="19"/>
@@ -8144,198 +8207,19 @@
     </row>
   </sheetData>
   <mergeCells count="226">
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="A61:Q61"/>
-    <mergeCell ref="A62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:G63"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="K62:O62"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="D76:Q76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="A73:B74"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="L75:M75"/>
     <mergeCell ref="A64:B65"/>
     <mergeCell ref="F64:G64"/>
     <mergeCell ref="L64:M64"/>
@@ -8357,19 +8241,198 @@
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="F69:G69"/>
     <mergeCell ref="L69:M69"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="D76:Q76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="A73:B74"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="A61:Q61"/>
+    <mergeCell ref="A62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:G63"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="K62:O62"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:S3"/>
   </mergeCells>
   <pageMargins left="0.16" right="0.16" top="0.34" bottom="0.16" header="0.23" footer="0.16"/>
   <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/SALE BILL REPORT 2021-22.xlsx
+++ b/SALE BILL REPORT 2021-22.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="190">
   <si>
     <t>Pataka Premium</t>
   </si>
@@ -555,12 +555,6 @@
     <t>29.04.2021</t>
   </si>
   <si>
-    <t>DESTINETION WISE DESPATCHED REPOTR FOR THE MONTH OF MAY 01.05.2021 TO 15.05.2021</t>
-  </si>
-  <si>
-    <t>SALE BILL REPORT FOR THE MONTH OF MAY 01.05.2021 TO 15.05.2021</t>
-  </si>
-  <si>
     <t>10.05.2021</t>
   </si>
   <si>
@@ -582,7 +576,19 @@
     <t>07.05.2021</t>
   </si>
   <si>
-    <t>14.05.2021</t>
+    <t>17.05.2021</t>
+  </si>
+  <si>
+    <t>18.05.2021</t>
+  </si>
+  <si>
+    <t>15.05.2021</t>
+  </si>
+  <si>
+    <t>SALE BILL REPORT FOR THE MONTH OF MAY 01.05.2021 TO 31.05.2021</t>
+  </si>
+  <si>
+    <t>DESTINETION WISE DESPATCHED REPOTR FOR THE MONTH OF MAY 01.05.2021 TO 31.05.2021</t>
   </si>
 </sst>
 </file>
@@ -1830,11 +1836,254 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1854,90 +2103,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1960,165 +2125,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2457,81 +2463,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="16.5" thickBot="1">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="182" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="133"/>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
+      <c r="O1" s="183"/>
+      <c r="P1" s="183"/>
+      <c r="Q1" s="183"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="183"/>
+      <c r="T1" s="184"/>
     </row>
     <row r="2" spans="1:20" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="138" t="s">
+      <c r="C2" s="189" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="139"/>
-      <c r="E2" s="142" t="s">
+      <c r="D2" s="190"/>
+      <c r="E2" s="193" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="144" t="s">
+      <c r="F2" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="136"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="146" t="s">
+      <c r="G2" s="187"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="197" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="146" t="s">
+      <c r="J2" s="198"/>
+      <c r="K2" s="198"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="147"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="149" t="s">
+      <c r="O2" s="198"/>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="150"/>
-      <c r="S2" s="136" t="s">
+      <c r="R2" s="201"/>
+      <c r="S2" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="121" t="s">
+      <c r="T2" s="202" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="6" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A3" s="135"/>
-      <c r="B3" s="137"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="123" t="s">
+      <c r="A3" s="186"/>
+      <c r="B3" s="188"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="204" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="124"/>
+      <c r="G3" s="205"/>
       <c r="H3" s="9" t="s">
         <v>4</v>
       </c>
@@ -2544,10 +2550,10 @@
       <c r="K3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="125" t="s">
+      <c r="L3" s="206" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="126"/>
+      <c r="M3" s="207"/>
       <c r="N3" s="8" t="s">
         <v>21</v>
       </c>
@@ -2563,25 +2569,25 @@
       <c r="R3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="137"/>
-      <c r="T3" s="122"/>
+      <c r="S3" s="188"/>
+      <c r="T3" s="203"/>
     </row>
     <row r="4" spans="1:20" s="18" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="85" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="30"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="128"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="165"/>
       <c r="E4" s="31"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="129"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="163"/>
       <c r="H4" s="80"/>
       <c r="I4" s="32"/>
       <c r="J4" s="33"/>
       <c r="K4" s="80"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="128"/>
+      <c r="L4" s="164"/>
+      <c r="M4" s="165"/>
       <c r="N4" s="79"/>
       <c r="O4" s="80"/>
       <c r="P4" s="34"/>
@@ -2600,21 +2606,21 @@
       <c r="B5" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="155" t="s">
+      <c r="C5" s="208" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="156"/>
+      <c r="D5" s="209"/>
       <c r="E5" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="157"/>
-      <c r="G5" s="158"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="211"/>
       <c r="H5" s="84"/>
       <c r="I5" s="40"/>
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="160"/>
+      <c r="L5" s="212"/>
+      <c r="M5" s="213"/>
       <c r="N5" s="40"/>
       <c r="O5" s="41"/>
       <c r="P5" s="84"/>
@@ -2637,15 +2643,15 @@
       <c r="B6" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="151" t="s">
+      <c r="C6" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="152"/>
+      <c r="D6" s="124"/>
       <c r="E6" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="153"/>
-      <c r="G6" s="154"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="120"/>
       <c r="H6" s="83"/>
       <c r="I6" s="46">
         <v>60</v>
@@ -2654,8 +2660,8 @@
       <c r="K6" s="47">
         <v>22</v>
       </c>
-      <c r="L6" s="161"/>
-      <c r="M6" s="162"/>
+      <c r="L6" s="214"/>
+      <c r="M6" s="215"/>
       <c r="N6" s="48"/>
       <c r="O6" s="83"/>
       <c r="P6" s="49"/>
@@ -2676,21 +2682,21 @@
       <c r="B7" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="151" t="s">
+      <c r="C7" s="123" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="152"/>
+      <c r="D7" s="124"/>
       <c r="E7" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="153"/>
-      <c r="G7" s="154"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="120"/>
       <c r="H7" s="83"/>
       <c r="I7" s="48"/>
       <c r="J7" s="52"/>
       <c r="K7" s="52"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="120"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="122"/>
       <c r="N7" s="48">
         <v>600</v>
       </c>
@@ -2717,23 +2723,23 @@
       <c r="B8" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="151" t="s">
+      <c r="C8" s="123" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="152"/>
+      <c r="D8" s="124"/>
       <c r="E8" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="153"/>
-      <c r="G8" s="154"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="120"/>
       <c r="H8" s="83">
         <v>120</v>
       </c>
       <c r="I8" s="48"/>
       <c r="J8" s="52"/>
       <c r="K8" s="52"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="120"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="122"/>
       <c r="N8" s="48"/>
       <c r="O8" s="83"/>
       <c r="P8" s="49">
@@ -2756,23 +2762,23 @@
       <c r="B9" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="152"/>
+      <c r="D9" s="124"/>
       <c r="E9" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="153"/>
-      <c r="G9" s="154"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="120"/>
       <c r="H9" s="83"/>
       <c r="I9" s="48">
         <v>150</v>
       </c>
       <c r="J9" s="52"/>
       <c r="K9" s="52"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="120"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="122"/>
       <c r="N9" s="48"/>
       <c r="O9" s="83"/>
       <c r="P9" s="49">
@@ -2795,21 +2801,21 @@
       <c r="B10" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="151" t="s">
+      <c r="C10" s="123" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="152"/>
+      <c r="D10" s="124"/>
       <c r="E10" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="153"/>
-      <c r="G10" s="154"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="120"/>
       <c r="H10" s="83"/>
       <c r="I10" s="48"/>
       <c r="J10" s="52"/>
       <c r="K10" s="52"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="120"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="122"/>
       <c r="N10" s="48"/>
       <c r="O10" s="83"/>
       <c r="P10" s="49"/>
@@ -2832,23 +2838,23 @@
       <c r="B11" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="151" t="s">
+      <c r="C11" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="152"/>
+      <c r="D11" s="124"/>
       <c r="E11" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="153"/>
-      <c r="G11" s="154"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="120"/>
       <c r="H11" s="83">
         <v>24</v>
       </c>
       <c r="I11" s="48"/>
       <c r="J11" s="52"/>
       <c r="K11" s="52"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="120"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="122"/>
       <c r="N11" s="48"/>
       <c r="O11" s="83"/>
       <c r="P11" s="49"/>
@@ -2869,21 +2875,21 @@
       <c r="B12" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="151" t="s">
+      <c r="C12" s="123" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="152"/>
+      <c r="D12" s="124"/>
       <c r="E12" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="F12" s="153"/>
-      <c r="G12" s="154"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="120"/>
       <c r="H12" s="83"/>
       <c r="I12" s="48"/>
       <c r="J12" s="52"/>
       <c r="K12" s="52"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="120"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="122"/>
       <c r="N12" s="48"/>
       <c r="O12" s="83"/>
       <c r="P12" s="49">
@@ -2908,23 +2914,23 @@
       <c r="B13" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="151" t="s">
+      <c r="C13" s="123" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="152"/>
+      <c r="D13" s="124"/>
       <c r="E13" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="153"/>
-      <c r="G13" s="154"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="120"/>
       <c r="H13" s="83">
         <v>48</v>
       </c>
       <c r="I13" s="48"/>
       <c r="J13" s="52"/>
       <c r="K13" s="52"/>
-      <c r="L13" s="119"/>
-      <c r="M13" s="120"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="122"/>
       <c r="N13" s="48"/>
       <c r="O13" s="83"/>
       <c r="P13" s="49"/>
@@ -2945,23 +2951,23 @@
       <c r="B14" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="151" t="s">
+      <c r="C14" s="123" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="152"/>
+      <c r="D14" s="124"/>
       <c r="E14" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="153"/>
-      <c r="G14" s="154"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="120"/>
       <c r="H14" s="83">
         <v>48</v>
       </c>
       <c r="I14" s="48"/>
       <c r="J14" s="52"/>
       <c r="K14" s="52"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="120"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="122"/>
       <c r="N14" s="48"/>
       <c r="O14" s="83"/>
       <c r="P14" s="49"/>
@@ -2982,15 +2988,15 @@
       <c r="B15" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="151" t="s">
+      <c r="C15" s="123" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="152"/>
+      <c r="D15" s="124"/>
       <c r="E15" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="153"/>
-      <c r="G15" s="154"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="120"/>
       <c r="H15" s="83"/>
       <c r="I15" s="48">
         <v>7050</v>
@@ -3001,8 +3007,8 @@
       <c r="K15" s="52">
         <v>440</v>
       </c>
-      <c r="L15" s="119"/>
-      <c r="M15" s="120"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="122"/>
       <c r="N15" s="82">
         <v>840</v>
       </c>
@@ -3031,21 +3037,21 @@
       <c r="B16" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="151" t="s">
+      <c r="C16" s="123" t="s">
         <v>114</v>
       </c>
-      <c r="D16" s="152"/>
+      <c r="D16" s="124"/>
       <c r="E16" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="153"/>
-      <c r="G16" s="154"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="120"/>
       <c r="H16" s="83"/>
       <c r="I16" s="48"/>
       <c r="J16" s="52"/>
       <c r="K16" s="52"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="120"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="122"/>
       <c r="N16" s="82"/>
       <c r="O16" s="83"/>
       <c r="P16" s="49">
@@ -3070,21 +3076,21 @@
       <c r="B17" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="151" t="s">
+      <c r="C17" s="123" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="152"/>
+      <c r="D17" s="124"/>
       <c r="E17" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="F17" s="153"/>
-      <c r="G17" s="154"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="120"/>
       <c r="H17" s="83"/>
       <c r="I17" s="48"/>
       <c r="J17" s="52"/>
       <c r="K17" s="52"/>
-      <c r="L17" s="119"/>
-      <c r="M17" s="120"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="122"/>
       <c r="N17" s="82"/>
       <c r="O17" s="83"/>
       <c r="P17" s="49">
@@ -3107,21 +3113,21 @@
       <c r="B18" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="151" t="s">
+      <c r="C18" s="123" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="152"/>
+      <c r="D18" s="124"/>
       <c r="E18" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="153"/>
-      <c r="G18" s="154"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="120"/>
       <c r="H18" s="83"/>
       <c r="I18" s="48"/>
       <c r="J18" s="52"/>
       <c r="K18" s="52"/>
-      <c r="L18" s="119"/>
-      <c r="M18" s="120"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="122"/>
       <c r="N18" s="82">
         <v>600</v>
       </c>
@@ -3148,21 +3154,21 @@
       <c r="B19" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="151" t="s">
+      <c r="C19" s="123" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="152"/>
+      <c r="D19" s="124"/>
       <c r="E19" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="153"/>
-      <c r="G19" s="154"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="120"/>
       <c r="H19" s="83"/>
       <c r="I19" s="48"/>
       <c r="J19" s="52"/>
       <c r="K19" s="52"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="120"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="122"/>
       <c r="N19" s="82">
         <v>600</v>
       </c>
@@ -3190,23 +3196,23 @@
       <c r="B20" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="153" t="s">
+      <c r="C20" s="119" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="120"/>
+      <c r="D20" s="122"/>
       <c r="E20" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="153"/>
-      <c r="G20" s="154"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="120"/>
       <c r="H20" s="83"/>
       <c r="I20" s="48">
         <v>600</v>
       </c>
       <c r="J20" s="52"/>
       <c r="K20" s="52"/>
-      <c r="L20" s="119"/>
-      <c r="M20" s="120"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="122"/>
       <c r="N20" s="82"/>
       <c r="O20" s="83"/>
       <c r="P20" s="49">
@@ -3229,23 +3235,23 @@
       <c r="B21" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="153" t="s">
+      <c r="C21" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="120"/>
+      <c r="D21" s="122"/>
       <c r="E21" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="153"/>
-      <c r="G21" s="154"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="120"/>
       <c r="H21" s="83"/>
       <c r="I21" s="48"/>
       <c r="J21" s="52"/>
       <c r="K21" s="52">
         <v>220</v>
       </c>
-      <c r="L21" s="119"/>
-      <c r="M21" s="120"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="122"/>
       <c r="N21" s="82">
         <v>600</v>
       </c>
@@ -3272,25 +3278,25 @@
       <c r="B22" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="153" t="s">
+      <c r="C22" s="119" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="120"/>
+      <c r="D22" s="122"/>
       <c r="E22" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="153">
+      <c r="F22" s="119">
         <v>48</v>
       </c>
-      <c r="G22" s="154"/>
+      <c r="G22" s="120"/>
       <c r="H22" s="83">
         <v>24</v>
       </c>
       <c r="I22" s="48"/>
       <c r="J22" s="52"/>
       <c r="K22" s="52"/>
-      <c r="L22" s="119"/>
-      <c r="M22" s="120"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="122"/>
       <c r="N22" s="82"/>
       <c r="O22" s="83"/>
       <c r="P22" s="49">
@@ -3315,15 +3321,15 @@
       <c r="B23" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="153" t="s">
+      <c r="C23" s="119" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="120"/>
+      <c r="D23" s="122"/>
       <c r="E23" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="F23" s="153"/>
-      <c r="G23" s="154"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="120"/>
       <c r="H23" s="83">
         <v>1200</v>
       </c>
@@ -3334,8 +3340,8 @@
       <c r="K23" s="52">
         <v>660</v>
       </c>
-      <c r="L23" s="119"/>
-      <c r="M23" s="120"/>
+      <c r="L23" s="121"/>
+      <c r="M23" s="122"/>
       <c r="N23" s="82"/>
       <c r="O23" s="83"/>
       <c r="P23" s="49">
@@ -3358,23 +3364,23 @@
       <c r="B24" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="153" t="s">
+      <c r="C24" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="120"/>
+      <c r="D24" s="122"/>
       <c r="E24" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="153"/>
-      <c r="G24" s="154"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="120"/>
       <c r="H24" s="83">
         <v>120</v>
       </c>
       <c r="I24" s="48"/>
       <c r="J24" s="52"/>
       <c r="K24" s="52"/>
-      <c r="L24" s="119"/>
-      <c r="M24" s="120"/>
+      <c r="L24" s="121"/>
+      <c r="M24" s="122"/>
       <c r="N24" s="82"/>
       <c r="O24" s="83"/>
       <c r="P24" s="49"/>
@@ -3397,23 +3403,23 @@
       <c r="B25" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="153" t="s">
+      <c r="C25" s="119" t="s">
         <v>129</v>
       </c>
-      <c r="D25" s="120"/>
+      <c r="D25" s="122"/>
       <c r="E25" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="F25" s="153"/>
-      <c r="G25" s="154"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="120"/>
       <c r="H25" s="83">
         <v>120</v>
       </c>
       <c r="I25" s="48"/>
       <c r="J25" s="52"/>
       <c r="K25" s="52"/>
-      <c r="L25" s="119"/>
-      <c r="M25" s="120"/>
+      <c r="L25" s="121"/>
+      <c r="M25" s="122"/>
       <c r="N25" s="82"/>
       <c r="O25" s="83"/>
       <c r="P25" s="49"/>
@@ -3434,23 +3440,23 @@
       <c r="B26" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="153" t="s">
+      <c r="C26" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="120"/>
+      <c r="D26" s="122"/>
       <c r="E26" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="153"/>
-      <c r="G26" s="154"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="120"/>
       <c r="H26" s="83"/>
       <c r="I26" s="48">
         <v>1200</v>
       </c>
       <c r="J26" s="52"/>
       <c r="K26" s="52"/>
-      <c r="L26" s="119"/>
-      <c r="M26" s="120"/>
+      <c r="L26" s="121"/>
+      <c r="M26" s="122"/>
       <c r="N26" s="82">
         <v>1200</v>
       </c>
@@ -3479,21 +3485,21 @@
       <c r="B27" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="153" t="s">
+      <c r="C27" s="119" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="120"/>
+      <c r="D27" s="122"/>
       <c r="E27" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="F27" s="153"/>
-      <c r="G27" s="154"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="120"/>
       <c r="H27" s="86"/>
       <c r="I27" s="57"/>
       <c r="J27" s="58"/>
       <c r="K27" s="58"/>
-      <c r="L27" s="119"/>
-      <c r="M27" s="120"/>
+      <c r="L27" s="121"/>
+      <c r="M27" s="122"/>
       <c r="N27" s="81"/>
       <c r="O27" s="86"/>
       <c r="P27" s="55">
@@ -3516,23 +3522,23 @@
       <c r="B28" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="153" t="s">
+      <c r="C28" s="119" t="s">
         <v>134</v>
       </c>
-      <c r="D28" s="120"/>
+      <c r="D28" s="122"/>
       <c r="E28" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="F28" s="153"/>
-      <c r="G28" s="154"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="120"/>
       <c r="H28" s="86">
         <v>48</v>
       </c>
       <c r="I28" s="57"/>
       <c r="J28" s="58"/>
       <c r="K28" s="58"/>
-      <c r="L28" s="119"/>
-      <c r="M28" s="120"/>
+      <c r="L28" s="121"/>
+      <c r="M28" s="122"/>
       <c r="N28" s="81"/>
       <c r="O28" s="86"/>
       <c r="P28" s="55">
@@ -3557,21 +3563,21 @@
       <c r="B29" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="153" t="s">
+      <c r="C29" s="119" t="s">
         <v>137</v>
       </c>
-      <c r="D29" s="120"/>
+      <c r="D29" s="122"/>
       <c r="E29" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="F29" s="153"/>
-      <c r="G29" s="154"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="120"/>
       <c r="H29" s="86"/>
       <c r="I29" s="57"/>
       <c r="J29" s="58"/>
       <c r="K29" s="58"/>
-      <c r="L29" s="119"/>
-      <c r="M29" s="120"/>
+      <c r="L29" s="121"/>
+      <c r="M29" s="122"/>
       <c r="N29" s="81"/>
       <c r="O29" s="86"/>
       <c r="P29" s="55"/>
@@ -3594,21 +3600,21 @@
       <c r="B30" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="153" t="s">
+      <c r="C30" s="119" t="s">
         <v>140</v>
       </c>
-      <c r="D30" s="120"/>
+      <c r="D30" s="122"/>
       <c r="E30" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="F30" s="153"/>
-      <c r="G30" s="154"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="120"/>
       <c r="H30" s="86"/>
       <c r="I30" s="57"/>
       <c r="J30" s="58"/>
       <c r="K30" s="58"/>
-      <c r="L30" s="119"/>
-      <c r="M30" s="120"/>
+      <c r="L30" s="121"/>
+      <c r="M30" s="122"/>
       <c r="N30" s="81"/>
       <c r="O30" s="86"/>
       <c r="P30" s="55"/>
@@ -3631,21 +3637,21 @@
       <c r="B31" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="153" t="s">
+      <c r="C31" s="119" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="120"/>
+      <c r="D31" s="122"/>
       <c r="E31" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="F31" s="153"/>
-      <c r="G31" s="154"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="120"/>
       <c r="H31" s="86"/>
       <c r="I31" s="57"/>
       <c r="J31" s="58"/>
       <c r="K31" s="58"/>
-      <c r="L31" s="119"/>
-      <c r="M31" s="120"/>
+      <c r="L31" s="121"/>
+      <c r="M31" s="122"/>
       <c r="N31" s="81"/>
       <c r="O31" s="86"/>
       <c r="P31" s="55">
@@ -3668,23 +3674,23 @@
       <c r="B32" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="153" t="s">
+      <c r="C32" s="119" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="120"/>
+      <c r="D32" s="122"/>
       <c r="E32" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="F32" s="153"/>
-      <c r="G32" s="154"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="120"/>
       <c r="H32" s="86"/>
       <c r="I32" s="57">
         <v>120</v>
       </c>
       <c r="J32" s="58"/>
       <c r="K32" s="58"/>
-      <c r="L32" s="119"/>
-      <c r="M32" s="120"/>
+      <c r="L32" s="121"/>
+      <c r="M32" s="122"/>
       <c r="N32" s="81"/>
       <c r="O32" s="86">
         <v>144</v>
@@ -3711,17 +3717,17 @@
       <c r="B33" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="153" t="s">
+      <c r="C33" s="119" t="s">
         <v>127</v>
       </c>
-      <c r="D33" s="120"/>
+      <c r="D33" s="122"/>
       <c r="E33" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="F33" s="153">
+      <c r="F33" s="119">
         <v>720</v>
       </c>
-      <c r="G33" s="154"/>
+      <c r="G33" s="120"/>
       <c r="H33" s="86">
         <v>1440</v>
       </c>
@@ -3730,8 +3736,8 @@
       </c>
       <c r="J33" s="58"/>
       <c r="K33" s="58"/>
-      <c r="L33" s="119"/>
-      <c r="M33" s="120"/>
+      <c r="L33" s="121"/>
+      <c r="M33" s="122"/>
       <c r="N33" s="81">
         <v>480</v>
       </c>
@@ -3758,21 +3764,21 @@
       <c r="B34" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="153" t="s">
+      <c r="C34" s="119" t="s">
         <v>117</v>
       </c>
-      <c r="D34" s="120"/>
+      <c r="D34" s="122"/>
       <c r="E34" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="F34" s="153"/>
-      <c r="G34" s="154"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="120"/>
       <c r="H34" s="86"/>
       <c r="I34" s="57"/>
       <c r="J34" s="58"/>
       <c r="K34" s="58"/>
-      <c r="L34" s="119"/>
-      <c r="M34" s="120"/>
+      <c r="L34" s="121"/>
+      <c r="M34" s="122"/>
       <c r="N34" s="81"/>
       <c r="O34" s="86"/>
       <c r="P34" s="55">
@@ -3795,15 +3801,15 @@
       <c r="B35" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="153" t="s">
+      <c r="C35" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="120"/>
+      <c r="D35" s="122"/>
       <c r="E35" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="F35" s="153"/>
-      <c r="G35" s="154"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="120"/>
       <c r="H35" s="86"/>
       <c r="I35" s="57">
         <v>9750</v>
@@ -3812,8 +3818,8 @@
       <c r="K35" s="58">
         <v>330</v>
       </c>
-      <c r="L35" s="119"/>
-      <c r="M35" s="120"/>
+      <c r="L35" s="121"/>
+      <c r="M35" s="122"/>
       <c r="N35" s="81"/>
       <c r="O35" s="86">
         <v>120</v>
@@ -3840,21 +3846,21 @@
       <c r="B36" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="153" t="s">
+      <c r="C36" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="120"/>
+      <c r="D36" s="122"/>
       <c r="E36" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F36" s="153"/>
-      <c r="G36" s="154"/>
+      <c r="F36" s="119"/>
+      <c r="G36" s="120"/>
       <c r="H36" s="86"/>
       <c r="I36" s="57"/>
       <c r="J36" s="58"/>
       <c r="K36" s="58"/>
-      <c r="L36" s="119"/>
-      <c r="M36" s="120"/>
+      <c r="L36" s="121"/>
+      <c r="M36" s="122"/>
       <c r="N36" s="81"/>
       <c r="O36" s="86"/>
       <c r="P36" s="55"/>
@@ -3877,21 +3883,21 @@
       <c r="B37" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="153" t="s">
+      <c r="C37" s="119" t="s">
         <v>149</v>
       </c>
-      <c r="D37" s="120"/>
+      <c r="D37" s="122"/>
       <c r="E37" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="F37" s="153"/>
-      <c r="G37" s="154"/>
+      <c r="F37" s="119"/>
+      <c r="G37" s="120"/>
       <c r="H37" s="86"/>
       <c r="I37" s="57"/>
       <c r="J37" s="58"/>
       <c r="K37" s="58"/>
-      <c r="L37" s="119"/>
-      <c r="M37" s="120"/>
+      <c r="L37" s="121"/>
+      <c r="M37" s="122"/>
       <c r="N37" s="81"/>
       <c r="O37" s="86"/>
       <c r="P37" s="55">
@@ -3916,23 +3922,23 @@
       <c r="B38" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="153" t="s">
+      <c r="C38" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="120"/>
+      <c r="D38" s="122"/>
       <c r="E38" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="F38" s="153"/>
-      <c r="G38" s="154"/>
+      <c r="F38" s="119"/>
+      <c r="G38" s="120"/>
       <c r="H38" s="86"/>
       <c r="I38" s="57">
         <v>600</v>
       </c>
       <c r="J38" s="58"/>
       <c r="K38" s="58"/>
-      <c r="L38" s="119"/>
-      <c r="M38" s="120"/>
+      <c r="L38" s="121"/>
+      <c r="M38" s="122"/>
       <c r="N38" s="81">
         <v>480</v>
       </c>
@@ -3959,23 +3965,23 @@
       <c r="B39" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="151" t="s">
+      <c r="C39" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="152"/>
+      <c r="D39" s="124"/>
       <c r="E39" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="F39" s="153"/>
-      <c r="G39" s="154"/>
+      <c r="F39" s="119"/>
+      <c r="G39" s="120"/>
       <c r="H39" s="86">
         <v>120</v>
       </c>
       <c r="I39" s="57"/>
       <c r="J39" s="58"/>
       <c r="K39" s="58"/>
-      <c r="L39" s="119"/>
-      <c r="M39" s="120"/>
+      <c r="L39" s="121"/>
+      <c r="M39" s="122"/>
       <c r="N39" s="95"/>
       <c r="O39" s="86"/>
       <c r="P39" s="55"/>
@@ -3996,15 +4002,15 @@
       <c r="B40" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="151" t="s">
+      <c r="C40" s="123" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="152"/>
+      <c r="D40" s="124"/>
       <c r="E40" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="153"/>
-      <c r="G40" s="154"/>
+      <c r="F40" s="119"/>
+      <c r="G40" s="120"/>
       <c r="H40" s="86"/>
       <c r="I40" s="57">
         <v>6450</v>
@@ -4013,8 +4019,8 @@
       <c r="K40" s="58">
         <v>110</v>
       </c>
-      <c r="L40" s="119"/>
-      <c r="M40" s="120"/>
+      <c r="L40" s="121"/>
+      <c r="M40" s="122"/>
       <c r="N40" s="95">
         <v>240</v>
       </c>
@@ -4043,23 +4049,23 @@
       <c r="B41" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="151" t="s">
+      <c r="C41" s="123" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="152"/>
+      <c r="D41" s="124"/>
       <c r="E41" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F41" s="153"/>
-      <c r="G41" s="154"/>
+      <c r="F41" s="119"/>
+      <c r="G41" s="120"/>
       <c r="H41" s="86"/>
       <c r="I41" s="57">
         <v>1800</v>
       </c>
       <c r="J41" s="58"/>
       <c r="K41" s="58"/>
-      <c r="L41" s="119"/>
-      <c r="M41" s="120"/>
+      <c r="L41" s="121"/>
+      <c r="M41" s="122"/>
       <c r="N41" s="95">
         <v>240</v>
       </c>
@@ -4086,21 +4092,21 @@
       <c r="B42" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="C42" s="151" t="s">
+      <c r="C42" s="123" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="152"/>
+      <c r="D42" s="124"/>
       <c r="E42" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F42" s="153"/>
-      <c r="G42" s="154"/>
+      <c r="F42" s="119"/>
+      <c r="G42" s="120"/>
       <c r="H42" s="86"/>
       <c r="I42" s="57"/>
       <c r="J42" s="58"/>
       <c r="K42" s="58"/>
-      <c r="L42" s="119"/>
-      <c r="M42" s="120"/>
+      <c r="L42" s="121"/>
+      <c r="M42" s="122"/>
       <c r="N42" s="95">
         <v>600</v>
       </c>
@@ -4125,21 +4131,21 @@
       <c r="B43" s="97" t="s">
         <v>152</v>
       </c>
-      <c r="C43" s="151" t="s">
+      <c r="C43" s="123" t="s">
         <v>123</v>
       </c>
-      <c r="D43" s="152"/>
+      <c r="D43" s="124"/>
       <c r="E43" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F43" s="153"/>
-      <c r="G43" s="154"/>
+      <c r="F43" s="119"/>
+      <c r="G43" s="120"/>
       <c r="H43" s="86"/>
       <c r="I43" s="57"/>
       <c r="J43" s="58"/>
       <c r="K43" s="58"/>
-      <c r="L43" s="119"/>
-      <c r="M43" s="120"/>
+      <c r="L43" s="121"/>
+      <c r="M43" s="122"/>
       <c r="N43" s="95"/>
       <c r="O43" s="86"/>
       <c r="P43" s="55">
@@ -4162,21 +4168,21 @@
       <c r="B44" s="97" t="s">
         <v>153</v>
       </c>
-      <c r="C44" s="151" t="s">
+      <c r="C44" s="123" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="152"/>
+      <c r="D44" s="124"/>
       <c r="E44" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="F44" s="153"/>
-      <c r="G44" s="154"/>
+      <c r="F44" s="119"/>
+      <c r="G44" s="120"/>
       <c r="H44" s="86"/>
       <c r="I44" s="57"/>
       <c r="J44" s="58"/>
       <c r="K44" s="58"/>
-      <c r="L44" s="119"/>
-      <c r="M44" s="120"/>
+      <c r="L44" s="121"/>
+      <c r="M44" s="122"/>
       <c r="N44" s="95">
         <v>1200</v>
       </c>
@@ -4203,21 +4209,21 @@
       <c r="B45" s="97" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="151" t="s">
+      <c r="C45" s="123" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="152"/>
+      <c r="D45" s="124"/>
       <c r="E45" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F45" s="153"/>
-      <c r="G45" s="154"/>
+      <c r="F45" s="119"/>
+      <c r="G45" s="120"/>
       <c r="H45" s="86"/>
       <c r="I45" s="57"/>
       <c r="J45" s="58"/>
       <c r="K45" s="58"/>
-      <c r="L45" s="119"/>
-      <c r="M45" s="120"/>
+      <c r="L45" s="121"/>
+      <c r="M45" s="122"/>
       <c r="N45" s="95"/>
       <c r="O45" s="86"/>
       <c r="P45" s="55">
@@ -4242,15 +4248,15 @@
       <c r="B46" s="97" t="s">
         <v>155</v>
       </c>
-      <c r="C46" s="151" t="s">
+      <c r="C46" s="123" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="152"/>
+      <c r="D46" s="124"/>
       <c r="E46" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="F46" s="153"/>
-      <c r="G46" s="154"/>
+      <c r="F46" s="119"/>
+      <c r="G46" s="120"/>
       <c r="H46" s="86">
         <v>240</v>
       </c>
@@ -4259,10 +4265,10 @@
       </c>
       <c r="J46" s="58"/>
       <c r="K46" s="58"/>
-      <c r="L46" s="119">
+      <c r="L46" s="121">
         <v>110</v>
       </c>
-      <c r="M46" s="120"/>
+      <c r="M46" s="122"/>
       <c r="N46" s="98"/>
       <c r="O46" s="86"/>
       <c r="P46" s="55"/>
@@ -4283,21 +4289,21 @@
       <c r="B47" s="97" t="s">
         <v>156</v>
       </c>
-      <c r="C47" s="151" t="s">
+      <c r="C47" s="123" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="152"/>
+      <c r="D47" s="124"/>
       <c r="E47" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="F47" s="153"/>
-      <c r="G47" s="154"/>
+      <c r="F47" s="119"/>
+      <c r="G47" s="120"/>
       <c r="H47" s="86"/>
       <c r="I47" s="57"/>
       <c r="J47" s="58"/>
       <c r="K47" s="58"/>
-      <c r="L47" s="119"/>
-      <c r="M47" s="120"/>
+      <c r="L47" s="121"/>
+      <c r="M47" s="122"/>
       <c r="N47" s="98"/>
       <c r="O47" s="86"/>
       <c r="P47" s="55">
@@ -4320,15 +4326,15 @@
       <c r="B48" s="97" t="s">
         <v>157</v>
       </c>
-      <c r="C48" s="151" t="s">
+      <c r="C48" s="123" t="s">
         <v>127</v>
       </c>
-      <c r="D48" s="152"/>
+      <c r="D48" s="124"/>
       <c r="E48" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="F48" s="153"/>
-      <c r="G48" s="154"/>
+      <c r="F48" s="119"/>
+      <c r="G48" s="120"/>
       <c r="H48" s="86">
         <v>1200</v>
       </c>
@@ -4337,8 +4343,8 @@
         <v>240</v>
       </c>
       <c r="K48" s="58"/>
-      <c r="L48" s="119"/>
-      <c r="M48" s="120"/>
+      <c r="L48" s="121"/>
+      <c r="M48" s="122"/>
       <c r="N48" s="98">
         <v>1200</v>
       </c>
@@ -4367,21 +4373,21 @@
       <c r="B49" s="97" t="s">
         <v>162</v>
       </c>
-      <c r="C49" s="151" t="s">
+      <c r="C49" s="123" t="s">
         <v>172</v>
       </c>
-      <c r="D49" s="152"/>
+      <c r="D49" s="124"/>
       <c r="E49" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="F49" s="153"/>
-      <c r="G49" s="154"/>
+      <c r="F49" s="119"/>
+      <c r="G49" s="120"/>
       <c r="H49" s="86"/>
       <c r="I49" s="57"/>
       <c r="J49" s="58"/>
       <c r="K49" s="58"/>
-      <c r="L49" s="119"/>
-      <c r="M49" s="120"/>
+      <c r="L49" s="121"/>
+      <c r="M49" s="122"/>
       <c r="N49" s="98"/>
       <c r="O49" s="86"/>
       <c r="P49" s="55">
@@ -4404,21 +4410,21 @@
       <c r="B50" s="97" t="s">
         <v>163</v>
       </c>
-      <c r="C50" s="151" t="s">
+      <c r="C50" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="152"/>
+      <c r="D50" s="124"/>
       <c r="E50" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="F50" s="153"/>
-      <c r="G50" s="154"/>
+      <c r="F50" s="119"/>
+      <c r="G50" s="120"/>
       <c r="H50" s="86"/>
       <c r="I50" s="57"/>
       <c r="J50" s="58"/>
       <c r="K50" s="58"/>
-      <c r="L50" s="119"/>
-      <c r="M50" s="120"/>
+      <c r="L50" s="121"/>
+      <c r="M50" s="122"/>
       <c r="N50" s="98"/>
       <c r="O50" s="86"/>
       <c r="P50" s="55">
@@ -4441,21 +4447,21 @@
       <c r="B51" s="97" t="s">
         <v>164</v>
       </c>
-      <c r="C51" s="151" t="s">
+      <c r="C51" s="123" t="s">
         <v>175</v>
       </c>
-      <c r="D51" s="152"/>
+      <c r="D51" s="124"/>
       <c r="E51" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="F51" s="153"/>
-      <c r="G51" s="154"/>
+      <c r="F51" s="119"/>
+      <c r="G51" s="120"/>
       <c r="H51" s="86"/>
       <c r="I51" s="57"/>
       <c r="J51" s="58"/>
       <c r="K51" s="58"/>
-      <c r="L51" s="119"/>
-      <c r="M51" s="120"/>
+      <c r="L51" s="121"/>
+      <c r="M51" s="122"/>
       <c r="N51" s="98"/>
       <c r="O51" s="86"/>
       <c r="P51" s="55">
@@ -4478,15 +4484,15 @@
       <c r="B52" s="97" t="s">
         <v>165</v>
       </c>
-      <c r="C52" s="151" t="s">
+      <c r="C52" s="123" t="s">
         <v>127</v>
       </c>
-      <c r="D52" s="152"/>
+      <c r="D52" s="124"/>
       <c r="E52" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="F52" s="153"/>
-      <c r="G52" s="154"/>
+      <c r="F52" s="119"/>
+      <c r="G52" s="120"/>
       <c r="H52" s="86">
         <v>960</v>
       </c>
@@ -4497,10 +4503,10 @@
       <c r="K52" s="58">
         <v>660</v>
       </c>
-      <c r="L52" s="119">
+      <c r="L52" s="121">
         <v>330</v>
       </c>
-      <c r="M52" s="120"/>
+      <c r="M52" s="122"/>
       <c r="N52" s="98">
         <v>360</v>
       </c>
@@ -4529,23 +4535,23 @@
       <c r="B53" s="97" t="s">
         <v>166</v>
       </c>
-      <c r="C53" s="151" t="s">
+      <c r="C53" s="123" t="s">
         <v>120</v>
       </c>
-      <c r="D53" s="152"/>
+      <c r="D53" s="124"/>
       <c r="E53" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F53" s="153"/>
-      <c r="G53" s="154"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="120"/>
       <c r="H53" s="86"/>
       <c r="I53" s="57">
         <v>1800</v>
       </c>
       <c r="J53" s="58"/>
       <c r="K53" s="58"/>
-      <c r="L53" s="119"/>
-      <c r="M53" s="120"/>
+      <c r="L53" s="121"/>
+      <c r="M53" s="122"/>
       <c r="N53" s="98">
         <v>720</v>
       </c>
@@ -4572,23 +4578,23 @@
       <c r="B54" s="97" t="s">
         <v>167</v>
       </c>
-      <c r="C54" s="151" t="s">
+      <c r="C54" s="123" t="s">
         <v>123</v>
       </c>
-      <c r="D54" s="152"/>
+      <c r="D54" s="124"/>
       <c r="E54" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F54" s="153"/>
-      <c r="G54" s="154"/>
+      <c r="F54" s="119"/>
+      <c r="G54" s="120"/>
       <c r="H54" s="86"/>
       <c r="I54" s="57">
         <v>600</v>
       </c>
       <c r="J54" s="58"/>
       <c r="K54" s="58"/>
-      <c r="L54" s="119"/>
-      <c r="M54" s="120"/>
+      <c r="L54" s="121"/>
+      <c r="M54" s="122"/>
       <c r="N54" s="98"/>
       <c r="O54" s="86"/>
       <c r="P54" s="55">
@@ -4611,21 +4617,21 @@
       <c r="B55" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="C55" s="151" t="s">
+      <c r="C55" s="123" t="s">
         <v>122</v>
       </c>
-      <c r="D55" s="152"/>
+      <c r="D55" s="124"/>
       <c r="E55" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F55" s="153"/>
-      <c r="G55" s="154"/>
+      <c r="F55" s="119"/>
+      <c r="G55" s="120"/>
       <c r="H55" s="86"/>
       <c r="I55" s="57"/>
       <c r="J55" s="58"/>
       <c r="K55" s="58"/>
-      <c r="L55" s="119"/>
-      <c r="M55" s="120"/>
+      <c r="L55" s="121"/>
+      <c r="M55" s="122"/>
       <c r="N55" s="98">
         <v>480</v>
       </c>
@@ -4646,18 +4652,18 @@
       </c>
     </row>
     <row r="56" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A56" s="166" t="s">
+      <c r="A56" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="B56" s="167"/>
-      <c r="C56" s="167"/>
+      <c r="B56" s="161"/>
+      <c r="C56" s="161"/>
       <c r="D56" s="62"/>
       <c r="E56" s="60"/>
-      <c r="F56" s="127">
+      <c r="F56" s="162">
         <f>SUM(F5:G55)</f>
         <v>768</v>
       </c>
-      <c r="G56" s="129"/>
+      <c r="G56" s="163"/>
       <c r="H56" s="34">
         <f>SUM(H5:H55)</f>
         <v>5712</v>
@@ -4674,11 +4680,11 @@
         <f>SUM(K5:K55)</f>
         <v>2442</v>
       </c>
-      <c r="L56" s="130">
+      <c r="L56" s="164">
         <f>SUM(L5:M55)</f>
         <v>440</v>
       </c>
-      <c r="M56" s="128"/>
+      <c r="M56" s="165"/>
       <c r="N56" s="77">
         <f t="shared" ref="N56:T56" si="1">SUM(N5:N55)</f>
         <v>10440</v>
@@ -4712,16 +4718,16 @@
       <c r="X56" s="13"/>
     </row>
     <row r="57" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A57" s="166"/>
-      <c r="B57" s="167"/>
-      <c r="C57" s="167"/>
+      <c r="A57" s="160"/>
+      <c r="B57" s="161"/>
+      <c r="C57" s="161"/>
       <c r="D57" s="62"/>
       <c r="E57" s="60"/>
-      <c r="F57" s="127">
+      <c r="F57" s="162">
         <f>F4+F56</f>
         <v>768</v>
       </c>
-      <c r="G57" s="129"/>
+      <c r="G57" s="163"/>
       <c r="H57" s="34">
         <f>H4+H56</f>
         <v>5712</v>
@@ -4738,11 +4744,11 @@
         <f>K4+K56</f>
         <v>2442</v>
       </c>
-      <c r="L57" s="130">
+      <c r="L57" s="164">
         <f>L4+L56</f>
         <v>440</v>
       </c>
-      <c r="M57" s="128"/>
+      <c r="M57" s="165"/>
       <c r="N57" s="77">
         <f t="shared" ref="N57:T57" si="2">N4+N56</f>
         <v>10440</v>
@@ -4778,63 +4784,63 @@
       <c r="V58" s="13"/>
     </row>
     <row r="59" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A59" s="168" t="s">
+      <c r="A59" s="166" t="s">
         <v>161</v>
       </c>
-      <c r="B59" s="169"/>
-      <c r="C59" s="169"/>
-      <c r="D59" s="169"/>
-      <c r="E59" s="169"/>
-      <c r="F59" s="169"/>
-      <c r="G59" s="169"/>
-      <c r="H59" s="169"/>
-      <c r="I59" s="169"/>
-      <c r="J59" s="169"/>
-      <c r="K59" s="169"/>
-      <c r="L59" s="169"/>
-      <c r="M59" s="169"/>
-      <c r="N59" s="169"/>
-      <c r="O59" s="169"/>
-      <c r="P59" s="169"/>
-      <c r="Q59" s="170"/>
+      <c r="B59" s="167"/>
+      <c r="C59" s="167"/>
+      <c r="D59" s="167"/>
+      <c r="E59" s="167"/>
+      <c r="F59" s="167"/>
+      <c r="G59" s="167"/>
+      <c r="H59" s="167"/>
+      <c r="I59" s="167"/>
+      <c r="J59" s="167"/>
+      <c r="K59" s="167"/>
+      <c r="L59" s="167"/>
+      <c r="M59" s="167"/>
+      <c r="N59" s="167"/>
+      <c r="O59" s="167"/>
+      <c r="P59" s="167"/>
+      <c r="Q59" s="168"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="28"/>
     </row>
     <row r="60" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A60" s="171" t="s">
+      <c r="A60" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="B60" s="172"/>
-      <c r="C60" s="175" t="s">
+      <c r="B60" s="126"/>
+      <c r="C60" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="D60" s="175" t="s">
+      <c r="D60" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="178" t="s">
+      <c r="E60" s="172" t="s">
         <v>19</v>
       </c>
-      <c r="F60" s="171" t="s">
+      <c r="F60" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="G60" s="172"/>
-      <c r="H60" s="180" t="s">
+      <c r="G60" s="126"/>
+      <c r="H60" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="I60" s="181"/>
-      <c r="J60" s="182"/>
-      <c r="K60" s="183" t="s">
+      <c r="I60" s="175"/>
+      <c r="J60" s="176"/>
+      <c r="K60" s="177" t="s">
         <v>25</v>
       </c>
-      <c r="L60" s="184"/>
-      <c r="M60" s="184"/>
-      <c r="N60" s="184"/>
-      <c r="O60" s="185"/>
-      <c r="P60" s="175" t="s">
+      <c r="L60" s="178"/>
+      <c r="M60" s="178"/>
+      <c r="N60" s="178"/>
+      <c r="O60" s="179"/>
+      <c r="P60" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="Q60" s="186" t="s">
+      <c r="Q60" s="180" t="s">
         <v>38</v>
       </c>
       <c r="R60" s="1"/>
@@ -4842,13 +4848,13 @@
       <c r="T60" s="28"/>
     </row>
     <row r="61" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A61" s="173"/>
-      <c r="B61" s="174"/>
-      <c r="C61" s="176"/>
-      <c r="D61" s="177"/>
-      <c r="E61" s="179"/>
-      <c r="F61" s="173"/>
-      <c r="G61" s="174"/>
+      <c r="A61" s="127"/>
+      <c r="B61" s="128"/>
+      <c r="C61" s="170"/>
+      <c r="D61" s="171"/>
+      <c r="E61" s="173"/>
+      <c r="F61" s="127"/>
+      <c r="G61" s="128"/>
       <c r="H61" s="70" t="s">
         <v>49</v>
       </c>
@@ -4861,25 +4867,25 @@
       <c r="K61" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="L61" s="183" t="s">
+      <c r="L61" s="177" t="s">
         <v>47</v>
       </c>
-      <c r="M61" s="185"/>
+      <c r="M61" s="179"/>
       <c r="N61" s="70" t="s">
         <v>46</v>
       </c>
       <c r="O61" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="P61" s="177"/>
-      <c r="Q61" s="187"/>
+      <c r="P61" s="171"/>
+      <c r="Q61" s="181"/>
       <c r="T61" s="28"/>
     </row>
     <row r="62" spans="1:24" ht="15" customHeight="1">
-      <c r="A62" s="171" t="s">
+      <c r="A62" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="172"/>
+      <c r="B62" s="126"/>
       <c r="C62" s="66" t="s">
         <v>28</v>
       </c>
@@ -4887,14 +4893,14 @@
       <c r="E62" s="4">
         <v>720</v>
       </c>
-      <c r="F62" s="193"/>
-      <c r="G62" s="193"/>
+      <c r="F62" s="129"/>
+      <c r="G62" s="129"/>
       <c r="H62" s="4"/>
       <c r="I62" s="67"/>
       <c r="J62" s="4"/>
       <c r="K62" s="67"/>
-      <c r="L62" s="194"/>
-      <c r="M62" s="195"/>
+      <c r="L62" s="130"/>
+      <c r="M62" s="131"/>
       <c r="N62" s="67"/>
       <c r="O62" s="4">
         <v>48</v>
@@ -4911,8 +4917,8 @@
       </c>
     </row>
     <row r="63" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A63" s="173"/>
-      <c r="B63" s="174"/>
+      <c r="A63" s="127"/>
+      <c r="B63" s="128"/>
       <c r="C63" s="74" t="s">
         <v>29</v>
       </c>
@@ -4920,16 +4926,16 @@
       <c r="E63" s="14">
         <v>2640</v>
       </c>
-      <c r="F63" s="200">
+      <c r="F63" s="132">
         <v>2160</v>
       </c>
-      <c r="G63" s="200"/>
+      <c r="G63" s="132"/>
       <c r="H63" s="14"/>
       <c r="I63" s="71"/>
       <c r="J63" s="14"/>
       <c r="K63" s="71"/>
-      <c r="L63" s="201"/>
-      <c r="M63" s="202"/>
+      <c r="L63" s="133"/>
+      <c r="M63" s="134"/>
       <c r="N63" s="71"/>
       <c r="O63" s="14">
         <v>672</v>
@@ -4948,10 +4954,10 @@
       </c>
     </row>
     <row r="64" spans="1:24">
-      <c r="A64" s="171" t="s">
+      <c r="A64" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="B64" s="172"/>
+      <c r="B64" s="126"/>
       <c r="C64" s="4" t="s">
         <v>30</v>
       </c>
@@ -4961,10 +4967,10 @@
       <c r="E64" s="4">
         <v>600</v>
       </c>
-      <c r="F64" s="193">
+      <c r="F64" s="129">
         <v>1650</v>
       </c>
-      <c r="G64" s="193"/>
+      <c r="G64" s="129"/>
       <c r="H64" s="4"/>
       <c r="I64" s="67">
         <v>3600</v>
@@ -4973,10 +4979,10 @@
         <v>1200</v>
       </c>
       <c r="K64" s="67"/>
-      <c r="L64" s="194">
+      <c r="L64" s="130">
         <v>120</v>
       </c>
-      <c r="M64" s="195"/>
+      <c r="M64" s="131"/>
       <c r="N64" s="67"/>
       <c r="O64" s="4">
         <v>210</v>
@@ -4995,8 +5001,8 @@
       </c>
     </row>
     <row r="65" spans="1:22">
-      <c r="A65" s="208"/>
-      <c r="B65" s="209"/>
+      <c r="A65" s="140"/>
+      <c r="B65" s="141"/>
       <c r="C65" s="5" t="s">
         <v>32</v>
       </c>
@@ -5006,14 +5012,14 @@
       <c r="E65" s="5">
         <v>240</v>
       </c>
-      <c r="F65" s="213"/>
-      <c r="G65" s="213"/>
+      <c r="F65" s="145"/>
+      <c r="G65" s="145"/>
       <c r="H65" s="5"/>
       <c r="I65" s="69"/>
       <c r="J65" s="5"/>
       <c r="K65" s="69"/>
-      <c r="L65" s="214"/>
-      <c r="M65" s="215"/>
+      <c r="L65" s="146"/>
+      <c r="M65" s="147"/>
       <c r="N65" s="69"/>
       <c r="O65" s="5"/>
       <c r="P65" s="69"/>
@@ -5028,8 +5034,8 @@
       </c>
     </row>
     <row r="66" spans="1:22">
-      <c r="A66" s="208"/>
-      <c r="B66" s="209"/>
+      <c r="A66" s="140"/>
+      <c r="B66" s="141"/>
       <c r="C66" s="5" t="s">
         <v>43</v>
       </c>
@@ -5037,16 +5043,16 @@
         <v>880</v>
       </c>
       <c r="E66" s="5"/>
-      <c r="F66" s="213">
+      <c r="F66" s="145">
         <v>1320</v>
       </c>
-      <c r="G66" s="213"/>
+      <c r="G66" s="145"/>
       <c r="H66" s="5"/>
       <c r="I66" s="69"/>
       <c r="J66" s="5"/>
       <c r="K66" s="69"/>
-      <c r="L66" s="214"/>
-      <c r="M66" s="215"/>
+      <c r="L66" s="146"/>
+      <c r="M66" s="147"/>
       <c r="N66" s="69"/>
       <c r="O66" s="5">
         <v>22</v>
@@ -5065,23 +5071,23 @@
       </c>
     </row>
     <row r="67" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A67" s="173"/>
-      <c r="B67" s="174"/>
+      <c r="A67" s="127"/>
+      <c r="B67" s="128"/>
       <c r="C67" s="65" t="s">
         <v>44</v>
       </c>
       <c r="D67" s="73"/>
       <c r="E67" s="15"/>
-      <c r="F67" s="163">
+      <c r="F67" s="153">
         <v>330</v>
       </c>
-      <c r="G67" s="163"/>
+      <c r="G67" s="153"/>
       <c r="H67" s="15"/>
       <c r="I67" s="72"/>
       <c r="J67" s="15"/>
       <c r="K67" s="72"/>
-      <c r="L67" s="164"/>
-      <c r="M67" s="165"/>
+      <c r="L67" s="154"/>
+      <c r="M67" s="155"/>
       <c r="N67" s="72"/>
       <c r="O67" s="15"/>
       <c r="P67" s="72">
@@ -5098,10 +5104,10 @@
       </c>
     </row>
     <row r="68" spans="1:22">
-      <c r="A68" s="171" t="s">
+      <c r="A68" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="B68" s="172"/>
+      <c r="B68" s="126"/>
       <c r="C68" s="76" t="s">
         <v>28</v>
       </c>
@@ -5111,10 +5117,10 @@
       <c r="E68" s="16">
         <v>1680</v>
       </c>
-      <c r="F68" s="210">
+      <c r="F68" s="142">
         <v>360</v>
       </c>
-      <c r="G68" s="210"/>
+      <c r="G68" s="142"/>
       <c r="H68" s="16">
         <v>1680</v>
       </c>
@@ -5123,8 +5129,8 @@
       </c>
       <c r="J68" s="16"/>
       <c r="K68" s="75"/>
-      <c r="L68" s="211"/>
-      <c r="M68" s="212"/>
+      <c r="L68" s="143"/>
+      <c r="M68" s="144"/>
       <c r="N68" s="75"/>
       <c r="O68" s="16"/>
       <c r="P68" s="75">
@@ -5141,8 +5147,8 @@
       </c>
     </row>
     <row r="69" spans="1:22">
-      <c r="A69" s="208"/>
-      <c r="B69" s="209"/>
+      <c r="A69" s="140"/>
+      <c r="B69" s="141"/>
       <c r="C69" s="68" t="s">
         <v>31</v>
       </c>
@@ -5152,10 +5158,10 @@
       <c r="E69" s="5">
         <v>1440</v>
       </c>
-      <c r="F69" s="213">
+      <c r="F69" s="145">
         <v>240</v>
       </c>
-      <c r="G69" s="213"/>
+      <c r="G69" s="145"/>
       <c r="H69" s="5">
         <v>720</v>
       </c>
@@ -5164,10 +5170,10 @@
       </c>
       <c r="J69" s="5"/>
       <c r="K69" s="69"/>
-      <c r="L69" s="214">
+      <c r="L69" s="146">
         <v>144</v>
       </c>
-      <c r="M69" s="215"/>
+      <c r="M69" s="147"/>
       <c r="N69" s="69"/>
       <c r="O69" s="5"/>
       <c r="P69" s="69">
@@ -5184,8 +5190,8 @@
       </c>
     </row>
     <row r="70" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A70" s="173"/>
-      <c r="B70" s="174"/>
+      <c r="A70" s="127"/>
+      <c r="B70" s="128"/>
       <c r="C70" s="65" t="s">
         <v>29</v>
       </c>
@@ -5195,10 +5201,10 @@
       <c r="E70" s="14">
         <v>8400</v>
       </c>
-      <c r="F70" s="200">
+      <c r="F70" s="132">
         <v>5520</v>
       </c>
-      <c r="G70" s="200"/>
+      <c r="G70" s="132"/>
       <c r="H70" s="14">
         <v>2520</v>
       </c>
@@ -5209,10 +5215,10 @@
         <v>4920</v>
       </c>
       <c r="K70" s="71"/>
-      <c r="L70" s="201">
+      <c r="L70" s="133">
         <v>720</v>
       </c>
-      <c r="M70" s="202"/>
+      <c r="M70" s="134"/>
       <c r="N70" s="71"/>
       <c r="O70" s="14">
         <v>3648</v>
@@ -5231,10 +5237,10 @@
       </c>
     </row>
     <row r="71" spans="1:22">
-      <c r="A71" s="171" t="s">
+      <c r="A71" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="B71" s="172"/>
+      <c r="B71" s="126"/>
       <c r="C71" s="66" t="s">
         <v>31</v>
       </c>
@@ -5244,18 +5250,18 @@
       <c r="E71" s="4">
         <v>240</v>
       </c>
-      <c r="F71" s="193">
+      <c r="F71" s="129">
         <v>360</v>
       </c>
-      <c r="G71" s="193"/>
+      <c r="G71" s="129"/>
       <c r="H71" s="4"/>
       <c r="I71" s="67"/>
       <c r="J71" s="4"/>
       <c r="K71" s="67"/>
-      <c r="L71" s="194">
+      <c r="L71" s="130">
         <v>120</v>
       </c>
-      <c r="M71" s="195"/>
+      <c r="M71" s="131"/>
       <c r="N71" s="67"/>
       <c r="O71" s="4">
         <v>672</v>
@@ -5274,8 +5280,8 @@
       </c>
     </row>
     <row r="72" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A72" s="173"/>
-      <c r="B72" s="174"/>
+      <c r="A72" s="127"/>
+      <c r="B72" s="128"/>
       <c r="C72" s="65" t="s">
         <v>29</v>
       </c>
@@ -5283,14 +5289,14 @@
         <v>900</v>
       </c>
       <c r="E72" s="15"/>
-      <c r="F72" s="163"/>
-      <c r="G72" s="163"/>
+      <c r="F72" s="153"/>
+      <c r="G72" s="153"/>
       <c r="H72" s="15"/>
       <c r="I72" s="72"/>
       <c r="J72" s="15"/>
       <c r="K72" s="72"/>
-      <c r="L72" s="164"/>
-      <c r="M72" s="165"/>
+      <c r="L72" s="154"/>
+      <c r="M72" s="155"/>
       <c r="N72" s="72"/>
       <c r="O72" s="15"/>
       <c r="P72" s="72"/>
@@ -5305,11 +5311,11 @@
       </c>
     </row>
     <row r="73" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A73" s="196" t="s">
+      <c r="A73" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="B73" s="197"/>
-      <c r="C73" s="197"/>
+      <c r="B73" s="157"/>
+      <c r="C73" s="157"/>
       <c r="D73" s="23">
         <f>SUM(D62:D72)</f>
         <v>40630</v>
@@ -5318,11 +5324,11 @@
         <f t="shared" ref="E73" si="4">SUM(E62:E72)</f>
         <v>15960</v>
       </c>
-      <c r="F73" s="198">
+      <c r="F73" s="158">
         <f>SUM(F62:G72)</f>
         <v>11940</v>
       </c>
-      <c r="G73" s="199"/>
+      <c r="G73" s="159"/>
       <c r="H73" s="23">
         <f>SUM(H62:H72)</f>
         <v>4920</v>
@@ -5339,11 +5345,11 @@
         <f>SUM(K62:K72)</f>
         <v>0</v>
       </c>
-      <c r="L73" s="198">
+      <c r="L73" s="158">
         <f>SUM(L62:M72)</f>
         <v>1104</v>
       </c>
-      <c r="M73" s="199"/>
+      <c r="M73" s="159"/>
       <c r="N73" s="23">
         <f>SUM(N62:N72)</f>
         <v>0</v>
@@ -5369,47 +5375,47 @@
       </c>
     </row>
     <row r="74" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A74" s="203" t="s">
+      <c r="A74" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="B74" s="204"/>
-      <c r="C74" s="204"/>
-      <c r="D74" s="205">
+      <c r="B74" s="136"/>
+      <c r="C74" s="136"/>
+      <c r="D74" s="137">
         <f>D73+E73+F73+H73+I73+J73+K73+L73+N73+O73+P73</f>
         <v>122966</v>
       </c>
-      <c r="E74" s="206"/>
-      <c r="F74" s="206"/>
-      <c r="G74" s="206"/>
-      <c r="H74" s="206"/>
-      <c r="I74" s="206"/>
-      <c r="J74" s="206"/>
-      <c r="K74" s="206"/>
-      <c r="L74" s="206"/>
-      <c r="M74" s="206"/>
-      <c r="N74" s="206"/>
-      <c r="O74" s="206"/>
-      <c r="P74" s="206"/>
-      <c r="Q74" s="207"/>
+      <c r="E74" s="138"/>
+      <c r="F74" s="138"/>
+      <c r="G74" s="138"/>
+      <c r="H74" s="138"/>
+      <c r="I74" s="138"/>
+      <c r="J74" s="138"/>
+      <c r="K74" s="138"/>
+      <c r="L74" s="138"/>
+      <c r="M74" s="138"/>
+      <c r="N74" s="138"/>
+      <c r="O74" s="138"/>
+      <c r="P74" s="138"/>
+      <c r="Q74" s="139"/>
       <c r="T74" s="28"/>
       <c r="V74" s="13"/>
     </row>
     <row r="75" spans="1:22" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A75" s="188" t="s">
+      <c r="A75" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="B75" s="189"/>
-      <c r="C75" s="189"/>
+      <c r="B75" s="149"/>
+      <c r="C75" s="149"/>
       <c r="D75" s="25">
         <v>12859514</v>
       </c>
       <c r="E75" s="22">
         <v>5003124</v>
       </c>
-      <c r="F75" s="190">
+      <c r="F75" s="150">
         <v>3781158</v>
       </c>
-      <c r="G75" s="191"/>
+      <c r="G75" s="151"/>
       <c r="H75" s="22">
         <v>1562741</v>
       </c>
@@ -5420,10 +5426,10 @@
         <v>1941728</v>
       </c>
       <c r="K75" s="22"/>
-      <c r="L75" s="192">
+      <c r="L75" s="152">
         <v>357629</v>
       </c>
-      <c r="M75" s="191"/>
+      <c r="M75" s="151"/>
       <c r="N75" s="26"/>
       <c r="O75" s="22">
         <v>1792633</v>
@@ -5460,6 +5466,202 @@
     <filterColumn colId="16" showButton="0"/>
   </autoFilter>
   <mergeCells count="220">
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="A59:Q59"/>
+    <mergeCell ref="A60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:G61"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="K60:O60"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="A71:B72"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="A62:B63"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="D74:Q74"/>
+    <mergeCell ref="A68:B70"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="A64:B67"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="L66:M66"/>
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="F53:G53"/>
@@ -5484,202 +5686,6 @@
     <mergeCell ref="F49:G49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="F50:G50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="A62:B63"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="D74:Q74"/>
-    <mergeCell ref="A68:B70"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="A64:B67"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="A71:B72"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="A59:Q59"/>
-    <mergeCell ref="A60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:G61"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="K60:O60"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.16" right="0.16" top="0.34" bottom="0.16" header="0.23" footer="0.16"/>
   <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -5691,8 +5697,8 @@
   <dimension ref="A1:X78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R3" sqref="R1:R1048576"/>
+      <pane ySplit="4" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S74" sqref="S74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5722,81 +5728,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="16.5" thickBot="1">
-      <c r="A1" s="131" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="133"/>
+      <c r="A1" s="182" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
+      <c r="O1" s="183"/>
+      <c r="P1" s="183"/>
+      <c r="Q1" s="183"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="183"/>
+      <c r="T1" s="184"/>
     </row>
     <row r="2" spans="1:20" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="138" t="s">
+      <c r="C2" s="189" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="139"/>
-      <c r="E2" s="142" t="s">
+      <c r="D2" s="190"/>
+      <c r="E2" s="193" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="144" t="s">
+      <c r="F2" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="136"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="146" t="s">
+      <c r="G2" s="187"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="197" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="146" t="s">
+      <c r="J2" s="198"/>
+      <c r="K2" s="198"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="147"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="149" t="s">
+      <c r="O2" s="198"/>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="150"/>
-      <c r="S2" s="136" t="s">
+      <c r="R2" s="201"/>
+      <c r="S2" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="121" t="s">
+      <c r="T2" s="202" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="6" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A3" s="135"/>
-      <c r="B3" s="137"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="123" t="s">
+      <c r="A3" s="186"/>
+      <c r="B3" s="188"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="204" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="124"/>
+      <c r="G3" s="205"/>
       <c r="H3" s="9" t="s">
         <v>4</v>
       </c>
@@ -5809,10 +5815,10 @@
       <c r="K3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="125" t="s">
+      <c r="L3" s="206" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="126"/>
+      <c r="M3" s="207"/>
       <c r="N3" s="8" t="s">
         <v>21</v>
       </c>
@@ -5828,21 +5834,21 @@
       <c r="R3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="137"/>
-      <c r="T3" s="122"/>
+      <c r="S3" s="188"/>
+      <c r="T3" s="203"/>
     </row>
     <row r="4" spans="1:20" s="18" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="114" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="30"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="128"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="165"/>
       <c r="E4" s="31"/>
-      <c r="F4" s="127">
+      <c r="F4" s="162">
         <v>768</v>
       </c>
-      <c r="G4" s="129"/>
+      <c r="G4" s="163"/>
       <c r="H4" s="116">
         <v>5712</v>
       </c>
@@ -5855,10 +5861,10 @@
       <c r="K4" s="116">
         <v>2442</v>
       </c>
-      <c r="L4" s="130">
+      <c r="L4" s="164">
         <v>440</v>
       </c>
-      <c r="M4" s="128"/>
+      <c r="M4" s="165"/>
       <c r="N4" s="115">
         <v>10440</v>
       </c>
@@ -5884,28 +5890,28 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="37" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B5" s="38">
         <v>52</v>
       </c>
-      <c r="C5" s="157" t="s">
+      <c r="C5" s="210" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="160"/>
+      <c r="D5" s="213"/>
       <c r="E5" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="153"/>
-      <c r="G5" s="154"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="120"/>
       <c r="H5" s="102"/>
       <c r="I5" s="46">
         <v>90</v>
       </c>
       <c r="J5" s="47"/>
       <c r="K5" s="47"/>
-      <c r="L5" s="161"/>
-      <c r="M5" s="162"/>
+      <c r="L5" s="214"/>
+      <c r="M5" s="215"/>
       <c r="N5" s="48"/>
       <c r="O5" s="102"/>
       <c r="P5" s="49"/>
@@ -5921,26 +5927,26 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="37" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B6" s="38">
         <v>53</v>
       </c>
-      <c r="C6" s="151" t="s">
+      <c r="C6" s="123" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="152"/>
+      <c r="D6" s="124"/>
       <c r="E6" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="153"/>
-      <c r="G6" s="154"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="120"/>
       <c r="H6" s="102"/>
       <c r="I6" s="48"/>
       <c r="J6" s="52"/>
       <c r="K6" s="52"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="120"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="122"/>
       <c r="N6" s="48">
         <v>960</v>
       </c>
@@ -5962,28 +5968,28 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="37" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B7" s="38">
         <v>54</v>
       </c>
-      <c r="C7" s="151" t="s">
+      <c r="C7" s="123" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="152"/>
+      <c r="D7" s="124"/>
       <c r="E7" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="153"/>
-      <c r="G7" s="154"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="120"/>
       <c r="H7" s="102">
         <v>48</v>
       </c>
       <c r="I7" s="48"/>
       <c r="J7" s="52"/>
       <c r="K7" s="52"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="120"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="122"/>
       <c r="N7" s="48"/>
       <c r="O7" s="102"/>
       <c r="P7" s="49"/>
@@ -5999,26 +6005,26 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="37" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B8" s="38">
         <v>55</v>
       </c>
-      <c r="C8" s="153" t="s">
+      <c r="C8" s="119" t="s">
         <v>149</v>
       </c>
-      <c r="D8" s="120"/>
+      <c r="D8" s="122"/>
       <c r="E8" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="153"/>
-      <c r="G8" s="154"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="120"/>
       <c r="H8" s="102"/>
       <c r="I8" s="48"/>
       <c r="J8" s="52"/>
       <c r="K8" s="52"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="120"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="122"/>
       <c r="N8" s="48"/>
       <c r="O8" s="102"/>
       <c r="P8" s="49">
@@ -6036,26 +6042,26 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="37" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B9" s="38">
         <v>56</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="123" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="152"/>
+      <c r="D9" s="124"/>
       <c r="E9" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="153"/>
-      <c r="G9" s="154"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="120"/>
       <c r="H9" s="102"/>
       <c r="I9" s="48"/>
       <c r="J9" s="52"/>
       <c r="K9" s="52"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="120"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="122"/>
       <c r="N9" s="48"/>
       <c r="O9" s="102"/>
       <c r="P9" s="49"/>
@@ -6073,28 +6079,28 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="37" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B10" s="38">
         <v>57</v>
       </c>
-      <c r="C10" s="151" t="s">
+      <c r="C10" s="123" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="152"/>
+      <c r="D10" s="124"/>
       <c r="E10" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F10" s="153"/>
-      <c r="G10" s="154"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="120"/>
       <c r="H10" s="102"/>
       <c r="I10" s="48">
         <v>750</v>
       </c>
       <c r="J10" s="52"/>
       <c r="K10" s="52"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="120"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="122"/>
       <c r="N10" s="48">
         <v>600</v>
       </c>
@@ -6116,26 +6122,26 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="37" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B11" s="38">
         <v>58</v>
       </c>
-      <c r="C11" s="151" t="s">
+      <c r="C11" s="123" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="152"/>
+      <c r="D11" s="124"/>
       <c r="E11" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F11" s="153"/>
-      <c r="G11" s="154"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="120"/>
       <c r="H11" s="102"/>
       <c r="I11" s="48"/>
       <c r="J11" s="52"/>
       <c r="K11" s="52"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="120"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="122"/>
       <c r="N11" s="48">
         <v>960</v>
       </c>
@@ -6157,28 +6163,28 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="37" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B12" s="38">
         <v>59</v>
       </c>
-      <c r="C12" s="151" t="s">
+      <c r="C12" s="123" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="152"/>
+      <c r="D12" s="124"/>
       <c r="E12" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="153"/>
-      <c r="G12" s="154"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="120"/>
       <c r="H12" s="102"/>
       <c r="I12" s="48">
         <v>450</v>
       </c>
       <c r="J12" s="52"/>
       <c r="K12" s="52"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="120"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="122"/>
       <c r="N12" s="48"/>
       <c r="O12" s="102"/>
       <c r="P12" s="49">
@@ -6196,26 +6202,26 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="37" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B13" s="38">
         <v>60</v>
       </c>
-      <c r="C13" s="151" t="s">
-        <v>183</v>
-      </c>
-      <c r="D13" s="152"/>
+      <c r="C13" s="123" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="124"/>
       <c r="E13" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="F13" s="153"/>
-      <c r="G13" s="154"/>
+        <v>182</v>
+      </c>
+      <c r="F13" s="119"/>
+      <c r="G13" s="120"/>
       <c r="H13" s="102"/>
       <c r="I13" s="48"/>
       <c r="J13" s="52"/>
       <c r="K13" s="52"/>
-      <c r="L13" s="119"/>
-      <c r="M13" s="120"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="122"/>
       <c r="N13" s="48"/>
       <c r="O13" s="102"/>
       <c r="P13" s="49"/>
@@ -6233,28 +6239,28 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="117" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B14" s="38">
         <v>61</v>
       </c>
-      <c r="C14" s="151" t="s">
+      <c r="C14" s="123" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="152"/>
+      <c r="D14" s="124"/>
       <c r="E14" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="153"/>
-      <c r="G14" s="154"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="120"/>
       <c r="H14" s="102"/>
       <c r="I14" s="48">
         <v>6450</v>
       </c>
       <c r="J14" s="52"/>
       <c r="K14" s="52"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="120"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="122"/>
       <c r="N14" s="101"/>
       <c r="O14" s="102"/>
       <c r="P14" s="49"/>
@@ -6277,17 +6283,17 @@
       <c r="B15" s="38">
         <v>62</v>
       </c>
-      <c r="C15" s="151" t="s">
+      <c r="C15" s="123" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="152"/>
+      <c r="D15" s="124"/>
       <c r="E15" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="153">
+      <c r="F15" s="119">
         <v>24</v>
       </c>
-      <c r="G15" s="154"/>
+      <c r="G15" s="120"/>
       <c r="H15" s="102">
         <v>1200</v>
       </c>
@@ -6298,10 +6304,10 @@
       <c r="K15" s="52">
         <v>220</v>
       </c>
-      <c r="L15" s="119">
+      <c r="L15" s="121">
         <v>110</v>
       </c>
-      <c r="M15" s="120"/>
+      <c r="M15" s="122"/>
       <c r="N15" s="101">
         <v>240</v>
       </c>
@@ -6322,75 +6328,115 @@
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="101"/>
+      <c r="A16" s="118" t="s">
+        <v>185</v>
+      </c>
       <c r="B16" s="38">
         <v>63</v>
       </c>
-      <c r="C16" s="151"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="102"/>
+      <c r="C16" s="123" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="124"/>
+      <c r="E16" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="119">
+        <v>600</v>
+      </c>
+      <c r="G16" s="120"/>
+      <c r="H16" s="102">
+        <v>1200</v>
+      </c>
       <c r="I16" s="48"/>
       <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="120"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="102"/>
-      <c r="P16" s="49"/>
+      <c r="K16" s="52">
+        <v>220</v>
+      </c>
+      <c r="L16" s="121"/>
+      <c r="M16" s="122"/>
+      <c r="N16" s="101">
+        <v>480</v>
+      </c>
+      <c r="O16" s="102">
+        <v>600</v>
+      </c>
+      <c r="P16" s="49">
+        <v>5400</v>
+      </c>
       <c r="Q16" s="101"/>
       <c r="R16" s="55"/>
       <c r="S16" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="54"/>
+        <v>8500</v>
+      </c>
+      <c r="T16" s="54">
+        <v>2670081</v>
+      </c>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="101"/>
+      <c r="A17" s="118" t="s">
+        <v>186</v>
+      </c>
       <c r="B17" s="38">
         <v>64</v>
       </c>
-      <c r="C17" s="151"/>
-      <c r="D17" s="152"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="48"/>
+      <c r="C17" s="123" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="124"/>
+      <c r="E17" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="119">
+        <v>120</v>
+      </c>
+      <c r="G17" s="120"/>
+      <c r="H17" s="102">
+        <v>240</v>
+      </c>
+      <c r="I17" s="48">
+        <v>300</v>
+      </c>
       <c r="J17" s="52"/>
       <c r="K17" s="52"/>
-      <c r="L17" s="119"/>
-      <c r="M17" s="120"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="102"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="122"/>
+      <c r="N17" s="101">
+        <v>1200</v>
+      </c>
+      <c r="O17" s="102">
+        <v>720</v>
+      </c>
       <c r="P17" s="49"/>
-      <c r="Q17" s="101"/>
+      <c r="Q17" s="101">
+        <v>120</v>
+      </c>
       <c r="R17" s="55"/>
       <c r="S17" s="53">
         <f>SUM(F17:R17)</f>
-        <v>0</v>
-      </c>
-      <c r="T17" s="54"/>
+        <v>2700</v>
+      </c>
+      <c r="T17" s="54">
+        <v>858472</v>
+      </c>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="101"/>
       <c r="B18" s="38">
         <v>65</v>
       </c>
-      <c r="C18" s="151"/>
-      <c r="D18" s="152"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="124"/>
       <c r="E18" s="45"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="154"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="120"/>
       <c r="H18" s="102"/>
       <c r="I18" s="48"/>
       <c r="J18" s="52"/>
       <c r="K18" s="52"/>
-      <c r="L18" s="119"/>
-      <c r="M18" s="120"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="122"/>
       <c r="N18" s="101"/>
       <c r="O18" s="102"/>
       <c r="P18" s="49"/>
@@ -6408,17 +6454,17 @@
       <c r="B19" s="38">
         <v>66</v>
       </c>
-      <c r="C19" s="153"/>
-      <c r="D19" s="120"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="122"/>
       <c r="E19" s="45"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="154"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="120"/>
       <c r="H19" s="102"/>
       <c r="I19" s="48"/>
       <c r="J19" s="52"/>
       <c r="K19" s="52"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="120"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="122"/>
       <c r="N19" s="101"/>
       <c r="O19" s="102"/>
       <c r="P19" s="49"/>
@@ -6435,17 +6481,17 @@
       <c r="B20" s="38">
         <v>67</v>
       </c>
-      <c r="C20" s="153"/>
-      <c r="D20" s="120"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="122"/>
       <c r="E20" s="45"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="154"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="120"/>
       <c r="H20" s="102"/>
       <c r="I20" s="48"/>
       <c r="J20" s="52"/>
       <c r="K20" s="52"/>
-      <c r="L20" s="119"/>
-      <c r="M20" s="120"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="122"/>
       <c r="N20" s="101"/>
       <c r="O20" s="102"/>
       <c r="P20" s="49"/>
@@ -6462,17 +6508,17 @@
       <c r="B21" s="38">
         <v>68</v>
       </c>
-      <c r="C21" s="153"/>
-      <c r="D21" s="120"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="122"/>
       <c r="E21" s="45"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="154"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="120"/>
       <c r="H21" s="102"/>
       <c r="I21" s="48"/>
       <c r="J21" s="52"/>
       <c r="K21" s="52"/>
-      <c r="L21" s="119"/>
-      <c r="M21" s="120"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="122"/>
       <c r="N21" s="101"/>
       <c r="O21" s="102"/>
       <c r="P21" s="49"/>
@@ -6489,17 +6535,17 @@
       <c r="B22" s="38">
         <v>69</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="120"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="122"/>
       <c r="E22" s="45"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="154"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="120"/>
       <c r="H22" s="102"/>
       <c r="I22" s="48"/>
       <c r="J22" s="52"/>
       <c r="K22" s="52"/>
-      <c r="L22" s="119"/>
-      <c r="M22" s="120"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="122"/>
       <c r="N22" s="101"/>
       <c r="O22" s="102"/>
       <c r="P22" s="49"/>
@@ -6516,17 +6562,17 @@
       <c r="B23" s="38">
         <v>70</v>
       </c>
-      <c r="C23" s="153"/>
-      <c r="D23" s="120"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="122"/>
       <c r="E23" s="45"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="154"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="120"/>
       <c r="H23" s="102"/>
       <c r="I23" s="48"/>
       <c r="J23" s="52"/>
       <c r="K23" s="52"/>
-      <c r="L23" s="119"/>
-      <c r="M23" s="120"/>
+      <c r="L23" s="121"/>
+      <c r="M23" s="122"/>
       <c r="N23" s="101"/>
       <c r="O23" s="102"/>
       <c r="P23" s="49"/>
@@ -6543,17 +6589,17 @@
       <c r="B24" s="38">
         <v>71</v>
       </c>
-      <c r="C24" s="153"/>
-      <c r="D24" s="120"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="122"/>
       <c r="E24" s="45"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="154"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="120"/>
       <c r="H24" s="102"/>
       <c r="I24" s="48"/>
       <c r="J24" s="52"/>
       <c r="K24" s="52"/>
-      <c r="L24" s="119"/>
-      <c r="M24" s="120"/>
+      <c r="L24" s="121"/>
+      <c r="M24" s="122"/>
       <c r="N24" s="101"/>
       <c r="O24" s="102"/>
       <c r="P24" s="49"/>
@@ -6570,17 +6616,17 @@
       <c r="B25" s="38">
         <v>72</v>
       </c>
-      <c r="C25" s="153"/>
-      <c r="D25" s="120"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="122"/>
       <c r="E25" s="45"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="154"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="120"/>
       <c r="H25" s="102"/>
       <c r="I25" s="48"/>
       <c r="J25" s="52"/>
       <c r="K25" s="52"/>
-      <c r="L25" s="119"/>
-      <c r="M25" s="120"/>
+      <c r="L25" s="121"/>
+      <c r="M25" s="122"/>
       <c r="N25" s="101"/>
       <c r="O25" s="102"/>
       <c r="P25" s="49"/>
@@ -6597,17 +6643,17 @@
       <c r="B26" s="38">
         <v>73</v>
       </c>
-      <c r="C26" s="153"/>
-      <c r="D26" s="120"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="122"/>
       <c r="E26" s="56"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="154"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="120"/>
       <c r="H26" s="86"/>
       <c r="I26" s="57"/>
       <c r="J26" s="58"/>
       <c r="K26" s="58"/>
-      <c r="L26" s="119"/>
-      <c r="M26" s="120"/>
+      <c r="L26" s="121"/>
+      <c r="M26" s="122"/>
       <c r="N26" s="103"/>
       <c r="O26" s="86"/>
       <c r="P26" s="55"/>
@@ -6624,17 +6670,17 @@
       <c r="B27" s="38">
         <v>74</v>
       </c>
-      <c r="C27" s="153"/>
-      <c r="D27" s="120"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="122"/>
       <c r="E27" s="56"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="154"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="120"/>
       <c r="H27" s="86"/>
       <c r="I27" s="57"/>
       <c r="J27" s="58"/>
       <c r="K27" s="58"/>
-      <c r="L27" s="119"/>
-      <c r="M27" s="120"/>
+      <c r="L27" s="121"/>
+      <c r="M27" s="122"/>
       <c r="N27" s="103"/>
       <c r="O27" s="86"/>
       <c r="P27" s="55"/>
@@ -6651,17 +6697,17 @@
       <c r="B28" s="38">
         <v>75</v>
       </c>
-      <c r="C28" s="153"/>
-      <c r="D28" s="120"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="122"/>
       <c r="E28" s="56"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="154"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="120"/>
       <c r="H28" s="86"/>
       <c r="I28" s="57"/>
       <c r="J28" s="58"/>
       <c r="K28" s="58"/>
-      <c r="L28" s="119"/>
-      <c r="M28" s="120"/>
+      <c r="L28" s="121"/>
+      <c r="M28" s="122"/>
       <c r="N28" s="103"/>
       <c r="O28" s="86"/>
       <c r="P28" s="55"/>
@@ -6678,17 +6724,17 @@
       <c r="B29" s="38">
         <v>76</v>
       </c>
-      <c r="C29" s="153"/>
-      <c r="D29" s="120"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="122"/>
       <c r="E29" s="56"/>
-      <c r="F29" s="153"/>
-      <c r="G29" s="154"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="120"/>
       <c r="H29" s="86"/>
       <c r="I29" s="57"/>
       <c r="J29" s="58"/>
       <c r="K29" s="58"/>
-      <c r="L29" s="119"/>
-      <c r="M29" s="120"/>
+      <c r="L29" s="121"/>
+      <c r="M29" s="122"/>
       <c r="N29" s="103"/>
       <c r="O29" s="86"/>
       <c r="P29" s="55"/>
@@ -6705,17 +6751,17 @@
       <c r="B30" s="38">
         <v>77</v>
       </c>
-      <c r="C30" s="153"/>
-      <c r="D30" s="120"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="122"/>
       <c r="E30" s="56"/>
-      <c r="F30" s="153"/>
-      <c r="G30" s="154"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="120"/>
       <c r="H30" s="86"/>
       <c r="I30" s="57"/>
       <c r="J30" s="58"/>
       <c r="K30" s="58"/>
-      <c r="L30" s="119"/>
-      <c r="M30" s="120"/>
+      <c r="L30" s="121"/>
+      <c r="M30" s="122"/>
       <c r="N30" s="103"/>
       <c r="O30" s="86"/>
       <c r="P30" s="55"/>
@@ -6732,17 +6778,17 @@
       <c r="B31" s="38">
         <v>78</v>
       </c>
-      <c r="C31" s="153"/>
-      <c r="D31" s="120"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="122"/>
       <c r="E31" s="56"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="154"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="120"/>
       <c r="H31" s="86"/>
       <c r="I31" s="57"/>
       <c r="J31" s="58"/>
       <c r="K31" s="58"/>
-      <c r="L31" s="119"/>
-      <c r="M31" s="120"/>
+      <c r="L31" s="121"/>
+      <c r="M31" s="122"/>
       <c r="N31" s="103"/>
       <c r="O31" s="86"/>
       <c r="P31" s="55"/>
@@ -6759,17 +6805,17 @@
       <c r="B32" s="38">
         <v>79</v>
       </c>
-      <c r="C32" s="153"/>
-      <c r="D32" s="120"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="122"/>
       <c r="E32" s="56"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="154"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="120"/>
       <c r="H32" s="86"/>
       <c r="I32" s="57"/>
       <c r="J32" s="58"/>
       <c r="K32" s="58"/>
-      <c r="L32" s="119"/>
-      <c r="M32" s="120"/>
+      <c r="L32" s="121"/>
+      <c r="M32" s="122"/>
       <c r="N32" s="103"/>
       <c r="O32" s="86"/>
       <c r="P32" s="55"/>
@@ -6786,17 +6832,17 @@
       <c r="B33" s="38">
         <v>80</v>
       </c>
-      <c r="C33" s="153"/>
-      <c r="D33" s="120"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="122"/>
       <c r="E33" s="56"/>
-      <c r="F33" s="153"/>
-      <c r="G33" s="154"/>
+      <c r="F33" s="119"/>
+      <c r="G33" s="120"/>
       <c r="H33" s="86"/>
       <c r="I33" s="57"/>
       <c r="J33" s="58"/>
       <c r="K33" s="58"/>
-      <c r="L33" s="119"/>
-      <c r="M33" s="120"/>
+      <c r="L33" s="121"/>
+      <c r="M33" s="122"/>
       <c r="N33" s="103"/>
       <c r="O33" s="86"/>
       <c r="P33" s="55"/>
@@ -6813,17 +6859,17 @@
       <c r="B34" s="38">
         <v>81</v>
       </c>
-      <c r="C34" s="153"/>
-      <c r="D34" s="120"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="122"/>
       <c r="E34" s="56"/>
-      <c r="F34" s="153"/>
-      <c r="G34" s="154"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="120"/>
       <c r="H34" s="86"/>
       <c r="I34" s="57"/>
       <c r="J34" s="58"/>
       <c r="K34" s="58"/>
-      <c r="L34" s="119"/>
-      <c r="M34" s="120"/>
+      <c r="L34" s="121"/>
+      <c r="M34" s="122"/>
       <c r="N34" s="103"/>
       <c r="O34" s="86"/>
       <c r="P34" s="55"/>
@@ -6840,17 +6886,17 @@
       <c r="B35" s="38">
         <v>82</v>
       </c>
-      <c r="C35" s="153"/>
-      <c r="D35" s="120"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="122"/>
       <c r="E35" s="56"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="154"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="120"/>
       <c r="H35" s="86"/>
       <c r="I35" s="57"/>
       <c r="J35" s="58"/>
       <c r="K35" s="58"/>
-      <c r="L35" s="119"/>
-      <c r="M35" s="120"/>
+      <c r="L35" s="121"/>
+      <c r="M35" s="122"/>
       <c r="N35" s="103"/>
       <c r="O35" s="86"/>
       <c r="P35" s="55"/>
@@ -6867,17 +6913,17 @@
       <c r="B36" s="38">
         <v>83</v>
       </c>
-      <c r="C36" s="153"/>
-      <c r="D36" s="120"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="122"/>
       <c r="E36" s="56"/>
-      <c r="F36" s="153"/>
-      <c r="G36" s="154"/>
+      <c r="F36" s="119"/>
+      <c r="G36" s="120"/>
       <c r="H36" s="86"/>
       <c r="I36" s="57"/>
       <c r="J36" s="58"/>
       <c r="K36" s="58"/>
-      <c r="L36" s="119"/>
-      <c r="M36" s="120"/>
+      <c r="L36" s="121"/>
+      <c r="M36" s="122"/>
       <c r="N36" s="103"/>
       <c r="O36" s="86"/>
       <c r="P36" s="55"/>
@@ -6894,17 +6940,17 @@
       <c r="B37" s="38">
         <v>84</v>
       </c>
-      <c r="C37" s="153"/>
-      <c r="D37" s="120"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="122"/>
       <c r="E37" s="56"/>
-      <c r="F37" s="153"/>
-      <c r="G37" s="154"/>
+      <c r="F37" s="119"/>
+      <c r="G37" s="120"/>
       <c r="H37" s="86"/>
       <c r="I37" s="57"/>
       <c r="J37" s="58"/>
       <c r="K37" s="58"/>
-      <c r="L37" s="119"/>
-      <c r="M37" s="120"/>
+      <c r="L37" s="121"/>
+      <c r="M37" s="122"/>
       <c r="N37" s="103"/>
       <c r="O37" s="86"/>
       <c r="P37" s="55"/>
@@ -6921,17 +6967,17 @@
       <c r="B38" s="38">
         <v>85</v>
       </c>
-      <c r="C38" s="151"/>
-      <c r="D38" s="152"/>
+      <c r="C38" s="123"/>
+      <c r="D38" s="124"/>
       <c r="E38" s="56"/>
-      <c r="F38" s="153"/>
-      <c r="G38" s="154"/>
+      <c r="F38" s="119"/>
+      <c r="G38" s="120"/>
       <c r="H38" s="86"/>
       <c r="I38" s="57"/>
       <c r="J38" s="58"/>
       <c r="K38" s="58"/>
-      <c r="L38" s="119"/>
-      <c r="M38" s="120"/>
+      <c r="L38" s="121"/>
+      <c r="M38" s="122"/>
       <c r="N38" s="103"/>
       <c r="O38" s="86"/>
       <c r="P38" s="55"/>
@@ -6948,17 +6994,17 @@
       <c r="B39" s="38">
         <v>86</v>
       </c>
-      <c r="C39" s="151"/>
-      <c r="D39" s="152"/>
+      <c r="C39" s="123"/>
+      <c r="D39" s="124"/>
       <c r="E39" s="56"/>
-      <c r="F39" s="153"/>
-      <c r="G39" s="154"/>
+      <c r="F39" s="119"/>
+      <c r="G39" s="120"/>
       <c r="H39" s="86"/>
       <c r="I39" s="57"/>
       <c r="J39" s="58"/>
       <c r="K39" s="58"/>
-      <c r="L39" s="119"/>
-      <c r="M39" s="120"/>
+      <c r="L39" s="121"/>
+      <c r="M39" s="122"/>
       <c r="N39" s="103"/>
       <c r="O39" s="86"/>
       <c r="P39" s="55"/>
@@ -6975,17 +7021,17 @@
       <c r="B40" s="38">
         <v>87</v>
       </c>
-      <c r="C40" s="151"/>
-      <c r="D40" s="152"/>
+      <c r="C40" s="123"/>
+      <c r="D40" s="124"/>
       <c r="E40" s="56"/>
-      <c r="F40" s="153"/>
-      <c r="G40" s="154"/>
+      <c r="F40" s="119"/>
+      <c r="G40" s="120"/>
       <c r="H40" s="86"/>
       <c r="I40" s="57"/>
       <c r="J40" s="58"/>
       <c r="K40" s="58"/>
-      <c r="L40" s="119"/>
-      <c r="M40" s="120"/>
+      <c r="L40" s="121"/>
+      <c r="M40" s="122"/>
       <c r="N40" s="103"/>
       <c r="O40" s="86"/>
       <c r="P40" s="55"/>
@@ -7002,17 +7048,17 @@
       <c r="B41" s="38">
         <v>88</v>
       </c>
-      <c r="C41" s="151"/>
-      <c r="D41" s="152"/>
+      <c r="C41" s="123"/>
+      <c r="D41" s="124"/>
       <c r="E41" s="56"/>
-      <c r="F41" s="153"/>
-      <c r="G41" s="154"/>
+      <c r="F41" s="119"/>
+      <c r="G41" s="120"/>
       <c r="H41" s="86"/>
       <c r="I41" s="57"/>
       <c r="J41" s="58"/>
       <c r="K41" s="58"/>
-      <c r="L41" s="119"/>
-      <c r="M41" s="120"/>
+      <c r="L41" s="121"/>
+      <c r="M41" s="122"/>
       <c r="N41" s="103"/>
       <c r="O41" s="86"/>
       <c r="P41" s="55"/>
@@ -7029,17 +7075,17 @@
       <c r="B42" s="38">
         <v>89</v>
       </c>
-      <c r="C42" s="151"/>
-      <c r="D42" s="152"/>
+      <c r="C42" s="123"/>
+      <c r="D42" s="124"/>
       <c r="E42" s="56"/>
-      <c r="F42" s="153"/>
-      <c r="G42" s="154"/>
+      <c r="F42" s="119"/>
+      <c r="G42" s="120"/>
       <c r="H42" s="86"/>
       <c r="I42" s="57"/>
       <c r="J42" s="58"/>
       <c r="K42" s="58"/>
-      <c r="L42" s="119"/>
-      <c r="M42" s="120"/>
+      <c r="L42" s="121"/>
+      <c r="M42" s="122"/>
       <c r="N42" s="103"/>
       <c r="O42" s="86"/>
       <c r="P42" s="55"/>
@@ -7056,17 +7102,17 @@
       <c r="B43" s="38">
         <v>90</v>
       </c>
-      <c r="C43" s="151"/>
-      <c r="D43" s="152"/>
+      <c r="C43" s="123"/>
+      <c r="D43" s="124"/>
       <c r="E43" s="56"/>
-      <c r="F43" s="153"/>
-      <c r="G43" s="154"/>
+      <c r="F43" s="119"/>
+      <c r="G43" s="120"/>
       <c r="H43" s="86"/>
       <c r="I43" s="57"/>
       <c r="J43" s="58"/>
       <c r="K43" s="58"/>
-      <c r="L43" s="119"/>
-      <c r="M43" s="120"/>
+      <c r="L43" s="121"/>
+      <c r="M43" s="122"/>
       <c r="N43" s="103"/>
       <c r="O43" s="86"/>
       <c r="P43" s="55"/>
@@ -7083,17 +7129,17 @@
       <c r="B44" s="38">
         <v>91</v>
       </c>
-      <c r="C44" s="151"/>
-      <c r="D44" s="152"/>
+      <c r="C44" s="123"/>
+      <c r="D44" s="124"/>
       <c r="E44" s="56"/>
-      <c r="F44" s="153"/>
-      <c r="G44" s="154"/>
+      <c r="F44" s="119"/>
+      <c r="G44" s="120"/>
       <c r="H44" s="86"/>
       <c r="I44" s="57"/>
       <c r="J44" s="58"/>
       <c r="K44" s="58"/>
-      <c r="L44" s="119"/>
-      <c r="M44" s="120"/>
+      <c r="L44" s="121"/>
+      <c r="M44" s="122"/>
       <c r="N44" s="103"/>
       <c r="O44" s="86"/>
       <c r="P44" s="55"/>
@@ -7110,17 +7156,17 @@
       <c r="B45" s="38">
         <v>92</v>
       </c>
-      <c r="C45" s="151"/>
-      <c r="D45" s="152"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="124"/>
       <c r="E45" s="56"/>
-      <c r="F45" s="153"/>
-      <c r="G45" s="154"/>
+      <c r="F45" s="119"/>
+      <c r="G45" s="120"/>
       <c r="H45" s="86"/>
       <c r="I45" s="57"/>
       <c r="J45" s="58"/>
       <c r="K45" s="58"/>
-      <c r="L45" s="119"/>
-      <c r="M45" s="120"/>
+      <c r="L45" s="121"/>
+      <c r="M45" s="122"/>
       <c r="N45" s="103"/>
       <c r="O45" s="86"/>
       <c r="P45" s="55"/>
@@ -7137,17 +7183,17 @@
       <c r="B46" s="38">
         <v>93</v>
       </c>
-      <c r="C46" s="151"/>
-      <c r="D46" s="152"/>
+      <c r="C46" s="123"/>
+      <c r="D46" s="124"/>
       <c r="E46" s="56"/>
-      <c r="F46" s="153"/>
-      <c r="G46" s="154"/>
+      <c r="F46" s="119"/>
+      <c r="G46" s="120"/>
       <c r="H46" s="86"/>
       <c r="I46" s="57"/>
       <c r="J46" s="58"/>
       <c r="K46" s="58"/>
-      <c r="L46" s="119"/>
-      <c r="M46" s="120"/>
+      <c r="L46" s="121"/>
+      <c r="M46" s="122"/>
       <c r="N46" s="103"/>
       <c r="O46" s="86"/>
       <c r="P46" s="55"/>
@@ -7164,17 +7210,17 @@
       <c r="B47" s="38">
         <v>94</v>
       </c>
-      <c r="C47" s="151"/>
-      <c r="D47" s="152"/>
+      <c r="C47" s="123"/>
+      <c r="D47" s="124"/>
       <c r="E47" s="56"/>
-      <c r="F47" s="153"/>
-      <c r="G47" s="154"/>
+      <c r="F47" s="119"/>
+      <c r="G47" s="120"/>
       <c r="H47" s="86"/>
       <c r="I47" s="57"/>
       <c r="J47" s="58"/>
       <c r="K47" s="58"/>
-      <c r="L47" s="119"/>
-      <c r="M47" s="120"/>
+      <c r="L47" s="121"/>
+      <c r="M47" s="122"/>
       <c r="N47" s="103"/>
       <c r="O47" s="86"/>
       <c r="P47" s="55"/>
@@ -7191,17 +7237,17 @@
       <c r="B48" s="38">
         <v>95</v>
       </c>
-      <c r="C48" s="151"/>
-      <c r="D48" s="152"/>
+      <c r="C48" s="123"/>
+      <c r="D48" s="124"/>
       <c r="E48" s="99"/>
-      <c r="F48" s="153"/>
-      <c r="G48" s="154"/>
+      <c r="F48" s="119"/>
+      <c r="G48" s="120"/>
       <c r="H48" s="86"/>
       <c r="I48" s="57"/>
       <c r="J48" s="58"/>
       <c r="K48" s="58"/>
-      <c r="L48" s="119"/>
-      <c r="M48" s="120"/>
+      <c r="L48" s="121"/>
+      <c r="M48" s="122"/>
       <c r="N48" s="103"/>
       <c r="O48" s="86"/>
       <c r="P48" s="55"/>
@@ -7218,17 +7264,17 @@
       <c r="B49" s="38">
         <v>96</v>
       </c>
-      <c r="C49" s="151"/>
-      <c r="D49" s="152"/>
+      <c r="C49" s="123"/>
+      <c r="D49" s="124"/>
       <c r="E49" s="56"/>
-      <c r="F49" s="153"/>
-      <c r="G49" s="154"/>
+      <c r="F49" s="119"/>
+      <c r="G49" s="120"/>
       <c r="H49" s="86"/>
       <c r="I49" s="57"/>
       <c r="J49" s="58"/>
       <c r="K49" s="58"/>
-      <c r="L49" s="119"/>
-      <c r="M49" s="120"/>
+      <c r="L49" s="121"/>
+      <c r="M49" s="122"/>
       <c r="N49" s="103"/>
       <c r="O49" s="86"/>
       <c r="P49" s="55"/>
@@ -7245,17 +7291,17 @@
       <c r="B50" s="38">
         <v>97</v>
       </c>
-      <c r="C50" s="151"/>
-      <c r="D50" s="152"/>
+      <c r="C50" s="123"/>
+      <c r="D50" s="124"/>
       <c r="E50" s="56"/>
-      <c r="F50" s="153"/>
-      <c r="G50" s="154"/>
+      <c r="F50" s="119"/>
+      <c r="G50" s="120"/>
       <c r="H50" s="86"/>
       <c r="I50" s="57"/>
       <c r="J50" s="58"/>
       <c r="K50" s="58"/>
-      <c r="L50" s="119"/>
-      <c r="M50" s="120"/>
+      <c r="L50" s="121"/>
+      <c r="M50" s="122"/>
       <c r="N50" s="103"/>
       <c r="O50" s="86"/>
       <c r="P50" s="55"/>
@@ -7272,17 +7318,17 @@
       <c r="B51" s="38">
         <v>98</v>
       </c>
-      <c r="C51" s="151"/>
-      <c r="D51" s="152"/>
+      <c r="C51" s="123"/>
+      <c r="D51" s="124"/>
       <c r="E51" s="56"/>
-      <c r="F51" s="153"/>
-      <c r="G51" s="154"/>
+      <c r="F51" s="119"/>
+      <c r="G51" s="120"/>
       <c r="H51" s="86"/>
       <c r="I51" s="57"/>
       <c r="J51" s="58"/>
       <c r="K51" s="58"/>
-      <c r="L51" s="119"/>
-      <c r="M51" s="120"/>
+      <c r="L51" s="121"/>
+      <c r="M51" s="122"/>
       <c r="N51" s="103"/>
       <c r="O51" s="86"/>
       <c r="P51" s="55"/>
@@ -7299,17 +7345,17 @@
       <c r="B52" s="38">
         <v>99</v>
       </c>
-      <c r="C52" s="151"/>
-      <c r="D52" s="152"/>
+      <c r="C52" s="123"/>
+      <c r="D52" s="124"/>
       <c r="E52" s="56"/>
-      <c r="F52" s="153"/>
-      <c r="G52" s="154"/>
+      <c r="F52" s="119"/>
+      <c r="G52" s="120"/>
       <c r="H52" s="86"/>
       <c r="I52" s="57"/>
       <c r="J52" s="58"/>
       <c r="K52" s="58"/>
-      <c r="L52" s="119"/>
-      <c r="M52" s="120"/>
+      <c r="L52" s="121"/>
+      <c r="M52" s="122"/>
       <c r="N52" s="103"/>
       <c r="O52" s="86"/>
       <c r="P52" s="55"/>
@@ -7326,17 +7372,17 @@
       <c r="B53" s="38">
         <v>100</v>
       </c>
-      <c r="C53" s="151"/>
-      <c r="D53" s="152"/>
+      <c r="C53" s="123"/>
+      <c r="D53" s="124"/>
       <c r="E53" s="56"/>
-      <c r="F53" s="153"/>
-      <c r="G53" s="154"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="120"/>
       <c r="H53" s="86"/>
       <c r="I53" s="57"/>
       <c r="J53" s="58"/>
       <c r="K53" s="58"/>
-      <c r="L53" s="119"/>
-      <c r="M53" s="120"/>
+      <c r="L53" s="121"/>
+      <c r="M53" s="122"/>
       <c r="N53" s="103"/>
       <c r="O53" s="86"/>
       <c r="P53" s="55"/>
@@ -7353,17 +7399,17 @@
       <c r="B54" s="38">
         <v>101</v>
       </c>
-      <c r="C54" s="151"/>
-      <c r="D54" s="152"/>
+      <c r="C54" s="123"/>
+      <c r="D54" s="124"/>
       <c r="E54" s="56"/>
-      <c r="F54" s="153"/>
-      <c r="G54" s="154"/>
+      <c r="F54" s="119"/>
+      <c r="G54" s="120"/>
       <c r="H54" s="86"/>
       <c r="I54" s="57"/>
       <c r="J54" s="58"/>
       <c r="K54" s="58"/>
-      <c r="L54" s="119"/>
-      <c r="M54" s="120"/>
+      <c r="L54" s="121"/>
+      <c r="M54" s="122"/>
       <c r="N54" s="103"/>
       <c r="O54" s="86"/>
       <c r="P54" s="55"/>
@@ -7380,17 +7426,17 @@
       <c r="B55" s="38">
         <v>102</v>
       </c>
-      <c r="C55" s="151"/>
-      <c r="D55" s="152"/>
+      <c r="C55" s="123"/>
+      <c r="D55" s="124"/>
       <c r="E55" s="56"/>
-      <c r="F55" s="153"/>
-      <c r="G55" s="154"/>
+      <c r="F55" s="119"/>
+      <c r="G55" s="120"/>
       <c r="H55" s="86"/>
       <c r="I55" s="57"/>
       <c r="J55" s="58"/>
       <c r="K55" s="58"/>
-      <c r="L55" s="119"/>
-      <c r="M55" s="120"/>
+      <c r="L55" s="121"/>
+      <c r="M55" s="122"/>
       <c r="N55" s="103"/>
       <c r="O55" s="86"/>
       <c r="P55" s="55"/>
@@ -7407,17 +7453,17 @@
       <c r="B56" s="38">
         <v>103</v>
       </c>
-      <c r="C56" s="151"/>
-      <c r="D56" s="152"/>
+      <c r="C56" s="123"/>
+      <c r="D56" s="124"/>
       <c r="E56" s="56"/>
-      <c r="F56" s="153"/>
-      <c r="G56" s="154"/>
+      <c r="F56" s="119"/>
+      <c r="G56" s="120"/>
       <c r="H56" s="86"/>
       <c r="I56" s="57"/>
       <c r="J56" s="58"/>
       <c r="K56" s="58"/>
-      <c r="L56" s="119"/>
-      <c r="M56" s="120"/>
+      <c r="L56" s="121"/>
+      <c r="M56" s="122"/>
       <c r="N56" s="103"/>
       <c r="O56" s="86"/>
       <c r="P56" s="55"/>
@@ -7434,17 +7480,17 @@
       <c r="B57" s="38">
         <v>104</v>
       </c>
-      <c r="C57" s="151"/>
-      <c r="D57" s="152"/>
+      <c r="C57" s="123"/>
+      <c r="D57" s="124"/>
       <c r="E57" s="56"/>
-      <c r="F57" s="153"/>
-      <c r="G57" s="154"/>
+      <c r="F57" s="119"/>
+      <c r="G57" s="120"/>
       <c r="H57" s="86"/>
       <c r="I57" s="57"/>
       <c r="J57" s="58"/>
       <c r="K57" s="58"/>
-      <c r="L57" s="119"/>
-      <c r="M57" s="120"/>
+      <c r="L57" s="121"/>
+      <c r="M57" s="122"/>
       <c r="N57" s="103"/>
       <c r="O57" s="86"/>
       <c r="P57" s="55"/>
@@ -7457,25 +7503,25 @@
       <c r="T57" s="59"/>
     </row>
     <row r="58" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A58" s="166" t="s">
+      <c r="A58" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="B58" s="167"/>
-      <c r="C58" s="167"/>
+      <c r="B58" s="161"/>
+      <c r="C58" s="161"/>
       <c r="D58" s="62"/>
       <c r="E58" s="60"/>
-      <c r="F58" s="127">
+      <c r="F58" s="162">
         <f>SUM(F5:G57)</f>
-        <v>24</v>
-      </c>
-      <c r="G58" s="129"/>
+        <v>744</v>
+      </c>
+      <c r="G58" s="163"/>
       <c r="H58" s="34">
         <f>SUM(H5:H57)</f>
-        <v>1248</v>
+        <v>2688</v>
       </c>
       <c r="I58" s="115">
         <f>SUM(I5:I57)</f>
-        <v>8430</v>
+        <v>8730</v>
       </c>
       <c r="J58" s="116">
         <f>SUM(J5:J57)</f>
@@ -7483,28 +7529,28 @@
       </c>
       <c r="K58" s="116">
         <f>SUM(K5:K57)</f>
-        <v>220</v>
-      </c>
-      <c r="L58" s="130">
+        <v>440</v>
+      </c>
+      <c r="L58" s="164">
         <f>SUM(L5:M57)</f>
         <v>110</v>
       </c>
-      <c r="M58" s="128"/>
+      <c r="M58" s="165"/>
       <c r="N58" s="115">
         <f t="shared" ref="N58:T58" si="1">SUM(N5:N57)</f>
-        <v>2760</v>
+        <v>4440</v>
       </c>
       <c r="O58" s="116">
         <f t="shared" si="1"/>
-        <v>1080</v>
+        <v>2400</v>
       </c>
       <c r="P58" s="34">
         <f t="shared" si="1"/>
-        <v>11280</v>
+        <v>16680</v>
       </c>
       <c r="Q58" s="115">
         <f t="shared" si="1"/>
-        <v>540</v>
+        <v>660</v>
       </c>
       <c r="R58" s="34">
         <f t="shared" si="1"/>
@@ -7512,34 +7558,34 @@
       </c>
       <c r="S58" s="61">
         <f t="shared" si="1"/>
-        <v>28824</v>
+        <v>40024</v>
       </c>
       <c r="T58" s="36">
         <f t="shared" si="1"/>
-        <v>9262599</v>
+        <v>12791152</v>
       </c>
       <c r="V58" s="13"/>
       <c r="W58" s="13"/>
       <c r="X58" s="13"/>
     </row>
     <row r="59" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A59" s="166"/>
-      <c r="B59" s="167"/>
-      <c r="C59" s="167"/>
+      <c r="A59" s="160"/>
+      <c r="B59" s="161"/>
+      <c r="C59" s="161"/>
       <c r="D59" s="62"/>
       <c r="E59" s="60"/>
-      <c r="F59" s="127">
+      <c r="F59" s="162">
         <f>F4+F58</f>
-        <v>792</v>
-      </c>
-      <c r="G59" s="129"/>
+        <v>1512</v>
+      </c>
+      <c r="G59" s="163"/>
       <c r="H59" s="34">
         <f>H4+H58</f>
-        <v>6960</v>
+        <v>8400</v>
       </c>
       <c r="I59" s="62">
         <f>I4+I58</f>
-        <v>41310</v>
+        <v>41610</v>
       </c>
       <c r="J59" s="116">
         <f>J4+J58</f>
@@ -7547,28 +7593,28 @@
       </c>
       <c r="K59" s="116">
         <f>K4+K58</f>
-        <v>2662</v>
-      </c>
-      <c r="L59" s="130">
+        <v>2882</v>
+      </c>
+      <c r="L59" s="164">
         <f>L4+L58</f>
         <v>550</v>
       </c>
-      <c r="M59" s="128"/>
+      <c r="M59" s="165"/>
       <c r="N59" s="115">
         <f t="shared" ref="N59:T59" si="2">N4+N58</f>
-        <v>13200</v>
+        <v>14880</v>
       </c>
       <c r="O59" s="116">
         <f t="shared" si="2"/>
-        <v>7584</v>
+        <v>8904</v>
       </c>
       <c r="P59" s="34">
         <f t="shared" si="2"/>
-        <v>67128</v>
+        <v>72528</v>
       </c>
       <c r="Q59" s="62">
         <f t="shared" si="2"/>
-        <v>7212</v>
+        <v>7332</v>
       </c>
       <c r="R59" s="116">
         <f t="shared" si="2"/>
@@ -7576,11 +7622,11 @@
       </c>
       <c r="S59" s="63">
         <f t="shared" si="2"/>
-        <v>151790</v>
+        <v>162990</v>
       </c>
       <c r="T59" s="36">
         <f t="shared" si="2"/>
-        <v>48294027</v>
+        <v>51822580</v>
       </c>
       <c r="W59" s="13"/>
       <c r="X59" s="13"/>
@@ -7589,63 +7635,63 @@
       <c r="V60" s="13"/>
     </row>
     <row r="61" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A61" s="168" t="s">
-        <v>178</v>
-      </c>
-      <c r="B61" s="169"/>
-      <c r="C61" s="169"/>
-      <c r="D61" s="169"/>
-      <c r="E61" s="169"/>
-      <c r="F61" s="169"/>
-      <c r="G61" s="169"/>
-      <c r="H61" s="169"/>
-      <c r="I61" s="169"/>
-      <c r="J61" s="169"/>
-      <c r="K61" s="169"/>
-      <c r="L61" s="169"/>
-      <c r="M61" s="169"/>
-      <c r="N61" s="169"/>
-      <c r="O61" s="169"/>
-      <c r="P61" s="169"/>
-      <c r="Q61" s="170"/>
+      <c r="A61" s="166" t="s">
+        <v>189</v>
+      </c>
+      <c r="B61" s="167"/>
+      <c r="C61" s="167"/>
+      <c r="D61" s="167"/>
+      <c r="E61" s="167"/>
+      <c r="F61" s="167"/>
+      <c r="G61" s="167"/>
+      <c r="H61" s="167"/>
+      <c r="I61" s="167"/>
+      <c r="J61" s="167"/>
+      <c r="K61" s="167"/>
+      <c r="L61" s="167"/>
+      <c r="M61" s="167"/>
+      <c r="N61" s="167"/>
+      <c r="O61" s="167"/>
+      <c r="P61" s="167"/>
+      <c r="Q61" s="168"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="28"/>
     </row>
     <row r="62" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A62" s="171" t="s">
+      <c r="A62" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="B62" s="172"/>
-      <c r="C62" s="175" t="s">
+      <c r="B62" s="126"/>
+      <c r="C62" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="D62" s="175" t="s">
+      <c r="D62" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="178" t="s">
+      <c r="E62" s="172" t="s">
         <v>19</v>
       </c>
-      <c r="F62" s="171" t="s">
+      <c r="F62" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="172"/>
-      <c r="H62" s="180" t="s">
+      <c r="G62" s="126"/>
+      <c r="H62" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="I62" s="181"/>
-      <c r="J62" s="182"/>
-      <c r="K62" s="183" t="s">
+      <c r="I62" s="175"/>
+      <c r="J62" s="176"/>
+      <c r="K62" s="177" t="s">
         <v>25</v>
       </c>
-      <c r="L62" s="184"/>
-      <c r="M62" s="184"/>
-      <c r="N62" s="184"/>
-      <c r="O62" s="185"/>
-      <c r="P62" s="175" t="s">
+      <c r="L62" s="178"/>
+      <c r="M62" s="178"/>
+      <c r="N62" s="178"/>
+      <c r="O62" s="179"/>
+      <c r="P62" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="Q62" s="186" t="s">
+      <c r="Q62" s="180" t="s">
         <v>38</v>
       </c>
       <c r="R62" s="1"/>
@@ -7653,13 +7699,13 @@
       <c r="T62" s="28"/>
     </row>
     <row r="63" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A63" s="173"/>
-      <c r="B63" s="174"/>
-      <c r="C63" s="176"/>
-      <c r="D63" s="177"/>
-      <c r="E63" s="179"/>
-      <c r="F63" s="173"/>
-      <c r="G63" s="174"/>
+      <c r="A63" s="127"/>
+      <c r="B63" s="128"/>
+      <c r="C63" s="170"/>
+      <c r="D63" s="171"/>
+      <c r="E63" s="173"/>
+      <c r="F63" s="127"/>
+      <c r="G63" s="128"/>
       <c r="H63" s="70" t="s">
         <v>49</v>
       </c>
@@ -7672,46 +7718,50 @@
       <c r="K63" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="L63" s="183" t="s">
+      <c r="L63" s="177" t="s">
         <v>47</v>
       </c>
-      <c r="M63" s="185"/>
+      <c r="M63" s="179"/>
       <c r="N63" s="70" t="s">
         <v>46</v>
       </c>
       <c r="O63" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="P63" s="177"/>
-      <c r="Q63" s="187"/>
+      <c r="P63" s="171"/>
+      <c r="Q63" s="181"/>
       <c r="T63" s="28"/>
     </row>
     <row r="64" spans="1:24" ht="15" customHeight="1">
-      <c r="A64" s="171" t="s">
+      <c r="A64" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="B64" s="172"/>
+      <c r="B64" s="126"/>
       <c r="C64" s="105" t="s">
         <v>28</v>
       </c>
       <c r="D64" s="105"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="193">
+      <c r="E64" s="4">
+        <v>600</v>
+      </c>
+      <c r="F64" s="129">
         <v>24</v>
       </c>
-      <c r="G64" s="193"/>
+      <c r="G64" s="129"/>
       <c r="H64" s="4"/>
       <c r="I64" s="104"/>
       <c r="J64" s="4"/>
       <c r="K64" s="104"/>
-      <c r="L64" s="194"/>
-      <c r="M64" s="195"/>
+      <c r="L64" s="130"/>
+      <c r="M64" s="131"/>
       <c r="N64" s="104"/>
       <c r="O64" s="4"/>
-      <c r="P64" s="104"/>
+      <c r="P64" s="104">
+        <v>120</v>
+      </c>
       <c r="Q64" s="4">
         <f>SUM(D64:P64)</f>
-        <v>24</v>
+        <v>744</v>
       </c>
       <c r="T64" s="28"/>
       <c r="V64" s="13">
@@ -7720,31 +7770,35 @@
       </c>
     </row>
     <row r="65" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A65" s="173"/>
-      <c r="B65" s="174"/>
+      <c r="A65" s="127"/>
+      <c r="B65" s="128"/>
       <c r="C65" s="107" t="s">
         <v>29</v>
       </c>
       <c r="D65" s="107"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="200">
+      <c r="E65" s="14">
         <v>1200</v>
       </c>
-      <c r="G65" s="200"/>
+      <c r="F65" s="132">
+        <v>1200</v>
+      </c>
+      <c r="G65" s="132"/>
       <c r="H65" s="14"/>
       <c r="I65" s="106"/>
       <c r="J65" s="14"/>
       <c r="K65" s="106"/>
-      <c r="L65" s="201"/>
-      <c r="M65" s="202"/>
+      <c r="L65" s="133"/>
+      <c r="M65" s="134"/>
       <c r="N65" s="106"/>
       <c r="O65" s="14">
         <v>48</v>
       </c>
-      <c r="P65" s="106"/>
+      <c r="P65" s="106">
+        <v>240</v>
+      </c>
       <c r="Q65" s="16">
         <f t="shared" ref="Q65:Q74" si="3">SUM(D65:P65)</f>
-        <v>1248</v>
+        <v>2688</v>
       </c>
       <c r="T65" s="28"/>
       <c r="V65" s="13">
@@ -7753,10 +7807,10 @@
       </c>
     </row>
     <row r="66" spans="1:22">
-      <c r="A66" s="171" t="s">
+      <c r="A66" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="B66" s="172"/>
+      <c r="B66" s="126"/>
       <c r="C66" s="4" t="s">
         <v>30</v>
       </c>
@@ -7764,10 +7818,10 @@
         <v>6450</v>
       </c>
       <c r="E66" s="4"/>
-      <c r="F66" s="193">
+      <c r="F66" s="129">
         <v>690</v>
       </c>
-      <c r="G66" s="193"/>
+      <c r="G66" s="129"/>
       <c r="H66" s="4"/>
       <c r="I66" s="104">
         <v>750</v>
@@ -7776,16 +7830,18 @@
         <v>450</v>
       </c>
       <c r="K66" s="104"/>
-      <c r="L66" s="194"/>
-      <c r="M66" s="195"/>
+      <c r="L66" s="130"/>
+      <c r="M66" s="131"/>
       <c r="N66" s="104"/>
       <c r="O66" s="4">
         <v>90</v>
       </c>
-      <c r="P66" s="104"/>
+      <c r="P66" s="104">
+        <v>300</v>
+      </c>
       <c r="Q66" s="4">
         <f t="shared" si="3"/>
-        <v>8430</v>
+        <v>8730</v>
       </c>
       <c r="T66" s="28"/>
       <c r="V66" s="13">
@@ -7794,21 +7850,21 @@
       </c>
     </row>
     <row r="67" spans="1:22">
-      <c r="A67" s="208"/>
-      <c r="B67" s="209"/>
+      <c r="A67" s="140"/>
+      <c r="B67" s="141"/>
       <c r="C67" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D67" s="113"/>
       <c r="E67" s="5"/>
-      <c r="F67" s="213"/>
-      <c r="G67" s="213"/>
+      <c r="F67" s="145"/>
+      <c r="G67" s="145"/>
       <c r="H67" s="5"/>
       <c r="I67" s="112"/>
       <c r="J67" s="5"/>
       <c r="K67" s="112"/>
-      <c r="L67" s="214"/>
-      <c r="M67" s="215"/>
+      <c r="L67" s="146"/>
+      <c r="M67" s="147"/>
       <c r="N67" s="112"/>
       <c r="O67" s="5"/>
       <c r="P67" s="112"/>
@@ -7823,29 +7879,31 @@
       </c>
     </row>
     <row r="68" spans="1:22">
-      <c r="A68" s="208"/>
-      <c r="B68" s="209"/>
+      <c r="A68" s="140"/>
+      <c r="B68" s="141"/>
       <c r="C68" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D68" s="113"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="213">
+      <c r="E68" s="5">
         <v>220</v>
       </c>
-      <c r="G68" s="213"/>
+      <c r="F68" s="145">
+        <v>220</v>
+      </c>
+      <c r="G68" s="145"/>
       <c r="H68" s="5"/>
       <c r="I68" s="112"/>
       <c r="J68" s="5"/>
       <c r="K68" s="112"/>
-      <c r="L68" s="214"/>
-      <c r="M68" s="215"/>
+      <c r="L68" s="146"/>
+      <c r="M68" s="147"/>
       <c r="N68" s="112"/>
       <c r="O68" s="5"/>
       <c r="P68" s="112"/>
       <c r="Q68" s="5">
         <f t="shared" si="3"/>
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="T68" s="28"/>
       <c r="V68" s="13">
@@ -7854,23 +7912,23 @@
       </c>
     </row>
     <row r="69" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A69" s="173"/>
-      <c r="B69" s="174"/>
+      <c r="A69" s="127"/>
+      <c r="B69" s="128"/>
       <c r="C69" s="65" t="s">
         <v>44</v>
       </c>
       <c r="D69" s="109"/>
       <c r="E69" s="15"/>
-      <c r="F69" s="163">
+      <c r="F69" s="153">
         <v>110</v>
       </c>
-      <c r="G69" s="163"/>
+      <c r="G69" s="153"/>
       <c r="H69" s="15"/>
       <c r="I69" s="108"/>
       <c r="J69" s="15"/>
       <c r="K69" s="108"/>
-      <c r="L69" s="164"/>
-      <c r="M69" s="165"/>
+      <c r="L69" s="154"/>
+      <c r="M69" s="155"/>
       <c r="N69" s="108"/>
       <c r="O69" s="15"/>
       <c r="P69" s="108"/>
@@ -7885,19 +7943,21 @@
       </c>
     </row>
     <row r="70" spans="1:22">
-      <c r="A70" s="171" t="s">
+      <c r="A70" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="B70" s="172"/>
+      <c r="B70" s="126"/>
       <c r="C70" s="111" t="s">
         <v>28</v>
       </c>
       <c r="D70" s="111"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="210">
+      <c r="E70" s="16">
+        <v>480</v>
+      </c>
+      <c r="F70" s="142">
         <v>240</v>
       </c>
-      <c r="G70" s="210"/>
+      <c r="G70" s="142"/>
       <c r="H70" s="16">
         <v>960</v>
       </c>
@@ -7906,16 +7966,17 @@
       </c>
       <c r="J70" s="16"/>
       <c r="K70" s="110"/>
-      <c r="L70" s="211"/>
-      <c r="M70" s="212"/>
+      <c r="L70" s="143"/>
+      <c r="M70" s="144"/>
       <c r="N70" s="110"/>
       <c r="O70" s="16"/>
       <c r="P70" s="110">
-        <v>960</v>
+        <f>960+1200</f>
+        <v>2160</v>
       </c>
       <c r="Q70" s="4">
         <f t="shared" si="3"/>
-        <v>2760</v>
+        <v>4440</v>
       </c>
       <c r="T70" s="28"/>
       <c r="V70" s="13">
@@ -7924,31 +7985,34 @@
       </c>
     </row>
     <row r="71" spans="1:22">
-      <c r="A71" s="208"/>
-      <c r="B71" s="209"/>
+      <c r="A71" s="140"/>
+      <c r="B71" s="141"/>
       <c r="C71" s="113" t="s">
         <v>31</v>
       </c>
       <c r="D71" s="113"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="213"/>
-      <c r="G71" s="213"/>
+      <c r="E71" s="5">
+        <v>600</v>
+      </c>
+      <c r="F71" s="145"/>
+      <c r="G71" s="145"/>
       <c r="H71" s="5">
         <v>480</v>
       </c>
       <c r="I71" s="112"/>
       <c r="J71" s="5"/>
       <c r="K71" s="112"/>
-      <c r="L71" s="214"/>
-      <c r="M71" s="215"/>
+      <c r="L71" s="146"/>
+      <c r="M71" s="147"/>
       <c r="N71" s="112"/>
       <c r="O71" s="5"/>
       <c r="P71" s="112">
-        <v>600</v>
+        <f>600+720</f>
+        <v>1320</v>
       </c>
       <c r="Q71" s="5">
         <f t="shared" si="3"/>
-        <v>1080</v>
+        <v>2400</v>
       </c>
       <c r="T71" s="28"/>
       <c r="V71" s="13">
@@ -7957,17 +8021,19 @@
       </c>
     </row>
     <row r="72" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A72" s="173"/>
-      <c r="B72" s="174"/>
+      <c r="A72" s="127"/>
+      <c r="B72" s="128"/>
       <c r="C72" s="65" t="s">
         <v>29</v>
       </c>
       <c r="D72" s="107"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="200">
+      <c r="E72" s="14">
+        <v>5400</v>
+      </c>
+      <c r="F72" s="132">
         <v>4200</v>
       </c>
-      <c r="G72" s="200"/>
+      <c r="G72" s="132"/>
       <c r="H72" s="14">
         <v>840</v>
       </c>
@@ -7978,8 +8044,8 @@
         <v>1320</v>
       </c>
       <c r="K72" s="106"/>
-      <c r="L72" s="201"/>
-      <c r="M72" s="202"/>
+      <c r="L72" s="133"/>
+      <c r="M72" s="134"/>
       <c r="N72" s="106"/>
       <c r="O72" s="14">
         <v>120</v>
@@ -7989,7 +8055,7 @@
       </c>
       <c r="Q72" s="16">
         <f t="shared" si="3"/>
-        <v>11280</v>
+        <v>16680</v>
       </c>
       <c r="T72" s="28"/>
       <c r="V72" s="13">
@@ -7998,33 +8064,35 @@
       </c>
     </row>
     <row r="73" spans="1:22">
-      <c r="A73" s="171" t="s">
+      <c r="A73" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="B73" s="172"/>
+      <c r="B73" s="126"/>
       <c r="C73" s="105" t="s">
         <v>31</v>
       </c>
       <c r="D73" s="105"/>
       <c r="E73" s="4"/>
-      <c r="F73" s="193">
+      <c r="F73" s="129">
         <v>360</v>
       </c>
-      <c r="G73" s="193"/>
+      <c r="G73" s="129"/>
       <c r="H73" s="4"/>
       <c r="I73" s="104"/>
       <c r="J73" s="4"/>
       <c r="K73" s="104"/>
-      <c r="L73" s="194"/>
-      <c r="M73" s="195"/>
+      <c r="L73" s="130"/>
+      <c r="M73" s="131"/>
       <c r="N73" s="104"/>
       <c r="O73" s="4">
         <v>180</v>
       </c>
-      <c r="P73" s="104"/>
+      <c r="P73" s="104">
+        <v>120</v>
+      </c>
       <c r="Q73" s="4">
         <f t="shared" si="3"/>
-        <v>540</v>
+        <v>660</v>
       </c>
       <c r="T73" s="28"/>
       <c r="V73" s="13">
@@ -8033,8 +8101,8 @@
       </c>
     </row>
     <row r="74" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A74" s="173"/>
-      <c r="B74" s="174"/>
+      <c r="A74" s="127"/>
+      <c r="B74" s="128"/>
       <c r="C74" s="65" t="s">
         <v>29</v>
       </c>
@@ -8042,16 +8110,16 @@
         <v>2412</v>
       </c>
       <c r="E74" s="15"/>
-      <c r="F74" s="163"/>
-      <c r="G74" s="163"/>
+      <c r="F74" s="153"/>
+      <c r="G74" s="153"/>
       <c r="H74" s="15"/>
       <c r="I74" s="108">
         <v>720</v>
       </c>
       <c r="J74" s="15"/>
       <c r="K74" s="108"/>
-      <c r="L74" s="164"/>
-      <c r="M74" s="165"/>
+      <c r="L74" s="154"/>
+      <c r="M74" s="155"/>
       <c r="N74" s="108"/>
       <c r="O74" s="15"/>
       <c r="P74" s="108"/>
@@ -8066,24 +8134,24 @@
       </c>
     </row>
     <row r="75" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A75" s="196" t="s">
+      <c r="A75" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="B75" s="197"/>
-      <c r="C75" s="197"/>
+      <c r="B75" s="157"/>
+      <c r="C75" s="157"/>
       <c r="D75" s="23">
         <f>SUM(D64:D74)</f>
         <v>8862</v>
       </c>
       <c r="E75" s="23">
         <f t="shared" ref="E75" si="4">SUM(E64:E74)</f>
-        <v>0</v>
-      </c>
-      <c r="F75" s="198">
+        <v>8500</v>
+      </c>
+      <c r="F75" s="158">
         <f>SUM(F64:G74)</f>
         <v>7044</v>
       </c>
-      <c r="G75" s="199"/>
+      <c r="G75" s="159"/>
       <c r="H75" s="23">
         <f>SUM(H64:H74)</f>
         <v>2280</v>
@@ -8100,11 +8168,11 @@
         <f>SUM(K64:K74)</f>
         <v>0</v>
       </c>
-      <c r="L75" s="198">
+      <c r="L75" s="158">
         <f>SUM(L64:M74)</f>
         <v>0</v>
       </c>
-      <c r="M75" s="199"/>
+      <c r="M75" s="159"/>
       <c r="N75" s="23">
         <f>SUM(N64:N74)</f>
         <v>0</v>
@@ -8115,11 +8183,11 @@
       </c>
       <c r="P75" s="23">
         <f>SUM(P64:P74)</f>
-        <v>3960</v>
+        <v>6660</v>
       </c>
       <c r="Q75" s="24">
         <f>SUM(Q64:Q74)</f>
-        <v>28824</v>
+        <v>40024</v>
       </c>
       <c r="R75" s="12"/>
       <c r="S75" s="1"/>
@@ -8130,45 +8198,47 @@
       </c>
     </row>
     <row r="76" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A76" s="203" t="s">
+      <c r="A76" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="B76" s="204"/>
-      <c r="C76" s="204"/>
-      <c r="D76" s="205">
+      <c r="B76" s="136"/>
+      <c r="C76" s="136"/>
+      <c r="D76" s="137">
         <f>D75+E75+F75+H75+I75+J75+K75+L75+N75+O75+P75</f>
-        <v>28824</v>
-      </c>
-      <c r="E76" s="206"/>
-      <c r="F76" s="206"/>
-      <c r="G76" s="206"/>
-      <c r="H76" s="206"/>
-      <c r="I76" s="206"/>
-      <c r="J76" s="206"/>
-      <c r="K76" s="206"/>
-      <c r="L76" s="206"/>
-      <c r="M76" s="206"/>
-      <c r="N76" s="206"/>
-      <c r="O76" s="206"/>
-      <c r="P76" s="206"/>
-      <c r="Q76" s="207"/>
+        <v>40024</v>
+      </c>
+      <c r="E76" s="138"/>
+      <c r="F76" s="138"/>
+      <c r="G76" s="138"/>
+      <c r="H76" s="138"/>
+      <c r="I76" s="138"/>
+      <c r="J76" s="138"/>
+      <c r="K76" s="138"/>
+      <c r="L76" s="138"/>
+      <c r="M76" s="138"/>
+      <c r="N76" s="138"/>
+      <c r="O76" s="138"/>
+      <c r="P76" s="138"/>
+      <c r="Q76" s="139"/>
       <c r="T76" s="28"/>
       <c r="V76" s="13"/>
     </row>
     <row r="77" spans="1:22" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A77" s="188" t="s">
+      <c r="A77" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="B77" s="189"/>
-      <c r="C77" s="189"/>
+      <c r="B77" s="149"/>
+      <c r="C77" s="149"/>
       <c r="D77" s="22">
         <v>2866322</v>
       </c>
-      <c r="E77" s="22"/>
-      <c r="F77" s="190">
+      <c r="E77" s="22">
+        <v>2670081</v>
+      </c>
+      <c r="F77" s="150">
         <v>2226736</v>
       </c>
-      <c r="G77" s="191"/>
+      <c r="G77" s="151"/>
       <c r="H77" s="22">
         <v>722340</v>
       </c>
@@ -8179,19 +8249,19 @@
         <v>559829</v>
       </c>
       <c r="K77" s="22"/>
-      <c r="L77" s="192"/>
-      <c r="M77" s="191"/>
+      <c r="L77" s="152"/>
+      <c r="M77" s="151"/>
       <c r="N77" s="26"/>
       <c r="O77" s="22">
         <f>125874+28368</f>
         <v>154242</v>
       </c>
       <c r="P77" s="26">
-        <v>1260480</v>
+        <f>1260480+858472</f>
+        <v>2118952</v>
       </c>
       <c r="Q77" s="100">
-        <f>6881621+154242+2226736</f>
-        <v>9262599</v>
+        <v>12791152</v>
       </c>
       <c r="R77" s="19"/>
       <c r="S77" s="19"/>
@@ -8207,19 +8277,198 @@
     </row>
   </sheetData>
   <mergeCells count="226">
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="D76:Q76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="A73:B74"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="A61:Q61"/>
+    <mergeCell ref="A62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:G63"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="K62:O62"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="L63:M63"/>
     <mergeCell ref="A64:B65"/>
     <mergeCell ref="F64:G64"/>
     <mergeCell ref="L64:M64"/>
@@ -8241,198 +8490,19 @@
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="F69:G69"/>
     <mergeCell ref="L69:M69"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="A61:Q61"/>
-    <mergeCell ref="A62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:G63"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="K62:O62"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="D76:Q76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="A73:B74"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="L75:M75"/>
   </mergeCells>
   <pageMargins left="0.16" right="0.16" top="0.34" bottom="0.16" header="0.23" footer="0.16"/>
   <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/SALE BILL REPORT 2021-22.xlsx
+++ b/SALE BILL REPORT 2021-22.xlsx
@@ -12,14 +12,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'April 2021-22'!$A$2:$X$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'May 2021'!$A$2:$X$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'May 2021'!$A$2:$X$31</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="197">
   <si>
     <t>Pataka Premium</t>
   </si>
@@ -589,6 +589,27 @@
   </si>
   <si>
     <t>DESTINETION WISE DESPATCHED REPOTR FOR THE MONTH OF MAY 01.05.2021 TO 31.05.2021</t>
+  </si>
+  <si>
+    <t>21.05.2021</t>
+  </si>
+  <si>
+    <t>Govind Merchant</t>
+  </si>
+  <si>
+    <t>24.05.2021</t>
+  </si>
+  <si>
+    <t>25.05.2021</t>
+  </si>
+  <si>
+    <t>26.05.2021</t>
+  </si>
+  <si>
+    <t>Ghazizbad</t>
+  </si>
+  <si>
+    <t>31.05.2021</t>
   </si>
 </sst>
 </file>
@@ -1508,7 +1529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1834,6 +1855,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2432,8 +2465,8 @@
   <dimension ref="A1:X76"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5:K55"/>
+      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2463,81 +2496,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="16.5" thickBot="1">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="186" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="183"/>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="183"/>
-      <c r="T1" s="184"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="187"/>
+      <c r="O1" s="187"/>
+      <c r="P1" s="187"/>
+      <c r="Q1" s="187"/>
+      <c r="R1" s="187"/>
+      <c r="S1" s="187"/>
+      <c r="T1" s="188"/>
     </row>
     <row r="2" spans="1:20" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="191" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="189" t="s">
+      <c r="C2" s="193" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="190"/>
-      <c r="E2" s="193" t="s">
+      <c r="D2" s="194"/>
+      <c r="E2" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="195" t="s">
+      <c r="F2" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="187"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="197" t="s">
+      <c r="G2" s="191"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="201" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="198"/>
-      <c r="K2" s="198"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="197" t="s">
+      <c r="J2" s="202"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="198"/>
-      <c r="P2" s="196"/>
-      <c r="Q2" s="200" t="s">
+      <c r="O2" s="202"/>
+      <c r="P2" s="200"/>
+      <c r="Q2" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="201"/>
-      <c r="S2" s="187" t="s">
+      <c r="R2" s="205"/>
+      <c r="S2" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="202" t="s">
+      <c r="T2" s="206" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="6" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A3" s="186"/>
-      <c r="B3" s="188"/>
-      <c r="C3" s="191"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="204" t="s">
+      <c r="A3" s="190"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="205"/>
+      <c r="G3" s="209"/>
       <c r="H3" s="9" t="s">
         <v>4</v>
       </c>
@@ -2550,10 +2583,10 @@
       <c r="K3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="206" t="s">
+      <c r="L3" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="207"/>
+      <c r="M3" s="211"/>
       <c r="N3" s="8" t="s">
         <v>21</v>
       </c>
@@ -2569,25 +2602,25 @@
       <c r="R3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="188"/>
-      <c r="T3" s="203"/>
+      <c r="S3" s="192"/>
+      <c r="T3" s="207"/>
     </row>
     <row r="4" spans="1:20" s="18" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="85" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="30"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="165"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="169"/>
       <c r="E4" s="31"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="163"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="167"/>
       <c r="H4" s="80"/>
       <c r="I4" s="32"/>
       <c r="J4" s="33"/>
       <c r="K4" s="80"/>
-      <c r="L4" s="164"/>
-      <c r="M4" s="165"/>
+      <c r="L4" s="168"/>
+      <c r="M4" s="169"/>
       <c r="N4" s="79"/>
       <c r="O4" s="80"/>
       <c r="P4" s="34"/>
@@ -2606,21 +2639,21 @@
       <c r="B5" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="208" t="s">
+      <c r="C5" s="212" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="209"/>
+      <c r="D5" s="213"/>
       <c r="E5" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="210"/>
-      <c r="G5" s="211"/>
+      <c r="F5" s="214"/>
+      <c r="G5" s="215"/>
       <c r="H5" s="84"/>
       <c r="I5" s="40"/>
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
-      <c r="L5" s="212"/>
-      <c r="M5" s="213"/>
+      <c r="L5" s="216"/>
+      <c r="M5" s="217"/>
       <c r="N5" s="40"/>
       <c r="O5" s="41"/>
       <c r="P5" s="84"/>
@@ -2643,15 +2676,15 @@
       <c r="B6" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="124"/>
+      <c r="D6" s="128"/>
       <c r="E6" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="119"/>
-      <c r="G6" s="120"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="124"/>
       <c r="H6" s="83"/>
       <c r="I6" s="46">
         <v>60</v>
@@ -2660,8 +2693,8 @@
       <c r="K6" s="47">
         <v>22</v>
       </c>
-      <c r="L6" s="214"/>
-      <c r="M6" s="215"/>
+      <c r="L6" s="218"/>
+      <c r="M6" s="219"/>
       <c r="N6" s="48"/>
       <c r="O6" s="83"/>
       <c r="P6" s="49"/>
@@ -2682,21 +2715,21 @@
       <c r="B7" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="124"/>
+      <c r="D7" s="128"/>
       <c r="E7" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="119"/>
-      <c r="G7" s="120"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="124"/>
       <c r="H7" s="83"/>
       <c r="I7" s="48"/>
       <c r="J7" s="52"/>
       <c r="K7" s="52"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="122"/>
+      <c r="L7" s="125"/>
+      <c r="M7" s="126"/>
       <c r="N7" s="48">
         <v>600</v>
       </c>
@@ -2723,23 +2756,23 @@
       <c r="B8" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="127" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="124"/>
+      <c r="D8" s="128"/>
       <c r="E8" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="119"/>
-      <c r="G8" s="120"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="124"/>
       <c r="H8" s="83">
         <v>120</v>
       </c>
       <c r="I8" s="48"/>
       <c r="J8" s="52"/>
       <c r="K8" s="52"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="122"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="126"/>
       <c r="N8" s="48"/>
       <c r="O8" s="83"/>
       <c r="P8" s="49">
@@ -2762,23 +2795,23 @@
       <c r="B9" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="123" t="s">
+      <c r="C9" s="127" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="124"/>
+      <c r="D9" s="128"/>
       <c r="E9" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="119"/>
-      <c r="G9" s="120"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="124"/>
       <c r="H9" s="83"/>
       <c r="I9" s="48">
         <v>150</v>
       </c>
       <c r="J9" s="52"/>
       <c r="K9" s="52"/>
-      <c r="L9" s="121"/>
-      <c r="M9" s="122"/>
+      <c r="L9" s="125"/>
+      <c r="M9" s="126"/>
       <c r="N9" s="48"/>
       <c r="O9" s="83"/>
       <c r="P9" s="49">
@@ -2801,21 +2834,21 @@
       <c r="B10" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="127" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="124"/>
+      <c r="D10" s="128"/>
       <c r="E10" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="119"/>
-      <c r="G10" s="120"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="124"/>
       <c r="H10" s="83"/>
       <c r="I10" s="48"/>
       <c r="J10" s="52"/>
       <c r="K10" s="52"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="122"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="126"/>
       <c r="N10" s="48"/>
       <c r="O10" s="83"/>
       <c r="P10" s="49"/>
@@ -2838,23 +2871,23 @@
       <c r="B11" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="127" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="124"/>
+      <c r="D11" s="128"/>
       <c r="E11" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="119"/>
-      <c r="G11" s="120"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="124"/>
       <c r="H11" s="83">
         <v>24</v>
       </c>
       <c r="I11" s="48"/>
       <c r="J11" s="52"/>
       <c r="K11" s="52"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="122"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="126"/>
       <c r="N11" s="48"/>
       <c r="O11" s="83"/>
       <c r="P11" s="49"/>
@@ -2875,21 +2908,21 @@
       <c r="B12" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="123" t="s">
+      <c r="C12" s="127" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="124"/>
+      <c r="D12" s="128"/>
       <c r="E12" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="F12" s="119"/>
-      <c r="G12" s="120"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="124"/>
       <c r="H12" s="83"/>
       <c r="I12" s="48"/>
       <c r="J12" s="52"/>
       <c r="K12" s="52"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="122"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="126"/>
       <c r="N12" s="48"/>
       <c r="O12" s="83"/>
       <c r="P12" s="49">
@@ -2914,23 +2947,23 @@
       <c r="B13" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="123" t="s">
+      <c r="C13" s="127" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="124"/>
+      <c r="D13" s="128"/>
       <c r="E13" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="119"/>
-      <c r="G13" s="120"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
       <c r="H13" s="83">
         <v>48</v>
       </c>
       <c r="I13" s="48"/>
       <c r="J13" s="52"/>
       <c r="K13" s="52"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="122"/>
+      <c r="L13" s="125"/>
+      <c r="M13" s="126"/>
       <c r="N13" s="48"/>
       <c r="O13" s="83"/>
       <c r="P13" s="49"/>
@@ -2951,23 +2984,23 @@
       <c r="B14" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="123" t="s">
+      <c r="C14" s="127" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="124"/>
+      <c r="D14" s="128"/>
       <c r="E14" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="119"/>
-      <c r="G14" s="120"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
       <c r="H14" s="83">
         <v>48</v>
       </c>
       <c r="I14" s="48"/>
       <c r="J14" s="52"/>
       <c r="K14" s="52"/>
-      <c r="L14" s="121"/>
-      <c r="M14" s="122"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="126"/>
       <c r="N14" s="48"/>
       <c r="O14" s="83"/>
       <c r="P14" s="49"/>
@@ -2988,15 +3021,15 @@
       <c r="B15" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="123" t="s">
+      <c r="C15" s="127" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="124"/>
+      <c r="D15" s="128"/>
       <c r="E15" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="119"/>
-      <c r="G15" s="120"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
       <c r="H15" s="83"/>
       <c r="I15" s="48">
         <v>7050</v>
@@ -3007,8 +3040,8 @@
       <c r="K15" s="52">
         <v>440</v>
       </c>
-      <c r="L15" s="121"/>
-      <c r="M15" s="122"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="126"/>
       <c r="N15" s="82">
         <v>840</v>
       </c>
@@ -3037,21 +3070,21 @@
       <c r="B16" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="127" t="s">
         <v>114</v>
       </c>
-      <c r="D16" s="124"/>
+      <c r="D16" s="128"/>
       <c r="E16" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="119"/>
-      <c r="G16" s="120"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
       <c r="H16" s="83"/>
       <c r="I16" s="48"/>
       <c r="J16" s="52"/>
       <c r="K16" s="52"/>
-      <c r="L16" s="121"/>
-      <c r="M16" s="122"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="126"/>
       <c r="N16" s="82"/>
       <c r="O16" s="83"/>
       <c r="P16" s="49">
@@ -3076,21 +3109,21 @@
       <c r="B17" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="123" t="s">
+      <c r="C17" s="127" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="124"/>
+      <c r="D17" s="128"/>
       <c r="E17" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="F17" s="119"/>
-      <c r="G17" s="120"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="124"/>
       <c r="H17" s="83"/>
       <c r="I17" s="48"/>
       <c r="J17" s="52"/>
       <c r="K17" s="52"/>
-      <c r="L17" s="121"/>
-      <c r="M17" s="122"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="126"/>
       <c r="N17" s="82"/>
       <c r="O17" s="83"/>
       <c r="P17" s="49">
@@ -3113,21 +3146,21 @@
       <c r="B18" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="123" t="s">
+      <c r="C18" s="127" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="124"/>
+      <c r="D18" s="128"/>
       <c r="E18" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="119"/>
-      <c r="G18" s="120"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="124"/>
       <c r="H18" s="83"/>
       <c r="I18" s="48"/>
       <c r="J18" s="52"/>
       <c r="K18" s="52"/>
-      <c r="L18" s="121"/>
-      <c r="M18" s="122"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="126"/>
       <c r="N18" s="82">
         <v>600</v>
       </c>
@@ -3154,21 +3187,21 @@
       <c r="B19" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="123" t="s">
+      <c r="C19" s="127" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="124"/>
+      <c r="D19" s="128"/>
       <c r="E19" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="119"/>
-      <c r="G19" s="120"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="124"/>
       <c r="H19" s="83"/>
       <c r="I19" s="48"/>
       <c r="J19" s="52"/>
       <c r="K19" s="52"/>
-      <c r="L19" s="121"/>
-      <c r="M19" s="122"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="126"/>
       <c r="N19" s="82">
         <v>600</v>
       </c>
@@ -3196,23 +3229,23 @@
       <c r="B20" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="119" t="s">
+      <c r="C20" s="123" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="122"/>
+      <c r="D20" s="126"/>
       <c r="E20" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="119"/>
-      <c r="G20" s="120"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="124"/>
       <c r="H20" s="83"/>
       <c r="I20" s="48">
         <v>600</v>
       </c>
       <c r="J20" s="52"/>
       <c r="K20" s="52"/>
-      <c r="L20" s="121"/>
-      <c r="M20" s="122"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="126"/>
       <c r="N20" s="82"/>
       <c r="O20" s="83"/>
       <c r="P20" s="49">
@@ -3235,23 +3268,23 @@
       <c r="B21" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="119" t="s">
+      <c r="C21" s="123" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="122"/>
+      <c r="D21" s="126"/>
       <c r="E21" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="119"/>
-      <c r="G21" s="120"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="124"/>
       <c r="H21" s="83"/>
       <c r="I21" s="48"/>
       <c r="J21" s="52"/>
       <c r="K21" s="52">
         <v>220</v>
       </c>
-      <c r="L21" s="121"/>
-      <c r="M21" s="122"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="126"/>
       <c r="N21" s="82">
         <v>600</v>
       </c>
@@ -3278,25 +3311,25 @@
       <c r="B22" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="119" t="s">
+      <c r="C22" s="123" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="122"/>
+      <c r="D22" s="126"/>
       <c r="E22" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="119">
+      <c r="F22" s="123">
         <v>48</v>
       </c>
-      <c r="G22" s="120"/>
+      <c r="G22" s="124"/>
       <c r="H22" s="83">
         <v>24</v>
       </c>
       <c r="I22" s="48"/>
       <c r="J22" s="52"/>
       <c r="K22" s="52"/>
-      <c r="L22" s="121"/>
-      <c r="M22" s="122"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="126"/>
       <c r="N22" s="82"/>
       <c r="O22" s="83"/>
       <c r="P22" s="49">
@@ -3321,15 +3354,15 @@
       <c r="B23" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="119" t="s">
+      <c r="C23" s="123" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="122"/>
+      <c r="D23" s="126"/>
       <c r="E23" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="F23" s="119"/>
-      <c r="G23" s="120"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="124"/>
       <c r="H23" s="83">
         <v>1200</v>
       </c>
@@ -3340,8 +3373,8 @@
       <c r="K23" s="52">
         <v>660</v>
       </c>
-      <c r="L23" s="121"/>
-      <c r="M23" s="122"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="126"/>
       <c r="N23" s="82"/>
       <c r="O23" s="83"/>
       <c r="P23" s="49">
@@ -3364,23 +3397,23 @@
       <c r="B24" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="119" t="s">
+      <c r="C24" s="123" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="122"/>
+      <c r="D24" s="126"/>
       <c r="E24" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="119"/>
-      <c r="G24" s="120"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="124"/>
       <c r="H24" s="83">
         <v>120</v>
       </c>
       <c r="I24" s="48"/>
       <c r="J24" s="52"/>
       <c r="K24" s="52"/>
-      <c r="L24" s="121"/>
-      <c r="M24" s="122"/>
+      <c r="L24" s="125"/>
+      <c r="M24" s="126"/>
       <c r="N24" s="82"/>
       <c r="O24" s="83"/>
       <c r="P24" s="49"/>
@@ -3403,23 +3436,23 @@
       <c r="B25" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="119" t="s">
+      <c r="C25" s="123" t="s">
         <v>129</v>
       </c>
-      <c r="D25" s="122"/>
+      <c r="D25" s="126"/>
       <c r="E25" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="F25" s="119"/>
-      <c r="G25" s="120"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="124"/>
       <c r="H25" s="83">
         <v>120</v>
       </c>
       <c r="I25" s="48"/>
       <c r="J25" s="52"/>
       <c r="K25" s="52"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="122"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="126"/>
       <c r="N25" s="82"/>
       <c r="O25" s="83"/>
       <c r="P25" s="49"/>
@@ -3440,23 +3473,23 @@
       <c r="B26" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="119" t="s">
+      <c r="C26" s="123" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="122"/>
+      <c r="D26" s="126"/>
       <c r="E26" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="119"/>
-      <c r="G26" s="120"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="124"/>
       <c r="H26" s="83"/>
       <c r="I26" s="48">
         <v>1200</v>
       </c>
       <c r="J26" s="52"/>
       <c r="K26" s="52"/>
-      <c r="L26" s="121"/>
-      <c r="M26" s="122"/>
+      <c r="L26" s="125"/>
+      <c r="M26" s="126"/>
       <c r="N26" s="82">
         <v>1200</v>
       </c>
@@ -3485,21 +3518,21 @@
       <c r="B27" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="119" t="s">
+      <c r="C27" s="123" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="122"/>
+      <c r="D27" s="126"/>
       <c r="E27" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="F27" s="119"/>
-      <c r="G27" s="120"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="124"/>
       <c r="H27" s="86"/>
       <c r="I27" s="57"/>
       <c r="J27" s="58"/>
       <c r="K27" s="58"/>
-      <c r="L27" s="121"/>
-      <c r="M27" s="122"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="126"/>
       <c r="N27" s="81"/>
       <c r="O27" s="86"/>
       <c r="P27" s="55">
@@ -3522,23 +3555,23 @@
       <c r="B28" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="119" t="s">
+      <c r="C28" s="123" t="s">
         <v>134</v>
       </c>
-      <c r="D28" s="122"/>
+      <c r="D28" s="126"/>
       <c r="E28" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="F28" s="119"/>
-      <c r="G28" s="120"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="124"/>
       <c r="H28" s="86">
         <v>48</v>
       </c>
       <c r="I28" s="57"/>
       <c r="J28" s="58"/>
       <c r="K28" s="58"/>
-      <c r="L28" s="121"/>
-      <c r="M28" s="122"/>
+      <c r="L28" s="125"/>
+      <c r="M28" s="126"/>
       <c r="N28" s="81"/>
       <c r="O28" s="86"/>
       <c r="P28" s="55">
@@ -3563,21 +3596,21 @@
       <c r="B29" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="119" t="s">
+      <c r="C29" s="123" t="s">
         <v>137</v>
       </c>
-      <c r="D29" s="122"/>
+      <c r="D29" s="126"/>
       <c r="E29" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="F29" s="119"/>
-      <c r="G29" s="120"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="124"/>
       <c r="H29" s="86"/>
       <c r="I29" s="57"/>
       <c r="J29" s="58"/>
       <c r="K29" s="58"/>
-      <c r="L29" s="121"/>
-      <c r="M29" s="122"/>
+      <c r="L29" s="125"/>
+      <c r="M29" s="126"/>
       <c r="N29" s="81"/>
       <c r="O29" s="86"/>
       <c r="P29" s="55"/>
@@ -3600,21 +3633,21 @@
       <c r="B30" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="119" t="s">
+      <c r="C30" s="123" t="s">
         <v>140</v>
       </c>
-      <c r="D30" s="122"/>
+      <c r="D30" s="126"/>
       <c r="E30" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="F30" s="119"/>
-      <c r="G30" s="120"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="124"/>
       <c r="H30" s="86"/>
       <c r="I30" s="57"/>
       <c r="J30" s="58"/>
       <c r="K30" s="58"/>
-      <c r="L30" s="121"/>
-      <c r="M30" s="122"/>
+      <c r="L30" s="125"/>
+      <c r="M30" s="126"/>
       <c r="N30" s="81"/>
       <c r="O30" s="86"/>
       <c r="P30" s="55"/>
@@ -3637,21 +3670,21 @@
       <c r="B31" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="119" t="s">
+      <c r="C31" s="123" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="122"/>
+      <c r="D31" s="126"/>
       <c r="E31" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="F31" s="119"/>
-      <c r="G31" s="120"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="124"/>
       <c r="H31" s="86"/>
       <c r="I31" s="57"/>
       <c r="J31" s="58"/>
       <c r="K31" s="58"/>
-      <c r="L31" s="121"/>
-      <c r="M31" s="122"/>
+      <c r="L31" s="125"/>
+      <c r="M31" s="126"/>
       <c r="N31" s="81"/>
       <c r="O31" s="86"/>
       <c r="P31" s="55">
@@ -3674,23 +3707,23 @@
       <c r="B32" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="119" t="s">
+      <c r="C32" s="123" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="122"/>
+      <c r="D32" s="126"/>
       <c r="E32" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="F32" s="119"/>
-      <c r="G32" s="120"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="124"/>
       <c r="H32" s="86"/>
       <c r="I32" s="57">
         <v>120</v>
       </c>
       <c r="J32" s="58"/>
       <c r="K32" s="58"/>
-      <c r="L32" s="121"/>
-      <c r="M32" s="122"/>
+      <c r="L32" s="125"/>
+      <c r="M32" s="126"/>
       <c r="N32" s="81"/>
       <c r="O32" s="86">
         <v>144</v>
@@ -3717,17 +3750,17 @@
       <c r="B33" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="119" t="s">
+      <c r="C33" s="123" t="s">
         <v>127</v>
       </c>
-      <c r="D33" s="122"/>
+      <c r="D33" s="126"/>
       <c r="E33" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="F33" s="119">
+      <c r="F33" s="123">
         <v>720</v>
       </c>
-      <c r="G33" s="120"/>
+      <c r="G33" s="124"/>
       <c r="H33" s="86">
         <v>1440</v>
       </c>
@@ -3736,8 +3769,8 @@
       </c>
       <c r="J33" s="58"/>
       <c r="K33" s="58"/>
-      <c r="L33" s="121"/>
-      <c r="M33" s="122"/>
+      <c r="L33" s="125"/>
+      <c r="M33" s="126"/>
       <c r="N33" s="81">
         <v>480</v>
       </c>
@@ -3764,21 +3797,21 @@
       <c r="B34" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="119" t="s">
+      <c r="C34" s="123" t="s">
         <v>117</v>
       </c>
-      <c r="D34" s="122"/>
+      <c r="D34" s="126"/>
       <c r="E34" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="F34" s="119"/>
-      <c r="G34" s="120"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="124"/>
       <c r="H34" s="86"/>
       <c r="I34" s="57"/>
       <c r="J34" s="58"/>
       <c r="K34" s="58"/>
-      <c r="L34" s="121"/>
-      <c r="M34" s="122"/>
+      <c r="L34" s="125"/>
+      <c r="M34" s="126"/>
       <c r="N34" s="81"/>
       <c r="O34" s="86"/>
       <c r="P34" s="55">
@@ -3801,15 +3834,15 @@
       <c r="B35" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="119" t="s">
+      <c r="C35" s="123" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="122"/>
+      <c r="D35" s="126"/>
       <c r="E35" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="F35" s="119"/>
-      <c r="G35" s="120"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="124"/>
       <c r="H35" s="86"/>
       <c r="I35" s="57">
         <v>9750</v>
@@ -3818,8 +3851,8 @@
       <c r="K35" s="58">
         <v>330</v>
       </c>
-      <c r="L35" s="121"/>
-      <c r="M35" s="122"/>
+      <c r="L35" s="125"/>
+      <c r="M35" s="126"/>
       <c r="N35" s="81"/>
       <c r="O35" s="86">
         <v>120</v>
@@ -3846,21 +3879,21 @@
       <c r="B36" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="119" t="s">
+      <c r="C36" s="123" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="122"/>
+      <c r="D36" s="126"/>
       <c r="E36" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F36" s="119"/>
-      <c r="G36" s="120"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="124"/>
       <c r="H36" s="86"/>
       <c r="I36" s="57"/>
       <c r="J36" s="58"/>
       <c r="K36" s="58"/>
-      <c r="L36" s="121"/>
-      <c r="M36" s="122"/>
+      <c r="L36" s="125"/>
+      <c r="M36" s="126"/>
       <c r="N36" s="81"/>
       <c r="O36" s="86"/>
       <c r="P36" s="55"/>
@@ -3883,21 +3916,21 @@
       <c r="B37" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="119" t="s">
+      <c r="C37" s="123" t="s">
         <v>149</v>
       </c>
-      <c r="D37" s="122"/>
+      <c r="D37" s="126"/>
       <c r="E37" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="F37" s="119"/>
-      <c r="G37" s="120"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="124"/>
       <c r="H37" s="86"/>
       <c r="I37" s="57"/>
       <c r="J37" s="58"/>
       <c r="K37" s="58"/>
-      <c r="L37" s="121"/>
-      <c r="M37" s="122"/>
+      <c r="L37" s="125"/>
+      <c r="M37" s="126"/>
       <c r="N37" s="81"/>
       <c r="O37" s="86"/>
       <c r="P37" s="55">
@@ -3922,23 +3955,23 @@
       <c r="B38" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="119" t="s">
+      <c r="C38" s="123" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="122"/>
+      <c r="D38" s="126"/>
       <c r="E38" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="F38" s="119"/>
-      <c r="G38" s="120"/>
+      <c r="F38" s="123"/>
+      <c r="G38" s="124"/>
       <c r="H38" s="86"/>
       <c r="I38" s="57">
         <v>600</v>
       </c>
       <c r="J38" s="58"/>
       <c r="K38" s="58"/>
-      <c r="L38" s="121"/>
-      <c r="M38" s="122"/>
+      <c r="L38" s="125"/>
+      <c r="M38" s="126"/>
       <c r="N38" s="81">
         <v>480</v>
       </c>
@@ -3965,23 +3998,23 @@
       <c r="B39" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="123" t="s">
+      <c r="C39" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="124"/>
+      <c r="D39" s="128"/>
       <c r="E39" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="F39" s="119"/>
-      <c r="G39" s="120"/>
+      <c r="F39" s="123"/>
+      <c r="G39" s="124"/>
       <c r="H39" s="86">
         <v>120</v>
       </c>
       <c r="I39" s="57"/>
       <c r="J39" s="58"/>
       <c r="K39" s="58"/>
-      <c r="L39" s="121"/>
-      <c r="M39" s="122"/>
+      <c r="L39" s="125"/>
+      <c r="M39" s="126"/>
       <c r="N39" s="95"/>
       <c r="O39" s="86"/>
       <c r="P39" s="55"/>
@@ -4002,15 +4035,15 @@
       <c r="B40" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="123" t="s">
+      <c r="C40" s="127" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="124"/>
+      <c r="D40" s="128"/>
       <c r="E40" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="119"/>
-      <c r="G40" s="120"/>
+      <c r="F40" s="123"/>
+      <c r="G40" s="124"/>
       <c r="H40" s="86"/>
       <c r="I40" s="57">
         <v>6450</v>
@@ -4019,8 +4052,8 @@
       <c r="K40" s="58">
         <v>110</v>
       </c>
-      <c r="L40" s="121"/>
-      <c r="M40" s="122"/>
+      <c r="L40" s="125"/>
+      <c r="M40" s="126"/>
       <c r="N40" s="95">
         <v>240</v>
       </c>
@@ -4049,23 +4082,23 @@
       <c r="B41" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="123" t="s">
+      <c r="C41" s="127" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="124"/>
+      <c r="D41" s="128"/>
       <c r="E41" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F41" s="119"/>
-      <c r="G41" s="120"/>
+      <c r="F41" s="123"/>
+      <c r="G41" s="124"/>
       <c r="H41" s="86"/>
       <c r="I41" s="57">
         <v>1800</v>
       </c>
       <c r="J41" s="58"/>
       <c r="K41" s="58"/>
-      <c r="L41" s="121"/>
-      <c r="M41" s="122"/>
+      <c r="L41" s="125"/>
+      <c r="M41" s="126"/>
       <c r="N41" s="95">
         <v>240</v>
       </c>
@@ -4092,21 +4125,21 @@
       <c r="B42" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="C42" s="123" t="s">
+      <c r="C42" s="127" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="124"/>
+      <c r="D42" s="128"/>
       <c r="E42" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F42" s="119"/>
-      <c r="G42" s="120"/>
+      <c r="F42" s="123"/>
+      <c r="G42" s="124"/>
       <c r="H42" s="86"/>
       <c r="I42" s="57"/>
       <c r="J42" s="58"/>
       <c r="K42" s="58"/>
-      <c r="L42" s="121"/>
-      <c r="M42" s="122"/>
+      <c r="L42" s="125"/>
+      <c r="M42" s="126"/>
       <c r="N42" s="95">
         <v>600</v>
       </c>
@@ -4131,21 +4164,21 @@
       <c r="B43" s="97" t="s">
         <v>152</v>
       </c>
-      <c r="C43" s="123" t="s">
+      <c r="C43" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="D43" s="124"/>
+      <c r="D43" s="128"/>
       <c r="E43" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F43" s="119"/>
-      <c r="G43" s="120"/>
+      <c r="F43" s="123"/>
+      <c r="G43" s="124"/>
       <c r="H43" s="86"/>
       <c r="I43" s="57"/>
       <c r="J43" s="58"/>
       <c r="K43" s="58"/>
-      <c r="L43" s="121"/>
-      <c r="M43" s="122"/>
+      <c r="L43" s="125"/>
+      <c r="M43" s="126"/>
       <c r="N43" s="95"/>
       <c r="O43" s="86"/>
       <c r="P43" s="55">
@@ -4168,21 +4201,21 @@
       <c r="B44" s="97" t="s">
         <v>153</v>
       </c>
-      <c r="C44" s="123" t="s">
+      <c r="C44" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="124"/>
+      <c r="D44" s="128"/>
       <c r="E44" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="F44" s="119"/>
-      <c r="G44" s="120"/>
+      <c r="F44" s="123"/>
+      <c r="G44" s="124"/>
       <c r="H44" s="86"/>
       <c r="I44" s="57"/>
       <c r="J44" s="58"/>
       <c r="K44" s="58"/>
-      <c r="L44" s="121"/>
-      <c r="M44" s="122"/>
+      <c r="L44" s="125"/>
+      <c r="M44" s="126"/>
       <c r="N44" s="95">
         <v>1200</v>
       </c>
@@ -4209,21 +4242,21 @@
       <c r="B45" s="97" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="123" t="s">
+      <c r="C45" s="127" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="124"/>
+      <c r="D45" s="128"/>
       <c r="E45" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F45" s="119"/>
-      <c r="G45" s="120"/>
+      <c r="F45" s="123"/>
+      <c r="G45" s="124"/>
       <c r="H45" s="86"/>
       <c r="I45" s="57"/>
       <c r="J45" s="58"/>
       <c r="K45" s="58"/>
-      <c r="L45" s="121"/>
-      <c r="M45" s="122"/>
+      <c r="L45" s="125"/>
+      <c r="M45" s="126"/>
       <c r="N45" s="95"/>
       <c r="O45" s="86"/>
       <c r="P45" s="55">
@@ -4248,15 +4281,15 @@
       <c r="B46" s="97" t="s">
         <v>155</v>
       </c>
-      <c r="C46" s="123" t="s">
+      <c r="C46" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="124"/>
+      <c r="D46" s="128"/>
       <c r="E46" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="F46" s="119"/>
-      <c r="G46" s="120"/>
+      <c r="F46" s="123"/>
+      <c r="G46" s="124"/>
       <c r="H46" s="86">
         <v>240</v>
       </c>
@@ -4265,10 +4298,10 @@
       </c>
       <c r="J46" s="58"/>
       <c r="K46" s="58"/>
-      <c r="L46" s="121">
+      <c r="L46" s="125">
         <v>110</v>
       </c>
-      <c r="M46" s="122"/>
+      <c r="M46" s="126"/>
       <c r="N46" s="98"/>
       <c r="O46" s="86"/>
       <c r="P46" s="55"/>
@@ -4289,21 +4322,21 @@
       <c r="B47" s="97" t="s">
         <v>156</v>
       </c>
-      <c r="C47" s="123" t="s">
+      <c r="C47" s="127" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="124"/>
+      <c r="D47" s="128"/>
       <c r="E47" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="F47" s="119"/>
-      <c r="G47" s="120"/>
+      <c r="F47" s="123"/>
+      <c r="G47" s="124"/>
       <c r="H47" s="86"/>
       <c r="I47" s="57"/>
       <c r="J47" s="58"/>
       <c r="K47" s="58"/>
-      <c r="L47" s="121"/>
-      <c r="M47" s="122"/>
+      <c r="L47" s="125"/>
+      <c r="M47" s="126"/>
       <c r="N47" s="98"/>
       <c r="O47" s="86"/>
       <c r="P47" s="55">
@@ -4326,15 +4359,15 @@
       <c r="B48" s="97" t="s">
         <v>157</v>
       </c>
-      <c r="C48" s="123" t="s">
+      <c r="C48" s="127" t="s">
         <v>127</v>
       </c>
-      <c r="D48" s="124"/>
+      <c r="D48" s="128"/>
       <c r="E48" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="F48" s="119"/>
-      <c r="G48" s="120"/>
+      <c r="F48" s="123"/>
+      <c r="G48" s="124"/>
       <c r="H48" s="86">
         <v>1200</v>
       </c>
@@ -4343,8 +4376,8 @@
         <v>240</v>
       </c>
       <c r="K48" s="58"/>
-      <c r="L48" s="121"/>
-      <c r="M48" s="122"/>
+      <c r="L48" s="125"/>
+      <c r="M48" s="126"/>
       <c r="N48" s="98">
         <v>1200</v>
       </c>
@@ -4373,21 +4406,21 @@
       <c r="B49" s="97" t="s">
         <v>162</v>
       </c>
-      <c r="C49" s="123" t="s">
+      <c r="C49" s="127" t="s">
         <v>172</v>
       </c>
-      <c r="D49" s="124"/>
+      <c r="D49" s="128"/>
       <c r="E49" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="F49" s="119"/>
-      <c r="G49" s="120"/>
+      <c r="F49" s="123"/>
+      <c r="G49" s="124"/>
       <c r="H49" s="86"/>
       <c r="I49" s="57"/>
       <c r="J49" s="58"/>
       <c r="K49" s="58"/>
-      <c r="L49" s="121"/>
-      <c r="M49" s="122"/>
+      <c r="L49" s="125"/>
+      <c r="M49" s="126"/>
       <c r="N49" s="98"/>
       <c r="O49" s="86"/>
       <c r="P49" s="55">
@@ -4410,21 +4443,21 @@
       <c r="B50" s="97" t="s">
         <v>163</v>
       </c>
-      <c r="C50" s="123" t="s">
+      <c r="C50" s="127" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="124"/>
+      <c r="D50" s="128"/>
       <c r="E50" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="F50" s="119"/>
-      <c r="G50" s="120"/>
+      <c r="F50" s="123"/>
+      <c r="G50" s="124"/>
       <c r="H50" s="86"/>
       <c r="I50" s="57"/>
       <c r="J50" s="58"/>
       <c r="K50" s="58"/>
-      <c r="L50" s="121"/>
-      <c r="M50" s="122"/>
+      <c r="L50" s="125"/>
+      <c r="M50" s="126"/>
       <c r="N50" s="98"/>
       <c r="O50" s="86"/>
       <c r="P50" s="55">
@@ -4447,21 +4480,21 @@
       <c r="B51" s="97" t="s">
         <v>164</v>
       </c>
-      <c r="C51" s="123" t="s">
+      <c r="C51" s="127" t="s">
         <v>175</v>
       </c>
-      <c r="D51" s="124"/>
+      <c r="D51" s="128"/>
       <c r="E51" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="F51" s="119"/>
-      <c r="G51" s="120"/>
+      <c r="F51" s="123"/>
+      <c r="G51" s="124"/>
       <c r="H51" s="86"/>
       <c r="I51" s="57"/>
       <c r="J51" s="58"/>
       <c r="K51" s="58"/>
-      <c r="L51" s="121"/>
-      <c r="M51" s="122"/>
+      <c r="L51" s="125"/>
+      <c r="M51" s="126"/>
       <c r="N51" s="98"/>
       <c r="O51" s="86"/>
       <c r="P51" s="55">
@@ -4484,15 +4517,15 @@
       <c r="B52" s="97" t="s">
         <v>165</v>
       </c>
-      <c r="C52" s="123" t="s">
+      <c r="C52" s="127" t="s">
         <v>127</v>
       </c>
-      <c r="D52" s="124"/>
+      <c r="D52" s="128"/>
       <c r="E52" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="F52" s="119"/>
-      <c r="G52" s="120"/>
+      <c r="F52" s="123"/>
+      <c r="G52" s="124"/>
       <c r="H52" s="86">
         <v>960</v>
       </c>
@@ -4503,10 +4536,10 @@
       <c r="K52" s="58">
         <v>660</v>
       </c>
-      <c r="L52" s="121">
+      <c r="L52" s="125">
         <v>330</v>
       </c>
-      <c r="M52" s="122"/>
+      <c r="M52" s="126"/>
       <c r="N52" s="98">
         <v>360</v>
       </c>
@@ -4535,23 +4568,23 @@
       <c r="B53" s="97" t="s">
         <v>166</v>
       </c>
-      <c r="C53" s="123" t="s">
+      <c r="C53" s="127" t="s">
         <v>120</v>
       </c>
-      <c r="D53" s="124"/>
+      <c r="D53" s="128"/>
       <c r="E53" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F53" s="119"/>
-      <c r="G53" s="120"/>
+      <c r="F53" s="123"/>
+      <c r="G53" s="124"/>
       <c r="H53" s="86"/>
       <c r="I53" s="57">
         <v>1800</v>
       </c>
       <c r="J53" s="58"/>
       <c r="K53" s="58"/>
-      <c r="L53" s="121"/>
-      <c r="M53" s="122"/>
+      <c r="L53" s="125"/>
+      <c r="M53" s="126"/>
       <c r="N53" s="98">
         <v>720</v>
       </c>
@@ -4578,23 +4611,23 @@
       <c r="B54" s="97" t="s">
         <v>167</v>
       </c>
-      <c r="C54" s="123" t="s">
+      <c r="C54" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="D54" s="124"/>
+      <c r="D54" s="128"/>
       <c r="E54" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F54" s="119"/>
-      <c r="G54" s="120"/>
+      <c r="F54" s="123"/>
+      <c r="G54" s="124"/>
       <c r="H54" s="86"/>
       <c r="I54" s="57">
         <v>600</v>
       </c>
       <c r="J54" s="58"/>
       <c r="K54" s="58"/>
-      <c r="L54" s="121"/>
-      <c r="M54" s="122"/>
+      <c r="L54" s="125"/>
+      <c r="M54" s="126"/>
       <c r="N54" s="98"/>
       <c r="O54" s="86"/>
       <c r="P54" s="55">
@@ -4617,21 +4650,21 @@
       <c r="B55" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="C55" s="123" t="s">
+      <c r="C55" s="127" t="s">
         <v>122</v>
       </c>
-      <c r="D55" s="124"/>
+      <c r="D55" s="128"/>
       <c r="E55" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F55" s="119"/>
-      <c r="G55" s="120"/>
+      <c r="F55" s="123"/>
+      <c r="G55" s="124"/>
       <c r="H55" s="86"/>
       <c r="I55" s="57"/>
       <c r="J55" s="58"/>
       <c r="K55" s="58"/>
-      <c r="L55" s="121"/>
-      <c r="M55" s="122"/>
+      <c r="L55" s="125"/>
+      <c r="M55" s="126"/>
       <c r="N55" s="98">
         <v>480</v>
       </c>
@@ -4652,18 +4685,18 @@
       </c>
     </row>
     <row r="56" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A56" s="160" t="s">
+      <c r="A56" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="B56" s="161"/>
-      <c r="C56" s="161"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="165"/>
       <c r="D56" s="62"/>
       <c r="E56" s="60"/>
-      <c r="F56" s="162">
+      <c r="F56" s="166">
         <f>SUM(F5:G55)</f>
         <v>768</v>
       </c>
-      <c r="G56" s="163"/>
+      <c r="G56" s="167"/>
       <c r="H56" s="34">
         <f>SUM(H5:H55)</f>
         <v>5712</v>
@@ -4680,11 +4713,11 @@
         <f>SUM(K5:K55)</f>
         <v>2442</v>
       </c>
-      <c r="L56" s="164">
+      <c r="L56" s="168">
         <f>SUM(L5:M55)</f>
         <v>440</v>
       </c>
-      <c r="M56" s="165"/>
+      <c r="M56" s="169"/>
       <c r="N56" s="77">
         <f t="shared" ref="N56:T56" si="1">SUM(N5:N55)</f>
         <v>10440</v>
@@ -4718,16 +4751,16 @@
       <c r="X56" s="13"/>
     </row>
     <row r="57" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A57" s="160"/>
-      <c r="B57" s="161"/>
-      <c r="C57" s="161"/>
+      <c r="A57" s="164"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="165"/>
       <c r="D57" s="62"/>
       <c r="E57" s="60"/>
-      <c r="F57" s="162">
+      <c r="F57" s="166">
         <f>F4+F56</f>
         <v>768</v>
       </c>
-      <c r="G57" s="163"/>
+      <c r="G57" s="167"/>
       <c r="H57" s="34">
         <f>H4+H56</f>
         <v>5712</v>
@@ -4744,11 +4777,11 @@
         <f>K4+K56</f>
         <v>2442</v>
       </c>
-      <c r="L57" s="164">
+      <c r="L57" s="168">
         <f>L4+L56</f>
         <v>440</v>
       </c>
-      <c r="M57" s="165"/>
+      <c r="M57" s="169"/>
       <c r="N57" s="77">
         <f t="shared" ref="N57:T57" si="2">N4+N56</f>
         <v>10440</v>
@@ -4784,63 +4817,63 @@
       <c r="V58" s="13"/>
     </row>
     <row r="59" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A59" s="166" t="s">
+      <c r="A59" s="170" t="s">
         <v>161</v>
       </c>
-      <c r="B59" s="167"/>
-      <c r="C59" s="167"/>
-      <c r="D59" s="167"/>
-      <c r="E59" s="167"/>
-      <c r="F59" s="167"/>
-      <c r="G59" s="167"/>
-      <c r="H59" s="167"/>
-      <c r="I59" s="167"/>
-      <c r="J59" s="167"/>
-      <c r="K59" s="167"/>
-      <c r="L59" s="167"/>
-      <c r="M59" s="167"/>
-      <c r="N59" s="167"/>
-      <c r="O59" s="167"/>
-      <c r="P59" s="167"/>
-      <c r="Q59" s="168"/>
+      <c r="B59" s="171"/>
+      <c r="C59" s="171"/>
+      <c r="D59" s="171"/>
+      <c r="E59" s="171"/>
+      <c r="F59" s="171"/>
+      <c r="G59" s="171"/>
+      <c r="H59" s="171"/>
+      <c r="I59" s="171"/>
+      <c r="J59" s="171"/>
+      <c r="K59" s="171"/>
+      <c r="L59" s="171"/>
+      <c r="M59" s="171"/>
+      <c r="N59" s="171"/>
+      <c r="O59" s="171"/>
+      <c r="P59" s="171"/>
+      <c r="Q59" s="172"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="28"/>
     </row>
     <row r="60" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A60" s="125" t="s">
+      <c r="A60" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="B60" s="126"/>
-      <c r="C60" s="169" t="s">
+      <c r="B60" s="130"/>
+      <c r="C60" s="173" t="s">
         <v>33</v>
       </c>
-      <c r="D60" s="169" t="s">
+      <c r="D60" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="172" t="s">
+      <c r="E60" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="F60" s="125" t="s">
+      <c r="F60" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="G60" s="126"/>
-      <c r="H60" s="174" t="s">
+      <c r="G60" s="130"/>
+      <c r="H60" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="I60" s="175"/>
-      <c r="J60" s="176"/>
-      <c r="K60" s="177" t="s">
+      <c r="I60" s="179"/>
+      <c r="J60" s="180"/>
+      <c r="K60" s="181" t="s">
         <v>25</v>
       </c>
-      <c r="L60" s="178"/>
-      <c r="M60" s="178"/>
-      <c r="N60" s="178"/>
-      <c r="O60" s="179"/>
-      <c r="P60" s="169" t="s">
+      <c r="L60" s="182"/>
+      <c r="M60" s="182"/>
+      <c r="N60" s="182"/>
+      <c r="O60" s="183"/>
+      <c r="P60" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="Q60" s="180" t="s">
+      <c r="Q60" s="184" t="s">
         <v>38</v>
       </c>
       <c r="R60" s="1"/>
@@ -4848,13 +4881,13 @@
       <c r="T60" s="28"/>
     </row>
     <row r="61" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A61" s="127"/>
-      <c r="B61" s="128"/>
-      <c r="C61" s="170"/>
-      <c r="D61" s="171"/>
-      <c r="E61" s="173"/>
-      <c r="F61" s="127"/>
-      <c r="G61" s="128"/>
+      <c r="A61" s="131"/>
+      <c r="B61" s="132"/>
+      <c r="C61" s="174"/>
+      <c r="D61" s="175"/>
+      <c r="E61" s="177"/>
+      <c r="F61" s="131"/>
+      <c r="G61" s="132"/>
       <c r="H61" s="70" t="s">
         <v>49</v>
       </c>
@@ -4867,25 +4900,25 @@
       <c r="K61" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="L61" s="177" t="s">
+      <c r="L61" s="181" t="s">
         <v>47</v>
       </c>
-      <c r="M61" s="179"/>
+      <c r="M61" s="183"/>
       <c r="N61" s="70" t="s">
         <v>46</v>
       </c>
       <c r="O61" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="P61" s="171"/>
-      <c r="Q61" s="181"/>
+      <c r="P61" s="175"/>
+      <c r="Q61" s="185"/>
       <c r="T61" s="28"/>
     </row>
     <row r="62" spans="1:24" ht="15" customHeight="1">
-      <c r="A62" s="125" t="s">
+      <c r="A62" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="126"/>
+      <c r="B62" s="130"/>
       <c r="C62" s="66" t="s">
         <v>28</v>
       </c>
@@ -4893,14 +4926,14 @@
       <c r="E62" s="4">
         <v>720</v>
       </c>
-      <c r="F62" s="129"/>
-      <c r="G62" s="129"/>
+      <c r="F62" s="133"/>
+      <c r="G62" s="133"/>
       <c r="H62" s="4"/>
       <c r="I62" s="67"/>
       <c r="J62" s="4"/>
       <c r="K62" s="67"/>
-      <c r="L62" s="130"/>
-      <c r="M62" s="131"/>
+      <c r="L62" s="134"/>
+      <c r="M62" s="135"/>
       <c r="N62" s="67"/>
       <c r="O62" s="4">
         <v>48</v>
@@ -4917,8 +4950,8 @@
       </c>
     </row>
     <row r="63" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A63" s="127"/>
-      <c r="B63" s="128"/>
+      <c r="A63" s="131"/>
+      <c r="B63" s="132"/>
       <c r="C63" s="74" t="s">
         <v>29</v>
       </c>
@@ -4926,16 +4959,16 @@
       <c r="E63" s="14">
         <v>2640</v>
       </c>
-      <c r="F63" s="132">
+      <c r="F63" s="136">
         <v>2160</v>
       </c>
-      <c r="G63" s="132"/>
+      <c r="G63" s="136"/>
       <c r="H63" s="14"/>
       <c r="I63" s="71"/>
       <c r="J63" s="14"/>
       <c r="K63" s="71"/>
-      <c r="L63" s="133"/>
-      <c r="M63" s="134"/>
+      <c r="L63" s="137"/>
+      <c r="M63" s="138"/>
       <c r="N63" s="71"/>
       <c r="O63" s="14">
         <v>672</v>
@@ -4954,10 +4987,10 @@
       </c>
     </row>
     <row r="64" spans="1:24">
-      <c r="A64" s="125" t="s">
+      <c r="A64" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="B64" s="126"/>
+      <c r="B64" s="130"/>
       <c r="C64" s="4" t="s">
         <v>30</v>
       </c>
@@ -4967,10 +5000,10 @@
       <c r="E64" s="4">
         <v>600</v>
       </c>
-      <c r="F64" s="129">
+      <c r="F64" s="133">
         <v>1650</v>
       </c>
-      <c r="G64" s="129"/>
+      <c r="G64" s="133"/>
       <c r="H64" s="4"/>
       <c r="I64" s="67">
         <v>3600</v>
@@ -4979,10 +5012,10 @@
         <v>1200</v>
       </c>
       <c r="K64" s="67"/>
-      <c r="L64" s="130">
+      <c r="L64" s="134">
         <v>120</v>
       </c>
-      <c r="M64" s="131"/>
+      <c r="M64" s="135"/>
       <c r="N64" s="67"/>
       <c r="O64" s="4">
         <v>210</v>
@@ -5001,8 +5034,8 @@
       </c>
     </row>
     <row r="65" spans="1:22">
-      <c r="A65" s="140"/>
-      <c r="B65" s="141"/>
+      <c r="A65" s="144"/>
+      <c r="B65" s="145"/>
       <c r="C65" s="5" t="s">
         <v>32</v>
       </c>
@@ -5012,14 +5045,14 @@
       <c r="E65" s="5">
         <v>240</v>
       </c>
-      <c r="F65" s="145"/>
-      <c r="G65" s="145"/>
+      <c r="F65" s="149"/>
+      <c r="G65" s="149"/>
       <c r="H65" s="5"/>
       <c r="I65" s="69"/>
       <c r="J65" s="5"/>
       <c r="K65" s="69"/>
-      <c r="L65" s="146"/>
-      <c r="M65" s="147"/>
+      <c r="L65" s="150"/>
+      <c r="M65" s="151"/>
       <c r="N65" s="69"/>
       <c r="O65" s="5"/>
       <c r="P65" s="69"/>
@@ -5034,8 +5067,8 @@
       </c>
     </row>
     <row r="66" spans="1:22">
-      <c r="A66" s="140"/>
-      <c r="B66" s="141"/>
+      <c r="A66" s="144"/>
+      <c r="B66" s="145"/>
       <c r="C66" s="5" t="s">
         <v>43</v>
       </c>
@@ -5043,16 +5076,16 @@
         <v>880</v>
       </c>
       <c r="E66" s="5"/>
-      <c r="F66" s="145">
+      <c r="F66" s="149">
         <v>1320</v>
       </c>
-      <c r="G66" s="145"/>
+      <c r="G66" s="149"/>
       <c r="H66" s="5"/>
       <c r="I66" s="69"/>
       <c r="J66" s="5"/>
       <c r="K66" s="69"/>
-      <c r="L66" s="146"/>
-      <c r="M66" s="147"/>
+      <c r="L66" s="150"/>
+      <c r="M66" s="151"/>
       <c r="N66" s="69"/>
       <c r="O66" s="5">
         <v>22</v>
@@ -5071,23 +5104,23 @@
       </c>
     </row>
     <row r="67" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A67" s="127"/>
-      <c r="B67" s="128"/>
+      <c r="A67" s="131"/>
+      <c r="B67" s="132"/>
       <c r="C67" s="65" t="s">
         <v>44</v>
       </c>
       <c r="D67" s="73"/>
       <c r="E67" s="15"/>
-      <c r="F67" s="153">
+      <c r="F67" s="157">
         <v>330</v>
       </c>
-      <c r="G67" s="153"/>
+      <c r="G67" s="157"/>
       <c r="H67" s="15"/>
       <c r="I67" s="72"/>
       <c r="J67" s="15"/>
       <c r="K67" s="72"/>
-      <c r="L67" s="154"/>
-      <c r="M67" s="155"/>
+      <c r="L67" s="158"/>
+      <c r="M67" s="159"/>
       <c r="N67" s="72"/>
       <c r="O67" s="15"/>
       <c r="P67" s="72">
@@ -5104,10 +5137,10 @@
       </c>
     </row>
     <row r="68" spans="1:22">
-      <c r="A68" s="125" t="s">
+      <c r="A68" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="B68" s="126"/>
+      <c r="B68" s="130"/>
       <c r="C68" s="76" t="s">
         <v>28</v>
       </c>
@@ -5117,10 +5150,10 @@
       <c r="E68" s="16">
         <v>1680</v>
       </c>
-      <c r="F68" s="142">
+      <c r="F68" s="146">
         <v>360</v>
       </c>
-      <c r="G68" s="142"/>
+      <c r="G68" s="146"/>
       <c r="H68" s="16">
         <v>1680</v>
       </c>
@@ -5129,8 +5162,8 @@
       </c>
       <c r="J68" s="16"/>
       <c r="K68" s="75"/>
-      <c r="L68" s="143"/>
-      <c r="M68" s="144"/>
+      <c r="L68" s="147"/>
+      <c r="M68" s="148"/>
       <c r="N68" s="75"/>
       <c r="O68" s="16"/>
       <c r="P68" s="75">
@@ -5147,8 +5180,8 @@
       </c>
     </row>
     <row r="69" spans="1:22">
-      <c r="A69" s="140"/>
-      <c r="B69" s="141"/>
+      <c r="A69" s="144"/>
+      <c r="B69" s="145"/>
       <c r="C69" s="68" t="s">
         <v>31</v>
       </c>
@@ -5158,10 +5191,10 @@
       <c r="E69" s="5">
         <v>1440</v>
       </c>
-      <c r="F69" s="145">
+      <c r="F69" s="149">
         <v>240</v>
       </c>
-      <c r="G69" s="145"/>
+      <c r="G69" s="149"/>
       <c r="H69" s="5">
         <v>720</v>
       </c>
@@ -5170,10 +5203,10 @@
       </c>
       <c r="J69" s="5"/>
       <c r="K69" s="69"/>
-      <c r="L69" s="146">
+      <c r="L69" s="150">
         <v>144</v>
       </c>
-      <c r="M69" s="147"/>
+      <c r="M69" s="151"/>
       <c r="N69" s="69"/>
       <c r="O69" s="5"/>
       <c r="P69" s="69">
@@ -5190,8 +5223,8 @@
       </c>
     </row>
     <row r="70" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A70" s="127"/>
-      <c r="B70" s="128"/>
+      <c r="A70" s="131"/>
+      <c r="B70" s="132"/>
       <c r="C70" s="65" t="s">
         <v>29</v>
       </c>
@@ -5201,10 +5234,10 @@
       <c r="E70" s="14">
         <v>8400</v>
       </c>
-      <c r="F70" s="132">
+      <c r="F70" s="136">
         <v>5520</v>
       </c>
-      <c r="G70" s="132"/>
+      <c r="G70" s="136"/>
       <c r="H70" s="14">
         <v>2520</v>
       </c>
@@ -5215,10 +5248,10 @@
         <v>4920</v>
       </c>
       <c r="K70" s="71"/>
-      <c r="L70" s="133">
+      <c r="L70" s="137">
         <v>720</v>
       </c>
-      <c r="M70" s="134"/>
+      <c r="M70" s="138"/>
       <c r="N70" s="71"/>
       <c r="O70" s="14">
         <v>3648</v>
@@ -5237,10 +5270,10 @@
       </c>
     </row>
     <row r="71" spans="1:22">
-      <c r="A71" s="125" t="s">
+      <c r="A71" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="B71" s="126"/>
+      <c r="B71" s="130"/>
       <c r="C71" s="66" t="s">
         <v>31</v>
       </c>
@@ -5250,18 +5283,18 @@
       <c r="E71" s="4">
         <v>240</v>
       </c>
-      <c r="F71" s="129">
+      <c r="F71" s="133">
         <v>360</v>
       </c>
-      <c r="G71" s="129"/>
+      <c r="G71" s="133"/>
       <c r="H71" s="4"/>
       <c r="I71" s="67"/>
       <c r="J71" s="4"/>
       <c r="K71" s="67"/>
-      <c r="L71" s="130">
+      <c r="L71" s="134">
         <v>120</v>
       </c>
-      <c r="M71" s="131"/>
+      <c r="M71" s="135"/>
       <c r="N71" s="67"/>
       <c r="O71" s="4">
         <v>672</v>
@@ -5280,8 +5313,8 @@
       </c>
     </row>
     <row r="72" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A72" s="127"/>
-      <c r="B72" s="128"/>
+      <c r="A72" s="131"/>
+      <c r="B72" s="132"/>
       <c r="C72" s="65" t="s">
         <v>29</v>
       </c>
@@ -5289,14 +5322,14 @@
         <v>900</v>
       </c>
       <c r="E72" s="15"/>
-      <c r="F72" s="153"/>
-      <c r="G72" s="153"/>
+      <c r="F72" s="157"/>
+      <c r="G72" s="157"/>
       <c r="H72" s="15"/>
       <c r="I72" s="72"/>
       <c r="J72" s="15"/>
       <c r="K72" s="72"/>
-      <c r="L72" s="154"/>
-      <c r="M72" s="155"/>
+      <c r="L72" s="158"/>
+      <c r="M72" s="159"/>
       <c r="N72" s="72"/>
       <c r="O72" s="15"/>
       <c r="P72" s="72"/>
@@ -5311,11 +5344,11 @@
       </c>
     </row>
     <row r="73" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A73" s="156" t="s">
+      <c r="A73" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="B73" s="157"/>
-      <c r="C73" s="157"/>
+      <c r="B73" s="161"/>
+      <c r="C73" s="161"/>
       <c r="D73" s="23">
         <f>SUM(D62:D72)</f>
         <v>40630</v>
@@ -5324,11 +5357,11 @@
         <f t="shared" ref="E73" si="4">SUM(E62:E72)</f>
         <v>15960</v>
       </c>
-      <c r="F73" s="158">
+      <c r="F73" s="162">
         <f>SUM(F62:G72)</f>
         <v>11940</v>
       </c>
-      <c r="G73" s="159"/>
+      <c r="G73" s="163"/>
       <c r="H73" s="23">
         <f>SUM(H62:H72)</f>
         <v>4920</v>
@@ -5345,11 +5378,11 @@
         <f>SUM(K62:K72)</f>
         <v>0</v>
       </c>
-      <c r="L73" s="158">
+      <c r="L73" s="162">
         <f>SUM(L62:M72)</f>
         <v>1104</v>
       </c>
-      <c r="M73" s="159"/>
+      <c r="M73" s="163"/>
       <c r="N73" s="23">
         <f>SUM(N62:N72)</f>
         <v>0</v>
@@ -5375,47 +5408,47 @@
       </c>
     </row>
     <row r="74" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A74" s="135" t="s">
+      <c r="A74" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="B74" s="136"/>
-      <c r="C74" s="136"/>
-      <c r="D74" s="137">
+      <c r="B74" s="140"/>
+      <c r="C74" s="140"/>
+      <c r="D74" s="141">
         <f>D73+E73+F73+H73+I73+J73+K73+L73+N73+O73+P73</f>
         <v>122966</v>
       </c>
-      <c r="E74" s="138"/>
-      <c r="F74" s="138"/>
-      <c r="G74" s="138"/>
-      <c r="H74" s="138"/>
-      <c r="I74" s="138"/>
-      <c r="J74" s="138"/>
-      <c r="K74" s="138"/>
-      <c r="L74" s="138"/>
-      <c r="M74" s="138"/>
-      <c r="N74" s="138"/>
-      <c r="O74" s="138"/>
-      <c r="P74" s="138"/>
-      <c r="Q74" s="139"/>
+      <c r="E74" s="142"/>
+      <c r="F74" s="142"/>
+      <c r="G74" s="142"/>
+      <c r="H74" s="142"/>
+      <c r="I74" s="142"/>
+      <c r="J74" s="142"/>
+      <c r="K74" s="142"/>
+      <c r="L74" s="142"/>
+      <c r="M74" s="142"/>
+      <c r="N74" s="142"/>
+      <c r="O74" s="142"/>
+      <c r="P74" s="142"/>
+      <c r="Q74" s="143"/>
       <c r="T74" s="28"/>
       <c r="V74" s="13"/>
     </row>
     <row r="75" spans="1:22" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A75" s="148" t="s">
+      <c r="A75" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="B75" s="149"/>
-      <c r="C75" s="149"/>
+      <c r="B75" s="153"/>
+      <c r="C75" s="153"/>
       <c r="D75" s="25">
         <v>12859514</v>
       </c>
       <c r="E75" s="22">
         <v>5003124</v>
       </c>
-      <c r="F75" s="150">
+      <c r="F75" s="154">
         <v>3781158</v>
       </c>
-      <c r="G75" s="151"/>
+      <c r="G75" s="155"/>
       <c r="H75" s="22">
         <v>1562741</v>
       </c>
@@ -5426,10 +5459,10 @@
         <v>1941728</v>
       </c>
       <c r="K75" s="22"/>
-      <c r="L75" s="152">
+      <c r="L75" s="156">
         <v>357629</v>
       </c>
-      <c r="M75" s="151"/>
+      <c r="M75" s="155"/>
       <c r="N75" s="26"/>
       <c r="O75" s="22">
         <v>1792633</v>
@@ -5694,11 +5727,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X78"/>
+  <dimension ref="A1:X50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S74" sqref="S74"/>
+      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W35" sqref="W35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5728,81 +5761,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="16.5" thickBot="1">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="186" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="183"/>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="183"/>
-      <c r="T1" s="184"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="187"/>
+      <c r="O1" s="187"/>
+      <c r="P1" s="187"/>
+      <c r="Q1" s="187"/>
+      <c r="R1" s="187"/>
+      <c r="S1" s="187"/>
+      <c r="T1" s="188"/>
     </row>
     <row r="2" spans="1:20" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="191" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="189" t="s">
+      <c r="C2" s="193" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="190"/>
-      <c r="E2" s="193" t="s">
+      <c r="D2" s="194"/>
+      <c r="E2" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="195" t="s">
+      <c r="F2" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="187"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="197" t="s">
+      <c r="G2" s="191"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="201" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="198"/>
-      <c r="K2" s="198"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="197" t="s">
+      <c r="J2" s="202"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="198"/>
-      <c r="P2" s="196"/>
-      <c r="Q2" s="200" t="s">
+      <c r="O2" s="202"/>
+      <c r="P2" s="200"/>
+      <c r="Q2" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="201"/>
-      <c r="S2" s="187" t="s">
+      <c r="R2" s="205"/>
+      <c r="S2" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="202" t="s">
+      <c r="T2" s="206" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="6" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A3" s="186"/>
-      <c r="B3" s="188"/>
-      <c r="C3" s="191"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="204" t="s">
+      <c r="A3" s="190"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="205"/>
+      <c r="G3" s="209"/>
       <c r="H3" s="9" t="s">
         <v>4</v>
       </c>
@@ -5815,10 +5848,10 @@
       <c r="K3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="206" t="s">
+      <c r="L3" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="207"/>
+      <c r="M3" s="211"/>
       <c r="N3" s="8" t="s">
         <v>21</v>
       </c>
@@ -5834,21 +5867,21 @@
       <c r="R3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="188"/>
-      <c r="T3" s="203"/>
+      <c r="S3" s="192"/>
+      <c r="T3" s="207"/>
     </row>
     <row r="4" spans="1:20" s="18" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="114" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="30"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="165"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="169"/>
       <c r="E4" s="31"/>
-      <c r="F4" s="162">
+      <c r="F4" s="166">
         <v>768</v>
       </c>
-      <c r="G4" s="163"/>
+      <c r="G4" s="167"/>
       <c r="H4" s="116">
         <v>5712</v>
       </c>
@@ -5861,10 +5894,10 @@
       <c r="K4" s="116">
         <v>2442</v>
       </c>
-      <c r="L4" s="164">
+      <c r="L4" s="168">
         <v>440</v>
       </c>
-      <c r="M4" s="165"/>
+      <c r="M4" s="169"/>
       <c r="N4" s="115">
         <v>10440</v>
       </c>
@@ -5895,30 +5928,30 @@
       <c r="B5" s="38">
         <v>52</v>
       </c>
-      <c r="C5" s="210" t="s">
+      <c r="C5" s="214" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="213"/>
+      <c r="D5" s="217"/>
       <c r="E5" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="119"/>
-      <c r="G5" s="120"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="124"/>
       <c r="H5" s="102"/>
       <c r="I5" s="46">
         <v>90</v>
       </c>
       <c r="J5" s="47"/>
       <c r="K5" s="47"/>
-      <c r="L5" s="214"/>
-      <c r="M5" s="215"/>
+      <c r="L5" s="218"/>
+      <c r="M5" s="219"/>
       <c r="N5" s="48"/>
       <c r="O5" s="102"/>
       <c r="P5" s="49"/>
       <c r="Q5" s="46"/>
       <c r="R5" s="50"/>
       <c r="S5" s="43">
-        <f t="shared" ref="S5:S57" si="0">SUM(F5:R5)</f>
+        <f t="shared" ref="S5:S29" si="0">SUM(F5:R5)</f>
         <v>90</v>
       </c>
       <c r="T5" s="51">
@@ -5932,21 +5965,21 @@
       <c r="B6" s="38">
         <v>53</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="124"/>
+      <c r="D6" s="128"/>
       <c r="E6" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="119"/>
-      <c r="G6" s="120"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="124"/>
       <c r="H6" s="102"/>
       <c r="I6" s="48"/>
       <c r="J6" s="52"/>
       <c r="K6" s="52"/>
-      <c r="L6" s="121"/>
-      <c r="M6" s="122"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="126"/>
       <c r="N6" s="48">
         <v>960</v>
       </c>
@@ -5973,23 +6006,23 @@
       <c r="B7" s="38">
         <v>54</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="127" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="124"/>
+      <c r="D7" s="128"/>
       <c r="E7" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="119"/>
-      <c r="G7" s="120"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="124"/>
       <c r="H7" s="102">
         <v>48</v>
       </c>
       <c r="I7" s="48"/>
       <c r="J7" s="52"/>
       <c r="K7" s="52"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="122"/>
+      <c r="L7" s="125"/>
+      <c r="M7" s="126"/>
       <c r="N7" s="48"/>
       <c r="O7" s="102"/>
       <c r="P7" s="49"/>
@@ -6010,21 +6043,21 @@
       <c r="B8" s="38">
         <v>55</v>
       </c>
-      <c r="C8" s="119" t="s">
+      <c r="C8" s="123" t="s">
         <v>149</v>
       </c>
-      <c r="D8" s="122"/>
+      <c r="D8" s="126"/>
       <c r="E8" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="119"/>
-      <c r="G8" s="120"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="124"/>
       <c r="H8" s="102"/>
       <c r="I8" s="48"/>
       <c r="J8" s="52"/>
       <c r="K8" s="52"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="122"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="126"/>
       <c r="N8" s="48"/>
       <c r="O8" s="102"/>
       <c r="P8" s="49">
@@ -6047,21 +6080,21 @@
       <c r="B9" s="38">
         <v>56</v>
       </c>
-      <c r="C9" s="123" t="s">
+      <c r="C9" s="127" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="124"/>
+      <c r="D9" s="128"/>
       <c r="E9" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="119"/>
-      <c r="G9" s="120"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="124"/>
       <c r="H9" s="102"/>
       <c r="I9" s="48"/>
       <c r="J9" s="52"/>
       <c r="K9" s="52"/>
-      <c r="L9" s="121"/>
-      <c r="M9" s="122"/>
+      <c r="L9" s="125"/>
+      <c r="M9" s="126"/>
       <c r="N9" s="48"/>
       <c r="O9" s="102"/>
       <c r="P9" s="49"/>
@@ -6084,23 +6117,23 @@
       <c r="B10" s="38">
         <v>57</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="127" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="124"/>
+      <c r="D10" s="128"/>
       <c r="E10" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F10" s="119"/>
-      <c r="G10" s="120"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="124"/>
       <c r="H10" s="102"/>
       <c r="I10" s="48">
         <v>750</v>
       </c>
       <c r="J10" s="52"/>
       <c r="K10" s="52"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="122"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="126"/>
       <c r="N10" s="48">
         <v>600</v>
       </c>
@@ -6127,21 +6160,21 @@
       <c r="B11" s="38">
         <v>58</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="127" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="124"/>
+      <c r="D11" s="128"/>
       <c r="E11" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F11" s="119"/>
-      <c r="G11" s="120"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="124"/>
       <c r="H11" s="102"/>
       <c r="I11" s="48"/>
       <c r="J11" s="52"/>
       <c r="K11" s="52"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="122"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="126"/>
       <c r="N11" s="48">
         <v>960</v>
       </c>
@@ -6168,23 +6201,23 @@
       <c r="B12" s="38">
         <v>59</v>
       </c>
-      <c r="C12" s="123" t="s">
+      <c r="C12" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="124"/>
+      <c r="D12" s="128"/>
       <c r="E12" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="119"/>
-      <c r="G12" s="120"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="124"/>
       <c r="H12" s="102"/>
       <c r="I12" s="48">
         <v>450</v>
       </c>
       <c r="J12" s="52"/>
       <c r="K12" s="52"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="122"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="126"/>
       <c r="N12" s="48"/>
       <c r="O12" s="102"/>
       <c r="P12" s="49">
@@ -6207,21 +6240,21 @@
       <c r="B13" s="38">
         <v>60</v>
       </c>
-      <c r="C13" s="123" t="s">
+      <c r="C13" s="127" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="124"/>
+      <c r="D13" s="128"/>
       <c r="E13" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="F13" s="119"/>
-      <c r="G13" s="120"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
       <c r="H13" s="102"/>
       <c r="I13" s="48"/>
       <c r="J13" s="52"/>
       <c r="K13" s="52"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="122"/>
+      <c r="L13" s="125"/>
+      <c r="M13" s="126"/>
       <c r="N13" s="48"/>
       <c r="O13" s="102"/>
       <c r="P13" s="49"/>
@@ -6244,23 +6277,23 @@
       <c r="B14" s="38">
         <v>61</v>
       </c>
-      <c r="C14" s="123" t="s">
+      <c r="C14" s="127" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="124"/>
+      <c r="D14" s="128"/>
       <c r="E14" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="119"/>
-      <c r="G14" s="120"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
       <c r="H14" s="102"/>
       <c r="I14" s="48">
         <v>6450</v>
       </c>
       <c r="J14" s="52"/>
       <c r="K14" s="52"/>
-      <c r="L14" s="121"/>
-      <c r="M14" s="122"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="126"/>
       <c r="N14" s="101"/>
       <c r="O14" s="102"/>
       <c r="P14" s="49"/>
@@ -6283,17 +6316,17 @@
       <c r="B15" s="38">
         <v>62</v>
       </c>
-      <c r="C15" s="123" t="s">
+      <c r="C15" s="127" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="124"/>
+      <c r="D15" s="128"/>
       <c r="E15" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="119">
+      <c r="F15" s="123">
         <v>24</v>
       </c>
-      <c r="G15" s="120"/>
+      <c r="G15" s="124"/>
       <c r="H15" s="102">
         <v>1200</v>
       </c>
@@ -6304,10 +6337,10 @@
       <c r="K15" s="52">
         <v>220</v>
       </c>
-      <c r="L15" s="121">
+      <c r="L15" s="125">
         <v>110</v>
       </c>
-      <c r="M15" s="122"/>
+      <c r="M15" s="126"/>
       <c r="N15" s="101">
         <v>240</v>
       </c>
@@ -6334,17 +6367,17 @@
       <c r="B16" s="38">
         <v>63</v>
       </c>
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="127" t="s">
         <v>127</v>
       </c>
-      <c r="D16" s="124"/>
+      <c r="D16" s="128"/>
       <c r="E16" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="119">
+      <c r="F16" s="123">
         <v>600</v>
       </c>
-      <c r="G16" s="120"/>
+      <c r="G16" s="124"/>
       <c r="H16" s="102">
         <v>1200</v>
       </c>
@@ -6353,8 +6386,8 @@
       <c r="K16" s="52">
         <v>220</v>
       </c>
-      <c r="L16" s="121"/>
-      <c r="M16" s="122"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="126"/>
       <c r="N16" s="101">
         <v>480</v>
       </c>
@@ -6374,24 +6407,24 @@
         <v>2670081</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
-      <c r="A17" s="118" t="s">
+    <row r="17" spans="1:24">
+      <c r="A17" s="121" t="s">
         <v>186</v>
       </c>
       <c r="B17" s="38">
         <v>64</v>
       </c>
-      <c r="C17" s="123" t="s">
+      <c r="C17" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="124"/>
+      <c r="D17" s="128"/>
       <c r="E17" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="119">
+      <c r="F17" s="123">
         <v>120</v>
       </c>
-      <c r="G17" s="120"/>
+      <c r="G17" s="124"/>
       <c r="H17" s="102">
         <v>240</v>
       </c>
@@ -6400,8 +6433,8 @@
       </c>
       <c r="J17" s="52"/>
       <c r="K17" s="52"/>
-      <c r="L17" s="121"/>
-      <c r="M17" s="122"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="126"/>
       <c r="N17" s="101">
         <v>1200</v>
       </c>
@@ -6421,22 +6454,30 @@
         <v>858472</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
-      <c r="A18" s="101"/>
+    <row r="18" spans="1:24">
+      <c r="A18" s="119" t="s">
+        <v>190</v>
+      </c>
       <c r="B18" s="38">
         <v>65</v>
       </c>
-      <c r="C18" s="123"/>
-      <c r="D18" s="124"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="102"/>
+      <c r="C18" s="127" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="128"/>
+      <c r="E18" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="123"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="102">
+        <v>72</v>
+      </c>
       <c r="I18" s="48"/>
       <c r="J18" s="52"/>
       <c r="K18" s="52"/>
-      <c r="L18" s="121"/>
-      <c r="M18" s="122"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="126"/>
       <c r="N18" s="101"/>
       <c r="O18" s="102"/>
       <c r="P18" s="49"/>
@@ -6444,27 +6485,39 @@
       <c r="R18" s="55"/>
       <c r="S18" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="54"/>
+        <v>72</v>
+      </c>
+      <c r="T18" s="54">
+        <v>24776</v>
+      </c>
       <c r="V18" s="13"/>
     </row>
-    <row r="19" spans="1:22">
-      <c r="A19" s="101"/>
+    <row r="19" spans="1:24">
+      <c r="A19" s="119" t="s">
+        <v>192</v>
+      </c>
       <c r="B19" s="38">
         <v>66</v>
       </c>
-      <c r="C19" s="119"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="102"/>
+      <c r="C19" s="123" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="126"/>
+      <c r="E19" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="123">
+        <v>72</v>
+      </c>
+      <c r="G19" s="124"/>
+      <c r="H19" s="102">
+        <v>48</v>
+      </c>
       <c r="I19" s="48"/>
       <c r="J19" s="52"/>
       <c r="K19" s="52"/>
-      <c r="L19" s="121"/>
-      <c r="M19" s="122"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="126"/>
       <c r="N19" s="101"/>
       <c r="O19" s="102"/>
       <c r="P19" s="49"/>
@@ -6472,161 +6525,245 @@
       <c r="R19" s="55"/>
       <c r="S19" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="54"/>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="A20" s="101"/>
+        <v>120</v>
+      </c>
+      <c r="T19" s="54">
+        <v>40788</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="119" t="s">
+        <v>192</v>
+      </c>
       <c r="B20" s="38">
         <v>67</v>
       </c>
-      <c r="C20" s="119"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="120"/>
+      <c r="C20" s="123" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="126"/>
+      <c r="E20" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="123"/>
+      <c r="G20" s="124"/>
       <c r="H20" s="102"/>
-      <c r="I20" s="48"/>
+      <c r="I20" s="48">
+        <v>900</v>
+      </c>
       <c r="J20" s="52"/>
       <c r="K20" s="52"/>
-      <c r="L20" s="121"/>
-      <c r="M20" s="122"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="102"/>
-      <c r="P20" s="49"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="126"/>
+      <c r="N20" s="101">
+        <v>960</v>
+      </c>
+      <c r="O20" s="102">
+        <v>240</v>
+      </c>
+      <c r="P20" s="49">
+        <v>3600</v>
+      </c>
       <c r="Q20" s="101"/>
       <c r="R20" s="55"/>
       <c r="S20" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="54"/>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21" s="103"/>
+        <v>5700</v>
+      </c>
+      <c r="T20" s="54">
+        <v>1804486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="119" t="s">
+        <v>192</v>
+      </c>
       <c r="B21" s="38">
         <v>68</v>
       </c>
-      <c r="C21" s="119"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="120"/>
+      <c r="C21" s="123" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="126"/>
+      <c r="E21" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="123"/>
+      <c r="G21" s="124"/>
       <c r="H21" s="102"/>
-      <c r="I21" s="48"/>
+      <c r="I21" s="48">
+        <v>300</v>
+      </c>
       <c r="J21" s="52"/>
       <c r="K21" s="52"/>
-      <c r="L21" s="121"/>
-      <c r="M21" s="122"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="126"/>
       <c r="N21" s="101"/>
       <c r="O21" s="102"/>
-      <c r="P21" s="49"/>
+      <c r="P21" s="49">
+        <v>1440</v>
+      </c>
       <c r="Q21" s="101"/>
       <c r="R21" s="55"/>
       <c r="S21" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="54"/>
-    </row>
-    <row r="22" spans="1:22">
-      <c r="A22" s="103"/>
+        <v>1740</v>
+      </c>
+      <c r="T21" s="54">
+        <v>552759</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" s="119" t="s">
+        <v>192</v>
+      </c>
       <c r="B22" s="38">
         <v>69</v>
       </c>
-      <c r="C22" s="119"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="120"/>
+      <c r="C22" s="123" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="126"/>
+      <c r="E22" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="123"/>
+      <c r="G22" s="124"/>
       <c r="H22" s="102"/>
       <c r="I22" s="48"/>
       <c r="J22" s="52"/>
       <c r="K22" s="52"/>
-      <c r="L22" s="121"/>
-      <c r="M22" s="122"/>
-      <c r="N22" s="101"/>
-      <c r="O22" s="102"/>
-      <c r="P22" s="49"/>
+      <c r="L22" s="125">
+        <v>110</v>
+      </c>
+      <c r="M22" s="126"/>
+      <c r="N22" s="101">
+        <v>720</v>
+      </c>
+      <c r="O22" s="102">
+        <v>360</v>
+      </c>
+      <c r="P22" s="49">
+        <v>2400</v>
+      </c>
       <c r="Q22" s="101"/>
       <c r="R22" s="55"/>
       <c r="S22" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="54"/>
-    </row>
-    <row r="23" spans="1:22">
-      <c r="A23" s="103"/>
+        <v>3590</v>
+      </c>
+      <c r="T22" s="54">
+        <v>1147808</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="120" t="s">
+        <v>193</v>
+      </c>
       <c r="B23" s="38">
         <v>70</v>
       </c>
-      <c r="C23" s="119"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="120"/>
+      <c r="C23" s="123" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="126"/>
+      <c r="E23" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="123"/>
+      <c r="G23" s="124"/>
       <c r="H23" s="102"/>
-      <c r="I23" s="48"/>
+      <c r="I23" s="48">
+        <v>3600</v>
+      </c>
       <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="121"/>
-      <c r="M23" s="122"/>
-      <c r="N23" s="101"/>
-      <c r="O23" s="102"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="101"/>
+      <c r="K23" s="52">
+        <v>330</v>
+      </c>
+      <c r="L23" s="125"/>
+      <c r="M23" s="126"/>
+      <c r="N23" s="101">
+        <v>480</v>
+      </c>
+      <c r="O23" s="102">
+        <v>360</v>
+      </c>
+      <c r="P23" s="49">
+        <v>1800</v>
+      </c>
+      <c r="Q23" s="101">
+        <v>2100</v>
+      </c>
       <c r="R23" s="55"/>
       <c r="S23" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T23" s="54"/>
-    </row>
-    <row r="24" spans="1:22">
-      <c r="A24" s="103"/>
+        <v>8670</v>
+      </c>
+      <c r="T23" s="54">
+        <v>2807295</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="120" t="s">
+        <v>194</v>
+      </c>
       <c r="B24" s="38">
         <v>71</v>
       </c>
-      <c r="C24" s="119"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="120"/>
+      <c r="C24" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="126"/>
+      <c r="E24" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="F24" s="123"/>
+      <c r="G24" s="124"/>
       <c r="H24" s="102"/>
       <c r="I24" s="48"/>
       <c r="J24" s="52"/>
       <c r="K24" s="52"/>
-      <c r="L24" s="121"/>
-      <c r="M24" s="122"/>
+      <c r="L24" s="125"/>
+      <c r="M24" s="126"/>
       <c r="N24" s="101"/>
       <c r="O24" s="102"/>
-      <c r="P24" s="49"/>
+      <c r="P24" s="49">
+        <v>48</v>
+      </c>
       <c r="Q24" s="101"/>
       <c r="R24" s="55"/>
       <c r="S24" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T24" s="54"/>
-    </row>
-    <row r="25" spans="1:22">
-      <c r="A25" s="103"/>
+        <v>48</v>
+      </c>
+      <c r="T24" s="54">
+        <v>15934</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" s="120" t="s">
+        <v>194</v>
+      </c>
       <c r="B25" s="38">
         <v>72</v>
       </c>
-      <c r="C25" s="119"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="120"/>
+      <c r="C25" s="127" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="128"/>
+      <c r="E25" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="123"/>
+      <c r="G25" s="124"/>
       <c r="H25" s="102"/>
-      <c r="I25" s="48"/>
+      <c r="I25" s="48">
+        <v>150</v>
+      </c>
       <c r="J25" s="52"/>
       <c r="K25" s="52"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="122"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="126"/>
       <c r="N25" s="101"/>
       <c r="O25" s="102"/>
       <c r="P25" s="49"/>
@@ -6634,107 +6771,147 @@
       <c r="R25" s="55"/>
       <c r="S25" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T25" s="54"/>
-    </row>
-    <row r="26" spans="1:22">
-      <c r="A26" s="103"/>
+        <v>150</v>
+      </c>
+      <c r="T25" s="54">
+        <v>47280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="122" t="s">
+        <v>196</v>
+      </c>
       <c r="B26" s="38">
         <v>73</v>
       </c>
-      <c r="C26" s="119"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="120"/>
+      <c r="C26" s="123" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="126"/>
+      <c r="E26" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="123"/>
+      <c r="G26" s="124"/>
       <c r="H26" s="86"/>
       <c r="I26" s="57"/>
       <c r="J26" s="58"/>
       <c r="K26" s="58"/>
-      <c r="L26" s="121"/>
-      <c r="M26" s="122"/>
-      <c r="N26" s="103"/>
+      <c r="L26" s="125"/>
+      <c r="M26" s="126"/>
+      <c r="N26" s="103">
+        <v>480</v>
+      </c>
       <c r="O26" s="86"/>
-      <c r="P26" s="55"/>
+      <c r="P26" s="55">
+        <v>2400</v>
+      </c>
       <c r="Q26" s="103"/>
       <c r="R26" s="55"/>
       <c r="S26" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="59"/>
-    </row>
-    <row r="27" spans="1:22">
-      <c r="A27" s="103"/>
+        <v>2880</v>
+      </c>
+      <c r="T26" s="59">
+        <v>919986</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" s="122" t="s">
+        <v>196</v>
+      </c>
       <c r="B27" s="38">
         <v>74</v>
       </c>
-      <c r="C27" s="119"/>
-      <c r="D27" s="122"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="120"/>
+      <c r="C27" s="123" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="126"/>
+      <c r="E27" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="123"/>
+      <c r="G27" s="124"/>
       <c r="H27" s="86"/>
       <c r="I27" s="57"/>
       <c r="J27" s="58"/>
       <c r="K27" s="58"/>
-      <c r="L27" s="121"/>
-      <c r="M27" s="122"/>
-      <c r="N27" s="103"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="126"/>
+      <c r="N27" s="103">
+        <v>1200</v>
+      </c>
       <c r="O27" s="86"/>
-      <c r="P27" s="55"/>
+      <c r="P27" s="55">
+        <v>1440</v>
+      </c>
       <c r="Q27" s="103"/>
       <c r="R27" s="55"/>
       <c r="S27" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="59"/>
-    </row>
-    <row r="28" spans="1:22">
-      <c r="A28" s="103"/>
+        <v>2640</v>
+      </c>
+      <c r="T27" s="59">
+        <v>837998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" s="122" t="s">
+        <v>196</v>
+      </c>
       <c r="B28" s="38">
         <v>75</v>
       </c>
-      <c r="C28" s="119"/>
-      <c r="D28" s="122"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="120"/>
+      <c r="C28" s="123" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="126"/>
+      <c r="E28" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="123"/>
+      <c r="G28" s="124"/>
       <c r="H28" s="86"/>
-      <c r="I28" s="57"/>
+      <c r="I28" s="57">
+        <v>450</v>
+      </c>
       <c r="J28" s="58"/>
       <c r="K28" s="58"/>
-      <c r="L28" s="121"/>
-      <c r="M28" s="122"/>
+      <c r="L28" s="125"/>
+      <c r="M28" s="126"/>
       <c r="N28" s="103"/>
-      <c r="O28" s="86"/>
-      <c r="P28" s="55"/>
+      <c r="O28" s="86">
+        <v>120</v>
+      </c>
+      <c r="P28" s="55">
+        <v>1200</v>
+      </c>
       <c r="Q28" s="103"/>
       <c r="R28" s="55"/>
       <c r="S28" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T28" s="59"/>
-    </row>
-    <row r="29" spans="1:22">
+        <v>1770</v>
+      </c>
+      <c r="T28" s="59">
+        <v>559349</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="15.75" thickBot="1">
       <c r="A29" s="103"/>
       <c r="B29" s="38">
         <v>76</v>
       </c>
-      <c r="C29" s="119"/>
-      <c r="D29" s="122"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="126"/>
       <c r="E29" s="56"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="120"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="124"/>
       <c r="H29" s="86"/>
       <c r="I29" s="57"/>
       <c r="J29" s="58"/>
       <c r="K29" s="58"/>
-      <c r="L29" s="121"/>
-      <c r="M29" s="122"/>
+      <c r="L29" s="125"/>
+      <c r="M29" s="126"/>
       <c r="N29" s="103"/>
       <c r="O29" s="86"/>
       <c r="P29" s="55"/>
@@ -6746,1537 +6923,795 @@
       </c>
       <c r="T29" s="59"/>
     </row>
-    <row r="30" spans="1:22">
-      <c r="A30" s="103"/>
-      <c r="B30" s="38">
-        <v>77</v>
-      </c>
-      <c r="C30" s="119"/>
-      <c r="D30" s="122"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="120"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="121"/>
-      <c r="M30" s="122"/>
-      <c r="N30" s="103"/>
-      <c r="O30" s="86"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="103"/>
-      <c r="R30" s="55"/>
-      <c r="S30" s="53">
-        <f t="shared" si="0"/>
+    <row r="30" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A30" s="164" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="166">
+        <f>SUM(F5:G29)</f>
+        <v>816</v>
+      </c>
+      <c r="G30" s="167"/>
+      <c r="H30" s="34">
+        <f>SUM(H5:H29)</f>
+        <v>2808</v>
+      </c>
+      <c r="I30" s="115">
+        <f>SUM(I5:I29)</f>
+        <v>14130</v>
+      </c>
+      <c r="J30" s="116">
+        <f>SUM(J5:J29)</f>
         <v>0</v>
       </c>
-      <c r="T30" s="59"/>
-    </row>
-    <row r="31" spans="1:22">
-      <c r="A31" s="103"/>
-      <c r="B31" s="38">
-        <v>78</v>
-      </c>
-      <c r="C31" s="119"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="120"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="121"/>
-      <c r="M31" s="122"/>
-      <c r="N31" s="103"/>
-      <c r="O31" s="86"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="103"/>
-      <c r="R31" s="55"/>
-      <c r="S31" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T31" s="59"/>
-    </row>
-    <row r="32" spans="1:22">
-      <c r="A32" s="103"/>
-      <c r="B32" s="38">
-        <v>79</v>
-      </c>
-      <c r="C32" s="119"/>
-      <c r="D32" s="122"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="120"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="121"/>
-      <c r="M32" s="122"/>
-      <c r="N32" s="103"/>
-      <c r="O32" s="86"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="103"/>
-      <c r="R32" s="55"/>
-      <c r="S32" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T32" s="59"/>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" s="103"/>
-      <c r="B33" s="38">
-        <v>80</v>
-      </c>
-      <c r="C33" s="119"/>
-      <c r="D33" s="122"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="119"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="121"/>
-      <c r="M33" s="122"/>
-      <c r="N33" s="103"/>
-      <c r="O33" s="86"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="103"/>
-      <c r="R33" s="55"/>
-      <c r="S33" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T33" s="59"/>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" s="103"/>
-      <c r="B34" s="38">
-        <v>81</v>
-      </c>
-      <c r="C34" s="119"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="120"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="121"/>
-      <c r="M34" s="122"/>
-      <c r="N34" s="103"/>
-      <c r="O34" s="86"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="103"/>
-      <c r="R34" s="55"/>
-      <c r="S34" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T34" s="59"/>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" s="103"/>
-      <c r="B35" s="38">
-        <v>82</v>
-      </c>
-      <c r="C35" s="119"/>
-      <c r="D35" s="122"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="119"/>
-      <c r="G35" s="120"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="121"/>
-      <c r="M35" s="122"/>
-      <c r="N35" s="103"/>
-      <c r="O35" s="86"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="103"/>
-      <c r="R35" s="55"/>
-      <c r="S35" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T35" s="59"/>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" s="103"/>
-      <c r="B36" s="38">
-        <v>83</v>
-      </c>
-      <c r="C36" s="119"/>
-      <c r="D36" s="122"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="121"/>
-      <c r="M36" s="122"/>
-      <c r="N36" s="103"/>
-      <c r="O36" s="86"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="103"/>
-      <c r="R36" s="55"/>
-      <c r="S36" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T36" s="59"/>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" s="103"/>
-      <c r="B37" s="38">
-        <v>84</v>
-      </c>
-      <c r="C37" s="119"/>
-      <c r="D37" s="122"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="120"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="121"/>
-      <c r="M37" s="122"/>
-      <c r="N37" s="103"/>
-      <c r="O37" s="86"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="103"/>
-      <c r="R37" s="55"/>
-      <c r="S37" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T37" s="59"/>
-    </row>
-    <row r="38" spans="1:20">
-      <c r="A38" s="52"/>
-      <c r="B38" s="38">
-        <v>85</v>
-      </c>
-      <c r="C38" s="123"/>
-      <c r="D38" s="124"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="119"/>
-      <c r="G38" s="120"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="58"/>
-      <c r="L38" s="121"/>
-      <c r="M38" s="122"/>
-      <c r="N38" s="103"/>
-      <c r="O38" s="86"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="103"/>
-      <c r="R38" s="55"/>
-      <c r="S38" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T38" s="59"/>
-    </row>
-    <row r="39" spans="1:20">
-      <c r="A39" s="96"/>
-      <c r="B39" s="38">
-        <v>86</v>
-      </c>
-      <c r="C39" s="123"/>
-      <c r="D39" s="124"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="119"/>
-      <c r="G39" s="120"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="121"/>
-      <c r="M39" s="122"/>
-      <c r="N39" s="103"/>
-      <c r="O39" s="86"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="103"/>
-      <c r="R39" s="55"/>
-      <c r="S39" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T39" s="59"/>
-    </row>
-    <row r="40" spans="1:20">
-      <c r="A40" s="52"/>
-      <c r="B40" s="38">
-        <v>87</v>
-      </c>
-      <c r="C40" s="123"/>
-      <c r="D40" s="124"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="119"/>
-      <c r="G40" s="120"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="121"/>
-      <c r="M40" s="122"/>
-      <c r="N40" s="103"/>
-      <c r="O40" s="86"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="103"/>
-      <c r="R40" s="55"/>
-      <c r="S40" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T40" s="59"/>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="A41" s="52"/>
-      <c r="B41" s="38">
-        <v>88</v>
-      </c>
-      <c r="C41" s="123"/>
-      <c r="D41" s="124"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="119"/>
-      <c r="G41" s="120"/>
-      <c r="H41" s="86"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="121"/>
-      <c r="M41" s="122"/>
-      <c r="N41" s="103"/>
-      <c r="O41" s="86"/>
-      <c r="P41" s="55"/>
-      <c r="Q41" s="103"/>
-      <c r="R41" s="55"/>
-      <c r="S41" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T41" s="59"/>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="A42" s="52"/>
-      <c r="B42" s="38">
-        <v>89</v>
-      </c>
-      <c r="C42" s="123"/>
-      <c r="D42" s="124"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="119"/>
-      <c r="G42" s="120"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="121"/>
-      <c r="M42" s="122"/>
-      <c r="N42" s="103"/>
-      <c r="O42" s="86"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="103"/>
-      <c r="R42" s="55"/>
-      <c r="S42" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T42" s="59"/>
-    </row>
-    <row r="43" spans="1:20">
-      <c r="A43" s="52"/>
-      <c r="B43" s="38">
-        <v>90</v>
-      </c>
-      <c r="C43" s="123"/>
-      <c r="D43" s="124"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="119"/>
-      <c r="G43" s="120"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="121"/>
-      <c r="M43" s="122"/>
-      <c r="N43" s="103"/>
-      <c r="O43" s="86"/>
-      <c r="P43" s="55"/>
-      <c r="Q43" s="103"/>
-      <c r="R43" s="55"/>
-      <c r="S43" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T43" s="59"/>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="A44" s="52"/>
-      <c r="B44" s="38">
-        <v>91</v>
-      </c>
-      <c r="C44" s="123"/>
-      <c r="D44" s="124"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="119"/>
-      <c r="G44" s="120"/>
-      <c r="H44" s="86"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="58"/>
-      <c r="L44" s="121"/>
-      <c r="M44" s="122"/>
-      <c r="N44" s="103"/>
-      <c r="O44" s="86"/>
-      <c r="P44" s="55"/>
-      <c r="Q44" s="103"/>
-      <c r="R44" s="55"/>
-      <c r="S44" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T44" s="59"/>
-    </row>
-    <row r="45" spans="1:20">
-      <c r="A45" s="52"/>
-      <c r="B45" s="38">
-        <v>92</v>
-      </c>
-      <c r="C45" s="123"/>
-      <c r="D45" s="124"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="119"/>
-      <c r="G45" s="120"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="121"/>
-      <c r="M45" s="122"/>
-      <c r="N45" s="103"/>
-      <c r="O45" s="86"/>
-      <c r="P45" s="55"/>
-      <c r="Q45" s="103"/>
-      <c r="R45" s="55"/>
-      <c r="S45" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T45" s="59"/>
-    </row>
-    <row r="46" spans="1:20">
-      <c r="A46" s="52"/>
-      <c r="B46" s="38">
-        <v>93</v>
-      </c>
-      <c r="C46" s="123"/>
-      <c r="D46" s="124"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="119"/>
-      <c r="G46" s="120"/>
-      <c r="H46" s="86"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="121"/>
-      <c r="M46" s="122"/>
-      <c r="N46" s="103"/>
-      <c r="O46" s="86"/>
-      <c r="P46" s="55"/>
-      <c r="Q46" s="103"/>
-      <c r="R46" s="55"/>
-      <c r="S46" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T46" s="59"/>
-    </row>
-    <row r="47" spans="1:20">
-      <c r="A47" s="52"/>
-      <c r="B47" s="38">
-        <v>94</v>
-      </c>
-      <c r="C47" s="123"/>
-      <c r="D47" s="124"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="119"/>
-      <c r="G47" s="120"/>
-      <c r="H47" s="86"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="58"/>
-      <c r="K47" s="58"/>
-      <c r="L47" s="121"/>
-      <c r="M47" s="122"/>
-      <c r="N47" s="103"/>
-      <c r="O47" s="86"/>
-      <c r="P47" s="55"/>
-      <c r="Q47" s="103"/>
-      <c r="R47" s="55"/>
-      <c r="S47" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T47" s="59"/>
-    </row>
-    <row r="48" spans="1:20">
-      <c r="A48" s="52"/>
-      <c r="B48" s="38">
-        <v>95</v>
-      </c>
-      <c r="C48" s="123"/>
-      <c r="D48" s="124"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="119"/>
-      <c r="G48" s="120"/>
-      <c r="H48" s="86"/>
-      <c r="I48" s="57"/>
-      <c r="J48" s="58"/>
-      <c r="K48" s="58"/>
-      <c r="L48" s="121"/>
-      <c r="M48" s="122"/>
-      <c r="N48" s="103"/>
-      <c r="O48" s="86"/>
-      <c r="P48" s="55"/>
-      <c r="Q48" s="103"/>
-      <c r="R48" s="55"/>
-      <c r="S48" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T48" s="59"/>
-    </row>
-    <row r="49" spans="1:24">
-      <c r="A49" s="52"/>
-      <c r="B49" s="38">
-        <v>96</v>
-      </c>
-      <c r="C49" s="123"/>
-      <c r="D49" s="124"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="119"/>
-      <c r="G49" s="120"/>
-      <c r="H49" s="86"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="58"/>
-      <c r="L49" s="121"/>
-      <c r="M49" s="122"/>
-      <c r="N49" s="103"/>
-      <c r="O49" s="86"/>
-      <c r="P49" s="55"/>
-      <c r="Q49" s="103"/>
-      <c r="R49" s="55"/>
-      <c r="S49" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T49" s="59"/>
-    </row>
-    <row r="50" spans="1:24">
-      <c r="A50" s="52"/>
-      <c r="B50" s="38">
-        <v>97</v>
-      </c>
-      <c r="C50" s="123"/>
-      <c r="D50" s="124"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="119"/>
-      <c r="G50" s="120"/>
-      <c r="H50" s="86"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="58"/>
-      <c r="K50" s="58"/>
-      <c r="L50" s="121"/>
-      <c r="M50" s="122"/>
-      <c r="N50" s="103"/>
-      <c r="O50" s="86"/>
-      <c r="P50" s="55"/>
-      <c r="Q50" s="103"/>
-      <c r="R50" s="55"/>
-      <c r="S50" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T50" s="59"/>
-    </row>
-    <row r="51" spans="1:24">
-      <c r="A51" s="52"/>
-      <c r="B51" s="38">
-        <v>98</v>
-      </c>
-      <c r="C51" s="123"/>
-      <c r="D51" s="124"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="119"/>
-      <c r="G51" s="120"/>
-      <c r="H51" s="86"/>
-      <c r="I51" s="57"/>
-      <c r="J51" s="58"/>
-      <c r="K51" s="58"/>
-      <c r="L51" s="121"/>
-      <c r="M51" s="122"/>
-      <c r="N51" s="103"/>
-      <c r="O51" s="86"/>
-      <c r="P51" s="55"/>
-      <c r="Q51" s="103"/>
-      <c r="R51" s="55"/>
-      <c r="S51" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T51" s="59"/>
-    </row>
-    <row r="52" spans="1:24">
-      <c r="A52" s="52"/>
-      <c r="B52" s="38">
-        <v>99</v>
-      </c>
-      <c r="C52" s="123"/>
-      <c r="D52" s="124"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="119"/>
-      <c r="G52" s="120"/>
-      <c r="H52" s="86"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="58"/>
-      <c r="K52" s="58"/>
-      <c r="L52" s="121"/>
-      <c r="M52" s="122"/>
-      <c r="N52" s="103"/>
-      <c r="O52" s="86"/>
-      <c r="P52" s="55"/>
-      <c r="Q52" s="103"/>
-      <c r="R52" s="55"/>
-      <c r="S52" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T52" s="59"/>
-    </row>
-    <row r="53" spans="1:24">
-      <c r="A53" s="52"/>
-      <c r="B53" s="38">
-        <v>100</v>
-      </c>
-      <c r="C53" s="123"/>
-      <c r="D53" s="124"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="86"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="58"/>
-      <c r="K53" s="58"/>
-      <c r="L53" s="121"/>
-      <c r="M53" s="122"/>
-      <c r="N53" s="103"/>
-      <c r="O53" s="86"/>
-      <c r="P53" s="55"/>
-      <c r="Q53" s="103"/>
-      <c r="R53" s="55"/>
-      <c r="S53" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T53" s="59"/>
-    </row>
-    <row r="54" spans="1:24">
-      <c r="A54" s="52"/>
-      <c r="B54" s="38">
-        <v>101</v>
-      </c>
-      <c r="C54" s="123"/>
-      <c r="D54" s="124"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="119"/>
-      <c r="G54" s="120"/>
-      <c r="H54" s="86"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="58"/>
-      <c r="K54" s="58"/>
-      <c r="L54" s="121"/>
-      <c r="M54" s="122"/>
-      <c r="N54" s="103"/>
-      <c r="O54" s="86"/>
-      <c r="P54" s="55"/>
-      <c r="Q54" s="103"/>
-      <c r="R54" s="55"/>
-      <c r="S54" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T54" s="59"/>
-    </row>
-    <row r="55" spans="1:24">
-      <c r="A55" s="52"/>
-      <c r="B55" s="38">
-        <v>102</v>
-      </c>
-      <c r="C55" s="123"/>
-      <c r="D55" s="124"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="119"/>
-      <c r="G55" s="120"/>
-      <c r="H55" s="86"/>
-      <c r="I55" s="57"/>
-      <c r="J55" s="58"/>
-      <c r="K55" s="58"/>
-      <c r="L55" s="121"/>
-      <c r="M55" s="122"/>
-      <c r="N55" s="103"/>
-      <c r="O55" s="86"/>
-      <c r="P55" s="55"/>
-      <c r="Q55" s="103"/>
-      <c r="R55" s="55"/>
-      <c r="S55" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T55" s="59"/>
-    </row>
-    <row r="56" spans="1:24">
-      <c r="A56" s="52"/>
-      <c r="B56" s="38">
-        <v>103</v>
-      </c>
-      <c r="C56" s="123"/>
-      <c r="D56" s="124"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="119"/>
-      <c r="G56" s="120"/>
-      <c r="H56" s="86"/>
-      <c r="I56" s="57"/>
-      <c r="J56" s="58"/>
-      <c r="K56" s="58"/>
-      <c r="L56" s="121"/>
-      <c r="M56" s="122"/>
-      <c r="N56" s="103"/>
-      <c r="O56" s="86"/>
-      <c r="P56" s="55"/>
-      <c r="Q56" s="103"/>
-      <c r="R56" s="55"/>
-      <c r="S56" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T56" s="59"/>
-    </row>
-    <row r="57" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A57" s="52"/>
-      <c r="B57" s="38">
-        <v>104</v>
-      </c>
-      <c r="C57" s="123"/>
-      <c r="D57" s="124"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="119"/>
-      <c r="G57" s="120"/>
-      <c r="H57" s="86"/>
-      <c r="I57" s="57"/>
-      <c r="J57" s="58"/>
-      <c r="K57" s="58"/>
-      <c r="L57" s="121"/>
-      <c r="M57" s="122"/>
-      <c r="N57" s="103"/>
-      <c r="O57" s="86"/>
-      <c r="P57" s="55"/>
-      <c r="Q57" s="103"/>
-      <c r="R57" s="55"/>
-      <c r="S57" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T57" s="59"/>
-    </row>
-    <row r="58" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A58" s="160" t="s">
-        <v>16</v>
-      </c>
-      <c r="B58" s="161"/>
-      <c r="C58" s="161"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="162">
-        <f>SUM(F5:G57)</f>
-        <v>744</v>
-      </c>
-      <c r="G58" s="163"/>
-      <c r="H58" s="34">
-        <f>SUM(H5:H57)</f>
-        <v>2688</v>
-      </c>
-      <c r="I58" s="115">
-        <f>SUM(I5:I57)</f>
-        <v>8730</v>
-      </c>
-      <c r="J58" s="116">
-        <f>SUM(J5:J57)</f>
-        <v>0</v>
-      </c>
-      <c r="K58" s="116">
-        <f>SUM(K5:K57)</f>
-        <v>440</v>
-      </c>
-      <c r="L58" s="164">
-        <f>SUM(L5:M57)</f>
-        <v>110</v>
-      </c>
-      <c r="M58" s="165"/>
-      <c r="N58" s="115">
-        <f t="shared" ref="N58:T58" si="1">SUM(N5:N57)</f>
-        <v>4440</v>
-      </c>
-      <c r="O58" s="116">
+      <c r="K30" s="116">
+        <f>SUM(K5:K29)</f>
+        <v>770</v>
+      </c>
+      <c r="L30" s="168">
+        <f>SUM(L5:M29)</f>
+        <v>220</v>
+      </c>
+      <c r="M30" s="169"/>
+      <c r="N30" s="115">
+        <f t="shared" ref="N30:T30" si="1">SUM(N5:N29)</f>
+        <v>8280</v>
+      </c>
+      <c r="O30" s="116">
         <f t="shared" si="1"/>
-        <v>2400</v>
-      </c>
-      <c r="P58" s="34">
+        <v>3480</v>
+      </c>
+      <c r="P30" s="34">
         <f t="shared" si="1"/>
-        <v>16680</v>
-      </c>
-      <c r="Q58" s="115">
+        <v>31008</v>
+      </c>
+      <c r="Q30" s="115">
         <f t="shared" si="1"/>
-        <v>660</v>
-      </c>
-      <c r="R58" s="34">
+        <v>2760</v>
+      </c>
+      <c r="R30" s="34">
         <f t="shared" si="1"/>
         <v>3132</v>
       </c>
-      <c r="S58" s="61">
+      <c r="S30" s="61">
         <f t="shared" si="1"/>
-        <v>40024</v>
-      </c>
-      <c r="T58" s="36">
+        <v>67404</v>
+      </c>
+      <c r="T30" s="36">
         <f t="shared" si="1"/>
-        <v>12791152</v>
-      </c>
-      <c r="V58" s="13"/>
-      <c r="W58" s="13"/>
-      <c r="X58" s="13"/>
-    </row>
-    <row r="59" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A59" s="160"/>
-      <c r="B59" s="161"/>
-      <c r="C59" s="161"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="162">
-        <f>F4+F58</f>
-        <v>1512</v>
-      </c>
-      <c r="G59" s="163"/>
-      <c r="H59" s="34">
-        <f>H4+H58</f>
-        <v>8400</v>
-      </c>
-      <c r="I59" s="62">
-        <f>I4+I58</f>
-        <v>41610</v>
-      </c>
-      <c r="J59" s="116">
-        <f>J4+J58</f>
+        <v>21549611</v>
+      </c>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+    </row>
+    <row r="31" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A31" s="164"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="166">
+        <f>F4+F30</f>
+        <v>1584</v>
+      </c>
+      <c r="G31" s="167"/>
+      <c r="H31" s="34">
+        <f>H4+H30</f>
+        <v>8520</v>
+      </c>
+      <c r="I31" s="62">
+        <f>I4+I30</f>
+        <v>47010</v>
+      </c>
+      <c r="J31" s="116">
+        <f>J4+J30</f>
         <v>360</v>
       </c>
-      <c r="K59" s="116">
-        <f>K4+K58</f>
-        <v>2882</v>
-      </c>
-      <c r="L59" s="164">
-        <f>L4+L58</f>
-        <v>550</v>
-      </c>
-      <c r="M59" s="165"/>
-      <c r="N59" s="115">
-        <f t="shared" ref="N59:T59" si="2">N4+N58</f>
-        <v>14880</v>
-      </c>
-      <c r="O59" s="116">
+      <c r="K31" s="116">
+        <f>K4+K30</f>
+        <v>3212</v>
+      </c>
+      <c r="L31" s="168">
+        <f>L4+L30</f>
+        <v>660</v>
+      </c>
+      <c r="M31" s="169"/>
+      <c r="N31" s="115">
+        <f t="shared" ref="N31:T31" si="2">N4+N30</f>
+        <v>18720</v>
+      </c>
+      <c r="O31" s="116">
         <f t="shared" si="2"/>
-        <v>8904</v>
-      </c>
-      <c r="P59" s="34">
+        <v>9984</v>
+      </c>
+      <c r="P31" s="34">
         <f t="shared" si="2"/>
-        <v>72528</v>
-      </c>
-      <c r="Q59" s="62">
+        <v>86856</v>
+      </c>
+      <c r="Q31" s="62">
         <f t="shared" si="2"/>
-        <v>7332</v>
-      </c>
-      <c r="R59" s="116">
+        <v>9432</v>
+      </c>
+      <c r="R31" s="116">
         <f t="shared" si="2"/>
         <v>4032</v>
       </c>
-      <c r="S59" s="63">
+      <c r="S31" s="63">
         <f t="shared" si="2"/>
-        <v>162990</v>
-      </c>
-      <c r="T59" s="36">
+        <v>190370</v>
+      </c>
+      <c r="T31" s="36">
         <f t="shared" si="2"/>
-        <v>51822580</v>
-      </c>
-      <c r="W59" s="13"/>
-      <c r="X59" s="13"/>
-    </row>
-    <row r="60" spans="1:24" ht="15.75" thickBot="1">
-      <c r="V60" s="13"/>
-    </row>
-    <row r="61" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A61" s="166" t="s">
+        <v>60581039</v>
+      </c>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+    </row>
+    <row r="32" spans="1:24" ht="15.75" thickBot="1">
+      <c r="V32" s="13"/>
+    </row>
+    <row r="33" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A33" s="170" t="s">
         <v>189</v>
       </c>
-      <c r="B61" s="167"/>
-      <c r="C61" s="167"/>
-      <c r="D61" s="167"/>
-      <c r="E61" s="167"/>
-      <c r="F61" s="167"/>
-      <c r="G61" s="167"/>
-      <c r="H61" s="167"/>
-      <c r="I61" s="167"/>
-      <c r="J61" s="167"/>
-      <c r="K61" s="167"/>
-      <c r="L61" s="167"/>
-      <c r="M61" s="167"/>
-      <c r="N61" s="167"/>
-      <c r="O61" s="167"/>
-      <c r="P61" s="167"/>
-      <c r="Q61" s="168"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="28"/>
-    </row>
-    <row r="62" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A62" s="125" t="s">
+      <c r="B33" s="171"/>
+      <c r="C33" s="171"/>
+      <c r="D33" s="171"/>
+      <c r="E33" s="171"/>
+      <c r="F33" s="171"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="171"/>
+      <c r="J33" s="171"/>
+      <c r="K33" s="171"/>
+      <c r="L33" s="171"/>
+      <c r="M33" s="171"/>
+      <c r="N33" s="171"/>
+      <c r="O33" s="171"/>
+      <c r="P33" s="171"/>
+      <c r="Q33" s="172"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="28"/>
+    </row>
+    <row r="34" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A34" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="B62" s="126"/>
-      <c r="C62" s="169" t="s">
+      <c r="B34" s="130"/>
+      <c r="C34" s="173" t="s">
         <v>33</v>
       </c>
-      <c r="D62" s="169" t="s">
+      <c r="D34" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="172" t="s">
+      <c r="E34" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="F62" s="125" t="s">
+      <c r="F34" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="126"/>
-      <c r="H62" s="174" t="s">
+      <c r="G34" s="130"/>
+      <c r="H34" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="I62" s="175"/>
-      <c r="J62" s="176"/>
-      <c r="K62" s="177" t="s">
+      <c r="I34" s="179"/>
+      <c r="J34" s="180"/>
+      <c r="K34" s="181" t="s">
         <v>25</v>
       </c>
-      <c r="L62" s="178"/>
-      <c r="M62" s="178"/>
-      <c r="N62" s="178"/>
-      <c r="O62" s="179"/>
-      <c r="P62" s="169" t="s">
+      <c r="L34" s="182"/>
+      <c r="M34" s="182"/>
+      <c r="N34" s="182"/>
+      <c r="O34" s="183"/>
+      <c r="P34" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="Q62" s="180" t="s">
+      <c r="Q34" s="184" t="s">
         <v>38</v>
       </c>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
-      <c r="T62" s="28"/>
-    </row>
-    <row r="63" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A63" s="127"/>
-      <c r="B63" s="128"/>
-      <c r="C63" s="170"/>
-      <c r="D63" s="171"/>
-      <c r="E63" s="173"/>
-      <c r="F63" s="127"/>
-      <c r="G63" s="128"/>
-      <c r="H63" s="70" t="s">
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="28"/>
+    </row>
+    <row r="35" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A35" s="131"/>
+      <c r="B35" s="132"/>
+      <c r="C35" s="174"/>
+      <c r="D35" s="175"/>
+      <c r="E35" s="177"/>
+      <c r="F35" s="131"/>
+      <c r="G35" s="132"/>
+      <c r="H35" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="I63" s="70" t="s">
+      <c r="I35" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="J63" s="70" t="s">
+      <c r="J35" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="K63" s="70" t="s">
+      <c r="K35" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="L63" s="177" t="s">
+      <c r="L35" s="181" t="s">
         <v>47</v>
       </c>
-      <c r="M63" s="179"/>
-      <c r="N63" s="70" t="s">
+      <c r="M35" s="183"/>
+      <c r="N35" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="O63" s="70" t="s">
+      <c r="O35" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="P63" s="171"/>
-      <c r="Q63" s="181"/>
-      <c r="T63" s="28"/>
-    </row>
-    <row r="64" spans="1:24" ht="15" customHeight="1">
-      <c r="A64" s="125" t="s">
+      <c r="P35" s="175"/>
+      <c r="Q35" s="185"/>
+      <c r="T35" s="28"/>
+    </row>
+    <row r="36" spans="1:22" ht="15" customHeight="1">
+      <c r="A36" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="B64" s="126"/>
-      <c r="C64" s="105" t="s">
+      <c r="B36" s="130"/>
+      <c r="C36" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="105"/>
-      <c r="E64" s="4">
+      <c r="D36" s="105"/>
+      <c r="E36" s="4">
         <v>600</v>
       </c>
-      <c r="F64" s="129">
+      <c r="F36" s="133">
         <v>24</v>
       </c>
-      <c r="G64" s="129"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="104"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="104"/>
-      <c r="L64" s="130"/>
-      <c r="M64" s="131"/>
-      <c r="N64" s="104"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="104">
+      <c r="G36" s="133"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="104"/>
+      <c r="L36" s="134"/>
+      <c r="M36" s="135"/>
+      <c r="N36" s="104"/>
+      <c r="O36" s="4">
+        <v>72</v>
+      </c>
+      <c r="P36" s="104">
         <v>120</v>
       </c>
-      <c r="Q64" s="4">
-        <f>SUM(D64:P64)</f>
-        <v>744</v>
-      </c>
-      <c r="T64" s="28"/>
-      <c r="V64" s="13">
-        <f>Q64-F58</f>
+      <c r="Q36" s="4">
+        <f>SUM(D36:P36)</f>
+        <v>816</v>
+      </c>
+      <c r="T36" s="28"/>
+      <c r="V36" s="13">
+        <f>Q36-F30</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A65" s="127"/>
-      <c r="B65" s="128"/>
-      <c r="C65" s="107" t="s">
+    <row r="37" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A37" s="131"/>
+      <c r="B37" s="132"/>
+      <c r="C37" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="D65" s="107"/>
-      <c r="E65" s="14">
+      <c r="D37" s="107"/>
+      <c r="E37" s="14">
         <v>1200</v>
       </c>
-      <c r="F65" s="132">
+      <c r="F37" s="136">
         <v>1200</v>
       </c>
-      <c r="G65" s="132"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="106"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="106"/>
-      <c r="L65" s="133"/>
-      <c r="M65" s="134"/>
-      <c r="N65" s="106"/>
-      <c r="O65" s="14">
-        <v>48</v>
-      </c>
-      <c r="P65" s="106">
+      <c r="G37" s="136"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="106"/>
+      <c r="L37" s="137"/>
+      <c r="M37" s="138"/>
+      <c r="N37" s="106"/>
+      <c r="O37" s="14">
+        <v>168</v>
+      </c>
+      <c r="P37" s="106">
         <v>240</v>
       </c>
-      <c r="Q65" s="16">
-        <f t="shared" ref="Q65:Q74" si="3">SUM(D65:P65)</f>
-        <v>2688</v>
-      </c>
-      <c r="T65" s="28"/>
-      <c r="V65" s="13">
-        <f>H58-Q65</f>
+      <c r="Q37" s="16">
+        <f t="shared" ref="Q37:Q46" si="3">SUM(D37:P37)</f>
+        <v>2808</v>
+      </c>
+      <c r="T37" s="28"/>
+      <c r="V37" s="13">
+        <f>H30-Q37</f>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:22">
-      <c r="A66" s="125" t="s">
+    <row r="38" spans="1:22">
+      <c r="A38" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="B66" s="126"/>
-      <c r="C66" s="4" t="s">
+      <c r="B38" s="130"/>
+      <c r="C38" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D66" s="4">
-        <v>6450</v>
-      </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="129">
+      <c r="D38" s="4">
+        <v>10050</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="133">
         <v>690</v>
       </c>
-      <c r="G66" s="129"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="104">
-        <v>750</v>
-      </c>
-      <c r="J66" s="4">
-        <v>450</v>
-      </c>
-      <c r="K66" s="104"/>
-      <c r="L66" s="130"/>
-      <c r="M66" s="131"/>
-      <c r="N66" s="104"/>
-      <c r="O66" s="4">
-        <v>90</v>
-      </c>
-      <c r="P66" s="104">
+      <c r="G38" s="133"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="104">
+        <v>1650</v>
+      </c>
+      <c r="J38" s="4">
+        <v>1200</v>
+      </c>
+      <c r="K38" s="104"/>
+      <c r="L38" s="134"/>
+      <c r="M38" s="135"/>
+      <c r="N38" s="104"/>
+      <c r="O38" s="4">
+        <v>240</v>
+      </c>
+      <c r="P38" s="104">
         <v>300</v>
       </c>
-      <c r="Q66" s="4">
+      <c r="Q38" s="4">
         <f t="shared" si="3"/>
-        <v>8730</v>
-      </c>
-      <c r="T66" s="28"/>
-      <c r="V66" s="13">
-        <f>I58-Q66</f>
+        <v>14130</v>
+      </c>
+      <c r="T38" s="28"/>
+      <c r="V38" s="13">
+        <f>I30-Q38</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:22">
-      <c r="A67" s="140"/>
-      <c r="B67" s="141"/>
-      <c r="C67" s="5" t="s">
+    <row r="39" spans="1:22">
+      <c r="A39" s="144"/>
+      <c r="B39" s="145"/>
+      <c r="C39" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D67" s="113"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="145"/>
-      <c r="G67" s="145"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="112"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="112"/>
-      <c r="L67" s="146"/>
-      <c r="M67" s="147"/>
-      <c r="N67" s="112"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="112"/>
-      <c r="Q67" s="5">
+      <c r="D39" s="113"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="112"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="112"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="151"/>
+      <c r="N39" s="112"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="112"/>
+      <c r="Q39" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T67" s="28"/>
-      <c r="V67" s="13">
-        <f>J58-Q67</f>
+      <c r="T39" s="28"/>
+      <c r="V39" s="13">
+        <f>J30-Q39</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22">
-      <c r="A68" s="140"/>
-      <c r="B68" s="141"/>
-      <c r="C68" s="5" t="s">
+    <row r="40" spans="1:22">
+      <c r="A40" s="144"/>
+      <c r="B40" s="145"/>
+      <c r="C40" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D68" s="113"/>
-      <c r="E68" s="5">
+      <c r="D40" s="113">
+        <v>330</v>
+      </c>
+      <c r="E40" s="5">
         <v>220</v>
       </c>
-      <c r="F68" s="145">
+      <c r="F40" s="149">
         <v>220</v>
       </c>
-      <c r="G68" s="145"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="112"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="112"/>
-      <c r="L68" s="146"/>
-      <c r="M68" s="147"/>
-      <c r="N68" s="112"/>
-      <c r="O68" s="5"/>
-      <c r="P68" s="112"/>
-      <c r="Q68" s="5">
+      <c r="G40" s="149"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="112"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="112"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="151"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="112"/>
+      <c r="Q40" s="5">
         <f t="shared" si="3"/>
-        <v>440</v>
-      </c>
-      <c r="T68" s="28"/>
-      <c r="V68" s="13">
-        <f>K58-Q68</f>
+        <v>770</v>
+      </c>
+      <c r="T40" s="28"/>
+      <c r="V40" s="13">
+        <f>K30-Q40</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A69" s="127"/>
-      <c r="B69" s="128"/>
-      <c r="C69" s="65" t="s">
+    <row r="41" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A41" s="131"/>
+      <c r="B41" s="132"/>
+      <c r="C41" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D69" s="109"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="153">
+      <c r="D41" s="109"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="157">
         <v>110</v>
       </c>
-      <c r="G69" s="153"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="108"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="108"/>
-      <c r="L69" s="154"/>
-      <c r="M69" s="155"/>
-      <c r="N69" s="108"/>
-      <c r="O69" s="15"/>
-      <c r="P69" s="108"/>
-      <c r="Q69" s="16">
+      <c r="G41" s="157"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="108"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="108"/>
+      <c r="L41" s="158"/>
+      <c r="M41" s="159"/>
+      <c r="N41" s="108"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="108">
+        <v>110</v>
+      </c>
+      <c r="Q41" s="16">
         <f t="shared" si="3"/>
-        <v>110</v>
-      </c>
-      <c r="T69" s="28"/>
-      <c r="V69" s="13">
-        <f>L58-Q69</f>
+        <v>220</v>
+      </c>
+      <c r="T41" s="28"/>
+      <c r="V41" s="13">
+        <f>L30-Q41</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:22">
-      <c r="A70" s="125" t="s">
+    <row r="42" spans="1:22">
+      <c r="A42" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="B70" s="126"/>
-      <c r="C70" s="111" t="s">
+      <c r="B42" s="130"/>
+      <c r="C42" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D70" s="111"/>
-      <c r="E70" s="16">
+      <c r="D42" s="111">
         <v>480</v>
       </c>
-      <c r="F70" s="142">
+      <c r="E42" s="16">
+        <v>480</v>
+      </c>
+      <c r="F42" s="146">
         <v>240</v>
       </c>
-      <c r="G70" s="142"/>
-      <c r="H70" s="16">
-        <v>960</v>
-      </c>
-      <c r="I70" s="110">
+      <c r="G42" s="146"/>
+      <c r="H42" s="16">
+        <v>2160</v>
+      </c>
+      <c r="I42" s="110">
+        <v>2040</v>
+      </c>
+      <c r="J42" s="16"/>
+      <c r="K42" s="110"/>
+      <c r="L42" s="147"/>
+      <c r="M42" s="148"/>
+      <c r="N42" s="110"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="110">
+        <v>2880</v>
+      </c>
+      <c r="Q42" s="4">
+        <f t="shared" si="3"/>
+        <v>8280</v>
+      </c>
+      <c r="T42" s="28"/>
+      <c r="V42" s="13">
+        <f>N30-Q42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" s="144"/>
+      <c r="B43" s="145"/>
+      <c r="C43" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="113">
+        <v>360</v>
+      </c>
+      <c r="E43" s="5">
         <v>600</v>
       </c>
-      <c r="J70" s="16"/>
-      <c r="K70" s="110"/>
-      <c r="L70" s="143"/>
-      <c r="M70" s="144"/>
-      <c r="N70" s="110"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="110">
-        <f>960+1200</f>
-        <v>2160</v>
-      </c>
-      <c r="Q70" s="4">
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="5">
+        <v>480</v>
+      </c>
+      <c r="I43" s="112">
+        <v>240</v>
+      </c>
+      <c r="J43" s="5">
+        <v>120</v>
+      </c>
+      <c r="K43" s="112"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="151"/>
+      <c r="N43" s="112"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="112">
+        <v>1680</v>
+      </c>
+      <c r="Q43" s="5">
         <f t="shared" si="3"/>
-        <v>4440</v>
-      </c>
-      <c r="T70" s="28"/>
-      <c r="V70" s="13">
-        <f>N58-Q70</f>
+        <v>3480</v>
+      </c>
+      <c r="T43" s="28"/>
+      <c r="V43" s="13">
+        <f>O30-Q43</f>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:22">
-      <c r="A71" s="140"/>
-      <c r="B71" s="141"/>
-      <c r="C71" s="113" t="s">
+    <row r="44" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A44" s="131"/>
+      <c r="B44" s="132"/>
+      <c r="C44" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="107">
+        <v>1800</v>
+      </c>
+      <c r="E44" s="14">
+        <v>5400</v>
+      </c>
+      <c r="F44" s="136">
+        <v>4200</v>
+      </c>
+      <c r="G44" s="136"/>
+      <c r="H44" s="14">
+        <v>2280</v>
+      </c>
+      <c r="I44" s="106">
+        <v>8400</v>
+      </c>
+      <c r="J44" s="14">
+        <v>3960</v>
+      </c>
+      <c r="K44" s="106"/>
+      <c r="L44" s="137"/>
+      <c r="M44" s="138"/>
+      <c r="N44" s="106"/>
+      <c r="O44" s="14">
+        <v>168</v>
+      </c>
+      <c r="P44" s="106">
+        <v>4800</v>
+      </c>
+      <c r="Q44" s="16">
+        <f t="shared" si="3"/>
+        <v>31008</v>
+      </c>
+      <c r="T44" s="28"/>
+      <c r="V44" s="13">
+        <f>P30-Q44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" s="129" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="130"/>
+      <c r="C45" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="D71" s="113"/>
-      <c r="E71" s="5">
-        <v>600</v>
-      </c>
-      <c r="F71" s="145"/>
-      <c r="G71" s="145"/>
-      <c r="H71" s="5">
-        <v>480</v>
-      </c>
-      <c r="I71" s="112"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="112"/>
-      <c r="L71" s="146"/>
-      <c r="M71" s="147"/>
-      <c r="N71" s="112"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="112">
-        <f>600+720</f>
-        <v>1320</v>
-      </c>
-      <c r="Q71" s="5">
+      <c r="D45" s="105">
+        <v>2100</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="133">
+        <v>360</v>
+      </c>
+      <c r="G45" s="133"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="104"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="104"/>
+      <c r="L45" s="134"/>
+      <c r="M45" s="135"/>
+      <c r="N45" s="104"/>
+      <c r="O45" s="4">
+        <v>180</v>
+      </c>
+      <c r="P45" s="104">
+        <v>120</v>
+      </c>
+      <c r="Q45" s="4">
         <f t="shared" si="3"/>
-        <v>2400</v>
-      </c>
-      <c r="T71" s="28"/>
-      <c r="V71" s="13">
-        <f>O58-Q71</f>
+        <v>2760</v>
+      </c>
+      <c r="T45" s="28"/>
+      <c r="V45" s="13">
+        <f>Q30-Q45</f>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A72" s="127"/>
-      <c r="B72" s="128"/>
-      <c r="C72" s="65" t="s">
+    <row r="46" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A46" s="131"/>
+      <c r="B46" s="132"/>
+      <c r="C46" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="D72" s="107"/>
-      <c r="E72" s="14">
-        <v>5400</v>
-      </c>
-      <c r="F72" s="132">
-        <v>4200</v>
-      </c>
-      <c r="G72" s="132"/>
-      <c r="H72" s="14">
-        <v>840</v>
-      </c>
-      <c r="I72" s="106">
-        <v>2400</v>
-      </c>
-      <c r="J72" s="14">
-        <v>1320</v>
-      </c>
-      <c r="K72" s="106"/>
-      <c r="L72" s="133"/>
-      <c r="M72" s="134"/>
-      <c r="N72" s="106"/>
-      <c r="O72" s="14">
-        <v>120</v>
-      </c>
-      <c r="P72" s="106">
-        <v>2400</v>
-      </c>
-      <c r="Q72" s="16">
-        <f t="shared" si="3"/>
-        <v>16680</v>
-      </c>
-      <c r="T72" s="28"/>
-      <c r="V72" s="13">
-        <f>P58-Q72</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22">
-      <c r="A73" s="125" t="s">
-        <v>42</v>
-      </c>
-      <c r="B73" s="126"/>
-      <c r="C73" s="105" t="s">
-        <v>31</v>
-      </c>
-      <c r="D73" s="105"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="129">
-        <v>360</v>
-      </c>
-      <c r="G73" s="129"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="104"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="104"/>
-      <c r="L73" s="130"/>
-      <c r="M73" s="131"/>
-      <c r="N73" s="104"/>
-      <c r="O73" s="4">
-        <v>180</v>
-      </c>
-      <c r="P73" s="104">
-        <v>120</v>
-      </c>
-      <c r="Q73" s="4">
-        <f t="shared" si="3"/>
-        <v>660</v>
-      </c>
-      <c r="T73" s="28"/>
-      <c r="V73" s="13">
-        <f>Q58-Q73</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A74" s="127"/>
-      <c r="B74" s="128"/>
-      <c r="C74" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="D74" s="15">
+      <c r="D46" s="15">
         <v>2412</v>
       </c>
-      <c r="E74" s="15"/>
-      <c r="F74" s="153"/>
-      <c r="G74" s="153"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="108">
+      <c r="E46" s="15"/>
+      <c r="F46" s="157"/>
+      <c r="G46" s="157"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="108">
         <v>720</v>
       </c>
-      <c r="J74" s="15"/>
-      <c r="K74" s="108"/>
-      <c r="L74" s="154"/>
-      <c r="M74" s="155"/>
-      <c r="N74" s="108"/>
-      <c r="O74" s="15"/>
-      <c r="P74" s="108"/>
-      <c r="Q74" s="16">
+      <c r="J46" s="15"/>
+      <c r="K46" s="108"/>
+      <c r="L46" s="158"/>
+      <c r="M46" s="159"/>
+      <c r="N46" s="108"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="108"/>
+      <c r="Q46" s="16">
         <f t="shared" si="3"/>
         <v>3132</v>
       </c>
-      <c r="T74" s="28"/>
-      <c r="V74" s="13">
-        <f>R58-Q74</f>
+      <c r="T46" s="28"/>
+      <c r="V46" s="13">
+        <f>R30-Q46</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A75" s="156" t="s">
+    <row r="47" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A47" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="B75" s="157"/>
-      <c r="C75" s="157"/>
-      <c r="D75" s="23">
-        <f>SUM(D64:D74)</f>
-        <v>8862</v>
-      </c>
-      <c r="E75" s="23">
-        <f t="shared" ref="E75" si="4">SUM(E64:E74)</f>
+      <c r="B47" s="161"/>
+      <c r="C47" s="161"/>
+      <c r="D47" s="23">
+        <f>SUM(D36:D46)</f>
+        <v>17532</v>
+      </c>
+      <c r="E47" s="23">
+        <f t="shared" ref="E47" si="4">SUM(E36:E46)</f>
         <v>8500</v>
       </c>
-      <c r="F75" s="158">
-        <f>SUM(F64:G74)</f>
+      <c r="F47" s="162">
+        <f>SUM(F36:G46)</f>
         <v>7044</v>
       </c>
-      <c r="G75" s="159"/>
-      <c r="H75" s="23">
-        <f>SUM(H64:H74)</f>
-        <v>2280</v>
-      </c>
-      <c r="I75" s="23">
-        <f>SUM(I64:I74)</f>
-        <v>4470</v>
-      </c>
-      <c r="J75" s="23">
-        <f>SUM(J64:J74)</f>
-        <v>1770</v>
-      </c>
-      <c r="K75" s="23">
-        <f>SUM(K64:K74)</f>
+      <c r="G47" s="163"/>
+      <c r="H47" s="23">
+        <f>SUM(H36:H46)</f>
+        <v>4920</v>
+      </c>
+      <c r="I47" s="23">
+        <f>SUM(I36:I46)</f>
+        <v>13050</v>
+      </c>
+      <c r="J47" s="23">
+        <f>SUM(J36:J46)</f>
+        <v>5280</v>
+      </c>
+      <c r="K47" s="23">
+        <f>SUM(K36:K46)</f>
         <v>0</v>
       </c>
-      <c r="L75" s="158">
-        <f>SUM(L64:M74)</f>
+      <c r="L47" s="162">
+        <f>SUM(L36:M46)</f>
         <v>0</v>
       </c>
-      <c r="M75" s="159"/>
-      <c r="N75" s="23">
-        <f>SUM(N64:N74)</f>
+      <c r="M47" s="163"/>
+      <c r="N47" s="23">
+        <f>SUM(N36:N46)</f>
         <v>0</v>
       </c>
-      <c r="O75" s="23">
-        <f>SUM(O64:O74)</f>
-        <v>438</v>
-      </c>
-      <c r="P75" s="23">
-        <f>SUM(P64:P74)</f>
-        <v>6660</v>
-      </c>
-      <c r="Q75" s="24">
-        <f>SUM(Q64:Q74)</f>
-        <v>40024</v>
-      </c>
-      <c r="R75" s="12"/>
-      <c r="S75" s="1"/>
-      <c r="T75" s="28"/>
-      <c r="V75" s="13">
-        <f>S58-Q75</f>
+      <c r="O47" s="23">
+        <f>SUM(O36:O46)</f>
+        <v>828</v>
+      </c>
+      <c r="P47" s="23">
+        <f>SUM(P36:P46)</f>
+        <v>10250</v>
+      </c>
+      <c r="Q47" s="24">
+        <f>SUM(Q36:Q46)</f>
+        <v>67404</v>
+      </c>
+      <c r="R47" s="12"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="28"/>
+      <c r="V47" s="13">
+        <f>S30-Q47</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A76" s="135" t="s">
+    <row r="48" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A48" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="B76" s="136"/>
-      <c r="C76" s="136"/>
-      <c r="D76" s="137">
-        <f>D75+E75+F75+H75+I75+J75+K75+L75+N75+O75+P75</f>
-        <v>40024</v>
-      </c>
-      <c r="E76" s="138"/>
-      <c r="F76" s="138"/>
-      <c r="G76" s="138"/>
-      <c r="H76" s="138"/>
-      <c r="I76" s="138"/>
-      <c r="J76" s="138"/>
-      <c r="K76" s="138"/>
-      <c r="L76" s="138"/>
-      <c r="M76" s="138"/>
-      <c r="N76" s="138"/>
-      <c r="O76" s="138"/>
-      <c r="P76" s="138"/>
-      <c r="Q76" s="139"/>
-      <c r="T76" s="28"/>
-      <c r="V76" s="13"/>
-    </row>
-    <row r="77" spans="1:22" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A77" s="148" t="s">
+      <c r="B48" s="140"/>
+      <c r="C48" s="140"/>
+      <c r="D48" s="141">
+        <f>D47+E47+F47+H47+I47+J47+K47+L47+N47+O47+P47</f>
+        <v>67404</v>
+      </c>
+      <c r="E48" s="142"/>
+      <c r="F48" s="142"/>
+      <c r="G48" s="142"/>
+      <c r="H48" s="142"/>
+      <c r="I48" s="142"/>
+      <c r="J48" s="142"/>
+      <c r="K48" s="142"/>
+      <c r="L48" s="142"/>
+      <c r="M48" s="142"/>
+      <c r="N48" s="142"/>
+      <c r="O48" s="142"/>
+      <c r="P48" s="142"/>
+      <c r="Q48" s="143"/>
+      <c r="T48" s="28"/>
+      <c r="V48" s="13"/>
+    </row>
+    <row r="49" spans="1:22" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A49" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="B77" s="149"/>
-      <c r="C77" s="149"/>
-      <c r="D77" s="22">
-        <v>2866322</v>
-      </c>
-      <c r="E77" s="22">
+      <c r="B49" s="153"/>
+      <c r="C49" s="153"/>
+      <c r="D49" s="22">
+        <v>5673617</v>
+      </c>
+      <c r="E49" s="22">
         <v>2670081</v>
       </c>
-      <c r="F77" s="150">
+      <c r="F49" s="154">
         <v>2226736</v>
       </c>
-      <c r="G77" s="151"/>
-      <c r="H77" s="22">
-        <v>722340</v>
-      </c>
-      <c r="I77" s="26">
-        <v>1472650</v>
-      </c>
-      <c r="J77" s="22">
-        <v>559829</v>
-      </c>
-      <c r="K77" s="22"/>
-      <c r="L77" s="152"/>
-      <c r="M77" s="151"/>
-      <c r="N77" s="26"/>
-      <c r="O77" s="22">
-        <f>125874+28368</f>
-        <v>154242</v>
-      </c>
-      <c r="P77" s="26">
-        <f>1260480+858472</f>
-        <v>2118952</v>
-      </c>
-      <c r="Q77" s="100">
-        <v>12791152</v>
-      </c>
-      <c r="R77" s="19"/>
-      <c r="S77" s="19"/>
-      <c r="T77" s="29"/>
-      <c r="V77" s="21">
-        <f>T58-Q77</f>
+      <c r="G49" s="155"/>
+      <c r="H49" s="22">
+        <v>1560338</v>
+      </c>
+      <c r="I49" s="26">
+        <v>4197122</v>
+      </c>
+      <c r="J49" s="22">
+        <v>1671937</v>
+      </c>
+      <c r="K49" s="22"/>
+      <c r="L49" s="156"/>
+      <c r="M49" s="155"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="22">
+        <v>283020</v>
+      </c>
+      <c r="P49" s="26">
+        <v>3266760</v>
+      </c>
+      <c r="Q49" s="100">
+        <v>21549611</v>
+      </c>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="29"/>
+      <c r="V49" s="21">
+        <f>T30-Q49</f>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22">
-      <c r="T78" s="28"/>
-      <c r="V78" s="13"/>
+    <row r="50" spans="1:22">
+      <c r="T50" s="28"/>
+      <c r="V50" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="226">
+  <mergeCells count="142">
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="L3:M3"/>
@@ -8362,147 +7797,63 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="L25:M25"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="L31:M31"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="L29:M29"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="A33:Q33"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:G35"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:O34"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="Q34:Q35"/>
     <mergeCell ref="L35:M35"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A36:B37"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="A42:B44"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="A38:B41"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="L38:M38"/>
-    <mergeCell ref="C39:D39"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="L39:M39"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="C40:D40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="L40:M40"/>
-    <mergeCell ref="C41:D41"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="L41:M41"/>
-    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:Q48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="L45:M45"/>
     <mergeCell ref="F46:G46"/>
     <mergeCell ref="L46:M46"/>
-    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A47:C47"/>
     <mergeCell ref="F47:G47"/>
     <mergeCell ref="L47:M47"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="A61:Q61"/>
-    <mergeCell ref="A62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:G63"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="K62:O62"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="A64:B65"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="A70:B72"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="A66:B69"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="D76:Q76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="A73:B74"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="L75:M75"/>
   </mergeCells>
   <pageMargins left="0.16" right="0.16" top="0.34" bottom="0.16" header="0.23" footer="0.16"/>
   <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/SALE BILL REPORT 2021-22.xlsx
+++ b/SALE BILL REPORT 2021-22.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'April 2021-22'!$A$2:$X$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'May 2021'!$A$2:$X$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'May 2021'!$A$2:$X$30</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -1869,23 +1869,161 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1899,6 +2037,60 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1907,6 +2099,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1954,210 +2158,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2496,81 +2496,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="16.5" thickBot="1">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="147" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="187"/>
-      <c r="O1" s="187"/>
-      <c r="P1" s="187"/>
-      <c r="Q1" s="187"/>
-      <c r="R1" s="187"/>
-      <c r="S1" s="187"/>
-      <c r="T1" s="188"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="149"/>
     </row>
     <row r="2" spans="1:20" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="193" t="s">
+      <c r="C2" s="154" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="194"/>
-      <c r="E2" s="197" t="s">
+      <c r="D2" s="155"/>
+      <c r="E2" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="199" t="s">
+      <c r="F2" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="191"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="201" t="s">
+      <c r="G2" s="152"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="201" t="s">
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="202"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="204" t="s">
+      <c r="O2" s="163"/>
+      <c r="P2" s="161"/>
+      <c r="Q2" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="205"/>
-      <c r="S2" s="191" t="s">
+      <c r="R2" s="166"/>
+      <c r="S2" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="206" t="s">
+      <c r="T2" s="125" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="6" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A3" s="190"/>
-      <c r="B3" s="192"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="208" t="s">
+      <c r="A3" s="151"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="209"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="9" t="s">
         <v>4</v>
       </c>
@@ -2583,10 +2583,10 @@
       <c r="K3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="210" t="s">
+      <c r="L3" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="211"/>
+      <c r="M3" s="130"/>
       <c r="N3" s="8" t="s">
         <v>21</v>
       </c>
@@ -2602,25 +2602,25 @@
       <c r="R3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="192"/>
-      <c r="T3" s="207"/>
+      <c r="S3" s="153"/>
+      <c r="T3" s="126"/>
     </row>
     <row r="4" spans="1:20" s="18" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="85" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="30"/>
-      <c r="C4" s="166"/>
-      <c r="D4" s="169"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="132"/>
       <c r="E4" s="31"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="167"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="133"/>
       <c r="H4" s="80"/>
       <c r="I4" s="32"/>
       <c r="J4" s="33"/>
       <c r="K4" s="80"/>
-      <c r="L4" s="168"/>
-      <c r="M4" s="169"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="132"/>
       <c r="N4" s="79"/>
       <c r="O4" s="80"/>
       <c r="P4" s="34"/>
@@ -2639,21 +2639,21 @@
       <c r="B5" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="212" t="s">
+      <c r="C5" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="213"/>
+      <c r="D5" s="140"/>
       <c r="E5" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="214"/>
-      <c r="G5" s="215"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="142"/>
       <c r="H5" s="84"/>
       <c r="I5" s="40"/>
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
-      <c r="L5" s="216"/>
-      <c r="M5" s="217"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="144"/>
       <c r="N5" s="40"/>
       <c r="O5" s="41"/>
       <c r="P5" s="84"/>
@@ -2676,15 +2676,15 @@
       <c r="B6" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="135" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="128"/>
+      <c r="D6" s="136"/>
       <c r="E6" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="123"/>
-      <c r="G6" s="124"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="138"/>
       <c r="H6" s="83"/>
       <c r="I6" s="46">
         <v>60</v>
@@ -2693,8 +2693,8 @@
       <c r="K6" s="47">
         <v>22</v>
       </c>
-      <c r="L6" s="218"/>
-      <c r="M6" s="219"/>
+      <c r="L6" s="145"/>
+      <c r="M6" s="146"/>
       <c r="N6" s="48"/>
       <c r="O6" s="83"/>
       <c r="P6" s="49"/>
@@ -2715,21 +2715,21 @@
       <c r="B7" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="127" t="s">
+      <c r="C7" s="135" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="128"/>
+      <c r="D7" s="136"/>
       <c r="E7" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="123"/>
-      <c r="G7" s="124"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="138"/>
       <c r="H7" s="83"/>
       <c r="I7" s="48"/>
       <c r="J7" s="52"/>
       <c r="K7" s="52"/>
-      <c r="L7" s="125"/>
-      <c r="M7" s="126"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="124"/>
       <c r="N7" s="48">
         <v>600</v>
       </c>
@@ -2756,23 +2756,23 @@
       <c r="B8" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="135" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="128"/>
+      <c r="D8" s="136"/>
       <c r="E8" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="123"/>
-      <c r="G8" s="124"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="138"/>
       <c r="H8" s="83">
         <v>120</v>
       </c>
       <c r="I8" s="48"/>
       <c r="J8" s="52"/>
       <c r="K8" s="52"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="126"/>
+      <c r="L8" s="123"/>
+      <c r="M8" s="124"/>
       <c r="N8" s="48"/>
       <c r="O8" s="83"/>
       <c r="P8" s="49">
@@ -2795,23 +2795,23 @@
       <c r="B9" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="127" t="s">
+      <c r="C9" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="128"/>
+      <c r="D9" s="136"/>
       <c r="E9" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="123"/>
-      <c r="G9" s="124"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="138"/>
       <c r="H9" s="83"/>
       <c r="I9" s="48">
         <v>150</v>
       </c>
       <c r="J9" s="52"/>
       <c r="K9" s="52"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="126"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="124"/>
       <c r="N9" s="48"/>
       <c r="O9" s="83"/>
       <c r="P9" s="49">
@@ -2834,21 +2834,21 @@
       <c r="B10" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="135" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="128"/>
+      <c r="D10" s="136"/>
       <c r="E10" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="123"/>
-      <c r="G10" s="124"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="138"/>
       <c r="H10" s="83"/>
       <c r="I10" s="48"/>
       <c r="J10" s="52"/>
       <c r="K10" s="52"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="126"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="124"/>
       <c r="N10" s="48"/>
       <c r="O10" s="83"/>
       <c r="P10" s="49"/>
@@ -2871,23 +2871,23 @@
       <c r="B11" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="128"/>
+      <c r="D11" s="136"/>
       <c r="E11" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="123"/>
-      <c r="G11" s="124"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="138"/>
       <c r="H11" s="83">
         <v>24</v>
       </c>
       <c r="I11" s="48"/>
       <c r="J11" s="52"/>
       <c r="K11" s="52"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="126"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="124"/>
       <c r="N11" s="48"/>
       <c r="O11" s="83"/>
       <c r="P11" s="49"/>
@@ -2908,21 +2908,21 @@
       <c r="B12" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="128"/>
+      <c r="D12" s="136"/>
       <c r="E12" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="F12" s="123"/>
-      <c r="G12" s="124"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="138"/>
       <c r="H12" s="83"/>
       <c r="I12" s="48"/>
       <c r="J12" s="52"/>
       <c r="K12" s="52"/>
-      <c r="L12" s="125"/>
-      <c r="M12" s="126"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="124"/>
       <c r="N12" s="48"/>
       <c r="O12" s="83"/>
       <c r="P12" s="49">
@@ -2947,23 +2947,23 @@
       <c r="B13" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="127" t="s">
+      <c r="C13" s="135" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="128"/>
+      <c r="D13" s="136"/>
       <c r="E13" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="138"/>
       <c r="H13" s="83">
         <v>48</v>
       </c>
       <c r="I13" s="48"/>
       <c r="J13" s="52"/>
       <c r="K13" s="52"/>
-      <c r="L13" s="125"/>
-      <c r="M13" s="126"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="124"/>
       <c r="N13" s="48"/>
       <c r="O13" s="83"/>
       <c r="P13" s="49"/>
@@ -2984,23 +2984,23 @@
       <c r="B14" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="127" t="s">
+      <c r="C14" s="135" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="128"/>
+      <c r="D14" s="136"/>
       <c r="E14" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="138"/>
       <c r="H14" s="83">
         <v>48</v>
       </c>
       <c r="I14" s="48"/>
       <c r="J14" s="52"/>
       <c r="K14" s="52"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="126"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="124"/>
       <c r="N14" s="48"/>
       <c r="O14" s="83"/>
       <c r="P14" s="49"/>
@@ -3021,15 +3021,15 @@
       <c r="B15" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="127" t="s">
+      <c r="C15" s="135" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="128"/>
+      <c r="D15" s="136"/>
       <c r="E15" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="138"/>
       <c r="H15" s="83"/>
       <c r="I15" s="48">
         <v>7050</v>
@@ -3040,8 +3040,8 @@
       <c r="K15" s="52">
         <v>440</v>
       </c>
-      <c r="L15" s="125"/>
-      <c r="M15" s="126"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="124"/>
       <c r="N15" s="82">
         <v>840</v>
       </c>
@@ -3070,21 +3070,21 @@
       <c r="B16" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="127" t="s">
+      <c r="C16" s="135" t="s">
         <v>114</v>
       </c>
-      <c r="D16" s="128"/>
+      <c r="D16" s="136"/>
       <c r="E16" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="138"/>
       <c r="H16" s="83"/>
       <c r="I16" s="48"/>
       <c r="J16" s="52"/>
       <c r="K16" s="52"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="126"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="124"/>
       <c r="N16" s="82"/>
       <c r="O16" s="83"/>
       <c r="P16" s="49">
@@ -3109,21 +3109,21 @@
       <c r="B17" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="127" t="s">
+      <c r="C17" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="128"/>
+      <c r="D17" s="136"/>
       <c r="E17" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="F17" s="123"/>
-      <c r="G17" s="124"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="138"/>
       <c r="H17" s="83"/>
       <c r="I17" s="48"/>
       <c r="J17" s="52"/>
       <c r="K17" s="52"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="126"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="124"/>
       <c r="N17" s="82"/>
       <c r="O17" s="83"/>
       <c r="P17" s="49">
@@ -3146,21 +3146,21 @@
       <c r="B18" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="127" t="s">
+      <c r="C18" s="135" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="128"/>
+      <c r="D18" s="136"/>
       <c r="E18" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="123"/>
-      <c r="G18" s="124"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="138"/>
       <c r="H18" s="83"/>
       <c r="I18" s="48"/>
       <c r="J18" s="52"/>
       <c r="K18" s="52"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="126"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="124"/>
       <c r="N18" s="82">
         <v>600</v>
       </c>
@@ -3187,21 +3187,21 @@
       <c r="B19" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="127" t="s">
+      <c r="C19" s="135" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="128"/>
+      <c r="D19" s="136"/>
       <c r="E19" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="123"/>
-      <c r="G19" s="124"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="138"/>
       <c r="H19" s="83"/>
       <c r="I19" s="48"/>
       <c r="J19" s="52"/>
       <c r="K19" s="52"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="126"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="124"/>
       <c r="N19" s="82">
         <v>600</v>
       </c>
@@ -3229,23 +3229,23 @@
       <c r="B20" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="123" t="s">
+      <c r="C20" s="137" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="126"/>
+      <c r="D20" s="124"/>
       <c r="E20" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="123"/>
-      <c r="G20" s="124"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="138"/>
       <c r="H20" s="83"/>
       <c r="I20" s="48">
         <v>600</v>
       </c>
       <c r="J20" s="52"/>
       <c r="K20" s="52"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="126"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="124"/>
       <c r="N20" s="82"/>
       <c r="O20" s="83"/>
       <c r="P20" s="49">
@@ -3268,23 +3268,23 @@
       <c r="B21" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="137" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="126"/>
+      <c r="D21" s="124"/>
       <c r="E21" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="123"/>
-      <c r="G21" s="124"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="138"/>
       <c r="H21" s="83"/>
       <c r="I21" s="48"/>
       <c r="J21" s="52"/>
       <c r="K21" s="52">
         <v>220</v>
       </c>
-      <c r="L21" s="125"/>
-      <c r="M21" s="126"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="124"/>
       <c r="N21" s="82">
         <v>600</v>
       </c>
@@ -3311,25 +3311,25 @@
       <c r="B22" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="123" t="s">
+      <c r="C22" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="126"/>
+      <c r="D22" s="124"/>
       <c r="E22" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="123">
+      <c r="F22" s="137">
         <v>48</v>
       </c>
-      <c r="G22" s="124"/>
+      <c r="G22" s="138"/>
       <c r="H22" s="83">
         <v>24</v>
       </c>
       <c r="I22" s="48"/>
       <c r="J22" s="52"/>
       <c r="K22" s="52"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="126"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="124"/>
       <c r="N22" s="82"/>
       <c r="O22" s="83"/>
       <c r="P22" s="49">
@@ -3354,15 +3354,15 @@
       <c r="B23" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="123" t="s">
+      <c r="C23" s="137" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="126"/>
+      <c r="D23" s="124"/>
       <c r="E23" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="F23" s="123"/>
-      <c r="G23" s="124"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="138"/>
       <c r="H23" s="83">
         <v>1200</v>
       </c>
@@ -3373,8 +3373,8 @@
       <c r="K23" s="52">
         <v>660</v>
       </c>
-      <c r="L23" s="125"/>
-      <c r="M23" s="126"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="124"/>
       <c r="N23" s="82"/>
       <c r="O23" s="83"/>
       <c r="P23" s="49">
@@ -3397,23 +3397,23 @@
       <c r="B24" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="123" t="s">
+      <c r="C24" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="126"/>
+      <c r="D24" s="124"/>
       <c r="E24" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="123"/>
-      <c r="G24" s="124"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="138"/>
       <c r="H24" s="83">
         <v>120</v>
       </c>
       <c r="I24" s="48"/>
       <c r="J24" s="52"/>
       <c r="K24" s="52"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="126"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="124"/>
       <c r="N24" s="82"/>
       <c r="O24" s="83"/>
       <c r="P24" s="49"/>
@@ -3436,23 +3436,23 @@
       <c r="B25" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="123" t="s">
+      <c r="C25" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="D25" s="126"/>
+      <c r="D25" s="124"/>
       <c r="E25" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="F25" s="123"/>
-      <c r="G25" s="124"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="138"/>
       <c r="H25" s="83">
         <v>120</v>
       </c>
       <c r="I25" s="48"/>
       <c r="J25" s="52"/>
       <c r="K25" s="52"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="126"/>
+      <c r="L25" s="123"/>
+      <c r="M25" s="124"/>
       <c r="N25" s="82"/>
       <c r="O25" s="83"/>
       <c r="P25" s="49"/>
@@ -3473,23 +3473,23 @@
       <c r="B26" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="123" t="s">
+      <c r="C26" s="137" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="126"/>
+      <c r="D26" s="124"/>
       <c r="E26" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="123"/>
-      <c r="G26" s="124"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="138"/>
       <c r="H26" s="83"/>
       <c r="I26" s="48">
         <v>1200</v>
       </c>
       <c r="J26" s="52"/>
       <c r="K26" s="52"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="126"/>
+      <c r="L26" s="123"/>
+      <c r="M26" s="124"/>
       <c r="N26" s="82">
         <v>1200</v>
       </c>
@@ -3518,21 +3518,21 @@
       <c r="B27" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="123" t="s">
+      <c r="C27" s="137" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="126"/>
+      <c r="D27" s="124"/>
       <c r="E27" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="F27" s="123"/>
-      <c r="G27" s="124"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="138"/>
       <c r="H27" s="86"/>
       <c r="I27" s="57"/>
       <c r="J27" s="58"/>
       <c r="K27" s="58"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="126"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="124"/>
       <c r="N27" s="81"/>
       <c r="O27" s="86"/>
       <c r="P27" s="55">
@@ -3555,23 +3555,23 @@
       <c r="B28" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="123" t="s">
+      <c r="C28" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="D28" s="126"/>
+      <c r="D28" s="124"/>
       <c r="E28" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="F28" s="123"/>
-      <c r="G28" s="124"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="138"/>
       <c r="H28" s="86">
         <v>48</v>
       </c>
       <c r="I28" s="57"/>
       <c r="J28" s="58"/>
       <c r="K28" s="58"/>
-      <c r="L28" s="125"/>
-      <c r="M28" s="126"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="124"/>
       <c r="N28" s="81"/>
       <c r="O28" s="86"/>
       <c r="P28" s="55">
@@ -3596,21 +3596,21 @@
       <c r="B29" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="123" t="s">
+      <c r="C29" s="137" t="s">
         <v>137</v>
       </c>
-      <c r="D29" s="126"/>
+      <c r="D29" s="124"/>
       <c r="E29" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="F29" s="123"/>
-      <c r="G29" s="124"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="138"/>
       <c r="H29" s="86"/>
       <c r="I29" s="57"/>
       <c r="J29" s="58"/>
       <c r="K29" s="58"/>
-      <c r="L29" s="125"/>
-      <c r="M29" s="126"/>
+      <c r="L29" s="123"/>
+      <c r="M29" s="124"/>
       <c r="N29" s="81"/>
       <c r="O29" s="86"/>
       <c r="P29" s="55"/>
@@ -3633,21 +3633,21 @@
       <c r="B30" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="123" t="s">
+      <c r="C30" s="137" t="s">
         <v>140</v>
       </c>
-      <c r="D30" s="126"/>
+      <c r="D30" s="124"/>
       <c r="E30" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="F30" s="123"/>
-      <c r="G30" s="124"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="138"/>
       <c r="H30" s="86"/>
       <c r="I30" s="57"/>
       <c r="J30" s="58"/>
       <c r="K30" s="58"/>
-      <c r="L30" s="125"/>
-      <c r="M30" s="126"/>
+      <c r="L30" s="123"/>
+      <c r="M30" s="124"/>
       <c r="N30" s="81"/>
       <c r="O30" s="86"/>
       <c r="P30" s="55"/>
@@ -3670,21 +3670,21 @@
       <c r="B31" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="123" t="s">
+      <c r="C31" s="137" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="126"/>
+      <c r="D31" s="124"/>
       <c r="E31" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="F31" s="123"/>
-      <c r="G31" s="124"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="138"/>
       <c r="H31" s="86"/>
       <c r="I31" s="57"/>
       <c r="J31" s="58"/>
       <c r="K31" s="58"/>
-      <c r="L31" s="125"/>
-      <c r="M31" s="126"/>
+      <c r="L31" s="123"/>
+      <c r="M31" s="124"/>
       <c r="N31" s="81"/>
       <c r="O31" s="86"/>
       <c r="P31" s="55">
@@ -3707,23 +3707,23 @@
       <c r="B32" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="123" t="s">
+      <c r="C32" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="126"/>
+      <c r="D32" s="124"/>
       <c r="E32" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="F32" s="123"/>
-      <c r="G32" s="124"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="138"/>
       <c r="H32" s="86"/>
       <c r="I32" s="57">
         <v>120</v>
       </c>
       <c r="J32" s="58"/>
       <c r="K32" s="58"/>
-      <c r="L32" s="125"/>
-      <c r="M32" s="126"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="124"/>
       <c r="N32" s="81"/>
       <c r="O32" s="86">
         <v>144</v>
@@ -3750,17 +3750,17 @@
       <c r="B33" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="123" t="s">
+      <c r="C33" s="137" t="s">
         <v>127</v>
       </c>
-      <c r="D33" s="126"/>
+      <c r="D33" s="124"/>
       <c r="E33" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="F33" s="123">
+      <c r="F33" s="137">
         <v>720</v>
       </c>
-      <c r="G33" s="124"/>
+      <c r="G33" s="138"/>
       <c r="H33" s="86">
         <v>1440</v>
       </c>
@@ -3769,8 +3769,8 @@
       </c>
       <c r="J33" s="58"/>
       <c r="K33" s="58"/>
-      <c r="L33" s="125"/>
-      <c r="M33" s="126"/>
+      <c r="L33" s="123"/>
+      <c r="M33" s="124"/>
       <c r="N33" s="81">
         <v>480</v>
       </c>
@@ -3797,21 +3797,21 @@
       <c r="B34" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="123" t="s">
+      <c r="C34" s="137" t="s">
         <v>117</v>
       </c>
-      <c r="D34" s="126"/>
+      <c r="D34" s="124"/>
       <c r="E34" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="F34" s="123"/>
-      <c r="G34" s="124"/>
+      <c r="F34" s="137"/>
+      <c r="G34" s="138"/>
       <c r="H34" s="86"/>
       <c r="I34" s="57"/>
       <c r="J34" s="58"/>
       <c r="K34" s="58"/>
-      <c r="L34" s="125"/>
-      <c r="M34" s="126"/>
+      <c r="L34" s="123"/>
+      <c r="M34" s="124"/>
       <c r="N34" s="81"/>
       <c r="O34" s="86"/>
       <c r="P34" s="55">
@@ -3834,15 +3834,15 @@
       <c r="B35" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="123" t="s">
+      <c r="C35" s="137" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="126"/>
+      <c r="D35" s="124"/>
       <c r="E35" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="F35" s="123"/>
-      <c r="G35" s="124"/>
+      <c r="F35" s="137"/>
+      <c r="G35" s="138"/>
       <c r="H35" s="86"/>
       <c r="I35" s="57">
         <v>9750</v>
@@ -3851,8 +3851,8 @@
       <c r="K35" s="58">
         <v>330</v>
       </c>
-      <c r="L35" s="125"/>
-      <c r="M35" s="126"/>
+      <c r="L35" s="123"/>
+      <c r="M35" s="124"/>
       <c r="N35" s="81"/>
       <c r="O35" s="86">
         <v>120</v>
@@ -3879,21 +3879,21 @@
       <c r="B36" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="123" t="s">
+      <c r="C36" s="137" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="126"/>
+      <c r="D36" s="124"/>
       <c r="E36" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F36" s="123"/>
-      <c r="G36" s="124"/>
+      <c r="F36" s="137"/>
+      <c r="G36" s="138"/>
       <c r="H36" s="86"/>
       <c r="I36" s="57"/>
       <c r="J36" s="58"/>
       <c r="K36" s="58"/>
-      <c r="L36" s="125"/>
-      <c r="M36" s="126"/>
+      <c r="L36" s="123"/>
+      <c r="M36" s="124"/>
       <c r="N36" s="81"/>
       <c r="O36" s="86"/>
       <c r="P36" s="55"/>
@@ -3916,21 +3916,21 @@
       <c r="B37" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="123" t="s">
+      <c r="C37" s="137" t="s">
         <v>149</v>
       </c>
-      <c r="D37" s="126"/>
+      <c r="D37" s="124"/>
       <c r="E37" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="F37" s="123"/>
-      <c r="G37" s="124"/>
+      <c r="F37" s="137"/>
+      <c r="G37" s="138"/>
       <c r="H37" s="86"/>
       <c r="I37" s="57"/>
       <c r="J37" s="58"/>
       <c r="K37" s="58"/>
-      <c r="L37" s="125"/>
-      <c r="M37" s="126"/>
+      <c r="L37" s="123"/>
+      <c r="M37" s="124"/>
       <c r="N37" s="81"/>
       <c r="O37" s="86"/>
       <c r="P37" s="55">
@@ -3955,23 +3955,23 @@
       <c r="B38" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="123" t="s">
+      <c r="C38" s="137" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="126"/>
+      <c r="D38" s="124"/>
       <c r="E38" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="F38" s="123"/>
-      <c r="G38" s="124"/>
+      <c r="F38" s="137"/>
+      <c r="G38" s="138"/>
       <c r="H38" s="86"/>
       <c r="I38" s="57">
         <v>600</v>
       </c>
       <c r="J38" s="58"/>
       <c r="K38" s="58"/>
-      <c r="L38" s="125"/>
-      <c r="M38" s="126"/>
+      <c r="L38" s="123"/>
+      <c r="M38" s="124"/>
       <c r="N38" s="81">
         <v>480</v>
       </c>
@@ -3998,23 +3998,23 @@
       <c r="B39" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="127" t="s">
+      <c r="C39" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="128"/>
+      <c r="D39" s="136"/>
       <c r="E39" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="F39" s="123"/>
-      <c r="G39" s="124"/>
+      <c r="F39" s="137"/>
+      <c r="G39" s="138"/>
       <c r="H39" s="86">
         <v>120</v>
       </c>
       <c r="I39" s="57"/>
       <c r="J39" s="58"/>
       <c r="K39" s="58"/>
-      <c r="L39" s="125"/>
-      <c r="M39" s="126"/>
+      <c r="L39" s="123"/>
+      <c r="M39" s="124"/>
       <c r="N39" s="95"/>
       <c r="O39" s="86"/>
       <c r="P39" s="55"/>
@@ -4035,15 +4035,15 @@
       <c r="B40" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="127" t="s">
+      <c r="C40" s="135" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="128"/>
+      <c r="D40" s="136"/>
       <c r="E40" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="123"/>
-      <c r="G40" s="124"/>
+      <c r="F40" s="137"/>
+      <c r="G40" s="138"/>
       <c r="H40" s="86"/>
       <c r="I40" s="57">
         <v>6450</v>
@@ -4052,8 +4052,8 @@
       <c r="K40" s="58">
         <v>110</v>
       </c>
-      <c r="L40" s="125"/>
-      <c r="M40" s="126"/>
+      <c r="L40" s="123"/>
+      <c r="M40" s="124"/>
       <c r="N40" s="95">
         <v>240</v>
       </c>
@@ -4082,23 +4082,23 @@
       <c r="B41" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="127" t="s">
+      <c r="C41" s="135" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="128"/>
+      <c r="D41" s="136"/>
       <c r="E41" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F41" s="123"/>
-      <c r="G41" s="124"/>
+      <c r="F41" s="137"/>
+      <c r="G41" s="138"/>
       <c r="H41" s="86"/>
       <c r="I41" s="57">
         <v>1800</v>
       </c>
       <c r="J41" s="58"/>
       <c r="K41" s="58"/>
-      <c r="L41" s="125"/>
-      <c r="M41" s="126"/>
+      <c r="L41" s="123"/>
+      <c r="M41" s="124"/>
       <c r="N41" s="95">
         <v>240</v>
       </c>
@@ -4125,21 +4125,21 @@
       <c r="B42" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="C42" s="127" t="s">
+      <c r="C42" s="135" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="128"/>
+      <c r="D42" s="136"/>
       <c r="E42" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F42" s="123"/>
-      <c r="G42" s="124"/>
+      <c r="F42" s="137"/>
+      <c r="G42" s="138"/>
       <c r="H42" s="86"/>
       <c r="I42" s="57"/>
       <c r="J42" s="58"/>
       <c r="K42" s="58"/>
-      <c r="L42" s="125"/>
-      <c r="M42" s="126"/>
+      <c r="L42" s="123"/>
+      <c r="M42" s="124"/>
       <c r="N42" s="95">
         <v>600</v>
       </c>
@@ -4164,21 +4164,21 @@
       <c r="B43" s="97" t="s">
         <v>152</v>
       </c>
-      <c r="C43" s="127" t="s">
+      <c r="C43" s="135" t="s">
         <v>123</v>
       </c>
-      <c r="D43" s="128"/>
+      <c r="D43" s="136"/>
       <c r="E43" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F43" s="123"/>
-      <c r="G43" s="124"/>
+      <c r="F43" s="137"/>
+      <c r="G43" s="138"/>
       <c r="H43" s="86"/>
       <c r="I43" s="57"/>
       <c r="J43" s="58"/>
       <c r="K43" s="58"/>
-      <c r="L43" s="125"/>
-      <c r="M43" s="126"/>
+      <c r="L43" s="123"/>
+      <c r="M43" s="124"/>
       <c r="N43" s="95"/>
       <c r="O43" s="86"/>
       <c r="P43" s="55">
@@ -4201,21 +4201,21 @@
       <c r="B44" s="97" t="s">
         <v>153</v>
       </c>
-      <c r="C44" s="127" t="s">
+      <c r="C44" s="135" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="128"/>
+      <c r="D44" s="136"/>
       <c r="E44" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="F44" s="123"/>
-      <c r="G44" s="124"/>
+      <c r="F44" s="137"/>
+      <c r="G44" s="138"/>
       <c r="H44" s="86"/>
       <c r="I44" s="57"/>
       <c r="J44" s="58"/>
       <c r="K44" s="58"/>
-      <c r="L44" s="125"/>
-      <c r="M44" s="126"/>
+      <c r="L44" s="123"/>
+      <c r="M44" s="124"/>
       <c r="N44" s="95">
         <v>1200</v>
       </c>
@@ -4242,21 +4242,21 @@
       <c r="B45" s="97" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="127" t="s">
+      <c r="C45" s="135" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="128"/>
+      <c r="D45" s="136"/>
       <c r="E45" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F45" s="123"/>
-      <c r="G45" s="124"/>
+      <c r="F45" s="137"/>
+      <c r="G45" s="138"/>
       <c r="H45" s="86"/>
       <c r="I45" s="57"/>
       <c r="J45" s="58"/>
       <c r="K45" s="58"/>
-      <c r="L45" s="125"/>
-      <c r="M45" s="126"/>
+      <c r="L45" s="123"/>
+      <c r="M45" s="124"/>
       <c r="N45" s="95"/>
       <c r="O45" s="86"/>
       <c r="P45" s="55">
@@ -4281,15 +4281,15 @@
       <c r="B46" s="97" t="s">
         <v>155</v>
       </c>
-      <c r="C46" s="127" t="s">
+      <c r="C46" s="135" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="128"/>
+      <c r="D46" s="136"/>
       <c r="E46" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="F46" s="123"/>
-      <c r="G46" s="124"/>
+      <c r="F46" s="137"/>
+      <c r="G46" s="138"/>
       <c r="H46" s="86">
         <v>240</v>
       </c>
@@ -4298,10 +4298,10 @@
       </c>
       <c r="J46" s="58"/>
       <c r="K46" s="58"/>
-      <c r="L46" s="125">
+      <c r="L46" s="123">
         <v>110</v>
       </c>
-      <c r="M46" s="126"/>
+      <c r="M46" s="124"/>
       <c r="N46" s="98"/>
       <c r="O46" s="86"/>
       <c r="P46" s="55"/>
@@ -4322,21 +4322,21 @@
       <c r="B47" s="97" t="s">
         <v>156</v>
       </c>
-      <c r="C47" s="127" t="s">
+      <c r="C47" s="135" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="128"/>
+      <c r="D47" s="136"/>
       <c r="E47" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="F47" s="123"/>
-      <c r="G47" s="124"/>
+      <c r="F47" s="137"/>
+      <c r="G47" s="138"/>
       <c r="H47" s="86"/>
       <c r="I47" s="57"/>
       <c r="J47" s="58"/>
       <c r="K47" s="58"/>
-      <c r="L47" s="125"/>
-      <c r="M47" s="126"/>
+      <c r="L47" s="123"/>
+      <c r="M47" s="124"/>
       <c r="N47" s="98"/>
       <c r="O47" s="86"/>
       <c r="P47" s="55">
@@ -4359,15 +4359,15 @@
       <c r="B48" s="97" t="s">
         <v>157</v>
       </c>
-      <c r="C48" s="127" t="s">
+      <c r="C48" s="135" t="s">
         <v>127</v>
       </c>
-      <c r="D48" s="128"/>
+      <c r="D48" s="136"/>
       <c r="E48" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="F48" s="123"/>
-      <c r="G48" s="124"/>
+      <c r="F48" s="137"/>
+      <c r="G48" s="138"/>
       <c r="H48" s="86">
         <v>1200</v>
       </c>
@@ -4376,8 +4376,8 @@
         <v>240</v>
       </c>
       <c r="K48" s="58"/>
-      <c r="L48" s="125"/>
-      <c r="M48" s="126"/>
+      <c r="L48" s="123"/>
+      <c r="M48" s="124"/>
       <c r="N48" s="98">
         <v>1200</v>
       </c>
@@ -4406,21 +4406,21 @@
       <c r="B49" s="97" t="s">
         <v>162</v>
       </c>
-      <c r="C49" s="127" t="s">
+      <c r="C49" s="135" t="s">
         <v>172</v>
       </c>
-      <c r="D49" s="128"/>
+      <c r="D49" s="136"/>
       <c r="E49" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="F49" s="123"/>
-      <c r="G49" s="124"/>
+      <c r="F49" s="137"/>
+      <c r="G49" s="138"/>
       <c r="H49" s="86"/>
       <c r="I49" s="57"/>
       <c r="J49" s="58"/>
       <c r="K49" s="58"/>
-      <c r="L49" s="125"/>
-      <c r="M49" s="126"/>
+      <c r="L49" s="123"/>
+      <c r="M49" s="124"/>
       <c r="N49" s="98"/>
       <c r="O49" s="86"/>
       <c r="P49" s="55">
@@ -4443,21 +4443,21 @@
       <c r="B50" s="97" t="s">
         <v>163</v>
       </c>
-      <c r="C50" s="127" t="s">
+      <c r="C50" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="128"/>
+      <c r="D50" s="136"/>
       <c r="E50" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="F50" s="123"/>
-      <c r="G50" s="124"/>
+      <c r="F50" s="137"/>
+      <c r="G50" s="138"/>
       <c r="H50" s="86"/>
       <c r="I50" s="57"/>
       <c r="J50" s="58"/>
       <c r="K50" s="58"/>
-      <c r="L50" s="125"/>
-      <c r="M50" s="126"/>
+      <c r="L50" s="123"/>
+      <c r="M50" s="124"/>
       <c r="N50" s="98"/>
       <c r="O50" s="86"/>
       <c r="P50" s="55">
@@ -4480,21 +4480,21 @@
       <c r="B51" s="97" t="s">
         <v>164</v>
       </c>
-      <c r="C51" s="127" t="s">
+      <c r="C51" s="135" t="s">
         <v>175</v>
       </c>
-      <c r="D51" s="128"/>
+      <c r="D51" s="136"/>
       <c r="E51" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="F51" s="123"/>
-      <c r="G51" s="124"/>
+      <c r="F51" s="137"/>
+      <c r="G51" s="138"/>
       <c r="H51" s="86"/>
       <c r="I51" s="57"/>
       <c r="J51" s="58"/>
       <c r="K51" s="58"/>
-      <c r="L51" s="125"/>
-      <c r="M51" s="126"/>
+      <c r="L51" s="123"/>
+      <c r="M51" s="124"/>
       <c r="N51" s="98"/>
       <c r="O51" s="86"/>
       <c r="P51" s="55">
@@ -4517,15 +4517,15 @@
       <c r="B52" s="97" t="s">
         <v>165</v>
       </c>
-      <c r="C52" s="127" t="s">
+      <c r="C52" s="135" t="s">
         <v>127</v>
       </c>
-      <c r="D52" s="128"/>
+      <c r="D52" s="136"/>
       <c r="E52" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="F52" s="123"/>
-      <c r="G52" s="124"/>
+      <c r="F52" s="137"/>
+      <c r="G52" s="138"/>
       <c r="H52" s="86">
         <v>960</v>
       </c>
@@ -4536,10 +4536,10 @@
       <c r="K52" s="58">
         <v>660</v>
       </c>
-      <c r="L52" s="125">
+      <c r="L52" s="123">
         <v>330</v>
       </c>
-      <c r="M52" s="126"/>
+      <c r="M52" s="124"/>
       <c r="N52" s="98">
         <v>360</v>
       </c>
@@ -4568,23 +4568,23 @@
       <c r="B53" s="97" t="s">
         <v>166</v>
       </c>
-      <c r="C53" s="127" t="s">
+      <c r="C53" s="135" t="s">
         <v>120</v>
       </c>
-      <c r="D53" s="128"/>
+      <c r="D53" s="136"/>
       <c r="E53" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F53" s="123"/>
-      <c r="G53" s="124"/>
+      <c r="F53" s="137"/>
+      <c r="G53" s="138"/>
       <c r="H53" s="86"/>
       <c r="I53" s="57">
         <v>1800</v>
       </c>
       <c r="J53" s="58"/>
       <c r="K53" s="58"/>
-      <c r="L53" s="125"/>
-      <c r="M53" s="126"/>
+      <c r="L53" s="123"/>
+      <c r="M53" s="124"/>
       <c r="N53" s="98">
         <v>720</v>
       </c>
@@ -4611,23 +4611,23 @@
       <c r="B54" s="97" t="s">
         <v>167</v>
       </c>
-      <c r="C54" s="127" t="s">
+      <c r="C54" s="135" t="s">
         <v>123</v>
       </c>
-      <c r="D54" s="128"/>
+      <c r="D54" s="136"/>
       <c r="E54" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F54" s="123"/>
-      <c r="G54" s="124"/>
+      <c r="F54" s="137"/>
+      <c r="G54" s="138"/>
       <c r="H54" s="86"/>
       <c r="I54" s="57">
         <v>600</v>
       </c>
       <c r="J54" s="58"/>
       <c r="K54" s="58"/>
-      <c r="L54" s="125"/>
-      <c r="M54" s="126"/>
+      <c r="L54" s="123"/>
+      <c r="M54" s="124"/>
       <c r="N54" s="98"/>
       <c r="O54" s="86"/>
       <c r="P54" s="55">
@@ -4650,21 +4650,21 @@
       <c r="B55" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="C55" s="127" t="s">
+      <c r="C55" s="135" t="s">
         <v>122</v>
       </c>
-      <c r="D55" s="128"/>
+      <c r="D55" s="136"/>
       <c r="E55" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F55" s="123"/>
-      <c r="G55" s="124"/>
+      <c r="F55" s="137"/>
+      <c r="G55" s="138"/>
       <c r="H55" s="86"/>
       <c r="I55" s="57"/>
       <c r="J55" s="58"/>
       <c r="K55" s="58"/>
-      <c r="L55" s="125"/>
-      <c r="M55" s="126"/>
+      <c r="L55" s="123"/>
+      <c r="M55" s="124"/>
       <c r="N55" s="98">
         <v>480</v>
       </c>
@@ -4685,18 +4685,18 @@
       </c>
     </row>
     <row r="56" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A56" s="164" t="s">
+      <c r="A56" s="170" t="s">
         <v>16</v>
       </c>
-      <c r="B56" s="165"/>
-      <c r="C56" s="165"/>
+      <c r="B56" s="171"/>
+      <c r="C56" s="171"/>
       <c r="D56" s="62"/>
       <c r="E56" s="60"/>
-      <c r="F56" s="166">
+      <c r="F56" s="131">
         <f>SUM(F5:G55)</f>
         <v>768</v>
       </c>
-      <c r="G56" s="167"/>
+      <c r="G56" s="133"/>
       <c r="H56" s="34">
         <f>SUM(H5:H55)</f>
         <v>5712</v>
@@ -4713,11 +4713,11 @@
         <f>SUM(K5:K55)</f>
         <v>2442</v>
       </c>
-      <c r="L56" s="168">
+      <c r="L56" s="134">
         <f>SUM(L5:M55)</f>
         <v>440</v>
       </c>
-      <c r="M56" s="169"/>
+      <c r="M56" s="132"/>
       <c r="N56" s="77">
         <f t="shared" ref="N56:T56" si="1">SUM(N5:N55)</f>
         <v>10440</v>
@@ -4751,16 +4751,16 @@
       <c r="X56" s="13"/>
     </row>
     <row r="57" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A57" s="164"/>
-      <c r="B57" s="165"/>
-      <c r="C57" s="165"/>
+      <c r="A57" s="170"/>
+      <c r="B57" s="171"/>
+      <c r="C57" s="171"/>
       <c r="D57" s="62"/>
       <c r="E57" s="60"/>
-      <c r="F57" s="166">
+      <c r="F57" s="131">
         <f>F4+F56</f>
         <v>768</v>
       </c>
-      <c r="G57" s="167"/>
+      <c r="G57" s="133"/>
       <c r="H57" s="34">
         <f>H4+H56</f>
         <v>5712</v>
@@ -4777,11 +4777,11 @@
         <f>K4+K56</f>
         <v>2442</v>
       </c>
-      <c r="L57" s="168">
+      <c r="L57" s="134">
         <f>L4+L56</f>
         <v>440</v>
       </c>
-      <c r="M57" s="169"/>
+      <c r="M57" s="132"/>
       <c r="N57" s="77">
         <f t="shared" ref="N57:T57" si="2">N4+N56</f>
         <v>10440</v>
@@ -4817,63 +4817,63 @@
       <c r="V58" s="13"/>
     </row>
     <row r="59" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A59" s="170" t="s">
+      <c r="A59" s="172" t="s">
         <v>161</v>
       </c>
-      <c r="B59" s="171"/>
-      <c r="C59" s="171"/>
-      <c r="D59" s="171"/>
-      <c r="E59" s="171"/>
-      <c r="F59" s="171"/>
-      <c r="G59" s="171"/>
-      <c r="H59" s="171"/>
-      <c r="I59" s="171"/>
-      <c r="J59" s="171"/>
-      <c r="K59" s="171"/>
-      <c r="L59" s="171"/>
-      <c r="M59" s="171"/>
-      <c r="N59" s="171"/>
-      <c r="O59" s="171"/>
-      <c r="P59" s="171"/>
-      <c r="Q59" s="172"/>
+      <c r="B59" s="173"/>
+      <c r="C59" s="173"/>
+      <c r="D59" s="173"/>
+      <c r="E59" s="173"/>
+      <c r="F59" s="173"/>
+      <c r="G59" s="173"/>
+      <c r="H59" s="173"/>
+      <c r="I59" s="173"/>
+      <c r="J59" s="173"/>
+      <c r="K59" s="173"/>
+      <c r="L59" s="173"/>
+      <c r="M59" s="173"/>
+      <c r="N59" s="173"/>
+      <c r="O59" s="173"/>
+      <c r="P59" s="173"/>
+      <c r="Q59" s="174"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="28"/>
     </row>
     <row r="60" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A60" s="129" t="s">
+      <c r="A60" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="B60" s="130"/>
-      <c r="C60" s="173" t="s">
+      <c r="B60" s="176"/>
+      <c r="C60" s="179" t="s">
         <v>33</v>
       </c>
-      <c r="D60" s="173" t="s">
+      <c r="D60" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="176" t="s">
+      <c r="E60" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="F60" s="129" t="s">
+      <c r="F60" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="G60" s="130"/>
-      <c r="H60" s="178" t="s">
+      <c r="G60" s="176"/>
+      <c r="H60" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="I60" s="179"/>
-      <c r="J60" s="180"/>
-      <c r="K60" s="181" t="s">
+      <c r="I60" s="185"/>
+      <c r="J60" s="186"/>
+      <c r="K60" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="L60" s="182"/>
-      <c r="M60" s="182"/>
-      <c r="N60" s="182"/>
-      <c r="O60" s="183"/>
-      <c r="P60" s="173" t="s">
+      <c r="L60" s="188"/>
+      <c r="M60" s="188"/>
+      <c r="N60" s="188"/>
+      <c r="O60" s="189"/>
+      <c r="P60" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="Q60" s="184" t="s">
+      <c r="Q60" s="190" t="s">
         <v>38</v>
       </c>
       <c r="R60" s="1"/>
@@ -4881,13 +4881,13 @@
       <c r="T60" s="28"/>
     </row>
     <row r="61" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A61" s="131"/>
-      <c r="B61" s="132"/>
-      <c r="C61" s="174"/>
-      <c r="D61" s="175"/>
-      <c r="E61" s="177"/>
-      <c r="F61" s="131"/>
-      <c r="G61" s="132"/>
+      <c r="A61" s="177"/>
+      <c r="B61" s="178"/>
+      <c r="C61" s="180"/>
+      <c r="D61" s="181"/>
+      <c r="E61" s="183"/>
+      <c r="F61" s="177"/>
+      <c r="G61" s="178"/>
       <c r="H61" s="70" t="s">
         <v>49</v>
       </c>
@@ -4900,25 +4900,25 @@
       <c r="K61" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="L61" s="181" t="s">
+      <c r="L61" s="187" t="s">
         <v>47</v>
       </c>
-      <c r="M61" s="183"/>
+      <c r="M61" s="189"/>
       <c r="N61" s="70" t="s">
         <v>46</v>
       </c>
       <c r="O61" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="P61" s="175"/>
-      <c r="Q61" s="185"/>
+      <c r="P61" s="181"/>
+      <c r="Q61" s="191"/>
       <c r="T61" s="28"/>
     </row>
     <row r="62" spans="1:24" ht="15" customHeight="1">
-      <c r="A62" s="129" t="s">
+      <c r="A62" s="175" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="130"/>
+      <c r="B62" s="176"/>
       <c r="C62" s="66" t="s">
         <v>28</v>
       </c>
@@ -4926,14 +4926,14 @@
       <c r="E62" s="4">
         <v>720</v>
       </c>
-      <c r="F62" s="133"/>
-      <c r="G62" s="133"/>
+      <c r="F62" s="197"/>
+      <c r="G62" s="197"/>
       <c r="H62" s="4"/>
       <c r="I62" s="67"/>
       <c r="J62" s="4"/>
       <c r="K62" s="67"/>
-      <c r="L62" s="134"/>
-      <c r="M62" s="135"/>
+      <c r="L62" s="198"/>
+      <c r="M62" s="199"/>
       <c r="N62" s="67"/>
       <c r="O62" s="4">
         <v>48</v>
@@ -4950,8 +4950,8 @@
       </c>
     </row>
     <row r="63" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A63" s="131"/>
-      <c r="B63" s="132"/>
+      <c r="A63" s="177"/>
+      <c r="B63" s="178"/>
       <c r="C63" s="74" t="s">
         <v>29</v>
       </c>
@@ -4959,16 +4959,16 @@
       <c r="E63" s="14">
         <v>2640</v>
       </c>
-      <c r="F63" s="136">
+      <c r="F63" s="204">
         <v>2160</v>
       </c>
-      <c r="G63" s="136"/>
+      <c r="G63" s="204"/>
       <c r="H63" s="14"/>
       <c r="I63" s="71"/>
       <c r="J63" s="14"/>
       <c r="K63" s="71"/>
-      <c r="L63" s="137"/>
-      <c r="M63" s="138"/>
+      <c r="L63" s="205"/>
+      <c r="M63" s="206"/>
       <c r="N63" s="71"/>
       <c r="O63" s="14">
         <v>672</v>
@@ -4987,10 +4987,10 @@
       </c>
     </row>
     <row r="64" spans="1:24">
-      <c r="A64" s="129" t="s">
+      <c r="A64" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="B64" s="130"/>
+      <c r="B64" s="176"/>
       <c r="C64" s="4" t="s">
         <v>30</v>
       </c>
@@ -5000,10 +5000,10 @@
       <c r="E64" s="4">
         <v>600</v>
       </c>
-      <c r="F64" s="133">
+      <c r="F64" s="197">
         <v>1650</v>
       </c>
-      <c r="G64" s="133"/>
+      <c r="G64" s="197"/>
       <c r="H64" s="4"/>
       <c r="I64" s="67">
         <v>3600</v>
@@ -5012,10 +5012,10 @@
         <v>1200</v>
       </c>
       <c r="K64" s="67"/>
-      <c r="L64" s="134">
+      <c r="L64" s="198">
         <v>120</v>
       </c>
-      <c r="M64" s="135"/>
+      <c r="M64" s="199"/>
       <c r="N64" s="67"/>
       <c r="O64" s="4">
         <v>210</v>
@@ -5034,8 +5034,8 @@
       </c>
     </row>
     <row r="65" spans="1:22">
-      <c r="A65" s="144"/>
-      <c r="B65" s="145"/>
+      <c r="A65" s="212"/>
+      <c r="B65" s="213"/>
       <c r="C65" s="5" t="s">
         <v>32</v>
       </c>
@@ -5045,14 +5045,14 @@
       <c r="E65" s="5">
         <v>240</v>
       </c>
-      <c r="F65" s="149"/>
-      <c r="G65" s="149"/>
+      <c r="F65" s="217"/>
+      <c r="G65" s="217"/>
       <c r="H65" s="5"/>
       <c r="I65" s="69"/>
       <c r="J65" s="5"/>
       <c r="K65" s="69"/>
-      <c r="L65" s="150"/>
-      <c r="M65" s="151"/>
+      <c r="L65" s="218"/>
+      <c r="M65" s="219"/>
       <c r="N65" s="69"/>
       <c r="O65" s="5"/>
       <c r="P65" s="69"/>
@@ -5067,8 +5067,8 @@
       </c>
     </row>
     <row r="66" spans="1:22">
-      <c r="A66" s="144"/>
-      <c r="B66" s="145"/>
+      <c r="A66" s="212"/>
+      <c r="B66" s="213"/>
       <c r="C66" s="5" t="s">
         <v>43</v>
       </c>
@@ -5076,16 +5076,16 @@
         <v>880</v>
       </c>
       <c r="E66" s="5"/>
-      <c r="F66" s="149">
+      <c r="F66" s="217">
         <v>1320</v>
       </c>
-      <c r="G66" s="149"/>
+      <c r="G66" s="217"/>
       <c r="H66" s="5"/>
       <c r="I66" s="69"/>
       <c r="J66" s="5"/>
       <c r="K66" s="69"/>
-      <c r="L66" s="150"/>
-      <c r="M66" s="151"/>
+      <c r="L66" s="218"/>
+      <c r="M66" s="219"/>
       <c r="N66" s="69"/>
       <c r="O66" s="5">
         <v>22</v>
@@ -5104,23 +5104,23 @@
       </c>
     </row>
     <row r="67" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A67" s="131"/>
-      <c r="B67" s="132"/>
+      <c r="A67" s="177"/>
+      <c r="B67" s="178"/>
       <c r="C67" s="65" t="s">
         <v>44</v>
       </c>
       <c r="D67" s="73"/>
       <c r="E67" s="15"/>
-      <c r="F67" s="157">
+      <c r="F67" s="167">
         <v>330</v>
       </c>
-      <c r="G67" s="157"/>
+      <c r="G67" s="167"/>
       <c r="H67" s="15"/>
       <c r="I67" s="72"/>
       <c r="J67" s="15"/>
       <c r="K67" s="72"/>
-      <c r="L67" s="158"/>
-      <c r="M67" s="159"/>
+      <c r="L67" s="168"/>
+      <c r="M67" s="169"/>
       <c r="N67" s="72"/>
       <c r="O67" s="15"/>
       <c r="P67" s="72">
@@ -5137,10 +5137,10 @@
       </c>
     </row>
     <row r="68" spans="1:22">
-      <c r="A68" s="129" t="s">
+      <c r="A68" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="B68" s="130"/>
+      <c r="B68" s="176"/>
       <c r="C68" s="76" t="s">
         <v>28</v>
       </c>
@@ -5150,10 +5150,10 @@
       <c r="E68" s="16">
         <v>1680</v>
       </c>
-      <c r="F68" s="146">
+      <c r="F68" s="214">
         <v>360</v>
       </c>
-      <c r="G68" s="146"/>
+      <c r="G68" s="214"/>
       <c r="H68" s="16">
         <v>1680</v>
       </c>
@@ -5162,8 +5162,8 @@
       </c>
       <c r="J68" s="16"/>
       <c r="K68" s="75"/>
-      <c r="L68" s="147"/>
-      <c r="M68" s="148"/>
+      <c r="L68" s="215"/>
+      <c r="M68" s="216"/>
       <c r="N68" s="75"/>
       <c r="O68" s="16"/>
       <c r="P68" s="75">
@@ -5180,8 +5180,8 @@
       </c>
     </row>
     <row r="69" spans="1:22">
-      <c r="A69" s="144"/>
-      <c r="B69" s="145"/>
+      <c r="A69" s="212"/>
+      <c r="B69" s="213"/>
       <c r="C69" s="68" t="s">
         <v>31</v>
       </c>
@@ -5191,10 +5191,10 @@
       <c r="E69" s="5">
         <v>1440</v>
       </c>
-      <c r="F69" s="149">
+      <c r="F69" s="217">
         <v>240</v>
       </c>
-      <c r="G69" s="149"/>
+      <c r="G69" s="217"/>
       <c r="H69" s="5">
         <v>720</v>
       </c>
@@ -5203,10 +5203,10 @@
       </c>
       <c r="J69" s="5"/>
       <c r="K69" s="69"/>
-      <c r="L69" s="150">
+      <c r="L69" s="218">
         <v>144</v>
       </c>
-      <c r="M69" s="151"/>
+      <c r="M69" s="219"/>
       <c r="N69" s="69"/>
       <c r="O69" s="5"/>
       <c r="P69" s="69">
@@ -5223,8 +5223,8 @@
       </c>
     </row>
     <row r="70" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A70" s="131"/>
-      <c r="B70" s="132"/>
+      <c r="A70" s="177"/>
+      <c r="B70" s="178"/>
       <c r="C70" s="65" t="s">
         <v>29</v>
       </c>
@@ -5234,10 +5234,10 @@
       <c r="E70" s="14">
         <v>8400</v>
       </c>
-      <c r="F70" s="136">
+      <c r="F70" s="204">
         <v>5520</v>
       </c>
-      <c r="G70" s="136"/>
+      <c r="G70" s="204"/>
       <c r="H70" s="14">
         <v>2520</v>
       </c>
@@ -5248,10 +5248,10 @@
         <v>4920</v>
       </c>
       <c r="K70" s="71"/>
-      <c r="L70" s="137">
+      <c r="L70" s="205">
         <v>720</v>
       </c>
-      <c r="M70" s="138"/>
+      <c r="M70" s="206"/>
       <c r="N70" s="71"/>
       <c r="O70" s="14">
         <v>3648</v>
@@ -5270,10 +5270,10 @@
       </c>
     </row>
     <row r="71" spans="1:22">
-      <c r="A71" s="129" t="s">
+      <c r="A71" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="B71" s="130"/>
+      <c r="B71" s="176"/>
       <c r="C71" s="66" t="s">
         <v>31</v>
       </c>
@@ -5283,18 +5283,18 @@
       <c r="E71" s="4">
         <v>240</v>
       </c>
-      <c r="F71" s="133">
+      <c r="F71" s="197">
         <v>360</v>
       </c>
-      <c r="G71" s="133"/>
+      <c r="G71" s="197"/>
       <c r="H71" s="4"/>
       <c r="I71" s="67"/>
       <c r="J71" s="4"/>
       <c r="K71" s="67"/>
-      <c r="L71" s="134">
+      <c r="L71" s="198">
         <v>120</v>
       </c>
-      <c r="M71" s="135"/>
+      <c r="M71" s="199"/>
       <c r="N71" s="67"/>
       <c r="O71" s="4">
         <v>672</v>
@@ -5313,8 +5313,8 @@
       </c>
     </row>
     <row r="72" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A72" s="131"/>
-      <c r="B72" s="132"/>
+      <c r="A72" s="177"/>
+      <c r="B72" s="178"/>
       <c r="C72" s="65" t="s">
         <v>29</v>
       </c>
@@ -5322,14 +5322,14 @@
         <v>900</v>
       </c>
       <c r="E72" s="15"/>
-      <c r="F72" s="157"/>
-      <c r="G72" s="157"/>
+      <c r="F72" s="167"/>
+      <c r="G72" s="167"/>
       <c r="H72" s="15"/>
       <c r="I72" s="72"/>
       <c r="J72" s="15"/>
       <c r="K72" s="72"/>
-      <c r="L72" s="158"/>
-      <c r="M72" s="159"/>
+      <c r="L72" s="168"/>
+      <c r="M72" s="169"/>
       <c r="N72" s="72"/>
       <c r="O72" s="15"/>
       <c r="P72" s="72"/>
@@ -5344,11 +5344,11 @@
       </c>
     </row>
     <row r="73" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A73" s="160" t="s">
+      <c r="A73" s="200" t="s">
         <v>37</v>
       </c>
-      <c r="B73" s="161"/>
-      <c r="C73" s="161"/>
+      <c r="B73" s="201"/>
+      <c r="C73" s="201"/>
       <c r="D73" s="23">
         <f>SUM(D62:D72)</f>
         <v>40630</v>
@@ -5357,11 +5357,11 @@
         <f t="shared" ref="E73" si="4">SUM(E62:E72)</f>
         <v>15960</v>
       </c>
-      <c r="F73" s="162">
+      <c r="F73" s="202">
         <f>SUM(F62:G72)</f>
         <v>11940</v>
       </c>
-      <c r="G73" s="163"/>
+      <c r="G73" s="203"/>
       <c r="H73" s="23">
         <f>SUM(H62:H72)</f>
         <v>4920</v>
@@ -5378,11 +5378,11 @@
         <f>SUM(K62:K72)</f>
         <v>0</v>
       </c>
-      <c r="L73" s="162">
+      <c r="L73" s="202">
         <f>SUM(L62:M72)</f>
         <v>1104</v>
       </c>
-      <c r="M73" s="163"/>
+      <c r="M73" s="203"/>
       <c r="N73" s="23">
         <f>SUM(N62:N72)</f>
         <v>0</v>
@@ -5408,47 +5408,47 @@
       </c>
     </row>
     <row r="74" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A74" s="139" t="s">
+      <c r="A74" s="207" t="s">
         <v>36</v>
       </c>
-      <c r="B74" s="140"/>
-      <c r="C74" s="140"/>
-      <c r="D74" s="141">
+      <c r="B74" s="208"/>
+      <c r="C74" s="208"/>
+      <c r="D74" s="209">
         <f>D73+E73+F73+H73+I73+J73+K73+L73+N73+O73+P73</f>
         <v>122966</v>
       </c>
-      <c r="E74" s="142"/>
-      <c r="F74" s="142"/>
-      <c r="G74" s="142"/>
-      <c r="H74" s="142"/>
-      <c r="I74" s="142"/>
-      <c r="J74" s="142"/>
-      <c r="K74" s="142"/>
-      <c r="L74" s="142"/>
-      <c r="M74" s="142"/>
-      <c r="N74" s="142"/>
-      <c r="O74" s="142"/>
-      <c r="P74" s="142"/>
-      <c r="Q74" s="143"/>
+      <c r="E74" s="210"/>
+      <c r="F74" s="210"/>
+      <c r="G74" s="210"/>
+      <c r="H74" s="210"/>
+      <c r="I74" s="210"/>
+      <c r="J74" s="210"/>
+      <c r="K74" s="210"/>
+      <c r="L74" s="210"/>
+      <c r="M74" s="210"/>
+      <c r="N74" s="210"/>
+      <c r="O74" s="210"/>
+      <c r="P74" s="210"/>
+      <c r="Q74" s="211"/>
       <c r="T74" s="28"/>
       <c r="V74" s="13"/>
     </row>
     <row r="75" spans="1:22" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A75" s="152" t="s">
+      <c r="A75" s="192" t="s">
         <v>26</v>
       </c>
-      <c r="B75" s="153"/>
-      <c r="C75" s="153"/>
+      <c r="B75" s="193"/>
+      <c r="C75" s="193"/>
       <c r="D75" s="25">
         <v>12859514</v>
       </c>
       <c r="E75" s="22">
         <v>5003124</v>
       </c>
-      <c r="F75" s="154">
+      <c r="F75" s="194">
         <v>3781158</v>
       </c>
-      <c r="G75" s="155"/>
+      <c r="G75" s="195"/>
       <c r="H75" s="22">
         <v>1562741</v>
       </c>
@@ -5459,10 +5459,10 @@
         <v>1941728</v>
       </c>
       <c r="K75" s="22"/>
-      <c r="L75" s="156">
+      <c r="L75" s="196">
         <v>357629</v>
       </c>
-      <c r="M75" s="155"/>
+      <c r="M75" s="195"/>
       <c r="N75" s="26"/>
       <c r="O75" s="22">
         <v>1792633</v>
@@ -5499,6 +5499,202 @@
     <filterColumn colId="16" showButton="0"/>
   </autoFilter>
   <mergeCells count="220">
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="A62:B63"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="D74:Q74"/>
+    <mergeCell ref="A68:B70"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="A64:B67"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="A71:B72"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="A59:Q59"/>
+    <mergeCell ref="A60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:G61"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="K60:O60"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="L44:M44"/>
@@ -5523,215 +5719,19 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="A59:Q59"/>
-    <mergeCell ref="A60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:G61"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="K60:O60"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="A71:B72"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="A62:B63"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="D74:Q74"/>
-    <mergeCell ref="A68:B70"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="A64:B67"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="F50:G50"/>
   </mergeCells>
   <pageMargins left="0.16" right="0.16" top="0.34" bottom="0.16" header="0.23" footer="0.16"/>
-  <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X50"/>
+  <dimension ref="A1:X49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W35" sqref="W35"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5761,81 +5761,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="16.5" thickBot="1">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="147" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="187"/>
-      <c r="O1" s="187"/>
-      <c r="P1" s="187"/>
-      <c r="Q1" s="187"/>
-      <c r="R1" s="187"/>
-      <c r="S1" s="187"/>
-      <c r="T1" s="188"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="149"/>
     </row>
     <row r="2" spans="1:20" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="193" t="s">
+      <c r="C2" s="154" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="194"/>
-      <c r="E2" s="197" t="s">
+      <c r="D2" s="155"/>
+      <c r="E2" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="199" t="s">
+      <c r="F2" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="191"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="201" t="s">
+      <c r="G2" s="152"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="201" t="s">
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="202"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="204" t="s">
+      <c r="O2" s="163"/>
+      <c r="P2" s="161"/>
+      <c r="Q2" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="205"/>
-      <c r="S2" s="191" t="s">
+      <c r="R2" s="166"/>
+      <c r="S2" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="206" t="s">
+      <c r="T2" s="125" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="6" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A3" s="190"/>
-      <c r="B3" s="192"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="208" t="s">
+      <c r="A3" s="151"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="209"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="9" t="s">
         <v>4</v>
       </c>
@@ -5848,10 +5848,10 @@
       <c r="K3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="210" t="s">
+      <c r="L3" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="211"/>
+      <c r="M3" s="130"/>
       <c r="N3" s="8" t="s">
         <v>21</v>
       </c>
@@ -5867,21 +5867,21 @@
       <c r="R3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="192"/>
-      <c r="T3" s="207"/>
+      <c r="S3" s="153"/>
+      <c r="T3" s="126"/>
     </row>
     <row r="4" spans="1:20" s="18" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="114" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="30"/>
-      <c r="C4" s="166"/>
-      <c r="D4" s="169"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="132"/>
       <c r="E4" s="31"/>
-      <c r="F4" s="166">
+      <c r="F4" s="131">
         <v>768</v>
       </c>
-      <c r="G4" s="167"/>
+      <c r="G4" s="133"/>
       <c r="H4" s="116">
         <v>5712</v>
       </c>
@@ -5894,10 +5894,10 @@
       <c r="K4" s="116">
         <v>2442</v>
       </c>
-      <c r="L4" s="168">
+      <c r="L4" s="134">
         <v>440</v>
       </c>
-      <c r="M4" s="169"/>
+      <c r="M4" s="132"/>
       <c r="N4" s="115">
         <v>10440</v>
       </c>
@@ -5928,30 +5928,30 @@
       <c r="B5" s="38">
         <v>52</v>
       </c>
-      <c r="C5" s="214" t="s">
+      <c r="C5" s="141" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="217"/>
+      <c r="D5" s="144"/>
       <c r="E5" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="123"/>
-      <c r="G5" s="124"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="138"/>
       <c r="H5" s="102"/>
       <c r="I5" s="46">
         <v>90</v>
       </c>
       <c r="J5" s="47"/>
       <c r="K5" s="47"/>
-      <c r="L5" s="218"/>
-      <c r="M5" s="219"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="146"/>
       <c r="N5" s="48"/>
       <c r="O5" s="102"/>
       <c r="P5" s="49"/>
       <c r="Q5" s="46"/>
       <c r="R5" s="50"/>
       <c r="S5" s="43">
-        <f t="shared" ref="S5:S29" si="0">SUM(F5:R5)</f>
+        <f t="shared" ref="S5:S28" si="0">SUM(F5:R5)</f>
         <v>90</v>
       </c>
       <c r="T5" s="51">
@@ -5965,21 +5965,21 @@
       <c r="B6" s="38">
         <v>53</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="135" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="128"/>
+      <c r="D6" s="136"/>
       <c r="E6" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="123"/>
-      <c r="G6" s="124"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="138"/>
       <c r="H6" s="102"/>
       <c r="I6" s="48"/>
       <c r="J6" s="52"/>
       <c r="K6" s="52"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="126"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="124"/>
       <c r="N6" s="48">
         <v>960</v>
       </c>
@@ -6006,23 +6006,23 @@
       <c r="B7" s="38">
         <v>54</v>
       </c>
-      <c r="C7" s="127" t="s">
+      <c r="C7" s="135" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="128"/>
+      <c r="D7" s="136"/>
       <c r="E7" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="123"/>
-      <c r="G7" s="124"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="138"/>
       <c r="H7" s="102">
         <v>48</v>
       </c>
       <c r="I7" s="48"/>
       <c r="J7" s="52"/>
       <c r="K7" s="52"/>
-      <c r="L7" s="125"/>
-      <c r="M7" s="126"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="124"/>
       <c r="N7" s="48"/>
       <c r="O7" s="102"/>
       <c r="P7" s="49"/>
@@ -6043,21 +6043,21 @@
       <c r="B8" s="38">
         <v>55</v>
       </c>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="137" t="s">
         <v>149</v>
       </c>
-      <c r="D8" s="126"/>
+      <c r="D8" s="124"/>
       <c r="E8" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="123"/>
-      <c r="G8" s="124"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="138"/>
       <c r="H8" s="102"/>
       <c r="I8" s="48"/>
       <c r="J8" s="52"/>
       <c r="K8" s="52"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="126"/>
+      <c r="L8" s="123"/>
+      <c r="M8" s="124"/>
       <c r="N8" s="48"/>
       <c r="O8" s="102"/>
       <c r="P8" s="49">
@@ -6080,21 +6080,21 @@
       <c r="B9" s="38">
         <v>56</v>
       </c>
-      <c r="C9" s="127" t="s">
+      <c r="C9" s="135" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="128"/>
+      <c r="D9" s="136"/>
       <c r="E9" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="123"/>
-      <c r="G9" s="124"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="138"/>
       <c r="H9" s="102"/>
       <c r="I9" s="48"/>
       <c r="J9" s="52"/>
       <c r="K9" s="52"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="126"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="124"/>
       <c r="N9" s="48"/>
       <c r="O9" s="102"/>
       <c r="P9" s="49"/>
@@ -6117,23 +6117,23 @@
       <c r="B10" s="38">
         <v>57</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="135" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="128"/>
+      <c r="D10" s="136"/>
       <c r="E10" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F10" s="123"/>
-      <c r="G10" s="124"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="138"/>
       <c r="H10" s="102"/>
       <c r="I10" s="48">
         <v>750</v>
       </c>
       <c r="J10" s="52"/>
       <c r="K10" s="52"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="126"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="124"/>
       <c r="N10" s="48">
         <v>600</v>
       </c>
@@ -6160,21 +6160,21 @@
       <c r="B11" s="38">
         <v>58</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="135" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="128"/>
+      <c r="D11" s="136"/>
       <c r="E11" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F11" s="123"/>
-      <c r="G11" s="124"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="138"/>
       <c r="H11" s="102"/>
       <c r="I11" s="48"/>
       <c r="J11" s="52"/>
       <c r="K11" s="52"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="126"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="124"/>
       <c r="N11" s="48">
         <v>960</v>
       </c>
@@ -6201,23 +6201,23 @@
       <c r="B12" s="38">
         <v>59</v>
       </c>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="135" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="128"/>
+      <c r="D12" s="136"/>
       <c r="E12" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="123"/>
-      <c r="G12" s="124"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="138"/>
       <c r="H12" s="102"/>
       <c r="I12" s="48">
         <v>450</v>
       </c>
       <c r="J12" s="52"/>
       <c r="K12" s="52"/>
-      <c r="L12" s="125"/>
-      <c r="M12" s="126"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="124"/>
       <c r="N12" s="48"/>
       <c r="O12" s="102"/>
       <c r="P12" s="49">
@@ -6240,21 +6240,21 @@
       <c r="B13" s="38">
         <v>60</v>
       </c>
-      <c r="C13" s="127" t="s">
+      <c r="C13" s="135" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="128"/>
+      <c r="D13" s="136"/>
       <c r="E13" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="138"/>
       <c r="H13" s="102"/>
       <c r="I13" s="48"/>
       <c r="J13" s="52"/>
       <c r="K13" s="52"/>
-      <c r="L13" s="125"/>
-      <c r="M13" s="126"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="124"/>
       <c r="N13" s="48"/>
       <c r="O13" s="102"/>
       <c r="P13" s="49"/>
@@ -6277,23 +6277,23 @@
       <c r="B14" s="38">
         <v>61</v>
       </c>
-      <c r="C14" s="127" t="s">
+      <c r="C14" s="135" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="128"/>
+      <c r="D14" s="136"/>
       <c r="E14" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="138"/>
       <c r="H14" s="102"/>
       <c r="I14" s="48">
         <v>6450</v>
       </c>
       <c r="J14" s="52"/>
       <c r="K14" s="52"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="126"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="124"/>
       <c r="N14" s="101"/>
       <c r="O14" s="102"/>
       <c r="P14" s="49"/>
@@ -6316,17 +6316,17 @@
       <c r="B15" s="38">
         <v>62</v>
       </c>
-      <c r="C15" s="127" t="s">
+      <c r="C15" s="135" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="128"/>
+      <c r="D15" s="136"/>
       <c r="E15" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="123">
+      <c r="F15" s="137">
         <v>24</v>
       </c>
-      <c r="G15" s="124"/>
+      <c r="G15" s="138"/>
       <c r="H15" s="102">
         <v>1200</v>
       </c>
@@ -6337,10 +6337,10 @@
       <c r="K15" s="52">
         <v>220</v>
       </c>
-      <c r="L15" s="125">
+      <c r="L15" s="123">
         <v>110</v>
       </c>
-      <c r="M15" s="126"/>
+      <c r="M15" s="124"/>
       <c r="N15" s="101">
         <v>240</v>
       </c>
@@ -6367,17 +6367,17 @@
       <c r="B16" s="38">
         <v>63</v>
       </c>
-      <c r="C16" s="127" t="s">
+      <c r="C16" s="135" t="s">
         <v>127</v>
       </c>
-      <c r="D16" s="128"/>
+      <c r="D16" s="136"/>
       <c r="E16" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="123">
+      <c r="F16" s="137">
         <v>600</v>
       </c>
-      <c r="G16" s="124"/>
+      <c r="G16" s="138"/>
       <c r="H16" s="102">
         <v>1200</v>
       </c>
@@ -6386,8 +6386,8 @@
       <c r="K16" s="52">
         <v>220</v>
       </c>
-      <c r="L16" s="125"/>
-      <c r="M16" s="126"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="124"/>
       <c r="N16" s="101">
         <v>480</v>
       </c>
@@ -6414,17 +6414,17 @@
       <c r="B17" s="38">
         <v>64</v>
       </c>
-      <c r="C17" s="127" t="s">
+      <c r="C17" s="135" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="128"/>
+      <c r="D17" s="136"/>
       <c r="E17" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="123">
+      <c r="F17" s="137">
         <v>120</v>
       </c>
-      <c r="G17" s="124"/>
+      <c r="G17" s="138"/>
       <c r="H17" s="102">
         <v>240</v>
       </c>
@@ -6433,8 +6433,8 @@
       </c>
       <c r="J17" s="52"/>
       <c r="K17" s="52"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="126"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="124"/>
       <c r="N17" s="101">
         <v>1200</v>
       </c>
@@ -6461,23 +6461,23 @@
       <c r="B18" s="38">
         <v>65</v>
       </c>
-      <c r="C18" s="127" t="s">
+      <c r="C18" s="135" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="128"/>
+      <c r="D18" s="136"/>
       <c r="E18" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="123"/>
-      <c r="G18" s="124"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="138"/>
       <c r="H18" s="102">
         <v>72</v>
       </c>
       <c r="I18" s="48"/>
       <c r="J18" s="52"/>
       <c r="K18" s="52"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="126"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="124"/>
       <c r="N18" s="101"/>
       <c r="O18" s="102"/>
       <c r="P18" s="49"/>
@@ -6499,25 +6499,25 @@
       <c r="B19" s="38">
         <v>66</v>
       </c>
-      <c r="C19" s="123" t="s">
+      <c r="C19" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="D19" s="126"/>
+      <c r="D19" s="124"/>
       <c r="E19" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="123">
+      <c r="F19" s="137">
         <v>72</v>
       </c>
-      <c r="G19" s="124"/>
+      <c r="G19" s="138"/>
       <c r="H19" s="102">
         <v>48</v>
       </c>
       <c r="I19" s="48"/>
       <c r="J19" s="52"/>
       <c r="K19" s="52"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="126"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="124"/>
       <c r="N19" s="101"/>
       <c r="O19" s="102"/>
       <c r="P19" s="49"/>
@@ -6538,23 +6538,23 @@
       <c r="B20" s="38">
         <v>67</v>
       </c>
-      <c r="C20" s="123" t="s">
+      <c r="C20" s="137" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="126"/>
+      <c r="D20" s="124"/>
       <c r="E20" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="123"/>
-      <c r="G20" s="124"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="138"/>
       <c r="H20" s="102"/>
       <c r="I20" s="48">
         <v>900</v>
       </c>
       <c r="J20" s="52"/>
       <c r="K20" s="52"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="126"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="124"/>
       <c r="N20" s="101">
         <v>960</v>
       </c>
@@ -6581,23 +6581,23 @@
       <c r="B21" s="38">
         <v>68</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="137" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="126"/>
+      <c r="D21" s="124"/>
       <c r="E21" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="123"/>
-      <c r="G21" s="124"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="138"/>
       <c r="H21" s="102"/>
       <c r="I21" s="48">
         <v>300</v>
       </c>
       <c r="J21" s="52"/>
       <c r="K21" s="52"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="126"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="124"/>
       <c r="N21" s="101"/>
       <c r="O21" s="102"/>
       <c r="P21" s="49">
@@ -6620,23 +6620,23 @@
       <c r="B22" s="38">
         <v>69</v>
       </c>
-      <c r="C22" s="123" t="s">
+      <c r="C22" s="137" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="126"/>
+      <c r="D22" s="124"/>
       <c r="E22" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="123"/>
-      <c r="G22" s="124"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="138"/>
       <c r="H22" s="102"/>
       <c r="I22" s="48"/>
       <c r="J22" s="52"/>
       <c r="K22" s="52"/>
-      <c r="L22" s="125">
+      <c r="L22" s="123">
         <v>110</v>
       </c>
-      <c r="M22" s="126"/>
+      <c r="M22" s="124"/>
       <c r="N22" s="101">
         <v>720</v>
       </c>
@@ -6663,15 +6663,15 @@
       <c r="B23" s="38">
         <v>70</v>
       </c>
-      <c r="C23" s="123" t="s">
+      <c r="C23" s="137" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="126"/>
+      <c r="D23" s="124"/>
       <c r="E23" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="F23" s="123"/>
-      <c r="G23" s="124"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="138"/>
       <c r="H23" s="102"/>
       <c r="I23" s="48">
         <v>3600</v>
@@ -6680,8 +6680,8 @@
       <c r="K23" s="52">
         <v>330</v>
       </c>
-      <c r="L23" s="125"/>
-      <c r="M23" s="126"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="124"/>
       <c r="N23" s="101">
         <v>480</v>
       </c>
@@ -6710,21 +6710,21 @@
       <c r="B24" s="38">
         <v>71</v>
       </c>
-      <c r="C24" s="123" t="s">
+      <c r="C24" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="126"/>
+      <c r="D24" s="124"/>
       <c r="E24" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="F24" s="123"/>
-      <c r="G24" s="124"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="138"/>
       <c r="H24" s="102"/>
       <c r="I24" s="48"/>
       <c r="J24" s="52"/>
       <c r="K24" s="52"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="126"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="124"/>
       <c r="N24" s="101"/>
       <c r="O24" s="102"/>
       <c r="P24" s="49">
@@ -6747,23 +6747,23 @@
       <c r="B25" s="38">
         <v>72</v>
       </c>
-      <c r="C25" s="127" t="s">
+      <c r="C25" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="128"/>
+      <c r="D25" s="136"/>
       <c r="E25" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="123"/>
-      <c r="G25" s="124"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="138"/>
       <c r="H25" s="102"/>
       <c r="I25" s="48">
         <v>150</v>
       </c>
       <c r="J25" s="52"/>
       <c r="K25" s="52"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="126"/>
+      <c r="L25" s="123"/>
+      <c r="M25" s="124"/>
       <c r="N25" s="101"/>
       <c r="O25" s="102"/>
       <c r="P25" s="49"/>
@@ -6784,21 +6784,21 @@
       <c r="B26" s="38">
         <v>73</v>
       </c>
-      <c r="C26" s="123" t="s">
+      <c r="C26" s="137" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="126"/>
+      <c r="D26" s="124"/>
       <c r="E26" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="123"/>
-      <c r="G26" s="124"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="138"/>
       <c r="H26" s="86"/>
       <c r="I26" s="57"/>
       <c r="J26" s="58"/>
       <c r="K26" s="58"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="126"/>
+      <c r="L26" s="123"/>
+      <c r="M26" s="124"/>
       <c r="N26" s="103">
         <v>480</v>
       </c>
@@ -6823,21 +6823,21 @@
       <c r="B27" s="38">
         <v>74</v>
       </c>
-      <c r="C27" s="123" t="s">
+      <c r="C27" s="137" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="126"/>
+      <c r="D27" s="124"/>
       <c r="E27" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F27" s="123"/>
-      <c r="G27" s="124"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="138"/>
       <c r="H27" s="86"/>
       <c r="I27" s="57"/>
       <c r="J27" s="58"/>
       <c r="K27" s="58"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="126"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="124"/>
       <c r="N27" s="103">
         <v>1200</v>
       </c>
@@ -6855,30 +6855,30 @@
         <v>837998</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" ht="15.75" thickBot="1">
       <c r="A28" s="122" t="s">
         <v>196</v>
       </c>
       <c r="B28" s="38">
         <v>75</v>
       </c>
-      <c r="C28" s="123" t="s">
+      <c r="C28" s="137" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="126"/>
+      <c r="D28" s="124"/>
       <c r="E28" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F28" s="123"/>
-      <c r="G28" s="124"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="138"/>
       <c r="H28" s="86"/>
       <c r="I28" s="57">
         <v>450</v>
       </c>
       <c r="J28" s="58"/>
       <c r="K28" s="58"/>
-      <c r="L28" s="125"/>
-      <c r="M28" s="126"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="124"/>
       <c r="N28" s="103"/>
       <c r="O28" s="86">
         <v>120</v>
@@ -6897,821 +6897,917 @@
       </c>
     </row>
     <row r="29" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A29" s="103"/>
-      <c r="B29" s="38">
-        <v>76</v>
-      </c>
-      <c r="C29" s="123"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="124"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="125"/>
-      <c r="M29" s="126"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="103"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="53">
-        <f t="shared" si="0"/>
+      <c r="A29" s="170" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="171"/>
+      <c r="C29" s="171"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="131">
+        <f>SUM(F5:G28)</f>
+        <v>816</v>
+      </c>
+      <c r="G29" s="133"/>
+      <c r="H29" s="34">
+        <f>SUM(H5:H28)</f>
+        <v>2808</v>
+      </c>
+      <c r="I29" s="115">
+        <f>SUM(I5:I28)</f>
+        <v>14130</v>
+      </c>
+      <c r="J29" s="116">
+        <f>SUM(J5:J28)</f>
         <v>0</v>
       </c>
-      <c r="T29" s="59"/>
+      <c r="K29" s="116">
+        <f>SUM(K5:K28)</f>
+        <v>770</v>
+      </c>
+      <c r="L29" s="134">
+        <f>SUM(L5:M28)</f>
+        <v>220</v>
+      </c>
+      <c r="M29" s="132"/>
+      <c r="N29" s="115">
+        <f t="shared" ref="N29:T29" si="1">SUM(N5:N28)</f>
+        <v>8280</v>
+      </c>
+      <c r="O29" s="116">
+        <f t="shared" si="1"/>
+        <v>3480</v>
+      </c>
+      <c r="P29" s="34">
+        <f t="shared" si="1"/>
+        <v>31008</v>
+      </c>
+      <c r="Q29" s="115">
+        <f t="shared" si="1"/>
+        <v>2760</v>
+      </c>
+      <c r="R29" s="34">
+        <f t="shared" si="1"/>
+        <v>3132</v>
+      </c>
+      <c r="S29" s="61">
+        <f t="shared" si="1"/>
+        <v>67404</v>
+      </c>
+      <c r="T29" s="36">
+        <f t="shared" si="1"/>
+        <v>21549611</v>
+      </c>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
     </row>
     <row r="30" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A30" s="164" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="165"/>
-      <c r="C30" s="165"/>
+      <c r="A30" s="170"/>
+      <c r="B30" s="171"/>
+      <c r="C30" s="171"/>
       <c r="D30" s="62"/>
       <c r="E30" s="60"/>
-      <c r="F30" s="166">
-        <f>SUM(F5:G29)</f>
-        <v>816</v>
-      </c>
-      <c r="G30" s="167"/>
+      <c r="F30" s="131">
+        <f>F4+F29</f>
+        <v>1584</v>
+      </c>
+      <c r="G30" s="133"/>
       <c r="H30" s="34">
-        <f>SUM(H5:H29)</f>
-        <v>2808</v>
-      </c>
-      <c r="I30" s="115">
-        <f>SUM(I5:I29)</f>
-        <v>14130</v>
+        <f>H4+H29</f>
+        <v>8520</v>
+      </c>
+      <c r="I30" s="62">
+        <f>I4+I29</f>
+        <v>47010</v>
       </c>
       <c r="J30" s="116">
-        <f>SUM(J5:J29)</f>
-        <v>0</v>
+        <f>J4+J29</f>
+        <v>360</v>
       </c>
       <c r="K30" s="116">
-        <f>SUM(K5:K29)</f>
-        <v>770</v>
-      </c>
-      <c r="L30" s="168">
-        <f>SUM(L5:M29)</f>
-        <v>220</v>
-      </c>
-      <c r="M30" s="169"/>
+        <f>K4+K29</f>
+        <v>3212</v>
+      </c>
+      <c r="L30" s="134">
+        <f>L4+L29</f>
+        <v>660</v>
+      </c>
+      <c r="M30" s="132"/>
       <c r="N30" s="115">
-        <f t="shared" ref="N30:T30" si="1">SUM(N5:N29)</f>
-        <v>8280</v>
+        <f t="shared" ref="N30:T30" si="2">N4+N29</f>
+        <v>18720</v>
       </c>
       <c r="O30" s="116">
-        <f t="shared" si="1"/>
-        <v>3480</v>
+        <f t="shared" si="2"/>
+        <v>9984</v>
       </c>
       <c r="P30" s="34">
-        <f t="shared" si="1"/>
-        <v>31008</v>
-      </c>
-      <c r="Q30" s="115">
-        <f t="shared" si="1"/>
-        <v>2760</v>
-      </c>
-      <c r="R30" s="34">
-        <f t="shared" si="1"/>
-        <v>3132</v>
-      </c>
-      <c r="S30" s="61">
-        <f t="shared" si="1"/>
-        <v>67404</v>
+        <f t="shared" si="2"/>
+        <v>86856</v>
+      </c>
+      <c r="Q30" s="62">
+        <f t="shared" si="2"/>
+        <v>9432</v>
+      </c>
+      <c r="R30" s="116">
+        <f t="shared" si="2"/>
+        <v>4032</v>
+      </c>
+      <c r="S30" s="63">
+        <f t="shared" si="2"/>
+        <v>190370</v>
       </c>
       <c r="T30" s="36">
-        <f t="shared" si="1"/>
-        <v>21549611</v>
-      </c>
-      <c r="V30" s="13"/>
+        <f t="shared" si="2"/>
+        <v>60581039</v>
+      </c>
       <c r="W30" s="13"/>
       <c r="X30" s="13"/>
     </row>
     <row r="31" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A31" s="164"/>
-      <c r="B31" s="165"/>
-      <c r="C31" s="165"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="166">
-        <f>F4+F30</f>
-        <v>1584</v>
-      </c>
-      <c r="G31" s="167"/>
-      <c r="H31" s="34">
-        <f>H4+H30</f>
-        <v>8520</v>
-      </c>
-      <c r="I31" s="62">
-        <f>I4+I30</f>
-        <v>47010</v>
-      </c>
-      <c r="J31" s="116">
-        <f>J4+J30</f>
-        <v>360</v>
-      </c>
-      <c r="K31" s="116">
-        <f>K4+K30</f>
-        <v>3212</v>
-      </c>
-      <c r="L31" s="168">
-        <f>L4+L30</f>
-        <v>660</v>
-      </c>
-      <c r="M31" s="169"/>
-      <c r="N31" s="115">
-        <f t="shared" ref="N31:T31" si="2">N4+N30</f>
-        <v>18720</v>
-      </c>
-      <c r="O31" s="116">
-        <f t="shared" si="2"/>
-        <v>9984</v>
-      </c>
-      <c r="P31" s="34">
-        <f t="shared" si="2"/>
-        <v>86856</v>
-      </c>
-      <c r="Q31" s="62">
-        <f t="shared" si="2"/>
-        <v>9432</v>
-      </c>
-      <c r="R31" s="116">
-        <f t="shared" si="2"/>
-        <v>4032</v>
-      </c>
-      <c r="S31" s="63">
-        <f t="shared" si="2"/>
-        <v>190370</v>
-      </c>
-      <c r="T31" s="36">
-        <f t="shared" si="2"/>
-        <v>60581039</v>
-      </c>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-    </row>
-    <row r="32" spans="1:24" ht="15.75" thickBot="1">
-      <c r="V32" s="13"/>
+      <c r="V31" s="13"/>
+    </row>
+    <row r="32" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A32" s="172" t="s">
+        <v>189</v>
+      </c>
+      <c r="B32" s="173"/>
+      <c r="C32" s="173"/>
+      <c r="D32" s="173"/>
+      <c r="E32" s="173"/>
+      <c r="F32" s="173"/>
+      <c r="G32" s="173"/>
+      <c r="H32" s="173"/>
+      <c r="I32" s="173"/>
+      <c r="J32" s="173"/>
+      <c r="K32" s="173"/>
+      <c r="L32" s="173"/>
+      <c r="M32" s="173"/>
+      <c r="N32" s="173"/>
+      <c r="O32" s="173"/>
+      <c r="P32" s="173"/>
+      <c r="Q32" s="174"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="28"/>
     </row>
     <row r="33" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="170" t="s">
-        <v>189</v>
-      </c>
-      <c r="B33" s="171"/>
-      <c r="C33" s="171"/>
-      <c r="D33" s="171"/>
-      <c r="E33" s="171"/>
-      <c r="F33" s="171"/>
-      <c r="G33" s="171"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="171"/>
-      <c r="J33" s="171"/>
-      <c r="K33" s="171"/>
-      <c r="L33" s="171"/>
-      <c r="M33" s="171"/>
-      <c r="N33" s="171"/>
-      <c r="O33" s="171"/>
-      <c r="P33" s="171"/>
-      <c r="Q33" s="172"/>
+      <c r="A33" s="175" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="176"/>
+      <c r="C33" s="179" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="179" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="182" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="175" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="176"/>
+      <c r="H33" s="184" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="185"/>
+      <c r="J33" s="186"/>
+      <c r="K33" s="187" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="188"/>
+      <c r="M33" s="188"/>
+      <c r="N33" s="188"/>
+      <c r="O33" s="189"/>
+      <c r="P33" s="179" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="190" t="s">
+        <v>38</v>
+      </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="28"/>
     </row>
-    <row r="34" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="129" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="130"/>
-      <c r="C34" s="173" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="173" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="176" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" s="129" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="130"/>
-      <c r="H34" s="178" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="179"/>
-      <c r="J34" s="180"/>
-      <c r="K34" s="181" t="s">
-        <v>25</v>
-      </c>
-      <c r="L34" s="182"/>
-      <c r="M34" s="182"/>
-      <c r="N34" s="182"/>
-      <c r="O34" s="183"/>
-      <c r="P34" s="173" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q34" s="184" t="s">
-        <v>38</v>
-      </c>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
+    <row r="34" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A34" s="177"/>
+      <c r="B34" s="178"/>
+      <c r="C34" s="180"/>
+      <c r="D34" s="181"/>
+      <c r="E34" s="183"/>
+      <c r="F34" s="177"/>
+      <c r="G34" s="178"/>
+      <c r="H34" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="K34" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" s="187" t="s">
+        <v>47</v>
+      </c>
+      <c r="M34" s="189"/>
+      <c r="N34" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="O34" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="P34" s="181"/>
+      <c r="Q34" s="191"/>
       <c r="T34" s="28"/>
     </row>
-    <row r="35" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A35" s="131"/>
-      <c r="B35" s="132"/>
-      <c r="C35" s="174"/>
-      <c r="D35" s="175"/>
-      <c r="E35" s="177"/>
-      <c r="F35" s="131"/>
-      <c r="G35" s="132"/>
-      <c r="H35" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="I35" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="J35" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="K35" s="70" t="s">
+    <row r="35" spans="1:22" ht="15" customHeight="1">
+      <c r="A35" s="175" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="176"/>
+      <c r="C35" s="105" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="105"/>
+      <c r="E35" s="4">
+        <v>600</v>
+      </c>
+      <c r="F35" s="197">
         <v>24</v>
       </c>
-      <c r="L35" s="181" t="s">
-        <v>47</v>
-      </c>
-      <c r="M35" s="183"/>
-      <c r="N35" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="O35" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="P35" s="175"/>
-      <c r="Q35" s="185"/>
+      <c r="G35" s="197"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="104"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="104"/>
+      <c r="L35" s="198"/>
+      <c r="M35" s="199"/>
+      <c r="N35" s="104"/>
+      <c r="O35" s="4">
+        <v>72</v>
+      </c>
+      <c r="P35" s="104">
+        <v>120</v>
+      </c>
+      <c r="Q35" s="4">
+        <f>SUM(D35:P35)</f>
+        <v>816</v>
+      </c>
       <c r="T35" s="28"/>
-    </row>
-    <row r="36" spans="1:22" ht="15" customHeight="1">
-      <c r="A36" s="129" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="130"/>
-      <c r="C36" s="105" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="105"/>
-      <c r="E36" s="4">
-        <v>600</v>
-      </c>
-      <c r="F36" s="133">
-        <v>24</v>
-      </c>
-      <c r="G36" s="133"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="104"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="104"/>
-      <c r="L36" s="134"/>
-      <c r="M36" s="135"/>
-      <c r="N36" s="104"/>
-      <c r="O36" s="4">
-        <v>72</v>
-      </c>
-      <c r="P36" s="104">
-        <v>120</v>
-      </c>
-      <c r="Q36" s="4">
-        <f>SUM(D36:P36)</f>
-        <v>816</v>
+      <c r="V35" s="13">
+        <f>Q35-F29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A36" s="177"/>
+      <c r="B36" s="178"/>
+      <c r="C36" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="107"/>
+      <c r="E36" s="14">
+        <v>1200</v>
+      </c>
+      <c r="F36" s="204">
+        <v>1200</v>
+      </c>
+      <c r="G36" s="204"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="106"/>
+      <c r="L36" s="205"/>
+      <c r="M36" s="206"/>
+      <c r="N36" s="106"/>
+      <c r="O36" s="14">
+        <v>168</v>
+      </c>
+      <c r="P36" s="106">
+        <v>240</v>
+      </c>
+      <c r="Q36" s="16">
+        <f t="shared" ref="Q36:Q45" si="3">SUM(D36:P36)</f>
+        <v>2808</v>
       </c>
       <c r="T36" s="28"/>
       <c r="V36" s="13">
-        <f>Q36-F30</f>
+        <f>H29-Q36</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A37" s="131"/>
-      <c r="B37" s="132"/>
-      <c r="C37" s="107" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="107"/>
-      <c r="E37" s="14">
+    <row r="37" spans="1:22">
+      <c r="A37" s="175" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="176"/>
+      <c r="C37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="4">
+        <v>10050</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="197">
+        <v>690</v>
+      </c>
+      <c r="G37" s="197"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="104">
+        <v>1650</v>
+      </c>
+      <c r="J37" s="4">
         <v>1200</v>
       </c>
-      <c r="F37" s="136">
-        <v>1200</v>
-      </c>
-      <c r="G37" s="136"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="106"/>
-      <c r="L37" s="137"/>
-      <c r="M37" s="138"/>
-      <c r="N37" s="106"/>
-      <c r="O37" s="14">
-        <v>168</v>
-      </c>
-      <c r="P37" s="106">
+      <c r="K37" s="104"/>
+      <c r="L37" s="198"/>
+      <c r="M37" s="199"/>
+      <c r="N37" s="104"/>
+      <c r="O37" s="4">
         <v>240</v>
       </c>
-      <c r="Q37" s="16">
-        <f t="shared" ref="Q37:Q46" si="3">SUM(D37:P37)</f>
-        <v>2808</v>
+      <c r="P37" s="104">
+        <v>300</v>
+      </c>
+      <c r="Q37" s="4">
+        <f t="shared" si="3"/>
+        <v>14130</v>
       </c>
       <c r="T37" s="28"/>
       <c r="V37" s="13">
-        <f>H30-Q37</f>
+        <f>I29-Q37</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="129" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="130"/>
-      <c r="C38" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="4">
-        <v>10050</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="133">
-        <v>690</v>
-      </c>
-      <c r="G38" s="133"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="104">
-        <v>1650</v>
-      </c>
-      <c r="J38" s="4">
-        <v>1200</v>
-      </c>
-      <c r="K38" s="104"/>
-      <c r="L38" s="134"/>
-      <c r="M38" s="135"/>
-      <c r="N38" s="104"/>
-      <c r="O38" s="4">
-        <v>240</v>
-      </c>
-      <c r="P38" s="104">
-        <v>300</v>
-      </c>
-      <c r="Q38" s="4">
+      <c r="A38" s="212"/>
+      <c r="B38" s="213"/>
+      <c r="C38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="113"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="217"/>
+      <c r="G38" s="217"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="112"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="112"/>
+      <c r="L38" s="218"/>
+      <c r="M38" s="219"/>
+      <c r="N38" s="112"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="112"/>
+      <c r="Q38" s="5">
         <f t="shared" si="3"/>
-        <v>14130</v>
+        <v>0</v>
       </c>
       <c r="T38" s="28"/>
       <c r="V38" s="13">
-        <f>I30-Q38</f>
+        <f>J29-Q38</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="144"/>
-      <c r="B39" s="145"/>
+      <c r="A39" s="212"/>
+      <c r="B39" s="213"/>
       <c r="C39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="113"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
+        <v>43</v>
+      </c>
+      <c r="D39" s="113">
+        <v>330</v>
+      </c>
+      <c r="E39" s="5">
+        <v>220</v>
+      </c>
+      <c r="F39" s="217">
+        <v>220</v>
+      </c>
+      <c r="G39" s="217"/>
       <c r="H39" s="5"/>
       <c r="I39" s="112"/>
       <c r="J39" s="5"/>
       <c r="K39" s="112"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="151"/>
+      <c r="L39" s="218"/>
+      <c r="M39" s="219"/>
       <c r="N39" s="112"/>
       <c r="O39" s="5"/>
       <c r="P39" s="112"/>
       <c r="Q39" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>770</v>
       </c>
       <c r="T39" s="28"/>
       <c r="V39" s="13">
-        <f>J30-Q39</f>
+        <f>K29-Q39</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
-      <c r="A40" s="144"/>
-      <c r="B40" s="145"/>
-      <c r="C40" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="113">
-        <v>330</v>
-      </c>
-      <c r="E40" s="5">
+    <row r="40" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A40" s="177"/>
+      <c r="B40" s="178"/>
+      <c r="C40" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="109"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="167">
+        <v>110</v>
+      </c>
+      <c r="G40" s="167"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="108"/>
+      <c r="L40" s="168"/>
+      <c r="M40" s="169"/>
+      <c r="N40" s="108"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="108">
+        <v>110</v>
+      </c>
+      <c r="Q40" s="16">
+        <f t="shared" si="3"/>
         <v>220</v>
-      </c>
-      <c r="F40" s="149">
-        <v>220</v>
-      </c>
-      <c r="G40" s="149"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="112"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="112"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="151"/>
-      <c r="N40" s="112"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="112"/>
-      <c r="Q40" s="5">
-        <f t="shared" si="3"/>
-        <v>770</v>
       </c>
       <c r="T40" s="28"/>
       <c r="V40" s="13">
-        <f>K30-Q40</f>
+        <f>L29-Q40</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A41" s="131"/>
-      <c r="B41" s="132"/>
-      <c r="C41" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="109"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="157">
-        <v>110</v>
-      </c>
-      <c r="G41" s="157"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="108"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="108"/>
-      <c r="L41" s="158"/>
-      <c r="M41" s="159"/>
-      <c r="N41" s="108"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="108">
-        <v>110</v>
-      </c>
-      <c r="Q41" s="16">
+    <row r="41" spans="1:22">
+      <c r="A41" s="175" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="176"/>
+      <c r="C41" s="111" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="111">
+        <v>480</v>
+      </c>
+      <c r="E41" s="16">
+        <v>480</v>
+      </c>
+      <c r="F41" s="214">
+        <v>240</v>
+      </c>
+      <c r="G41" s="214"/>
+      <c r="H41" s="16">
+        <v>2160</v>
+      </c>
+      <c r="I41" s="110">
+        <v>2040</v>
+      </c>
+      <c r="J41" s="16"/>
+      <c r="K41" s="110"/>
+      <c r="L41" s="215"/>
+      <c r="M41" s="216"/>
+      <c r="N41" s="110"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="110">
+        <v>2880</v>
+      </c>
+      <c r="Q41" s="4">
         <f t="shared" si="3"/>
-        <v>220</v>
+        <v>8280</v>
       </c>
       <c r="T41" s="28"/>
       <c r="V41" s="13">
-        <f>L30-Q41</f>
+        <f>N29-Q41</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="129" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="130"/>
-      <c r="C42" s="111" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="111">
+      <c r="A42" s="212"/>
+      <c r="B42" s="213"/>
+      <c r="C42" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="113">
+        <v>360</v>
+      </c>
+      <c r="E42" s="5">
+        <v>600</v>
+      </c>
+      <c r="F42" s="217"/>
+      <c r="G42" s="217"/>
+      <c r="H42" s="5">
         <v>480</v>
       </c>
-      <c r="E42" s="16">
-        <v>480</v>
-      </c>
-      <c r="F42" s="146">
+      <c r="I42" s="112">
         <v>240</v>
       </c>
-      <c r="G42" s="146"/>
-      <c r="H42" s="16">
-        <v>2160</v>
-      </c>
-      <c r="I42" s="110">
-        <v>2040</v>
-      </c>
-      <c r="J42" s="16"/>
-      <c r="K42" s="110"/>
-      <c r="L42" s="147"/>
-      <c r="M42" s="148"/>
-      <c r="N42" s="110"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="110">
-        <v>2880</v>
-      </c>
-      <c r="Q42" s="4">
+      <c r="J42" s="5">
+        <v>120</v>
+      </c>
+      <c r="K42" s="112"/>
+      <c r="L42" s="218"/>
+      <c r="M42" s="219"/>
+      <c r="N42" s="112"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="112">
+        <v>1680</v>
+      </c>
+      <c r="Q42" s="5">
         <f t="shared" si="3"/>
-        <v>8280</v>
+        <v>3480</v>
       </c>
       <c r="T42" s="28"/>
       <c r="V42" s="13">
-        <f>N30-Q42</f>
+        <f>O29-Q42</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
-      <c r="A43" s="144"/>
-      <c r="B43" s="145"/>
-      <c r="C43" s="113" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="113">
-        <v>360</v>
-      </c>
-      <c r="E43" s="5">
-        <v>600</v>
-      </c>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="5">
-        <v>480</v>
-      </c>
-      <c r="I43" s="112">
-        <v>240</v>
-      </c>
-      <c r="J43" s="5">
-        <v>120</v>
-      </c>
-      <c r="K43" s="112"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="151"/>
-      <c r="N43" s="112"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="112">
-        <v>1680</v>
-      </c>
-      <c r="Q43" s="5">
+    <row r="43" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A43" s="177"/>
+      <c r="B43" s="178"/>
+      <c r="C43" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="107">
+        <v>1800</v>
+      </c>
+      <c r="E43" s="14">
+        <v>5400</v>
+      </c>
+      <c r="F43" s="204">
+        <v>4200</v>
+      </c>
+      <c r="G43" s="204"/>
+      <c r="H43" s="14">
+        <v>2280</v>
+      </c>
+      <c r="I43" s="106">
+        <v>8400</v>
+      </c>
+      <c r="J43" s="14">
+        <v>3960</v>
+      </c>
+      <c r="K43" s="106"/>
+      <c r="L43" s="205"/>
+      <c r="M43" s="206"/>
+      <c r="N43" s="106"/>
+      <c r="O43" s="14">
+        <v>168</v>
+      </c>
+      <c r="P43" s="106">
+        <v>4800</v>
+      </c>
+      <c r="Q43" s="16">
         <f t="shared" si="3"/>
-        <v>3480</v>
+        <v>31008</v>
       </c>
       <c r="T43" s="28"/>
       <c r="V43" s="13">
-        <f>O30-Q43</f>
+        <f>P29-Q43</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A44" s="131"/>
-      <c r="B44" s="132"/>
-      <c r="C44" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="107">
-        <v>1800</v>
-      </c>
-      <c r="E44" s="14">
-        <v>5400</v>
-      </c>
-      <c r="F44" s="136">
-        <v>4200</v>
-      </c>
-      <c r="G44" s="136"/>
-      <c r="H44" s="14">
-        <v>2280</v>
-      </c>
-      <c r="I44" s="106">
-        <v>8400</v>
-      </c>
-      <c r="J44" s="14">
-        <v>3960</v>
-      </c>
-      <c r="K44" s="106"/>
-      <c r="L44" s="137"/>
-      <c r="M44" s="138"/>
-      <c r="N44" s="106"/>
-      <c r="O44" s="14">
-        <v>168</v>
-      </c>
-      <c r="P44" s="106">
-        <v>4800</v>
-      </c>
-      <c r="Q44" s="16">
+    <row r="44" spans="1:22">
+      <c r="A44" s="175" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="176"/>
+      <c r="C44" s="105" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="105">
+        <v>2100</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="197">
+        <v>360</v>
+      </c>
+      <c r="G44" s="197"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="104"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="104"/>
+      <c r="L44" s="198"/>
+      <c r="M44" s="199"/>
+      <c r="N44" s="104"/>
+      <c r="O44" s="4">
+        <v>180</v>
+      </c>
+      <c r="P44" s="104">
+        <v>120</v>
+      </c>
+      <c r="Q44" s="4">
         <f t="shared" si="3"/>
-        <v>31008</v>
+        <v>2760</v>
       </c>
       <c r="T44" s="28"/>
       <c r="V44" s="13">
-        <f>P30-Q44</f>
+        <f>Q29-Q44</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
-      <c r="A45" s="129" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="130"/>
-      <c r="C45" s="105" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" s="105">
-        <v>2100</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="133">
-        <v>360</v>
-      </c>
-      <c r="G45" s="133"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="104"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="104"/>
-      <c r="L45" s="134"/>
-      <c r="M45" s="135"/>
-      <c r="N45" s="104"/>
-      <c r="O45" s="4">
-        <v>180</v>
-      </c>
-      <c r="P45" s="104">
-        <v>120</v>
-      </c>
-      <c r="Q45" s="4">
+    <row r="45" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A45" s="177"/>
+      <c r="B45" s="178"/>
+      <c r="C45" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="15">
+        <v>2412</v>
+      </c>
+      <c r="E45" s="15"/>
+      <c r="F45" s="167"/>
+      <c r="G45" s="167"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="108">
+        <v>720</v>
+      </c>
+      <c r="J45" s="15"/>
+      <c r="K45" s="108"/>
+      <c r="L45" s="168"/>
+      <c r="M45" s="169"/>
+      <c r="N45" s="108"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="108"/>
+      <c r="Q45" s="16">
         <f t="shared" si="3"/>
-        <v>2760</v>
+        <v>3132</v>
       </c>
       <c r="T45" s="28"/>
       <c r="V45" s="13">
-        <f>Q30-Q45</f>
+        <f>R29-Q45</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A46" s="131"/>
-      <c r="B46" s="132"/>
-      <c r="C46" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="15">
-        <v>2412</v>
-      </c>
-      <c r="E46" s="15"/>
-      <c r="F46" s="157"/>
-      <c r="G46" s="157"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="108">
-        <v>720</v>
-      </c>
-      <c r="J46" s="15"/>
-      <c r="K46" s="108"/>
-      <c r="L46" s="158"/>
-      <c r="M46" s="159"/>
-      <c r="N46" s="108"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="108"/>
-      <c r="Q46" s="16">
-        <f t="shared" si="3"/>
-        <v>3132</v>
-      </c>
+      <c r="A46" s="200" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="201"/>
+      <c r="C46" s="201"/>
+      <c r="D46" s="23">
+        <f>SUM(D35:D45)</f>
+        <v>17532</v>
+      </c>
+      <c r="E46" s="23">
+        <f t="shared" ref="E46" si="4">SUM(E35:E45)</f>
+        <v>8500</v>
+      </c>
+      <c r="F46" s="202">
+        <f>SUM(F35:G45)</f>
+        <v>7044</v>
+      </c>
+      <c r="G46" s="203"/>
+      <c r="H46" s="23">
+        <f>SUM(H35:H45)</f>
+        <v>4920</v>
+      </c>
+      <c r="I46" s="23">
+        <f>SUM(I35:I45)</f>
+        <v>13050</v>
+      </c>
+      <c r="J46" s="23">
+        <f>SUM(J35:J45)</f>
+        <v>5280</v>
+      </c>
+      <c r="K46" s="23">
+        <f>SUM(K35:K45)</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="202">
+        <f>SUM(L35:M45)</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="203"/>
+      <c r="N46" s="23">
+        <f>SUM(N35:N45)</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="23">
+        <f>SUM(O35:O45)</f>
+        <v>828</v>
+      </c>
+      <c r="P46" s="23">
+        <f>SUM(P35:P45)</f>
+        <v>10250</v>
+      </c>
+      <c r="Q46" s="24">
+        <f>SUM(Q35:Q45)</f>
+        <v>67404</v>
+      </c>
+      <c r="R46" s="12"/>
+      <c r="S46" s="1"/>
       <c r="T46" s="28"/>
       <c r="V46" s="13">
-        <f>R30-Q46</f>
+        <f>S29-Q46</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A47" s="160" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" s="161"/>
-      <c r="C47" s="161"/>
-      <c r="D47" s="23">
-        <f>SUM(D36:D46)</f>
-        <v>17532</v>
-      </c>
-      <c r="E47" s="23">
-        <f t="shared" ref="E47" si="4">SUM(E36:E46)</f>
-        <v>8500</v>
-      </c>
-      <c r="F47" s="162">
-        <f>SUM(F36:G46)</f>
-        <v>7044</v>
-      </c>
-      <c r="G47" s="163"/>
-      <c r="H47" s="23">
-        <f>SUM(H36:H46)</f>
-        <v>4920</v>
-      </c>
-      <c r="I47" s="23">
-        <f>SUM(I36:I46)</f>
-        <v>13050</v>
-      </c>
-      <c r="J47" s="23">
-        <f>SUM(J36:J46)</f>
-        <v>5280</v>
-      </c>
-      <c r="K47" s="23">
-        <f>SUM(K36:K46)</f>
+      <c r="A47" s="207" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="208"/>
+      <c r="C47" s="208"/>
+      <c r="D47" s="209">
+        <f>D46+E46+F46+H46+I46+J46+K46+L46+N46+O46+P46</f>
+        <v>67404</v>
+      </c>
+      <c r="E47" s="210"/>
+      <c r="F47" s="210"/>
+      <c r="G47" s="210"/>
+      <c r="H47" s="210"/>
+      <c r="I47" s="210"/>
+      <c r="J47" s="210"/>
+      <c r="K47" s="210"/>
+      <c r="L47" s="210"/>
+      <c r="M47" s="210"/>
+      <c r="N47" s="210"/>
+      <c r="O47" s="210"/>
+      <c r="P47" s="210"/>
+      <c r="Q47" s="211"/>
+      <c r="T47" s="28"/>
+      <c r="V47" s="13"/>
+    </row>
+    <row r="48" spans="1:22" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A48" s="192" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="193"/>
+      <c r="C48" s="193"/>
+      <c r="D48" s="22">
+        <v>5673617</v>
+      </c>
+      <c r="E48" s="22">
+        <v>2670081</v>
+      </c>
+      <c r="F48" s="194">
+        <v>2226736</v>
+      </c>
+      <c r="G48" s="195"/>
+      <c r="H48" s="22">
+        <v>1560338</v>
+      </c>
+      <c r="I48" s="26">
+        <v>4197122</v>
+      </c>
+      <c r="J48" s="22">
+        <v>1671937</v>
+      </c>
+      <c r="K48" s="22"/>
+      <c r="L48" s="196"/>
+      <c r="M48" s="195"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="22">
+        <v>283020</v>
+      </c>
+      <c r="P48" s="26">
+        <v>3266760</v>
+      </c>
+      <c r="Q48" s="100">
+        <v>21549611</v>
+      </c>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="29"/>
+      <c r="V48" s="21">
+        <f>T29-Q48</f>
         <v>0</v>
       </c>
-      <c r="L47" s="162">
-        <f>SUM(L36:M46)</f>
-        <v>0</v>
-      </c>
-      <c r="M47" s="163"/>
-      <c r="N47" s="23">
-        <f>SUM(N36:N46)</f>
-        <v>0</v>
-      </c>
-      <c r="O47" s="23">
-        <f>SUM(O36:O46)</f>
-        <v>828</v>
-      </c>
-      <c r="P47" s="23">
-        <f>SUM(P36:P46)</f>
-        <v>10250</v>
-      </c>
-      <c r="Q47" s="24">
-        <f>SUM(Q36:Q46)</f>
-        <v>67404</v>
-      </c>
-      <c r="R47" s="12"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="28"/>
-      <c r="V47" s="13">
-        <f>S30-Q47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A48" s="139" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="140"/>
-      <c r="C48" s="140"/>
-      <c r="D48" s="141">
-        <f>D47+E47+F47+H47+I47+J47+K47+L47+N47+O47+P47</f>
-        <v>67404</v>
-      </c>
-      <c r="E48" s="142"/>
-      <c r="F48" s="142"/>
-      <c r="G48" s="142"/>
-      <c r="H48" s="142"/>
-      <c r="I48" s="142"/>
-      <c r="J48" s="142"/>
-      <c r="K48" s="142"/>
-      <c r="L48" s="142"/>
-      <c r="M48" s="142"/>
-      <c r="N48" s="142"/>
-      <c r="O48" s="142"/>
-      <c r="P48" s="142"/>
-      <c r="Q48" s="143"/>
-      <c r="T48" s="28"/>
-      <c r="V48" s="13"/>
-    </row>
-    <row r="49" spans="1:22" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A49" s="152" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49" s="153"/>
-      <c r="C49" s="153"/>
-      <c r="D49" s="22">
-        <v>5673617</v>
-      </c>
-      <c r="E49" s="22">
-        <v>2670081</v>
-      </c>
-      <c r="F49" s="154">
-        <v>2226736</v>
-      </c>
-      <c r="G49" s="155"/>
-      <c r="H49" s="22">
-        <v>1560338</v>
-      </c>
-      <c r="I49" s="26">
-        <v>4197122</v>
-      </c>
-      <c r="J49" s="22">
-        <v>1671937</v>
-      </c>
-      <c r="K49" s="22"/>
-      <c r="L49" s="156"/>
-      <c r="M49" s="155"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="22">
-        <v>283020</v>
-      </c>
-      <c r="P49" s="26">
-        <v>3266760</v>
-      </c>
-      <c r="Q49" s="100">
-        <v>21549611</v>
-      </c>
-      <c r="R49" s="19"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="29"/>
-      <c r="V49" s="21">
-        <f>T30-Q49</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22">
-      <c r="T50" s="28"/>
-      <c r="V50" s="13"/>
+    </row>
+    <row r="49" spans="20:22">
+      <c r="T49" s="28"/>
+      <c r="V49" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="139">
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:Q47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="A35:B36"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="A41:B43"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="A37:B40"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="A32:Q32"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:O33"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="L3:M3"/>
@@ -7728,134 +7824,8 @@
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:S3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="A33:Q33"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:G35"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:O34"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="Q34:Q35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="A36:B37"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="A42:B44"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="A38:B41"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:Q48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="A45:B46"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="L47:M47"/>
   </mergeCells>
   <pageMargins left="0.16" right="0.16" top="0.34" bottom="0.16" header="0.23" footer="0.16"/>
-  <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SALE BILL REPORT 2021-22.xlsx
+++ b/SALE BILL REPORT 2021-22.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'April 2021-22'!$A$2:$X$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'June 2021'!$A$2:$X$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'June 2021'!$A$2:$X$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'May 2021'!$A$2:$X$30</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="223">
   <si>
     <t>Pataka Premium</t>
   </si>
@@ -649,13 +649,55 @@
     <t>14.06.2021</t>
   </si>
   <si>
-    <t>DESTINETION WISE DESPATCHED REPOTR FOR THE MONTH OF JUNE 01.06.2021 TO 15.06.2021</t>
-  </si>
-  <si>
     <t>16.06.2021</t>
   </si>
   <si>
     <t>SALE BILL REPORT FOR THE MONTH OF JUNE 01.06.2021 TO 30.06.2021</t>
+  </si>
+  <si>
+    <t>22.06.2021</t>
+  </si>
+  <si>
+    <t>23.06.2021</t>
+  </si>
+  <si>
+    <t>24.06.2021</t>
+  </si>
+  <si>
+    <t>25.06.2021</t>
+  </si>
+  <si>
+    <t>21.06.2021</t>
+  </si>
+  <si>
+    <t>DESTINETION WISE DESPATCHED REPOTR FOR THE MONTH OF JUNE 01.06.2021 TO 30.06.2021</t>
+  </si>
+  <si>
+    <t>26.06.2021</t>
+  </si>
+  <si>
+    <t>Dham Dass Man Dass</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>Saharanpur</t>
+  </si>
+  <si>
+    <t>28.06.2021</t>
+  </si>
+  <si>
+    <t>29.06.2021</t>
+  </si>
+  <si>
+    <t>30.06.2021</t>
+  </si>
+  <si>
+    <t>Maha Laxmi Agency</t>
+  </si>
+  <si>
+    <t>Gajrolla</t>
   </si>
 </sst>
 </file>
@@ -753,7 +795,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="65">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -1571,11 +1613,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="270">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1915,77 +1994,127 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2275,6 +2404,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2616,81 +2757,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="16.5" thickBot="1">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="192" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="173"/>
-      <c r="T1" s="174"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="193"/>
+      <c r="O1" s="193"/>
+      <c r="P1" s="193"/>
+      <c r="Q1" s="193"/>
+      <c r="R1" s="193"/>
+      <c r="S1" s="193"/>
+      <c r="T1" s="194"/>
     </row>
     <row r="2" spans="1:20" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="199" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="180"/>
-      <c r="E2" s="183" t="s">
+      <c r="D2" s="200"/>
+      <c r="E2" s="203" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="185" t="s">
+      <c r="F2" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="177"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="187" t="s">
+      <c r="G2" s="197"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="207" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="188"/>
-      <c r="K2" s="188"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="187" t="s">
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="188"/>
-      <c r="P2" s="186"/>
-      <c r="Q2" s="190" t="s">
+      <c r="O2" s="208"/>
+      <c r="P2" s="206"/>
+      <c r="Q2" s="210" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="191"/>
-      <c r="S2" s="177" t="s">
+      <c r="R2" s="211"/>
+      <c r="S2" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="150" t="s">
+      <c r="T2" s="170" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="6" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A3" s="176"/>
-      <c r="B3" s="178"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="152" t="s">
+      <c r="A3" s="196"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="153"/>
+      <c r="G3" s="173"/>
       <c r="H3" s="9" t="s">
         <v>4</v>
       </c>
@@ -2703,10 +2844,10 @@
       <c r="K3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="154" t="s">
+      <c r="L3" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="155"/>
+      <c r="M3" s="175"/>
       <c r="N3" s="8" t="s">
         <v>21</v>
       </c>
@@ -2722,25 +2863,25 @@
       <c r="R3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="178"/>
-      <c r="T3" s="151"/>
+      <c r="S3" s="198"/>
+      <c r="T3" s="171"/>
     </row>
     <row r="4" spans="1:20" s="18" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="85" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="30"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="157"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="177"/>
       <c r="E4" s="31"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="158"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="178"/>
       <c r="H4" s="80"/>
       <c r="I4" s="32"/>
       <c r="J4" s="33"/>
       <c r="K4" s="80"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="157"/>
+      <c r="L4" s="179"/>
+      <c r="M4" s="177"/>
       <c r="N4" s="79"/>
       <c r="O4" s="80"/>
       <c r="P4" s="34"/>
@@ -2759,21 +2900,21 @@
       <c r="B5" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="184" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="165"/>
+      <c r="D5" s="185"/>
       <c r="E5" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="166"/>
-      <c r="G5" s="167"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="187"/>
       <c r="H5" s="84"/>
       <c r="I5" s="40"/>
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
-      <c r="L5" s="168"/>
-      <c r="M5" s="169"/>
+      <c r="L5" s="188"/>
+      <c r="M5" s="189"/>
       <c r="N5" s="40"/>
       <c r="O5" s="41"/>
       <c r="P5" s="84"/>
@@ -2796,15 +2937,15 @@
       <c r="B6" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="160" t="s">
+      <c r="C6" s="180" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="161"/>
+      <c r="D6" s="181"/>
       <c r="E6" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="162"/>
-      <c r="G6" s="163"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="183"/>
       <c r="H6" s="83"/>
       <c r="I6" s="46">
         <v>60</v>
@@ -2813,8 +2954,8 @@
       <c r="K6" s="47">
         <v>22</v>
       </c>
-      <c r="L6" s="170"/>
-      <c r="M6" s="171"/>
+      <c r="L6" s="190"/>
+      <c r="M6" s="191"/>
       <c r="N6" s="48"/>
       <c r="O6" s="83"/>
       <c r="P6" s="49"/>
@@ -2835,21 +2976,21 @@
       <c r="B7" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="160" t="s">
+      <c r="C7" s="180" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="161"/>
+      <c r="D7" s="181"/>
       <c r="E7" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="162"/>
-      <c r="G7" s="163"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="183"/>
       <c r="H7" s="83"/>
       <c r="I7" s="48"/>
       <c r="J7" s="52"/>
       <c r="K7" s="52"/>
-      <c r="L7" s="148"/>
-      <c r="M7" s="149"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="169"/>
       <c r="N7" s="48">
         <v>600</v>
       </c>
@@ -2876,23 +3017,23 @@
       <c r="B8" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="160" t="s">
+      <c r="C8" s="180" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="161"/>
+      <c r="D8" s="181"/>
       <c r="E8" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="162"/>
-      <c r="G8" s="163"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="183"/>
       <c r="H8" s="83">
         <v>120</v>
       </c>
       <c r="I8" s="48"/>
       <c r="J8" s="52"/>
       <c r="K8" s="52"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="149"/>
+      <c r="L8" s="168"/>
+      <c r="M8" s="169"/>
       <c r="N8" s="48"/>
       <c r="O8" s="83"/>
       <c r="P8" s="49">
@@ -2915,23 +3056,23 @@
       <c r="B9" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="160" t="s">
+      <c r="C9" s="180" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="161"/>
+      <c r="D9" s="181"/>
       <c r="E9" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="162"/>
-      <c r="G9" s="163"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="183"/>
       <c r="H9" s="83"/>
       <c r="I9" s="48">
         <v>150</v>
       </c>
       <c r="J9" s="52"/>
       <c r="K9" s="52"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="149"/>
+      <c r="L9" s="168"/>
+      <c r="M9" s="169"/>
       <c r="N9" s="48"/>
       <c r="O9" s="83"/>
       <c r="P9" s="49">
@@ -2954,21 +3095,21 @@
       <c r="B10" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="160" t="s">
+      <c r="C10" s="180" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="161"/>
+      <c r="D10" s="181"/>
       <c r="E10" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="162"/>
-      <c r="G10" s="163"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="183"/>
       <c r="H10" s="83"/>
       <c r="I10" s="48"/>
       <c r="J10" s="52"/>
       <c r="K10" s="52"/>
-      <c r="L10" s="148"/>
-      <c r="M10" s="149"/>
+      <c r="L10" s="168"/>
+      <c r="M10" s="169"/>
       <c r="N10" s="48"/>
       <c r="O10" s="83"/>
       <c r="P10" s="49"/>
@@ -2991,23 +3132,23 @@
       <c r="B11" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="160" t="s">
+      <c r="C11" s="180" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="161"/>
+      <c r="D11" s="181"/>
       <c r="E11" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="162"/>
-      <c r="G11" s="163"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="183"/>
       <c r="H11" s="83">
         <v>24</v>
       </c>
       <c r="I11" s="48"/>
       <c r="J11" s="52"/>
       <c r="K11" s="52"/>
-      <c r="L11" s="148"/>
-      <c r="M11" s="149"/>
+      <c r="L11" s="168"/>
+      <c r="M11" s="169"/>
       <c r="N11" s="48"/>
       <c r="O11" s="83"/>
       <c r="P11" s="49"/>
@@ -3028,21 +3169,21 @@
       <c r="B12" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="160" t="s">
+      <c r="C12" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="161"/>
+      <c r="D12" s="181"/>
       <c r="E12" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="F12" s="162"/>
-      <c r="G12" s="163"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="183"/>
       <c r="H12" s="83"/>
       <c r="I12" s="48"/>
       <c r="J12" s="52"/>
       <c r="K12" s="52"/>
-      <c r="L12" s="148"/>
-      <c r="M12" s="149"/>
+      <c r="L12" s="168"/>
+      <c r="M12" s="169"/>
       <c r="N12" s="48"/>
       <c r="O12" s="83"/>
       <c r="P12" s="49">
@@ -3067,23 +3208,23 @@
       <c r="B13" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="160" t="s">
+      <c r="C13" s="180" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="161"/>
+      <c r="D13" s="181"/>
       <c r="E13" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="162"/>
-      <c r="G13" s="163"/>
+      <c r="F13" s="182"/>
+      <c r="G13" s="183"/>
       <c r="H13" s="83">
         <v>48</v>
       </c>
       <c r="I13" s="48"/>
       <c r="J13" s="52"/>
       <c r="K13" s="52"/>
-      <c r="L13" s="148"/>
-      <c r="M13" s="149"/>
+      <c r="L13" s="168"/>
+      <c r="M13" s="169"/>
       <c r="N13" s="48"/>
       <c r="O13" s="83"/>
       <c r="P13" s="49"/>
@@ -3104,23 +3245,23 @@
       <c r="B14" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="160" t="s">
+      <c r="C14" s="180" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="161"/>
+      <c r="D14" s="181"/>
       <c r="E14" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="162"/>
-      <c r="G14" s="163"/>
+      <c r="F14" s="182"/>
+      <c r="G14" s="183"/>
       <c r="H14" s="83">
         <v>48</v>
       </c>
       <c r="I14" s="48"/>
       <c r="J14" s="52"/>
       <c r="K14" s="52"/>
-      <c r="L14" s="148"/>
-      <c r="M14" s="149"/>
+      <c r="L14" s="168"/>
+      <c r="M14" s="169"/>
       <c r="N14" s="48"/>
       <c r="O14" s="83"/>
       <c r="P14" s="49"/>
@@ -3141,15 +3282,15 @@
       <c r="B15" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="160" t="s">
+      <c r="C15" s="180" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="161"/>
+      <c r="D15" s="181"/>
       <c r="E15" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="162"/>
-      <c r="G15" s="163"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="183"/>
       <c r="H15" s="83"/>
       <c r="I15" s="48">
         <v>7050</v>
@@ -3160,8 +3301,8 @@
       <c r="K15" s="52">
         <v>440</v>
       </c>
-      <c r="L15" s="148"/>
-      <c r="M15" s="149"/>
+      <c r="L15" s="168"/>
+      <c r="M15" s="169"/>
       <c r="N15" s="82">
         <v>840</v>
       </c>
@@ -3190,21 +3331,21 @@
       <c r="B16" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="160" t="s">
+      <c r="C16" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="D16" s="161"/>
+      <c r="D16" s="181"/>
       <c r="E16" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="162"/>
-      <c r="G16" s="163"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="183"/>
       <c r="H16" s="83"/>
       <c r="I16" s="48"/>
       <c r="J16" s="52"/>
       <c r="K16" s="52"/>
-      <c r="L16" s="148"/>
-      <c r="M16" s="149"/>
+      <c r="L16" s="168"/>
+      <c r="M16" s="169"/>
       <c r="N16" s="82"/>
       <c r="O16" s="83"/>
       <c r="P16" s="49">
@@ -3229,21 +3370,21 @@
       <c r="B17" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="160" t="s">
+      <c r="C17" s="180" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="161"/>
+      <c r="D17" s="181"/>
       <c r="E17" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="F17" s="162"/>
-      <c r="G17" s="163"/>
+      <c r="F17" s="182"/>
+      <c r="G17" s="183"/>
       <c r="H17" s="83"/>
       <c r="I17" s="48"/>
       <c r="J17" s="52"/>
       <c r="K17" s="52"/>
-      <c r="L17" s="148"/>
-      <c r="M17" s="149"/>
+      <c r="L17" s="168"/>
+      <c r="M17" s="169"/>
       <c r="N17" s="82"/>
       <c r="O17" s="83"/>
       <c r="P17" s="49">
@@ -3266,21 +3407,21 @@
       <c r="B18" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="160" t="s">
+      <c r="C18" s="180" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="161"/>
+      <c r="D18" s="181"/>
       <c r="E18" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="162"/>
-      <c r="G18" s="163"/>
+      <c r="F18" s="182"/>
+      <c r="G18" s="183"/>
       <c r="H18" s="83"/>
       <c r="I18" s="48"/>
       <c r="J18" s="52"/>
       <c r="K18" s="52"/>
-      <c r="L18" s="148"/>
-      <c r="M18" s="149"/>
+      <c r="L18" s="168"/>
+      <c r="M18" s="169"/>
       <c r="N18" s="82">
         <v>600</v>
       </c>
@@ -3307,21 +3448,21 @@
       <c r="B19" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="160" t="s">
+      <c r="C19" s="180" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="161"/>
+      <c r="D19" s="181"/>
       <c r="E19" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="162"/>
-      <c r="G19" s="163"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="183"/>
       <c r="H19" s="83"/>
       <c r="I19" s="48"/>
       <c r="J19" s="52"/>
       <c r="K19" s="52"/>
-      <c r="L19" s="148"/>
-      <c r="M19" s="149"/>
+      <c r="L19" s="168"/>
+      <c r="M19" s="169"/>
       <c r="N19" s="82">
         <v>600</v>
       </c>
@@ -3349,23 +3490,23 @@
       <c r="B20" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="162" t="s">
+      <c r="C20" s="182" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="149"/>
+      <c r="D20" s="169"/>
       <c r="E20" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="162"/>
-      <c r="G20" s="163"/>
+      <c r="F20" s="182"/>
+      <c r="G20" s="183"/>
       <c r="H20" s="83"/>
       <c r="I20" s="48">
         <v>600</v>
       </c>
       <c r="J20" s="52"/>
       <c r="K20" s="52"/>
-      <c r="L20" s="148"/>
-      <c r="M20" s="149"/>
+      <c r="L20" s="168"/>
+      <c r="M20" s="169"/>
       <c r="N20" s="82"/>
       <c r="O20" s="83"/>
       <c r="P20" s="49">
@@ -3388,23 +3529,23 @@
       <c r="B21" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="162" t="s">
+      <c r="C21" s="182" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="149"/>
+      <c r="D21" s="169"/>
       <c r="E21" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="162"/>
-      <c r="G21" s="163"/>
+      <c r="F21" s="182"/>
+      <c r="G21" s="183"/>
       <c r="H21" s="83"/>
       <c r="I21" s="48"/>
       <c r="J21" s="52"/>
       <c r="K21" s="52">
         <v>220</v>
       </c>
-      <c r="L21" s="148"/>
-      <c r="M21" s="149"/>
+      <c r="L21" s="168"/>
+      <c r="M21" s="169"/>
       <c r="N21" s="82">
         <v>600</v>
       </c>
@@ -3431,25 +3572,25 @@
       <c r="B22" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="162" t="s">
+      <c r="C22" s="182" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="149"/>
+      <c r="D22" s="169"/>
       <c r="E22" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="162">
+      <c r="F22" s="182">
         <v>48</v>
       </c>
-      <c r="G22" s="163"/>
+      <c r="G22" s="183"/>
       <c r="H22" s="83">
         <v>24</v>
       </c>
       <c r="I22" s="48"/>
       <c r="J22" s="52"/>
       <c r="K22" s="52"/>
-      <c r="L22" s="148"/>
-      <c r="M22" s="149"/>
+      <c r="L22" s="168"/>
+      <c r="M22" s="169"/>
       <c r="N22" s="82"/>
       <c r="O22" s="83"/>
       <c r="P22" s="49">
@@ -3474,15 +3615,15 @@
       <c r="B23" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="162" t="s">
+      <c r="C23" s="182" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="149"/>
+      <c r="D23" s="169"/>
       <c r="E23" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="F23" s="162"/>
-      <c r="G23" s="163"/>
+      <c r="F23" s="182"/>
+      <c r="G23" s="183"/>
       <c r="H23" s="83">
         <v>1200</v>
       </c>
@@ -3493,8 +3634,8 @@
       <c r="K23" s="52">
         <v>660</v>
       </c>
-      <c r="L23" s="148"/>
-      <c r="M23" s="149"/>
+      <c r="L23" s="168"/>
+      <c r="M23" s="169"/>
       <c r="N23" s="82"/>
       <c r="O23" s="83"/>
       <c r="P23" s="49">
@@ -3517,23 +3658,23 @@
       <c r="B24" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="162" t="s">
+      <c r="C24" s="182" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="149"/>
+      <c r="D24" s="169"/>
       <c r="E24" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="162"/>
-      <c r="G24" s="163"/>
+      <c r="F24" s="182"/>
+      <c r="G24" s="183"/>
       <c r="H24" s="83">
         <v>120</v>
       </c>
       <c r="I24" s="48"/>
       <c r="J24" s="52"/>
       <c r="K24" s="52"/>
-      <c r="L24" s="148"/>
-      <c r="M24" s="149"/>
+      <c r="L24" s="168"/>
+      <c r="M24" s="169"/>
       <c r="N24" s="82"/>
       <c r="O24" s="83"/>
       <c r="P24" s="49"/>
@@ -3556,23 +3697,23 @@
       <c r="B25" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="162" t="s">
+      <c r="C25" s="182" t="s">
         <v>129</v>
       </c>
-      <c r="D25" s="149"/>
+      <c r="D25" s="169"/>
       <c r="E25" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="F25" s="162"/>
-      <c r="G25" s="163"/>
+      <c r="F25" s="182"/>
+      <c r="G25" s="183"/>
       <c r="H25" s="83">
         <v>120</v>
       </c>
       <c r="I25" s="48"/>
       <c r="J25" s="52"/>
       <c r="K25" s="52"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="149"/>
+      <c r="L25" s="168"/>
+      <c r="M25" s="169"/>
       <c r="N25" s="82"/>
       <c r="O25" s="83"/>
       <c r="P25" s="49"/>
@@ -3593,23 +3734,23 @@
       <c r="B26" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="162" t="s">
+      <c r="C26" s="182" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="149"/>
+      <c r="D26" s="169"/>
       <c r="E26" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="162"/>
-      <c r="G26" s="163"/>
+      <c r="F26" s="182"/>
+      <c r="G26" s="183"/>
       <c r="H26" s="83"/>
       <c r="I26" s="48">
         <v>1200</v>
       </c>
       <c r="J26" s="52"/>
       <c r="K26" s="52"/>
-      <c r="L26" s="148"/>
-      <c r="M26" s="149"/>
+      <c r="L26" s="168"/>
+      <c r="M26" s="169"/>
       <c r="N26" s="82">
         <v>1200</v>
       </c>
@@ -3638,21 +3779,21 @@
       <c r="B27" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="162" t="s">
+      <c r="C27" s="182" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="149"/>
+      <c r="D27" s="169"/>
       <c r="E27" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="F27" s="162"/>
-      <c r="G27" s="163"/>
+      <c r="F27" s="182"/>
+      <c r="G27" s="183"/>
       <c r="H27" s="86"/>
       <c r="I27" s="57"/>
       <c r="J27" s="58"/>
       <c r="K27" s="58"/>
-      <c r="L27" s="148"/>
-      <c r="M27" s="149"/>
+      <c r="L27" s="168"/>
+      <c r="M27" s="169"/>
       <c r="N27" s="81"/>
       <c r="O27" s="86"/>
       <c r="P27" s="55">
@@ -3675,23 +3816,23 @@
       <c r="B28" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="162" t="s">
+      <c r="C28" s="182" t="s">
         <v>134</v>
       </c>
-      <c r="D28" s="149"/>
+      <c r="D28" s="169"/>
       <c r="E28" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="F28" s="162"/>
-      <c r="G28" s="163"/>
+      <c r="F28" s="182"/>
+      <c r="G28" s="183"/>
       <c r="H28" s="86">
         <v>48</v>
       </c>
       <c r="I28" s="57"/>
       <c r="J28" s="58"/>
       <c r="K28" s="58"/>
-      <c r="L28" s="148"/>
-      <c r="M28" s="149"/>
+      <c r="L28" s="168"/>
+      <c r="M28" s="169"/>
       <c r="N28" s="81"/>
       <c r="O28" s="86"/>
       <c r="P28" s="55">
@@ -3716,21 +3857,21 @@
       <c r="B29" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="162" t="s">
+      <c r="C29" s="182" t="s">
         <v>137</v>
       </c>
-      <c r="D29" s="149"/>
+      <c r="D29" s="169"/>
       <c r="E29" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="F29" s="162"/>
-      <c r="G29" s="163"/>
+      <c r="F29" s="182"/>
+      <c r="G29" s="183"/>
       <c r="H29" s="86"/>
       <c r="I29" s="57"/>
       <c r="J29" s="58"/>
       <c r="K29" s="58"/>
-      <c r="L29" s="148"/>
-      <c r="M29" s="149"/>
+      <c r="L29" s="168"/>
+      <c r="M29" s="169"/>
       <c r="N29" s="81"/>
       <c r="O29" s="86"/>
       <c r="P29" s="55"/>
@@ -3753,21 +3894,21 @@
       <c r="B30" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="162" t="s">
+      <c r="C30" s="182" t="s">
         <v>140</v>
       </c>
-      <c r="D30" s="149"/>
+      <c r="D30" s="169"/>
       <c r="E30" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="F30" s="162"/>
-      <c r="G30" s="163"/>
+      <c r="F30" s="182"/>
+      <c r="G30" s="183"/>
       <c r="H30" s="86"/>
       <c r="I30" s="57"/>
       <c r="J30" s="58"/>
       <c r="K30" s="58"/>
-      <c r="L30" s="148"/>
-      <c r="M30" s="149"/>
+      <c r="L30" s="168"/>
+      <c r="M30" s="169"/>
       <c r="N30" s="81"/>
       <c r="O30" s="86"/>
       <c r="P30" s="55"/>
@@ -3790,21 +3931,21 @@
       <c r="B31" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="162" t="s">
+      <c r="C31" s="182" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="149"/>
+      <c r="D31" s="169"/>
       <c r="E31" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="F31" s="162"/>
-      <c r="G31" s="163"/>
+      <c r="F31" s="182"/>
+      <c r="G31" s="183"/>
       <c r="H31" s="86"/>
       <c r="I31" s="57"/>
       <c r="J31" s="58"/>
       <c r="K31" s="58"/>
-      <c r="L31" s="148"/>
-      <c r="M31" s="149"/>
+      <c r="L31" s="168"/>
+      <c r="M31" s="169"/>
       <c r="N31" s="81"/>
       <c r="O31" s="86"/>
       <c r="P31" s="55">
@@ -3827,23 +3968,23 @@
       <c r="B32" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="162" t="s">
+      <c r="C32" s="182" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="149"/>
+      <c r="D32" s="169"/>
       <c r="E32" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="F32" s="162"/>
-      <c r="G32" s="163"/>
+      <c r="F32" s="182"/>
+      <c r="G32" s="183"/>
       <c r="H32" s="86"/>
       <c r="I32" s="57">
         <v>120</v>
       </c>
       <c r="J32" s="58"/>
       <c r="K32" s="58"/>
-      <c r="L32" s="148"/>
-      <c r="M32" s="149"/>
+      <c r="L32" s="168"/>
+      <c r="M32" s="169"/>
       <c r="N32" s="81"/>
       <c r="O32" s="86">
         <v>144</v>
@@ -3870,17 +4011,17 @@
       <c r="B33" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="162" t="s">
+      <c r="C33" s="182" t="s">
         <v>127</v>
       </c>
-      <c r="D33" s="149"/>
+      <c r="D33" s="169"/>
       <c r="E33" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="F33" s="162">
+      <c r="F33" s="182">
         <v>720</v>
       </c>
-      <c r="G33" s="163"/>
+      <c r="G33" s="183"/>
       <c r="H33" s="86">
         <v>1440</v>
       </c>
@@ -3889,8 +4030,8 @@
       </c>
       <c r="J33" s="58"/>
       <c r="K33" s="58"/>
-      <c r="L33" s="148"/>
-      <c r="M33" s="149"/>
+      <c r="L33" s="168"/>
+      <c r="M33" s="169"/>
       <c r="N33" s="81">
         <v>480</v>
       </c>
@@ -3917,21 +4058,21 @@
       <c r="B34" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="162" t="s">
+      <c r="C34" s="182" t="s">
         <v>117</v>
       </c>
-      <c r="D34" s="149"/>
+      <c r="D34" s="169"/>
       <c r="E34" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="F34" s="162"/>
-      <c r="G34" s="163"/>
+      <c r="F34" s="182"/>
+      <c r="G34" s="183"/>
       <c r="H34" s="86"/>
       <c r="I34" s="57"/>
       <c r="J34" s="58"/>
       <c r="K34" s="58"/>
-      <c r="L34" s="148"/>
-      <c r="M34" s="149"/>
+      <c r="L34" s="168"/>
+      <c r="M34" s="169"/>
       <c r="N34" s="81"/>
       <c r="O34" s="86"/>
       <c r="P34" s="55">
@@ -3954,15 +4095,15 @@
       <c r="B35" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="162" t="s">
+      <c r="C35" s="182" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="149"/>
+      <c r="D35" s="169"/>
       <c r="E35" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="F35" s="162"/>
-      <c r="G35" s="163"/>
+      <c r="F35" s="182"/>
+      <c r="G35" s="183"/>
       <c r="H35" s="86"/>
       <c r="I35" s="57">
         <v>9750</v>
@@ -3971,8 +4112,8 @@
       <c r="K35" s="58">
         <v>330</v>
       </c>
-      <c r="L35" s="148"/>
-      <c r="M35" s="149"/>
+      <c r="L35" s="168"/>
+      <c r="M35" s="169"/>
       <c r="N35" s="81"/>
       <c r="O35" s="86">
         <v>120</v>
@@ -3999,21 +4140,21 @@
       <c r="B36" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="162" t="s">
+      <c r="C36" s="182" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="149"/>
+      <c r="D36" s="169"/>
       <c r="E36" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F36" s="162"/>
-      <c r="G36" s="163"/>
+      <c r="F36" s="182"/>
+      <c r="G36" s="183"/>
       <c r="H36" s="86"/>
       <c r="I36" s="57"/>
       <c r="J36" s="58"/>
       <c r="K36" s="58"/>
-      <c r="L36" s="148"/>
-      <c r="M36" s="149"/>
+      <c r="L36" s="168"/>
+      <c r="M36" s="169"/>
       <c r="N36" s="81"/>
       <c r="O36" s="86"/>
       <c r="P36" s="55"/>
@@ -4036,21 +4177,21 @@
       <c r="B37" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="162" t="s">
+      <c r="C37" s="182" t="s">
         <v>149</v>
       </c>
-      <c r="D37" s="149"/>
+      <c r="D37" s="169"/>
       <c r="E37" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="F37" s="162"/>
-      <c r="G37" s="163"/>
+      <c r="F37" s="182"/>
+      <c r="G37" s="183"/>
       <c r="H37" s="86"/>
       <c r="I37" s="57"/>
       <c r="J37" s="58"/>
       <c r="K37" s="58"/>
-      <c r="L37" s="148"/>
-      <c r="M37" s="149"/>
+      <c r="L37" s="168"/>
+      <c r="M37" s="169"/>
       <c r="N37" s="81"/>
       <c r="O37" s="86"/>
       <c r="P37" s="55">
@@ -4075,23 +4216,23 @@
       <c r="B38" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="162" t="s">
+      <c r="C38" s="182" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="149"/>
+      <c r="D38" s="169"/>
       <c r="E38" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="F38" s="162"/>
-      <c r="G38" s="163"/>
+      <c r="F38" s="182"/>
+      <c r="G38" s="183"/>
       <c r="H38" s="86"/>
       <c r="I38" s="57">
         <v>600</v>
       </c>
       <c r="J38" s="58"/>
       <c r="K38" s="58"/>
-      <c r="L38" s="148"/>
-      <c r="M38" s="149"/>
+      <c r="L38" s="168"/>
+      <c r="M38" s="169"/>
       <c r="N38" s="81">
         <v>480</v>
       </c>
@@ -4118,23 +4259,23 @@
       <c r="B39" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="160" t="s">
+      <c r="C39" s="180" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="161"/>
+      <c r="D39" s="181"/>
       <c r="E39" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="F39" s="162"/>
-      <c r="G39" s="163"/>
+      <c r="F39" s="182"/>
+      <c r="G39" s="183"/>
       <c r="H39" s="86">
         <v>120</v>
       </c>
       <c r="I39" s="57"/>
       <c r="J39" s="58"/>
       <c r="K39" s="58"/>
-      <c r="L39" s="148"/>
-      <c r="M39" s="149"/>
+      <c r="L39" s="168"/>
+      <c r="M39" s="169"/>
       <c r="N39" s="95"/>
       <c r="O39" s="86"/>
       <c r="P39" s="55"/>
@@ -4155,15 +4296,15 @@
       <c r="B40" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="160" t="s">
+      <c r="C40" s="180" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="161"/>
+      <c r="D40" s="181"/>
       <c r="E40" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="162"/>
-      <c r="G40" s="163"/>
+      <c r="F40" s="182"/>
+      <c r="G40" s="183"/>
       <c r="H40" s="86"/>
       <c r="I40" s="57">
         <v>6450</v>
@@ -4172,8 +4313,8 @@
       <c r="K40" s="58">
         <v>110</v>
       </c>
-      <c r="L40" s="148"/>
-      <c r="M40" s="149"/>
+      <c r="L40" s="168"/>
+      <c r="M40" s="169"/>
       <c r="N40" s="95">
         <v>240</v>
       </c>
@@ -4202,23 +4343,23 @@
       <c r="B41" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="160" t="s">
+      <c r="C41" s="180" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="161"/>
+      <c r="D41" s="181"/>
       <c r="E41" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F41" s="162"/>
-      <c r="G41" s="163"/>
+      <c r="F41" s="182"/>
+      <c r="G41" s="183"/>
       <c r="H41" s="86"/>
       <c r="I41" s="57">
         <v>1800</v>
       </c>
       <c r="J41" s="58"/>
       <c r="K41" s="58"/>
-      <c r="L41" s="148"/>
-      <c r="M41" s="149"/>
+      <c r="L41" s="168"/>
+      <c r="M41" s="169"/>
       <c r="N41" s="95">
         <v>240</v>
       </c>
@@ -4245,21 +4386,21 @@
       <c r="B42" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="C42" s="160" t="s">
+      <c r="C42" s="180" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="161"/>
+      <c r="D42" s="181"/>
       <c r="E42" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F42" s="162"/>
-      <c r="G42" s="163"/>
+      <c r="F42" s="182"/>
+      <c r="G42" s="183"/>
       <c r="H42" s="86"/>
       <c r="I42" s="57"/>
       <c r="J42" s="58"/>
       <c r="K42" s="58"/>
-      <c r="L42" s="148"/>
-      <c r="M42" s="149"/>
+      <c r="L42" s="168"/>
+      <c r="M42" s="169"/>
       <c r="N42" s="95">
         <v>600</v>
       </c>
@@ -4284,21 +4425,21 @@
       <c r="B43" s="97" t="s">
         <v>152</v>
       </c>
-      <c r="C43" s="160" t="s">
+      <c r="C43" s="180" t="s">
         <v>123</v>
       </c>
-      <c r="D43" s="161"/>
+      <c r="D43" s="181"/>
       <c r="E43" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F43" s="162"/>
-      <c r="G43" s="163"/>
+      <c r="F43" s="182"/>
+      <c r="G43" s="183"/>
       <c r="H43" s="86"/>
       <c r="I43" s="57"/>
       <c r="J43" s="58"/>
       <c r="K43" s="58"/>
-      <c r="L43" s="148"/>
-      <c r="M43" s="149"/>
+      <c r="L43" s="168"/>
+      <c r="M43" s="169"/>
       <c r="N43" s="95"/>
       <c r="O43" s="86"/>
       <c r="P43" s="55">
@@ -4321,21 +4462,21 @@
       <c r="B44" s="97" t="s">
         <v>153</v>
       </c>
-      <c r="C44" s="160" t="s">
+      <c r="C44" s="180" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="161"/>
+      <c r="D44" s="181"/>
       <c r="E44" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="F44" s="162"/>
-      <c r="G44" s="163"/>
+      <c r="F44" s="182"/>
+      <c r="G44" s="183"/>
       <c r="H44" s="86"/>
       <c r="I44" s="57"/>
       <c r="J44" s="58"/>
       <c r="K44" s="58"/>
-      <c r="L44" s="148"/>
-      <c r="M44" s="149"/>
+      <c r="L44" s="168"/>
+      <c r="M44" s="169"/>
       <c r="N44" s="95">
         <v>1200</v>
       </c>
@@ -4362,21 +4503,21 @@
       <c r="B45" s="97" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="160" t="s">
+      <c r="C45" s="180" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="161"/>
+      <c r="D45" s="181"/>
       <c r="E45" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F45" s="162"/>
-      <c r="G45" s="163"/>
+      <c r="F45" s="182"/>
+      <c r="G45" s="183"/>
       <c r="H45" s="86"/>
       <c r="I45" s="57"/>
       <c r="J45" s="58"/>
       <c r="K45" s="58"/>
-      <c r="L45" s="148"/>
-      <c r="M45" s="149"/>
+      <c r="L45" s="168"/>
+      <c r="M45" s="169"/>
       <c r="N45" s="95"/>
       <c r="O45" s="86"/>
       <c r="P45" s="55">
@@ -4401,15 +4542,15 @@
       <c r="B46" s="97" t="s">
         <v>155</v>
       </c>
-      <c r="C46" s="160" t="s">
+      <c r="C46" s="180" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="161"/>
+      <c r="D46" s="181"/>
       <c r="E46" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="F46" s="162"/>
-      <c r="G46" s="163"/>
+      <c r="F46" s="182"/>
+      <c r="G46" s="183"/>
       <c r="H46" s="86">
         <v>240</v>
       </c>
@@ -4418,10 +4559,10 @@
       </c>
       <c r="J46" s="58"/>
       <c r="K46" s="58"/>
-      <c r="L46" s="148">
+      <c r="L46" s="168">
         <v>110</v>
       </c>
-      <c r="M46" s="149"/>
+      <c r="M46" s="169"/>
       <c r="N46" s="98"/>
       <c r="O46" s="86"/>
       <c r="P46" s="55"/>
@@ -4442,21 +4583,21 @@
       <c r="B47" s="97" t="s">
         <v>156</v>
       </c>
-      <c r="C47" s="160" t="s">
+      <c r="C47" s="180" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="161"/>
+      <c r="D47" s="181"/>
       <c r="E47" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="F47" s="162"/>
-      <c r="G47" s="163"/>
+      <c r="F47" s="182"/>
+      <c r="G47" s="183"/>
       <c r="H47" s="86"/>
       <c r="I47" s="57"/>
       <c r="J47" s="58"/>
       <c r="K47" s="58"/>
-      <c r="L47" s="148"/>
-      <c r="M47" s="149"/>
+      <c r="L47" s="168"/>
+      <c r="M47" s="169"/>
       <c r="N47" s="98"/>
       <c r="O47" s="86"/>
       <c r="P47" s="55">
@@ -4479,15 +4620,15 @@
       <c r="B48" s="97" t="s">
         <v>157</v>
       </c>
-      <c r="C48" s="160" t="s">
+      <c r="C48" s="180" t="s">
         <v>127</v>
       </c>
-      <c r="D48" s="161"/>
+      <c r="D48" s="181"/>
       <c r="E48" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="F48" s="162"/>
-      <c r="G48" s="163"/>
+      <c r="F48" s="182"/>
+      <c r="G48" s="183"/>
       <c r="H48" s="86">
         <v>1200</v>
       </c>
@@ -4496,8 +4637,8 @@
         <v>240</v>
       </c>
       <c r="K48" s="58"/>
-      <c r="L48" s="148"/>
-      <c r="M48" s="149"/>
+      <c r="L48" s="168"/>
+      <c r="M48" s="169"/>
       <c r="N48" s="98">
         <v>1200</v>
       </c>
@@ -4526,21 +4667,21 @@
       <c r="B49" s="97" t="s">
         <v>162</v>
       </c>
-      <c r="C49" s="160" t="s">
+      <c r="C49" s="180" t="s">
         <v>172</v>
       </c>
-      <c r="D49" s="161"/>
+      <c r="D49" s="181"/>
       <c r="E49" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="F49" s="162"/>
-      <c r="G49" s="163"/>
+      <c r="F49" s="182"/>
+      <c r="G49" s="183"/>
       <c r="H49" s="86"/>
       <c r="I49" s="57"/>
       <c r="J49" s="58"/>
       <c r="K49" s="58"/>
-      <c r="L49" s="148"/>
-      <c r="M49" s="149"/>
+      <c r="L49" s="168"/>
+      <c r="M49" s="169"/>
       <c r="N49" s="98"/>
       <c r="O49" s="86"/>
       <c r="P49" s="55">
@@ -4563,21 +4704,21 @@
       <c r="B50" s="97" t="s">
         <v>163</v>
       </c>
-      <c r="C50" s="160" t="s">
+      <c r="C50" s="180" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="161"/>
+      <c r="D50" s="181"/>
       <c r="E50" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="F50" s="162"/>
-      <c r="G50" s="163"/>
+      <c r="F50" s="182"/>
+      <c r="G50" s="183"/>
       <c r="H50" s="86"/>
       <c r="I50" s="57"/>
       <c r="J50" s="58"/>
       <c r="K50" s="58"/>
-      <c r="L50" s="148"/>
-      <c r="M50" s="149"/>
+      <c r="L50" s="168"/>
+      <c r="M50" s="169"/>
       <c r="N50" s="98"/>
       <c r="O50" s="86"/>
       <c r="P50" s="55">
@@ -4600,21 +4741,21 @@
       <c r="B51" s="97" t="s">
         <v>164</v>
       </c>
-      <c r="C51" s="160" t="s">
+      <c r="C51" s="180" t="s">
         <v>175</v>
       </c>
-      <c r="D51" s="161"/>
+      <c r="D51" s="181"/>
       <c r="E51" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="F51" s="162"/>
-      <c r="G51" s="163"/>
+      <c r="F51" s="182"/>
+      <c r="G51" s="183"/>
       <c r="H51" s="86"/>
       <c r="I51" s="57"/>
       <c r="J51" s="58"/>
       <c r="K51" s="58"/>
-      <c r="L51" s="148"/>
-      <c r="M51" s="149"/>
+      <c r="L51" s="168"/>
+      <c r="M51" s="169"/>
       <c r="N51" s="98"/>
       <c r="O51" s="86"/>
       <c r="P51" s="55">
@@ -4637,15 +4778,15 @@
       <c r="B52" s="97" t="s">
         <v>165</v>
       </c>
-      <c r="C52" s="160" t="s">
+      <c r="C52" s="180" t="s">
         <v>127</v>
       </c>
-      <c r="D52" s="161"/>
+      <c r="D52" s="181"/>
       <c r="E52" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="F52" s="162"/>
-      <c r="G52" s="163"/>
+      <c r="F52" s="182"/>
+      <c r="G52" s="183"/>
       <c r="H52" s="86">
         <v>960</v>
       </c>
@@ -4656,10 +4797,10 @@
       <c r="K52" s="58">
         <v>660</v>
       </c>
-      <c r="L52" s="148">
+      <c r="L52" s="168">
         <v>330</v>
       </c>
-      <c r="M52" s="149"/>
+      <c r="M52" s="169"/>
       <c r="N52" s="98">
         <v>360</v>
       </c>
@@ -4688,23 +4829,23 @@
       <c r="B53" s="97" t="s">
         <v>166</v>
       </c>
-      <c r="C53" s="160" t="s">
+      <c r="C53" s="180" t="s">
         <v>120</v>
       </c>
-      <c r="D53" s="161"/>
+      <c r="D53" s="181"/>
       <c r="E53" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F53" s="162"/>
-      <c r="G53" s="163"/>
+      <c r="F53" s="182"/>
+      <c r="G53" s="183"/>
       <c r="H53" s="86"/>
       <c r="I53" s="57">
         <v>1800</v>
       </c>
       <c r="J53" s="58"/>
       <c r="K53" s="58"/>
-      <c r="L53" s="148"/>
-      <c r="M53" s="149"/>
+      <c r="L53" s="168"/>
+      <c r="M53" s="169"/>
       <c r="N53" s="98">
         <v>720</v>
       </c>
@@ -4731,23 +4872,23 @@
       <c r="B54" s="97" t="s">
         <v>167</v>
       </c>
-      <c r="C54" s="160" t="s">
+      <c r="C54" s="180" t="s">
         <v>123</v>
       </c>
-      <c r="D54" s="161"/>
+      <c r="D54" s="181"/>
       <c r="E54" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F54" s="162"/>
-      <c r="G54" s="163"/>
+      <c r="F54" s="182"/>
+      <c r="G54" s="183"/>
       <c r="H54" s="86"/>
       <c r="I54" s="57">
         <v>600</v>
       </c>
       <c r="J54" s="58"/>
       <c r="K54" s="58"/>
-      <c r="L54" s="148"/>
-      <c r="M54" s="149"/>
+      <c r="L54" s="168"/>
+      <c r="M54" s="169"/>
       <c r="N54" s="98"/>
       <c r="O54" s="86"/>
       <c r="P54" s="55">
@@ -4770,21 +4911,21 @@
       <c r="B55" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="C55" s="160" t="s">
+      <c r="C55" s="180" t="s">
         <v>122</v>
       </c>
-      <c r="D55" s="161"/>
+      <c r="D55" s="181"/>
       <c r="E55" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F55" s="162"/>
-      <c r="G55" s="163"/>
+      <c r="F55" s="182"/>
+      <c r="G55" s="183"/>
       <c r="H55" s="86"/>
       <c r="I55" s="57"/>
       <c r="J55" s="58"/>
       <c r="K55" s="58"/>
-      <c r="L55" s="148"/>
-      <c r="M55" s="149"/>
+      <c r="L55" s="168"/>
+      <c r="M55" s="169"/>
       <c r="N55" s="98">
         <v>480</v>
       </c>
@@ -4805,18 +4946,18 @@
       </c>
     </row>
     <row r="56" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A56" s="195" t="s">
+      <c r="A56" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="B56" s="196"/>
-      <c r="C56" s="196"/>
+      <c r="B56" s="216"/>
+      <c r="C56" s="216"/>
       <c r="D56" s="62"/>
       <c r="E56" s="60"/>
-      <c r="F56" s="156">
+      <c r="F56" s="176">
         <f>SUM(F5:G55)</f>
         <v>768</v>
       </c>
-      <c r="G56" s="158"/>
+      <c r="G56" s="178"/>
       <c r="H56" s="34">
         <f>SUM(H5:H55)</f>
         <v>5712</v>
@@ -4833,11 +4974,11 @@
         <f>SUM(K5:K55)</f>
         <v>2442</v>
       </c>
-      <c r="L56" s="159">
+      <c r="L56" s="179">
         <f>SUM(L5:M55)</f>
         <v>440</v>
       </c>
-      <c r="M56" s="157"/>
+      <c r="M56" s="177"/>
       <c r="N56" s="77">
         <f t="shared" ref="N56:T56" si="1">SUM(N5:N55)</f>
         <v>10440</v>
@@ -4871,16 +5012,16 @@
       <c r="X56" s="13"/>
     </row>
     <row r="57" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A57" s="195"/>
-      <c r="B57" s="196"/>
-      <c r="C57" s="196"/>
+      <c r="A57" s="215"/>
+      <c r="B57" s="216"/>
+      <c r="C57" s="216"/>
       <c r="D57" s="62"/>
       <c r="E57" s="60"/>
-      <c r="F57" s="156">
+      <c r="F57" s="176">
         <f>F4+F56</f>
         <v>768</v>
       </c>
-      <c r="G57" s="158"/>
+      <c r="G57" s="178"/>
       <c r="H57" s="34">
         <f>H4+H56</f>
         <v>5712</v>
@@ -4897,11 +5038,11 @@
         <f>K4+K56</f>
         <v>2442</v>
       </c>
-      <c r="L57" s="159">
+      <c r="L57" s="179">
         <f>L4+L56</f>
         <v>440</v>
       </c>
-      <c r="M57" s="157"/>
+      <c r="M57" s="177"/>
       <c r="N57" s="77">
         <f t="shared" ref="N57:T57" si="2">N4+N56</f>
         <v>10440</v>
@@ -4937,63 +5078,63 @@
       <c r="V58" s="13"/>
     </row>
     <row r="59" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A59" s="197" t="s">
+      <c r="A59" s="217" t="s">
         <v>161</v>
       </c>
-      <c r="B59" s="198"/>
-      <c r="C59" s="198"/>
-      <c r="D59" s="198"/>
-      <c r="E59" s="198"/>
-      <c r="F59" s="198"/>
-      <c r="G59" s="198"/>
-      <c r="H59" s="198"/>
-      <c r="I59" s="198"/>
-      <c r="J59" s="198"/>
-      <c r="K59" s="198"/>
-      <c r="L59" s="198"/>
-      <c r="M59" s="198"/>
-      <c r="N59" s="198"/>
-      <c r="O59" s="198"/>
-      <c r="P59" s="198"/>
-      <c r="Q59" s="199"/>
+      <c r="B59" s="218"/>
+      <c r="C59" s="218"/>
+      <c r="D59" s="218"/>
+      <c r="E59" s="218"/>
+      <c r="F59" s="218"/>
+      <c r="G59" s="218"/>
+      <c r="H59" s="218"/>
+      <c r="I59" s="218"/>
+      <c r="J59" s="218"/>
+      <c r="K59" s="218"/>
+      <c r="L59" s="218"/>
+      <c r="M59" s="218"/>
+      <c r="N59" s="218"/>
+      <c r="O59" s="218"/>
+      <c r="P59" s="218"/>
+      <c r="Q59" s="219"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="28"/>
     </row>
     <row r="60" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A60" s="200" t="s">
+      <c r="A60" s="220" t="s">
         <v>34</v>
       </c>
-      <c r="B60" s="201"/>
-      <c r="C60" s="204" t="s">
+      <c r="B60" s="221"/>
+      <c r="C60" s="224" t="s">
         <v>33</v>
       </c>
-      <c r="D60" s="204" t="s">
+      <c r="D60" s="224" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="207" t="s">
+      <c r="E60" s="227" t="s">
         <v>19</v>
       </c>
-      <c r="F60" s="200" t="s">
+      <c r="F60" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="G60" s="201"/>
-      <c r="H60" s="209" t="s">
+      <c r="G60" s="221"/>
+      <c r="H60" s="229" t="s">
         <v>10</v>
       </c>
-      <c r="I60" s="210"/>
-      <c r="J60" s="211"/>
-      <c r="K60" s="212" t="s">
+      <c r="I60" s="230"/>
+      <c r="J60" s="231"/>
+      <c r="K60" s="232" t="s">
         <v>25</v>
       </c>
-      <c r="L60" s="213"/>
-      <c r="M60" s="213"/>
-      <c r="N60" s="213"/>
-      <c r="O60" s="214"/>
-      <c r="P60" s="204" t="s">
+      <c r="L60" s="233"/>
+      <c r="M60" s="233"/>
+      <c r="N60" s="233"/>
+      <c r="O60" s="234"/>
+      <c r="P60" s="224" t="s">
         <v>20</v>
       </c>
-      <c r="Q60" s="215" t="s">
+      <c r="Q60" s="235" t="s">
         <v>38</v>
       </c>
       <c r="R60" s="1"/>
@@ -5001,13 +5142,13 @@
       <c r="T60" s="28"/>
     </row>
     <row r="61" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A61" s="202"/>
-      <c r="B61" s="203"/>
-      <c r="C61" s="205"/>
-      <c r="D61" s="206"/>
-      <c r="E61" s="208"/>
-      <c r="F61" s="202"/>
-      <c r="G61" s="203"/>
+      <c r="A61" s="222"/>
+      <c r="B61" s="223"/>
+      <c r="C61" s="225"/>
+      <c r="D61" s="226"/>
+      <c r="E61" s="228"/>
+      <c r="F61" s="222"/>
+      <c r="G61" s="223"/>
       <c r="H61" s="70" t="s">
         <v>49</v>
       </c>
@@ -5020,25 +5161,25 @@
       <c r="K61" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="L61" s="212" t="s">
+      <c r="L61" s="232" t="s">
         <v>47</v>
       </c>
-      <c r="M61" s="214"/>
+      <c r="M61" s="234"/>
       <c r="N61" s="70" t="s">
         <v>46</v>
       </c>
       <c r="O61" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="P61" s="206"/>
-      <c r="Q61" s="216"/>
+      <c r="P61" s="226"/>
+      <c r="Q61" s="236"/>
       <c r="T61" s="28"/>
     </row>
     <row r="62" spans="1:24" ht="15" customHeight="1">
-      <c r="A62" s="200" t="s">
+      <c r="A62" s="220" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="201"/>
+      <c r="B62" s="221"/>
       <c r="C62" s="66" t="s">
         <v>28</v>
       </c>
@@ -5046,14 +5187,14 @@
       <c r="E62" s="4">
         <v>720</v>
       </c>
-      <c r="F62" s="222"/>
-      <c r="G62" s="222"/>
+      <c r="F62" s="242"/>
+      <c r="G62" s="242"/>
       <c r="H62" s="4"/>
       <c r="I62" s="67"/>
       <c r="J62" s="4"/>
       <c r="K62" s="67"/>
-      <c r="L62" s="223"/>
-      <c r="M62" s="224"/>
+      <c r="L62" s="243"/>
+      <c r="M62" s="244"/>
       <c r="N62" s="67"/>
       <c r="O62" s="4">
         <v>48</v>
@@ -5070,8 +5211,8 @@
       </c>
     </row>
     <row r="63" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A63" s="202"/>
-      <c r="B63" s="203"/>
+      <c r="A63" s="222"/>
+      <c r="B63" s="223"/>
       <c r="C63" s="74" t="s">
         <v>29</v>
       </c>
@@ -5079,16 +5220,16 @@
       <c r="E63" s="14">
         <v>2640</v>
       </c>
-      <c r="F63" s="229">
+      <c r="F63" s="249">
         <v>2160</v>
       </c>
-      <c r="G63" s="229"/>
+      <c r="G63" s="249"/>
       <c r="H63" s="14"/>
       <c r="I63" s="71"/>
       <c r="J63" s="14"/>
       <c r="K63" s="71"/>
-      <c r="L63" s="230"/>
-      <c r="M63" s="231"/>
+      <c r="L63" s="250"/>
+      <c r="M63" s="251"/>
       <c r="N63" s="71"/>
       <c r="O63" s="14">
         <v>672</v>
@@ -5107,10 +5248,10 @@
       </c>
     </row>
     <row r="64" spans="1:24">
-      <c r="A64" s="200" t="s">
+      <c r="A64" s="220" t="s">
         <v>41</v>
       </c>
-      <c r="B64" s="201"/>
+      <c r="B64" s="221"/>
       <c r="C64" s="4" t="s">
         <v>30</v>
       </c>
@@ -5120,10 +5261,10 @@
       <c r="E64" s="4">
         <v>600</v>
       </c>
-      <c r="F64" s="222">
+      <c r="F64" s="242">
         <v>1650</v>
       </c>
-      <c r="G64" s="222"/>
+      <c r="G64" s="242"/>
       <c r="H64" s="4"/>
       <c r="I64" s="67">
         <v>3600</v>
@@ -5132,10 +5273,10 @@
         <v>1200</v>
       </c>
       <c r="K64" s="67"/>
-      <c r="L64" s="223">
+      <c r="L64" s="243">
         <v>120</v>
       </c>
-      <c r="M64" s="224"/>
+      <c r="M64" s="244"/>
       <c r="N64" s="67"/>
       <c r="O64" s="4">
         <v>210</v>
@@ -5154,8 +5295,8 @@
       </c>
     </row>
     <row r="65" spans="1:22">
-      <c r="A65" s="237"/>
-      <c r="B65" s="238"/>
+      <c r="A65" s="257"/>
+      <c r="B65" s="258"/>
       <c r="C65" s="5" t="s">
         <v>32</v>
       </c>
@@ -5165,14 +5306,14 @@
       <c r="E65" s="5">
         <v>240</v>
       </c>
-      <c r="F65" s="242"/>
-      <c r="G65" s="242"/>
+      <c r="F65" s="262"/>
+      <c r="G65" s="262"/>
       <c r="H65" s="5"/>
       <c r="I65" s="69"/>
       <c r="J65" s="5"/>
       <c r="K65" s="69"/>
-      <c r="L65" s="243"/>
-      <c r="M65" s="244"/>
+      <c r="L65" s="263"/>
+      <c r="M65" s="264"/>
       <c r="N65" s="69"/>
       <c r="O65" s="5"/>
       <c r="P65" s="69"/>
@@ -5187,8 +5328,8 @@
       </c>
     </row>
     <row r="66" spans="1:22">
-      <c r="A66" s="237"/>
-      <c r="B66" s="238"/>
+      <c r="A66" s="257"/>
+      <c r="B66" s="258"/>
       <c r="C66" s="5" t="s">
         <v>43</v>
       </c>
@@ -5196,16 +5337,16 @@
         <v>880</v>
       </c>
       <c r="E66" s="5"/>
-      <c r="F66" s="242">
+      <c r="F66" s="262">
         <v>1320</v>
       </c>
-      <c r="G66" s="242"/>
+      <c r="G66" s="262"/>
       <c r="H66" s="5"/>
       <c r="I66" s="69"/>
       <c r="J66" s="5"/>
       <c r="K66" s="69"/>
-      <c r="L66" s="243"/>
-      <c r="M66" s="244"/>
+      <c r="L66" s="263"/>
+      <c r="M66" s="264"/>
       <c r="N66" s="69"/>
       <c r="O66" s="5">
         <v>22</v>
@@ -5224,23 +5365,23 @@
       </c>
     </row>
     <row r="67" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A67" s="202"/>
-      <c r="B67" s="203"/>
+      <c r="A67" s="222"/>
+      <c r="B67" s="223"/>
       <c r="C67" s="65" t="s">
         <v>44</v>
       </c>
       <c r="D67" s="73"/>
       <c r="E67" s="15"/>
-      <c r="F67" s="192">
+      <c r="F67" s="212">
         <v>330</v>
       </c>
-      <c r="G67" s="192"/>
+      <c r="G67" s="212"/>
       <c r="H67" s="15"/>
       <c r="I67" s="72"/>
       <c r="J67" s="15"/>
       <c r="K67" s="72"/>
-      <c r="L67" s="193"/>
-      <c r="M67" s="194"/>
+      <c r="L67" s="213"/>
+      <c r="M67" s="214"/>
       <c r="N67" s="72"/>
       <c r="O67" s="15"/>
       <c r="P67" s="72">
@@ -5257,10 +5398,10 @@
       </c>
     </row>
     <row r="68" spans="1:22">
-      <c r="A68" s="200" t="s">
+      <c r="A68" s="220" t="s">
         <v>40</v>
       </c>
-      <c r="B68" s="201"/>
+      <c r="B68" s="221"/>
       <c r="C68" s="76" t="s">
         <v>28</v>
       </c>
@@ -5270,10 +5411,10 @@
       <c r="E68" s="16">
         <v>1680</v>
       </c>
-      <c r="F68" s="239">
+      <c r="F68" s="259">
         <v>360</v>
       </c>
-      <c r="G68" s="239"/>
+      <c r="G68" s="259"/>
       <c r="H68" s="16">
         <v>1680</v>
       </c>
@@ -5282,8 +5423,8 @@
       </c>
       <c r="J68" s="16"/>
       <c r="K68" s="75"/>
-      <c r="L68" s="240"/>
-      <c r="M68" s="241"/>
+      <c r="L68" s="260"/>
+      <c r="M68" s="261"/>
       <c r="N68" s="75"/>
       <c r="O68" s="16"/>
       <c r="P68" s="75">
@@ -5300,8 +5441,8 @@
       </c>
     </row>
     <row r="69" spans="1:22">
-      <c r="A69" s="237"/>
-      <c r="B69" s="238"/>
+      <c r="A69" s="257"/>
+      <c r="B69" s="258"/>
       <c r="C69" s="68" t="s">
         <v>31</v>
       </c>
@@ -5311,10 +5452,10 @@
       <c r="E69" s="5">
         <v>1440</v>
       </c>
-      <c r="F69" s="242">
+      <c r="F69" s="262">
         <v>240</v>
       </c>
-      <c r="G69" s="242"/>
+      <c r="G69" s="262"/>
       <c r="H69" s="5">
         <v>720</v>
       </c>
@@ -5323,10 +5464,10 @@
       </c>
       <c r="J69" s="5"/>
       <c r="K69" s="69"/>
-      <c r="L69" s="243">
+      <c r="L69" s="263">
         <v>144</v>
       </c>
-      <c r="M69" s="244"/>
+      <c r="M69" s="264"/>
       <c r="N69" s="69"/>
       <c r="O69" s="5"/>
       <c r="P69" s="69">
@@ -5343,8 +5484,8 @@
       </c>
     </row>
     <row r="70" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A70" s="202"/>
-      <c r="B70" s="203"/>
+      <c r="A70" s="222"/>
+      <c r="B70" s="223"/>
       <c r="C70" s="65" t="s">
         <v>29</v>
       </c>
@@ -5354,10 +5495,10 @@
       <c r="E70" s="14">
         <v>8400</v>
       </c>
-      <c r="F70" s="229">
+      <c r="F70" s="249">
         <v>5520</v>
       </c>
-      <c r="G70" s="229"/>
+      <c r="G70" s="249"/>
       <c r="H70" s="14">
         <v>2520</v>
       </c>
@@ -5368,10 +5509,10 @@
         <v>4920</v>
       </c>
       <c r="K70" s="71"/>
-      <c r="L70" s="230">
+      <c r="L70" s="250">
         <v>720</v>
       </c>
-      <c r="M70" s="231"/>
+      <c r="M70" s="251"/>
       <c r="N70" s="71"/>
       <c r="O70" s="14">
         <v>3648</v>
@@ -5390,10 +5531,10 @@
       </c>
     </row>
     <row r="71" spans="1:22">
-      <c r="A71" s="200" t="s">
+      <c r="A71" s="220" t="s">
         <v>42</v>
       </c>
-      <c r="B71" s="201"/>
+      <c r="B71" s="221"/>
       <c r="C71" s="66" t="s">
         <v>31</v>
       </c>
@@ -5403,18 +5544,18 @@
       <c r="E71" s="4">
         <v>240</v>
       </c>
-      <c r="F71" s="222">
+      <c r="F71" s="242">
         <v>360</v>
       </c>
-      <c r="G71" s="222"/>
+      <c r="G71" s="242"/>
       <c r="H71" s="4"/>
       <c r="I71" s="67"/>
       <c r="J71" s="4"/>
       <c r="K71" s="67"/>
-      <c r="L71" s="223">
+      <c r="L71" s="243">
         <v>120</v>
       </c>
-      <c r="M71" s="224"/>
+      <c r="M71" s="244"/>
       <c r="N71" s="67"/>
       <c r="O71" s="4">
         <v>672</v>
@@ -5433,8 +5574,8 @@
       </c>
     </row>
     <row r="72" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A72" s="202"/>
-      <c r="B72" s="203"/>
+      <c r="A72" s="222"/>
+      <c r="B72" s="223"/>
       <c r="C72" s="65" t="s">
         <v>29</v>
       </c>
@@ -5442,14 +5583,14 @@
         <v>900</v>
       </c>
       <c r="E72" s="15"/>
-      <c r="F72" s="192"/>
-      <c r="G72" s="192"/>
+      <c r="F72" s="212"/>
+      <c r="G72" s="212"/>
       <c r="H72" s="15"/>
       <c r="I72" s="72"/>
       <c r="J72" s="15"/>
       <c r="K72" s="72"/>
-      <c r="L72" s="193"/>
-      <c r="M72" s="194"/>
+      <c r="L72" s="213"/>
+      <c r="M72" s="214"/>
       <c r="N72" s="72"/>
       <c r="O72" s="15"/>
       <c r="P72" s="72"/>
@@ -5464,11 +5605,11 @@
       </c>
     </row>
     <row r="73" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A73" s="225" t="s">
+      <c r="A73" s="245" t="s">
         <v>37</v>
       </c>
-      <c r="B73" s="226"/>
-      <c r="C73" s="226"/>
+      <c r="B73" s="246"/>
+      <c r="C73" s="246"/>
       <c r="D73" s="23">
         <f>SUM(D62:D72)</f>
         <v>40630</v>
@@ -5477,11 +5618,11 @@
         <f t="shared" ref="E73" si="4">SUM(E62:E72)</f>
         <v>15960</v>
       </c>
-      <c r="F73" s="227">
+      <c r="F73" s="247">
         <f>SUM(F62:G72)</f>
         <v>11940</v>
       </c>
-      <c r="G73" s="228"/>
+      <c r="G73" s="248"/>
       <c r="H73" s="23">
         <f>SUM(H62:H72)</f>
         <v>4920</v>
@@ -5498,11 +5639,11 @@
         <f>SUM(K62:K72)</f>
         <v>0</v>
       </c>
-      <c r="L73" s="227">
+      <c r="L73" s="247">
         <f>SUM(L62:M72)</f>
         <v>1104</v>
       </c>
-      <c r="M73" s="228"/>
+      <c r="M73" s="248"/>
       <c r="N73" s="23">
         <f>SUM(N62:N72)</f>
         <v>0</v>
@@ -5528,47 +5669,47 @@
       </c>
     </row>
     <row r="74" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A74" s="232" t="s">
+      <c r="A74" s="252" t="s">
         <v>36</v>
       </c>
-      <c r="B74" s="233"/>
-      <c r="C74" s="233"/>
-      <c r="D74" s="234">
+      <c r="B74" s="253"/>
+      <c r="C74" s="253"/>
+      <c r="D74" s="254">
         <f>D73+E73+F73+H73+I73+J73+K73+L73+N73+O73+P73</f>
         <v>122966</v>
       </c>
-      <c r="E74" s="235"/>
-      <c r="F74" s="235"/>
-      <c r="G74" s="235"/>
-      <c r="H74" s="235"/>
-      <c r="I74" s="235"/>
-      <c r="J74" s="235"/>
-      <c r="K74" s="235"/>
-      <c r="L74" s="235"/>
-      <c r="M74" s="235"/>
-      <c r="N74" s="235"/>
-      <c r="O74" s="235"/>
-      <c r="P74" s="235"/>
-      <c r="Q74" s="236"/>
+      <c r="E74" s="255"/>
+      <c r="F74" s="255"/>
+      <c r="G74" s="255"/>
+      <c r="H74" s="255"/>
+      <c r="I74" s="255"/>
+      <c r="J74" s="255"/>
+      <c r="K74" s="255"/>
+      <c r="L74" s="255"/>
+      <c r="M74" s="255"/>
+      <c r="N74" s="255"/>
+      <c r="O74" s="255"/>
+      <c r="P74" s="255"/>
+      <c r="Q74" s="256"/>
       <c r="T74" s="28"/>
       <c r="V74" s="13"/>
     </row>
     <row r="75" spans="1:22" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A75" s="217" t="s">
+      <c r="A75" s="237" t="s">
         <v>26</v>
       </c>
-      <c r="B75" s="218"/>
-      <c r="C75" s="218"/>
+      <c r="B75" s="238"/>
+      <c r="C75" s="238"/>
       <c r="D75" s="25">
         <v>12859514</v>
       </c>
       <c r="E75" s="22">
         <v>5003124</v>
       </c>
-      <c r="F75" s="219">
+      <c r="F75" s="239">
         <v>3781158</v>
       </c>
-      <c r="G75" s="220"/>
+      <c r="G75" s="240"/>
       <c r="H75" s="22">
         <v>1562741</v>
       </c>
@@ -5579,10 +5720,10 @@
         <v>1941728</v>
       </c>
       <c r="K75" s="22"/>
-      <c r="L75" s="221">
+      <c r="L75" s="241">
         <v>357629</v>
       </c>
-      <c r="M75" s="220"/>
+      <c r="M75" s="240"/>
       <c r="N75" s="26"/>
       <c r="O75" s="22">
         <v>1792633</v>
@@ -5838,7 +5979,7 @@
   <dimension ref="A1:X49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H46" sqref="H46:J46"/>
     </sheetView>
   </sheetViews>
@@ -5869,81 +6010,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="16.5" thickBot="1">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="192" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="173"/>
-      <c r="T1" s="174"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="193"/>
+      <c r="O1" s="193"/>
+      <c r="P1" s="193"/>
+      <c r="Q1" s="193"/>
+      <c r="R1" s="193"/>
+      <c r="S1" s="193"/>
+      <c r="T1" s="194"/>
     </row>
     <row r="2" spans="1:20" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="199" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="180"/>
-      <c r="E2" s="183" t="s">
+      <c r="D2" s="200"/>
+      <c r="E2" s="203" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="185" t="s">
+      <c r="F2" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="177"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="187" t="s">
+      <c r="G2" s="197"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="207" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="188"/>
-      <c r="K2" s="188"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="187" t="s">
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="188"/>
-      <c r="P2" s="186"/>
-      <c r="Q2" s="190" t="s">
+      <c r="O2" s="208"/>
+      <c r="P2" s="206"/>
+      <c r="Q2" s="210" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="191"/>
-      <c r="S2" s="177" t="s">
+      <c r="R2" s="211"/>
+      <c r="S2" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="150" t="s">
+      <c r="T2" s="170" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="6" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A3" s="176"/>
-      <c r="B3" s="178"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="152" t="s">
+      <c r="A3" s="196"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="153"/>
+      <c r="G3" s="173"/>
       <c r="H3" s="9" t="s">
         <v>4</v>
       </c>
@@ -5956,10 +6097,10 @@
       <c r="K3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="154" t="s">
+      <c r="L3" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="155"/>
+      <c r="M3" s="175"/>
       <c r="N3" s="8" t="s">
         <v>21</v>
       </c>
@@ -5975,21 +6116,21 @@
       <c r="R3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="178"/>
-      <c r="T3" s="151"/>
+      <c r="S3" s="198"/>
+      <c r="T3" s="171"/>
     </row>
     <row r="4" spans="1:20" s="18" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="114" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="30"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="157"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="177"/>
       <c r="E4" s="31"/>
-      <c r="F4" s="156">
+      <c r="F4" s="176">
         <v>768</v>
       </c>
-      <c r="G4" s="158"/>
+      <c r="G4" s="178"/>
       <c r="H4" s="116">
         <v>5712</v>
       </c>
@@ -6002,10 +6143,10 @@
       <c r="K4" s="116">
         <v>2442</v>
       </c>
-      <c r="L4" s="159">
+      <c r="L4" s="179">
         <v>440</v>
       </c>
-      <c r="M4" s="157"/>
+      <c r="M4" s="177"/>
       <c r="N4" s="115">
         <v>10440</v>
       </c>
@@ -6036,23 +6177,23 @@
       <c r="B5" s="38">
         <v>52</v>
       </c>
-      <c r="C5" s="166" t="s">
+      <c r="C5" s="186" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="169"/>
+      <c r="D5" s="189"/>
       <c r="E5" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="162"/>
-      <c r="G5" s="163"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="183"/>
       <c r="H5" s="102"/>
       <c r="I5" s="46">
         <v>90</v>
       </c>
       <c r="J5" s="47"/>
       <c r="K5" s="47"/>
-      <c r="L5" s="170"/>
-      <c r="M5" s="171"/>
+      <c r="L5" s="190"/>
+      <c r="M5" s="191"/>
       <c r="N5" s="48"/>
       <c r="O5" s="102"/>
       <c r="P5" s="49"/>
@@ -6073,21 +6214,21 @@
       <c r="B6" s="38">
         <v>53</v>
       </c>
-      <c r="C6" s="160" t="s">
+      <c r="C6" s="180" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="161"/>
+      <c r="D6" s="181"/>
       <c r="E6" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="162"/>
-      <c r="G6" s="163"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="183"/>
       <c r="H6" s="102"/>
       <c r="I6" s="48"/>
       <c r="J6" s="52"/>
       <c r="K6" s="52"/>
-      <c r="L6" s="148"/>
-      <c r="M6" s="149"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="169"/>
       <c r="N6" s="48">
         <v>960</v>
       </c>
@@ -6114,23 +6255,23 @@
       <c r="B7" s="38">
         <v>54</v>
       </c>
-      <c r="C7" s="160" t="s">
+      <c r="C7" s="180" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="161"/>
+      <c r="D7" s="181"/>
       <c r="E7" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="162"/>
-      <c r="G7" s="163"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="183"/>
       <c r="H7" s="102">
         <v>48</v>
       </c>
       <c r="I7" s="48"/>
       <c r="J7" s="52"/>
       <c r="K7" s="52"/>
-      <c r="L7" s="148"/>
-      <c r="M7" s="149"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="169"/>
       <c r="N7" s="48"/>
       <c r="O7" s="102"/>
       <c r="P7" s="49"/>
@@ -6151,21 +6292,21 @@
       <c r="B8" s="38">
         <v>55</v>
       </c>
-      <c r="C8" s="162" t="s">
+      <c r="C8" s="182" t="s">
         <v>149</v>
       </c>
-      <c r="D8" s="149"/>
+      <c r="D8" s="169"/>
       <c r="E8" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="162"/>
-      <c r="G8" s="163"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="183"/>
       <c r="H8" s="102"/>
       <c r="I8" s="48"/>
       <c r="J8" s="52"/>
       <c r="K8" s="52"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="149"/>
+      <c r="L8" s="168"/>
+      <c r="M8" s="169"/>
       <c r="N8" s="48"/>
       <c r="O8" s="102"/>
       <c r="P8" s="49">
@@ -6188,21 +6329,21 @@
       <c r="B9" s="38">
         <v>56</v>
       </c>
-      <c r="C9" s="160" t="s">
+      <c r="C9" s="180" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="161"/>
+      <c r="D9" s="181"/>
       <c r="E9" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="162"/>
-      <c r="G9" s="163"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="183"/>
       <c r="H9" s="102"/>
       <c r="I9" s="48"/>
       <c r="J9" s="52"/>
       <c r="K9" s="52"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="149"/>
+      <c r="L9" s="168"/>
+      <c r="M9" s="169"/>
       <c r="N9" s="48"/>
       <c r="O9" s="102"/>
       <c r="P9" s="49"/>
@@ -6225,23 +6366,23 @@
       <c r="B10" s="38">
         <v>57</v>
       </c>
-      <c r="C10" s="160" t="s">
+      <c r="C10" s="180" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="161"/>
+      <c r="D10" s="181"/>
       <c r="E10" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F10" s="162"/>
-      <c r="G10" s="163"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="183"/>
       <c r="H10" s="102"/>
       <c r="I10" s="48">
         <v>750</v>
       </c>
       <c r="J10" s="52"/>
       <c r="K10" s="52"/>
-      <c r="L10" s="148"/>
-      <c r="M10" s="149"/>
+      <c r="L10" s="168"/>
+      <c r="M10" s="169"/>
       <c r="N10" s="48">
         <v>600</v>
       </c>
@@ -6268,21 +6409,21 @@
       <c r="B11" s="38">
         <v>58</v>
       </c>
-      <c r="C11" s="160" t="s">
+      <c r="C11" s="180" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="161"/>
+      <c r="D11" s="181"/>
       <c r="E11" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F11" s="162"/>
-      <c r="G11" s="163"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="183"/>
       <c r="H11" s="102"/>
       <c r="I11" s="48"/>
       <c r="J11" s="52"/>
       <c r="K11" s="52"/>
-      <c r="L11" s="148"/>
-      <c r="M11" s="149"/>
+      <c r="L11" s="168"/>
+      <c r="M11" s="169"/>
       <c r="N11" s="48">
         <v>960</v>
       </c>
@@ -6309,23 +6450,23 @@
       <c r="B12" s="38">
         <v>59</v>
       </c>
-      <c r="C12" s="160" t="s">
+      <c r="C12" s="180" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="161"/>
+      <c r="D12" s="181"/>
       <c r="E12" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="162"/>
-      <c r="G12" s="163"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="183"/>
       <c r="H12" s="102"/>
       <c r="I12" s="48">
         <v>450</v>
       </c>
       <c r="J12" s="52"/>
       <c r="K12" s="52"/>
-      <c r="L12" s="148"/>
-      <c r="M12" s="149"/>
+      <c r="L12" s="168"/>
+      <c r="M12" s="169"/>
       <c r="N12" s="48"/>
       <c r="O12" s="102"/>
       <c r="P12" s="49">
@@ -6348,21 +6489,21 @@
       <c r="B13" s="38">
         <v>60</v>
       </c>
-      <c r="C13" s="160" t="s">
+      <c r="C13" s="180" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="161"/>
+      <c r="D13" s="181"/>
       <c r="E13" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="F13" s="162"/>
-      <c r="G13" s="163"/>
+      <c r="F13" s="182"/>
+      <c r="G13" s="183"/>
       <c r="H13" s="102"/>
       <c r="I13" s="48"/>
       <c r="J13" s="52"/>
       <c r="K13" s="52"/>
-      <c r="L13" s="148"/>
-      <c r="M13" s="149"/>
+      <c r="L13" s="168"/>
+      <c r="M13" s="169"/>
       <c r="N13" s="48"/>
       <c r="O13" s="102"/>
       <c r="P13" s="49"/>
@@ -6385,23 +6526,23 @@
       <c r="B14" s="38">
         <v>61</v>
       </c>
-      <c r="C14" s="160" t="s">
+      <c r="C14" s="180" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="161"/>
+      <c r="D14" s="181"/>
       <c r="E14" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="162"/>
-      <c r="G14" s="163"/>
+      <c r="F14" s="182"/>
+      <c r="G14" s="183"/>
       <c r="H14" s="102"/>
       <c r="I14" s="48">
         <v>6450</v>
       </c>
       <c r="J14" s="52"/>
       <c r="K14" s="52"/>
-      <c r="L14" s="148"/>
-      <c r="M14" s="149"/>
+      <c r="L14" s="168"/>
+      <c r="M14" s="169"/>
       <c r="N14" s="101"/>
       <c r="O14" s="102"/>
       <c r="P14" s="49"/>
@@ -6424,17 +6565,17 @@
       <c r="B15" s="38">
         <v>62</v>
       </c>
-      <c r="C15" s="160" t="s">
+      <c r="C15" s="180" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="161"/>
+      <c r="D15" s="181"/>
       <c r="E15" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="162">
+      <c r="F15" s="182">
         <v>24</v>
       </c>
-      <c r="G15" s="163"/>
+      <c r="G15" s="183"/>
       <c r="H15" s="102">
         <v>1200</v>
       </c>
@@ -6445,10 +6586,10 @@
       <c r="K15" s="52">
         <v>220</v>
       </c>
-      <c r="L15" s="148">
+      <c r="L15" s="168">
         <v>110</v>
       </c>
-      <c r="M15" s="149"/>
+      <c r="M15" s="169"/>
       <c r="N15" s="101">
         <v>240</v>
       </c>
@@ -6475,17 +6616,17 @@
       <c r="B16" s="38">
         <v>63</v>
       </c>
-      <c r="C16" s="160" t="s">
+      <c r="C16" s="180" t="s">
         <v>127</v>
       </c>
-      <c r="D16" s="161"/>
+      <c r="D16" s="181"/>
       <c r="E16" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="162">
+      <c r="F16" s="182">
         <v>600</v>
       </c>
-      <c r="G16" s="163"/>
+      <c r="G16" s="183"/>
       <c r="H16" s="102">
         <v>1200</v>
       </c>
@@ -6494,8 +6635,8 @@
       <c r="K16" s="52">
         <v>220</v>
       </c>
-      <c r="L16" s="148"/>
-      <c r="M16" s="149"/>
+      <c r="L16" s="168"/>
+      <c r="M16" s="169"/>
       <c r="N16" s="101">
         <v>480</v>
       </c>
@@ -6522,17 +6663,17 @@
       <c r="B17" s="38">
         <v>64</v>
       </c>
-      <c r="C17" s="160" t="s">
+      <c r="C17" s="180" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="161"/>
+      <c r="D17" s="181"/>
       <c r="E17" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="162">
+      <c r="F17" s="182">
         <v>120</v>
       </c>
-      <c r="G17" s="163"/>
+      <c r="G17" s="183"/>
       <c r="H17" s="102">
         <v>240</v>
       </c>
@@ -6541,8 +6682,8 @@
       </c>
       <c r="J17" s="52"/>
       <c r="K17" s="52"/>
-      <c r="L17" s="148"/>
-      <c r="M17" s="149"/>
+      <c r="L17" s="168"/>
+      <c r="M17" s="169"/>
       <c r="N17" s="101">
         <v>1200</v>
       </c>
@@ -6569,23 +6710,23 @@
       <c r="B18" s="38">
         <v>65</v>
       </c>
-      <c r="C18" s="160" t="s">
+      <c r="C18" s="180" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="161"/>
+      <c r="D18" s="181"/>
       <c r="E18" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="162"/>
-      <c r="G18" s="163"/>
+      <c r="F18" s="182"/>
+      <c r="G18" s="183"/>
       <c r="H18" s="102">
         <v>72</v>
       </c>
       <c r="I18" s="48"/>
       <c r="J18" s="52"/>
       <c r="K18" s="52"/>
-      <c r="L18" s="148"/>
-      <c r="M18" s="149"/>
+      <c r="L18" s="168"/>
+      <c r="M18" s="169"/>
       <c r="N18" s="101"/>
       <c r="O18" s="102"/>
       <c r="P18" s="49"/>
@@ -6607,25 +6748,25 @@
       <c r="B19" s="38">
         <v>66</v>
       </c>
-      <c r="C19" s="162" t="s">
+      <c r="C19" s="182" t="s">
         <v>191</v>
       </c>
-      <c r="D19" s="149"/>
+      <c r="D19" s="169"/>
       <c r="E19" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="162">
+      <c r="F19" s="182">
         <v>72</v>
       </c>
-      <c r="G19" s="163"/>
+      <c r="G19" s="183"/>
       <c r="H19" s="102">
         <v>48</v>
       </c>
       <c r="I19" s="48"/>
       <c r="J19" s="52"/>
       <c r="K19" s="52"/>
-      <c r="L19" s="148"/>
-      <c r="M19" s="149"/>
+      <c r="L19" s="168"/>
+      <c r="M19" s="169"/>
       <c r="N19" s="101"/>
       <c r="O19" s="102"/>
       <c r="P19" s="49"/>
@@ -6646,23 +6787,23 @@
       <c r="B20" s="38">
         <v>67</v>
       </c>
-      <c r="C20" s="162" t="s">
+      <c r="C20" s="182" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="149"/>
+      <c r="D20" s="169"/>
       <c r="E20" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="162"/>
-      <c r="G20" s="163"/>
+      <c r="F20" s="182"/>
+      <c r="G20" s="183"/>
       <c r="H20" s="102"/>
       <c r="I20" s="48">
         <v>900</v>
       </c>
       <c r="J20" s="52"/>
       <c r="K20" s="52"/>
-      <c r="L20" s="148"/>
-      <c r="M20" s="149"/>
+      <c r="L20" s="168"/>
+      <c r="M20" s="169"/>
       <c r="N20" s="101">
         <v>960</v>
       </c>
@@ -6689,23 +6830,23 @@
       <c r="B21" s="38">
         <v>68</v>
       </c>
-      <c r="C21" s="162" t="s">
+      <c r="C21" s="182" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="149"/>
+      <c r="D21" s="169"/>
       <c r="E21" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="162"/>
-      <c r="G21" s="163"/>
+      <c r="F21" s="182"/>
+      <c r="G21" s="183"/>
       <c r="H21" s="102"/>
       <c r="I21" s="48">
         <v>300</v>
       </c>
       <c r="J21" s="52"/>
       <c r="K21" s="52"/>
-      <c r="L21" s="148"/>
-      <c r="M21" s="149"/>
+      <c r="L21" s="168"/>
+      <c r="M21" s="169"/>
       <c r="N21" s="101"/>
       <c r="O21" s="102"/>
       <c r="P21" s="49">
@@ -6728,23 +6869,23 @@
       <c r="B22" s="38">
         <v>69</v>
       </c>
-      <c r="C22" s="162" t="s">
+      <c r="C22" s="182" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="149"/>
+      <c r="D22" s="169"/>
       <c r="E22" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="162"/>
-      <c r="G22" s="163"/>
+      <c r="F22" s="182"/>
+      <c r="G22" s="183"/>
       <c r="H22" s="102"/>
       <c r="I22" s="48"/>
       <c r="J22" s="52"/>
       <c r="K22" s="52"/>
-      <c r="L22" s="148">
+      <c r="L22" s="168">
         <v>110</v>
       </c>
-      <c r="M22" s="149"/>
+      <c r="M22" s="169"/>
       <c r="N22" s="101">
         <v>720</v>
       </c>
@@ -6771,15 +6912,15 @@
       <c r="B23" s="38">
         <v>70</v>
       </c>
-      <c r="C23" s="162" t="s">
+      <c r="C23" s="182" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="149"/>
+      <c r="D23" s="169"/>
       <c r="E23" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="F23" s="162"/>
-      <c r="G23" s="163"/>
+      <c r="F23" s="182"/>
+      <c r="G23" s="183"/>
       <c r="H23" s="102"/>
       <c r="I23" s="48">
         <v>3600</v>
@@ -6788,8 +6929,8 @@
       <c r="K23" s="52">
         <v>330</v>
       </c>
-      <c r="L23" s="148"/>
-      <c r="M23" s="149"/>
+      <c r="L23" s="168"/>
+      <c r="M23" s="169"/>
       <c r="N23" s="101">
         <v>480</v>
       </c>
@@ -6818,21 +6959,21 @@
       <c r="B24" s="38">
         <v>71</v>
       </c>
-      <c r="C24" s="162" t="s">
+      <c r="C24" s="182" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="149"/>
+      <c r="D24" s="169"/>
       <c r="E24" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="F24" s="162"/>
-      <c r="G24" s="163"/>
+      <c r="F24" s="182"/>
+      <c r="G24" s="183"/>
       <c r="H24" s="102"/>
       <c r="I24" s="48"/>
       <c r="J24" s="52"/>
       <c r="K24" s="52"/>
-      <c r="L24" s="148"/>
-      <c r="M24" s="149"/>
+      <c r="L24" s="168"/>
+      <c r="M24" s="169"/>
       <c r="N24" s="101"/>
       <c r="O24" s="102"/>
       <c r="P24" s="49">
@@ -6855,23 +6996,23 @@
       <c r="B25" s="38">
         <v>72</v>
       </c>
-      <c r="C25" s="160" t="s">
+      <c r="C25" s="180" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="161"/>
+      <c r="D25" s="181"/>
       <c r="E25" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="162"/>
-      <c r="G25" s="163"/>
+      <c r="F25" s="182"/>
+      <c r="G25" s="183"/>
       <c r="H25" s="102"/>
       <c r="I25" s="48">
         <v>150</v>
       </c>
       <c r="J25" s="52"/>
       <c r="K25" s="52"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="149"/>
+      <c r="L25" s="168"/>
+      <c r="M25" s="169"/>
       <c r="N25" s="101"/>
       <c r="O25" s="102"/>
       <c r="P25" s="49"/>
@@ -6892,21 +7033,21 @@
       <c r="B26" s="38">
         <v>73</v>
       </c>
-      <c r="C26" s="162" t="s">
+      <c r="C26" s="182" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="149"/>
+      <c r="D26" s="169"/>
       <c r="E26" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="162"/>
-      <c r="G26" s="163"/>
+      <c r="F26" s="182"/>
+      <c r="G26" s="183"/>
       <c r="H26" s="86"/>
       <c r="I26" s="57"/>
       <c r="J26" s="58"/>
       <c r="K26" s="58"/>
-      <c r="L26" s="148"/>
-      <c r="M26" s="149"/>
+      <c r="L26" s="168"/>
+      <c r="M26" s="169"/>
       <c r="N26" s="103">
         <v>480</v>
       </c>
@@ -6931,21 +7072,21 @@
       <c r="B27" s="38">
         <v>74</v>
       </c>
-      <c r="C27" s="162" t="s">
+      <c r="C27" s="182" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="149"/>
+      <c r="D27" s="169"/>
       <c r="E27" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F27" s="162"/>
-      <c r="G27" s="163"/>
+      <c r="F27" s="182"/>
+      <c r="G27" s="183"/>
       <c r="H27" s="86"/>
       <c r="I27" s="57"/>
       <c r="J27" s="58"/>
       <c r="K27" s="58"/>
-      <c r="L27" s="148"/>
-      <c r="M27" s="149"/>
+      <c r="L27" s="168"/>
+      <c r="M27" s="169"/>
       <c r="N27" s="103">
         <v>1200</v>
       </c>
@@ -6970,23 +7111,23 @@
       <c r="B28" s="38">
         <v>75</v>
       </c>
-      <c r="C28" s="162" t="s">
+      <c r="C28" s="182" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="149"/>
+      <c r="D28" s="169"/>
       <c r="E28" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F28" s="162"/>
-      <c r="G28" s="163"/>
+      <c r="F28" s="182"/>
+      <c r="G28" s="183"/>
       <c r="H28" s="86"/>
       <c r="I28" s="57">
         <v>450</v>
       </c>
       <c r="J28" s="58"/>
       <c r="K28" s="58"/>
-      <c r="L28" s="148"/>
-      <c r="M28" s="149"/>
+      <c r="L28" s="168"/>
+      <c r="M28" s="169"/>
       <c r="N28" s="103"/>
       <c r="O28" s="86">
         <v>120</v>
@@ -7005,18 +7146,18 @@
       </c>
     </row>
     <row r="29" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A29" s="195" t="s">
+      <c r="A29" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="196"/>
-      <c r="C29" s="196"/>
+      <c r="B29" s="216"/>
+      <c r="C29" s="216"/>
       <c r="D29" s="62"/>
       <c r="E29" s="60"/>
-      <c r="F29" s="156">
+      <c r="F29" s="176">
         <f>SUM(F5:G28)</f>
         <v>816</v>
       </c>
-      <c r="G29" s="158"/>
+      <c r="G29" s="178"/>
       <c r="H29" s="34">
         <f>SUM(H5:H28)</f>
         <v>2808</v>
@@ -7033,11 +7174,11 @@
         <f>SUM(K5:K28)</f>
         <v>770</v>
       </c>
-      <c r="L29" s="159">
+      <c r="L29" s="179">
         <f>SUM(L5:M28)</f>
         <v>220</v>
       </c>
-      <c r="M29" s="157"/>
+      <c r="M29" s="177"/>
       <c r="N29" s="115">
         <f t="shared" ref="N29:T29" si="1">SUM(N5:N28)</f>
         <v>8280</v>
@@ -7071,16 +7212,16 @@
       <c r="X29" s="13"/>
     </row>
     <row r="30" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A30" s="195"/>
-      <c r="B30" s="196"/>
-      <c r="C30" s="196"/>
+      <c r="A30" s="215"/>
+      <c r="B30" s="216"/>
+      <c r="C30" s="216"/>
       <c r="D30" s="62"/>
       <c r="E30" s="60"/>
-      <c r="F30" s="156">
+      <c r="F30" s="176">
         <f>F4+F29</f>
         <v>1584</v>
       </c>
-      <c r="G30" s="158"/>
+      <c r="G30" s="178"/>
       <c r="H30" s="34">
         <f>H4+H29</f>
         <v>8520</v>
@@ -7097,11 +7238,11 @@
         <f>K4+K29</f>
         <v>3212</v>
       </c>
-      <c r="L30" s="159">
+      <c r="L30" s="179">
         <f>L4+L29</f>
         <v>660</v>
       </c>
-      <c r="M30" s="157"/>
+      <c r="M30" s="177"/>
       <c r="N30" s="115">
         <f t="shared" ref="N30:T30" si="2">N4+N29</f>
         <v>18720</v>
@@ -7137,63 +7278,63 @@
       <c r="V31" s="13"/>
     </row>
     <row r="32" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A32" s="197" t="s">
+      <c r="A32" s="217" t="s">
         <v>189</v>
       </c>
-      <c r="B32" s="198"/>
-      <c r="C32" s="198"/>
-      <c r="D32" s="198"/>
-      <c r="E32" s="198"/>
-      <c r="F32" s="198"/>
-      <c r="G32" s="198"/>
-      <c r="H32" s="198"/>
-      <c r="I32" s="198"/>
-      <c r="J32" s="198"/>
-      <c r="K32" s="198"/>
-      <c r="L32" s="198"/>
-      <c r="M32" s="198"/>
-      <c r="N32" s="198"/>
-      <c r="O32" s="198"/>
-      <c r="P32" s="198"/>
-      <c r="Q32" s="199"/>
+      <c r="B32" s="218"/>
+      <c r="C32" s="218"/>
+      <c r="D32" s="218"/>
+      <c r="E32" s="218"/>
+      <c r="F32" s="218"/>
+      <c r="G32" s="218"/>
+      <c r="H32" s="218"/>
+      <c r="I32" s="218"/>
+      <c r="J32" s="218"/>
+      <c r="K32" s="218"/>
+      <c r="L32" s="218"/>
+      <c r="M32" s="218"/>
+      <c r="N32" s="218"/>
+      <c r="O32" s="218"/>
+      <c r="P32" s="218"/>
+      <c r="Q32" s="219"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="28"/>
     </row>
     <row r="33" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="200" t="s">
+      <c r="A33" s="220" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="201"/>
-      <c r="C33" s="204" t="s">
+      <c r="B33" s="221"/>
+      <c r="C33" s="224" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="204" t="s">
+      <c r="D33" s="224" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="207" t="s">
+      <c r="E33" s="227" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="200" t="s">
+      <c r="F33" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="201"/>
-      <c r="H33" s="209" t="s">
+      <c r="G33" s="221"/>
+      <c r="H33" s="229" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="210"/>
-      <c r="J33" s="211"/>
-      <c r="K33" s="212" t="s">
+      <c r="I33" s="230"/>
+      <c r="J33" s="231"/>
+      <c r="K33" s="232" t="s">
         <v>25</v>
       </c>
-      <c r="L33" s="213"/>
-      <c r="M33" s="213"/>
-      <c r="N33" s="213"/>
-      <c r="O33" s="214"/>
-      <c r="P33" s="204" t="s">
+      <c r="L33" s="233"/>
+      <c r="M33" s="233"/>
+      <c r="N33" s="233"/>
+      <c r="O33" s="234"/>
+      <c r="P33" s="224" t="s">
         <v>20</v>
       </c>
-      <c r="Q33" s="215" t="s">
+      <c r="Q33" s="235" t="s">
         <v>38</v>
       </c>
       <c r="R33" s="1"/>
@@ -7201,13 +7342,13 @@
       <c r="T33" s="28"/>
     </row>
     <row r="34" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A34" s="202"/>
-      <c r="B34" s="203"/>
-      <c r="C34" s="205"/>
-      <c r="D34" s="206"/>
-      <c r="E34" s="208"/>
-      <c r="F34" s="202"/>
-      <c r="G34" s="203"/>
+      <c r="A34" s="222"/>
+      <c r="B34" s="223"/>
+      <c r="C34" s="225"/>
+      <c r="D34" s="226"/>
+      <c r="E34" s="228"/>
+      <c r="F34" s="222"/>
+      <c r="G34" s="223"/>
       <c r="H34" s="70" t="s">
         <v>49</v>
       </c>
@@ -7220,25 +7361,25 @@
       <c r="K34" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="L34" s="212" t="s">
+      <c r="L34" s="232" t="s">
         <v>47</v>
       </c>
-      <c r="M34" s="214"/>
+      <c r="M34" s="234"/>
       <c r="N34" s="70" t="s">
         <v>46</v>
       </c>
       <c r="O34" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="P34" s="206"/>
-      <c r="Q34" s="216"/>
+      <c r="P34" s="226"/>
+      <c r="Q34" s="236"/>
       <c r="T34" s="28"/>
     </row>
     <row r="35" spans="1:22" ht="15" customHeight="1">
-      <c r="A35" s="200" t="s">
+      <c r="A35" s="220" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="201"/>
+      <c r="B35" s="221"/>
       <c r="C35" s="105" t="s">
         <v>28</v>
       </c>
@@ -7246,16 +7387,16 @@
       <c r="E35" s="4">
         <v>600</v>
       </c>
-      <c r="F35" s="222">
+      <c r="F35" s="242">
         <v>24</v>
       </c>
-      <c r="G35" s="222"/>
+      <c r="G35" s="242"/>
       <c r="H35" s="4"/>
       <c r="I35" s="104"/>
       <c r="J35" s="4"/>
       <c r="K35" s="104"/>
-      <c r="L35" s="223"/>
-      <c r="M35" s="224"/>
+      <c r="L35" s="243"/>
+      <c r="M35" s="244"/>
       <c r="N35" s="104"/>
       <c r="O35" s="4">
         <v>72</v>
@@ -7274,8 +7415,8 @@
       </c>
     </row>
     <row r="36" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A36" s="202"/>
-      <c r="B36" s="203"/>
+      <c r="A36" s="222"/>
+      <c r="B36" s="223"/>
       <c r="C36" s="107" t="s">
         <v>29</v>
       </c>
@@ -7283,16 +7424,16 @@
       <c r="E36" s="14">
         <v>1200</v>
       </c>
-      <c r="F36" s="229">
+      <c r="F36" s="249">
         <v>1200</v>
       </c>
-      <c r="G36" s="229"/>
+      <c r="G36" s="249"/>
       <c r="H36" s="14"/>
       <c r="I36" s="106"/>
       <c r="J36" s="14"/>
       <c r="K36" s="106"/>
-      <c r="L36" s="230"/>
-      <c r="M36" s="231"/>
+      <c r="L36" s="250"/>
+      <c r="M36" s="251"/>
       <c r="N36" s="106"/>
       <c r="O36" s="14">
         <v>168</v>
@@ -7311,10 +7452,10 @@
       </c>
     </row>
     <row r="37" spans="1:22">
-      <c r="A37" s="200" t="s">
+      <c r="A37" s="220" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="201"/>
+      <c r="B37" s="221"/>
       <c r="C37" s="4" t="s">
         <v>30</v>
       </c>
@@ -7322,10 +7463,10 @@
         <v>10050</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="222">
+      <c r="F37" s="242">
         <v>690</v>
       </c>
-      <c r="G37" s="222"/>
+      <c r="G37" s="242"/>
       <c r="H37" s="4"/>
       <c r="I37" s="104">
         <v>1650</v>
@@ -7334,8 +7475,8 @@
         <v>1200</v>
       </c>
       <c r="K37" s="104"/>
-      <c r="L37" s="223"/>
-      <c r="M37" s="224"/>
+      <c r="L37" s="243"/>
+      <c r="M37" s="244"/>
       <c r="N37" s="104"/>
       <c r="O37" s="4">
         <v>240</v>
@@ -7354,21 +7495,21 @@
       </c>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="237"/>
-      <c r="B38" s="238"/>
+      <c r="A38" s="257"/>
+      <c r="B38" s="258"/>
       <c r="C38" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D38" s="113"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="242"/>
-      <c r="G38" s="242"/>
+      <c r="F38" s="262"/>
+      <c r="G38" s="262"/>
       <c r="H38" s="5"/>
       <c r="I38" s="112"/>
       <c r="J38" s="5"/>
       <c r="K38" s="112"/>
-      <c r="L38" s="243"/>
-      <c r="M38" s="244"/>
+      <c r="L38" s="263"/>
+      <c r="M38" s="264"/>
       <c r="N38" s="112"/>
       <c r="O38" s="5"/>
       <c r="P38" s="112"/>
@@ -7383,8 +7524,8 @@
       </c>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="237"/>
-      <c r="B39" s="238"/>
+      <c r="A39" s="257"/>
+      <c r="B39" s="258"/>
       <c r="C39" s="5" t="s">
         <v>43</v>
       </c>
@@ -7394,16 +7535,16 @@
       <c r="E39" s="5">
         <v>220</v>
       </c>
-      <c r="F39" s="242">
+      <c r="F39" s="262">
         <v>220</v>
       </c>
-      <c r="G39" s="242"/>
+      <c r="G39" s="262"/>
       <c r="H39" s="5"/>
       <c r="I39" s="112"/>
       <c r="J39" s="5"/>
       <c r="K39" s="112"/>
-      <c r="L39" s="243"/>
-      <c r="M39" s="244"/>
+      <c r="L39" s="263"/>
+      <c r="M39" s="264"/>
       <c r="N39" s="112"/>
       <c r="O39" s="5"/>
       <c r="P39" s="112"/>
@@ -7418,23 +7559,23 @@
       </c>
     </row>
     <row r="40" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A40" s="202"/>
-      <c r="B40" s="203"/>
+      <c r="A40" s="222"/>
+      <c r="B40" s="223"/>
       <c r="C40" s="65" t="s">
         <v>44</v>
       </c>
       <c r="D40" s="109"/>
       <c r="E40" s="15"/>
-      <c r="F40" s="192">
+      <c r="F40" s="212">
         <v>110</v>
       </c>
-      <c r="G40" s="192"/>
+      <c r="G40" s="212"/>
       <c r="H40" s="15"/>
       <c r="I40" s="108"/>
       <c r="J40" s="15"/>
       <c r="K40" s="108"/>
-      <c r="L40" s="193"/>
-      <c r="M40" s="194"/>
+      <c r="L40" s="213"/>
+      <c r="M40" s="214"/>
       <c r="N40" s="108"/>
       <c r="O40" s="15"/>
       <c r="P40" s="108">
@@ -7451,10 +7592,10 @@
       </c>
     </row>
     <row r="41" spans="1:22">
-      <c r="A41" s="200" t="s">
+      <c r="A41" s="220" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="201"/>
+      <c r="B41" s="221"/>
       <c r="C41" s="111" t="s">
         <v>28</v>
       </c>
@@ -7464,10 +7605,10 @@
       <c r="E41" s="16">
         <v>480</v>
       </c>
-      <c r="F41" s="239">
+      <c r="F41" s="259">
         <v>240</v>
       </c>
-      <c r="G41" s="239"/>
+      <c r="G41" s="259"/>
       <c r="H41" s="16">
         <v>2160</v>
       </c>
@@ -7476,8 +7617,8 @@
       </c>
       <c r="J41" s="16"/>
       <c r="K41" s="110"/>
-      <c r="L41" s="240"/>
-      <c r="M41" s="241"/>
+      <c r="L41" s="260"/>
+      <c r="M41" s="261"/>
       <c r="N41" s="110"/>
       <c r="O41" s="16"/>
       <c r="P41" s="110">
@@ -7494,8 +7635,8 @@
       </c>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="237"/>
-      <c r="B42" s="238"/>
+      <c r="A42" s="257"/>
+      <c r="B42" s="258"/>
       <c r="C42" s="113" t="s">
         <v>31</v>
       </c>
@@ -7505,8 +7646,8 @@
       <c r="E42" s="5">
         <v>600</v>
       </c>
-      <c r="F42" s="242"/>
-      <c r="G42" s="242"/>
+      <c r="F42" s="262"/>
+      <c r="G42" s="262"/>
       <c r="H42" s="5">
         <v>480</v>
       </c>
@@ -7517,8 +7658,8 @@
         <v>120</v>
       </c>
       <c r="K42" s="112"/>
-      <c r="L42" s="243"/>
-      <c r="M42" s="244"/>
+      <c r="L42" s="263"/>
+      <c r="M42" s="264"/>
       <c r="N42" s="112"/>
       <c r="O42" s="5"/>
       <c r="P42" s="112">
@@ -7535,8 +7676,8 @@
       </c>
     </row>
     <row r="43" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A43" s="202"/>
-      <c r="B43" s="203"/>
+      <c r="A43" s="222"/>
+      <c r="B43" s="223"/>
       <c r="C43" s="65" t="s">
         <v>29</v>
       </c>
@@ -7546,10 +7687,10 @@
       <c r="E43" s="14">
         <v>5400</v>
       </c>
-      <c r="F43" s="229">
+      <c r="F43" s="249">
         <v>4200</v>
       </c>
-      <c r="G43" s="229"/>
+      <c r="G43" s="249"/>
       <c r="H43" s="14">
         <v>2280</v>
       </c>
@@ -7560,8 +7701,8 @@
         <v>3960</v>
       </c>
       <c r="K43" s="106"/>
-      <c r="L43" s="230"/>
-      <c r="M43" s="231"/>
+      <c r="L43" s="250"/>
+      <c r="M43" s="251"/>
       <c r="N43" s="106"/>
       <c r="O43" s="14">
         <v>168</v>
@@ -7580,10 +7721,10 @@
       </c>
     </row>
     <row r="44" spans="1:22">
-      <c r="A44" s="200" t="s">
+      <c r="A44" s="220" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="201"/>
+      <c r="B44" s="221"/>
       <c r="C44" s="105" t="s">
         <v>31</v>
       </c>
@@ -7591,16 +7732,16 @@
         <v>2100</v>
       </c>
       <c r="E44" s="4"/>
-      <c r="F44" s="222">
+      <c r="F44" s="242">
         <v>360</v>
       </c>
-      <c r="G44" s="222"/>
+      <c r="G44" s="242"/>
       <c r="H44" s="4"/>
       <c r="I44" s="104"/>
       <c r="J44" s="4"/>
       <c r="K44" s="104"/>
-      <c r="L44" s="223"/>
-      <c r="M44" s="224"/>
+      <c r="L44" s="243"/>
+      <c r="M44" s="244"/>
       <c r="N44" s="104"/>
       <c r="O44" s="4">
         <v>180</v>
@@ -7619,8 +7760,8 @@
       </c>
     </row>
     <row r="45" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A45" s="202"/>
-      <c r="B45" s="203"/>
+      <c r="A45" s="222"/>
+      <c r="B45" s="223"/>
       <c r="C45" s="65" t="s">
         <v>29</v>
       </c>
@@ -7628,16 +7769,16 @@
         <v>2412</v>
       </c>
       <c r="E45" s="15"/>
-      <c r="F45" s="192"/>
-      <c r="G45" s="192"/>
+      <c r="F45" s="212"/>
+      <c r="G45" s="212"/>
       <c r="H45" s="15"/>
       <c r="I45" s="108">
         <v>720</v>
       </c>
       <c r="J45" s="15"/>
       <c r="K45" s="108"/>
-      <c r="L45" s="193"/>
-      <c r="M45" s="194"/>
+      <c r="L45" s="213"/>
+      <c r="M45" s="214"/>
       <c r="N45" s="108"/>
       <c r="O45" s="15"/>
       <c r="P45" s="108"/>
@@ -7652,11 +7793,11 @@
       </c>
     </row>
     <row r="46" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A46" s="225" t="s">
+      <c r="A46" s="245" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="226"/>
-      <c r="C46" s="226"/>
+      <c r="B46" s="246"/>
+      <c r="C46" s="246"/>
       <c r="D46" s="23">
         <f>SUM(D35:D45)</f>
         <v>17532</v>
@@ -7665,11 +7806,11 @@
         <f t="shared" ref="E46" si="4">SUM(E35:E45)</f>
         <v>8500</v>
       </c>
-      <c r="F46" s="227">
+      <c r="F46" s="247">
         <f>SUM(F35:G45)</f>
         <v>7044</v>
       </c>
-      <c r="G46" s="228"/>
+      <c r="G46" s="248"/>
       <c r="H46" s="23">
         <f>SUM(H35:H45)</f>
         <v>4920</v>
@@ -7686,11 +7827,11 @@
         <f>SUM(K35:K45)</f>
         <v>0</v>
       </c>
-      <c r="L46" s="227">
+      <c r="L46" s="247">
         <f>SUM(L35:M45)</f>
         <v>0</v>
       </c>
-      <c r="M46" s="228"/>
+      <c r="M46" s="248"/>
       <c r="N46" s="23">
         <f>SUM(N35:N45)</f>
         <v>0</v>
@@ -7716,47 +7857,47 @@
       </c>
     </row>
     <row r="47" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A47" s="232" t="s">
+      <c r="A47" s="252" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="233"/>
-      <c r="C47" s="233"/>
-      <c r="D47" s="234">
+      <c r="B47" s="253"/>
+      <c r="C47" s="253"/>
+      <c r="D47" s="254">
         <f>D46+E46+F46+H46+I46+J46+K46+L46+N46+O46+P46</f>
         <v>67404</v>
       </c>
-      <c r="E47" s="235"/>
-      <c r="F47" s="235"/>
-      <c r="G47" s="235"/>
-      <c r="H47" s="235"/>
-      <c r="I47" s="235"/>
-      <c r="J47" s="235"/>
-      <c r="K47" s="235"/>
-      <c r="L47" s="235"/>
-      <c r="M47" s="235"/>
-      <c r="N47" s="235"/>
-      <c r="O47" s="235"/>
-      <c r="P47" s="235"/>
-      <c r="Q47" s="236"/>
+      <c r="E47" s="255"/>
+      <c r="F47" s="255"/>
+      <c r="G47" s="255"/>
+      <c r="H47" s="255"/>
+      <c r="I47" s="255"/>
+      <c r="J47" s="255"/>
+      <c r="K47" s="255"/>
+      <c r="L47" s="255"/>
+      <c r="M47" s="255"/>
+      <c r="N47" s="255"/>
+      <c r="O47" s="255"/>
+      <c r="P47" s="255"/>
+      <c r="Q47" s="256"/>
       <c r="T47" s="28"/>
       <c r="V47" s="13"/>
     </row>
     <row r="48" spans="1:22" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A48" s="217" t="s">
+      <c r="A48" s="237" t="s">
         <v>26</v>
       </c>
-      <c r="B48" s="218"/>
-      <c r="C48" s="218"/>
+      <c r="B48" s="238"/>
+      <c r="C48" s="238"/>
       <c r="D48" s="22">
         <v>5673617</v>
       </c>
       <c r="E48" s="22">
         <v>2670081</v>
       </c>
-      <c r="F48" s="219">
+      <c r="F48" s="239">
         <v>2226736</v>
       </c>
-      <c r="G48" s="220"/>
+      <c r="G48" s="240"/>
       <c r="H48" s="22">
         <v>1560338</v>
       </c>
@@ -7767,8 +7908,8 @@
         <v>1671937</v>
       </c>
       <c r="K48" s="22"/>
-      <c r="L48" s="221"/>
-      <c r="M48" s="220"/>
+      <c r="L48" s="241"/>
+      <c r="M48" s="240"/>
       <c r="N48" s="26"/>
       <c r="O48" s="22">
         <v>283020</v>
@@ -7940,11 +8081,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X50"/>
+  <dimension ref="A1:X66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U24" sqref="U24"/>
+      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V50" sqref="V50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7974,81 +8115,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="16.5" thickBot="1">
-      <c r="A1" s="172" t="s">
-        <v>208</v>
-      </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="173"/>
-      <c r="T1" s="174"/>
+      <c r="A1" s="192" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="193"/>
+      <c r="O1" s="193"/>
+      <c r="P1" s="193"/>
+      <c r="Q1" s="193"/>
+      <c r="R1" s="193"/>
+      <c r="S1" s="193"/>
+      <c r="T1" s="194"/>
     </row>
     <row r="2" spans="1:23" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="199" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="180"/>
-      <c r="E2" s="183" t="s">
+      <c r="D2" s="200"/>
+      <c r="E2" s="203" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="185" t="s">
+      <c r="F2" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="177"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="187" t="s">
+      <c r="G2" s="197"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="207" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="188"/>
-      <c r="K2" s="188"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="187" t="s">
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="188"/>
-      <c r="P2" s="186"/>
-      <c r="Q2" s="190" t="s">
+      <c r="O2" s="208"/>
+      <c r="P2" s="206"/>
+      <c r="Q2" s="210" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="191"/>
-      <c r="S2" s="177" t="s">
+      <c r="R2" s="211"/>
+      <c r="S2" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="150" t="s">
+      <c r="T2" s="170" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="6" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A3" s="176"/>
-      <c r="B3" s="178"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="152" t="s">
+      <c r="A3" s="196"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="153"/>
+      <c r="G3" s="173"/>
       <c r="H3" s="9" t="s">
         <v>4</v>
       </c>
@@ -8061,10 +8202,10 @@
       <c r="K3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="154" t="s">
+      <c r="L3" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="155"/>
+      <c r="M3" s="175"/>
       <c r="N3" s="8" t="s">
         <v>21</v>
       </c>
@@ -8080,22 +8221,22 @@
       <c r="R3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="178"/>
-      <c r="T3" s="151"/>
+      <c r="S3" s="198"/>
+      <c r="T3" s="171"/>
     </row>
     <row r="4" spans="1:23" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="140" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="30"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="157"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="177"/>
       <c r="E4" s="31"/>
-      <c r="F4" s="156">
+      <c r="F4" s="176">
         <v>1584</v>
       </c>
-      <c r="G4" s="158"/>
-      <c r="H4" s="125">
+      <c r="G4" s="178"/>
+      <c r="H4" s="139">
         <v>8520</v>
       </c>
       <c r="I4" s="32">
@@ -8104,23 +8245,23 @@
       <c r="J4" s="33">
         <v>360</v>
       </c>
-      <c r="K4" s="125">
+      <c r="K4" s="139">
         <v>3212</v>
       </c>
-      <c r="L4" s="159">
+      <c r="L4" s="179">
         <v>660</v>
       </c>
-      <c r="M4" s="157"/>
-      <c r="N4" s="124">
+      <c r="M4" s="177"/>
+      <c r="N4" s="138">
         <v>18720</v>
       </c>
-      <c r="O4" s="125">
+      <c r="O4" s="139">
         <v>9984</v>
       </c>
       <c r="P4" s="34">
         <v>86856</v>
       </c>
-      <c r="Q4" s="124">
+      <c r="Q4" s="138">
         <v>9432</v>
       </c>
       <c r="R4" s="34">
@@ -8135,80 +8276,80 @@
       </c>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="153" t="s">
         <v>197</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="166">
         <v>76</v>
       </c>
-      <c r="C5" s="160" t="s">
+      <c r="C5" s="184" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="161"/>
-      <c r="E5" s="45" t="s">
+      <c r="D5" s="185"/>
+      <c r="E5" s="167" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="162"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="46">
+      <c r="F5" s="186"/>
+      <c r="G5" s="187"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="40">
         <v>8100</v>
       </c>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47">
+      <c r="J5" s="41"/>
+      <c r="K5" s="41">
         <v>330</v>
       </c>
-      <c r="L5" s="170"/>
-      <c r="M5" s="171"/>
-      <c r="N5" s="48">
+      <c r="L5" s="188"/>
+      <c r="M5" s="189"/>
+      <c r="N5" s="40">
         <v>240</v>
       </c>
-      <c r="O5" s="123">
+      <c r="O5" s="154">
         <v>240</v>
       </c>
-      <c r="P5" s="49">
+      <c r="P5" s="42">
         <v>1200</v>
       </c>
-      <c r="Q5" s="46">
+      <c r="Q5" s="40">
         <v>2400</v>
       </c>
-      <c r="R5" s="50">
+      <c r="R5" s="42">
         <v>1800</v>
       </c>
-      <c r="S5" s="43">
+      <c r="S5" s="164">
         <f t="shared" ref="S5:S27" si="0">SUM(F5:R5)</f>
         <v>14310</v>
       </c>
-      <c r="T5" s="51">
+      <c r="T5" s="44">
         <v>4660286</v>
       </c>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="157" t="s">
         <v>198</v>
       </c>
       <c r="B6" s="38">
         <v>77</v>
       </c>
-      <c r="C6" s="160" t="s">
+      <c r="C6" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="161"/>
+      <c r="D6" s="181"/>
       <c r="E6" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="162"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="123"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="148"/>
       <c r="I6" s="48">
         <v>60</v>
       </c>
       <c r="J6" s="52"/>
       <c r="K6" s="52"/>
-      <c r="L6" s="148"/>
-      <c r="M6" s="149"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="169"/>
       <c r="N6" s="48"/>
-      <c r="O6" s="123"/>
+      <c r="O6" s="148"/>
       <c r="P6" s="49"/>
       <c r="Q6" s="48">
         <v>60</v>
@@ -8223,29 +8364,29 @@
       </c>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="157" t="s">
         <v>198</v>
       </c>
       <c r="B7" s="38">
         <v>78</v>
       </c>
-      <c r="C7" s="160" t="s">
+      <c r="C7" s="180" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="161"/>
+      <c r="D7" s="181"/>
       <c r="E7" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="162"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="141"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="148"/>
       <c r="I7" s="48"/>
       <c r="J7" s="52"/>
       <c r="K7" s="52"/>
-      <c r="L7" s="148"/>
-      <c r="M7" s="149"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="169"/>
       <c r="N7" s="48"/>
-      <c r="O7" s="141"/>
+      <c r="O7" s="148"/>
       <c r="P7" s="49">
         <v>120</v>
       </c>
@@ -8260,22 +8401,22 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="157" t="s">
         <v>198</v>
       </c>
       <c r="B8" s="38">
         <v>79</v>
       </c>
-      <c r="C8" s="162" t="s">
+      <c r="C8" s="182" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="149"/>
+      <c r="D8" s="169"/>
       <c r="E8" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="F8" s="139"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="141">
+      <c r="F8" s="182"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="148">
         <v>1440</v>
       </c>
       <c r="I8" s="48">
@@ -8287,12 +8428,12 @@
       <c r="K8" s="52">
         <v>220</v>
       </c>
-      <c r="L8" s="141"/>
-      <c r="M8" s="142"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="149"/>
       <c r="N8" s="48">
         <v>480</v>
       </c>
-      <c r="O8" s="141">
+      <c r="O8" s="148">
         <v>480</v>
       </c>
       <c r="P8" s="49">
@@ -8311,31 +8452,31 @@
       </c>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="157" t="s">
         <v>199</v>
       </c>
       <c r="B9" s="38">
         <v>80</v>
       </c>
-      <c r="C9" s="245" t="s">
+      <c r="C9" s="269" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="171"/>
+      <c r="D9" s="191"/>
       <c r="E9" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="139"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="141">
+      <c r="F9" s="182"/>
+      <c r="G9" s="183"/>
+      <c r="H9" s="148">
         <v>120</v>
       </c>
       <c r="I9" s="48"/>
       <c r="J9" s="52"/>
       <c r="K9" s="52"/>
-      <c r="L9" s="141"/>
-      <c r="M9" s="142"/>
+      <c r="L9" s="148"/>
+      <c r="M9" s="149"/>
       <c r="N9" s="48"/>
-      <c r="O9" s="141"/>
+      <c r="O9" s="148"/>
       <c r="P9" s="49">
         <v>120</v>
       </c>
@@ -8348,34 +8489,34 @@
       <c r="T9" s="54">
         <v>81150</v>
       </c>
-      <c r="W9" s="144"/>
+      <c r="W9" s="136"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="157" t="s">
         <v>199</v>
       </c>
       <c r="B10" s="38">
         <v>81</v>
       </c>
-      <c r="C10" s="160" t="s">
+      <c r="C10" s="180" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="161"/>
+      <c r="D10" s="181"/>
       <c r="E10" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="162"/>
-      <c r="G10" s="163"/>
-      <c r="H10" s="123"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="183"/>
+      <c r="H10" s="148"/>
       <c r="I10" s="48">
         <v>150</v>
       </c>
       <c r="J10" s="52"/>
       <c r="K10" s="52"/>
-      <c r="L10" s="148"/>
-      <c r="M10" s="149"/>
+      <c r="L10" s="168"/>
+      <c r="M10" s="169"/>
       <c r="N10" s="48"/>
-      <c r="O10" s="123"/>
+      <c r="O10" s="148"/>
       <c r="P10" s="49">
         <v>360</v>
       </c>
@@ -8392,31 +8533,31 @@
       </c>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="157" t="s">
         <v>106</v>
       </c>
       <c r="B11" s="38">
         <v>82</v>
       </c>
-      <c r="C11" s="160" t="s">
+      <c r="C11" s="180" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="161"/>
+      <c r="D11" s="181"/>
       <c r="E11" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="162"/>
-      <c r="G11" s="163"/>
-      <c r="H11" s="123">
+      <c r="F11" s="182"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="148">
         <v>72</v>
       </c>
       <c r="I11" s="48"/>
       <c r="J11" s="52"/>
       <c r="K11" s="52"/>
-      <c r="L11" s="148"/>
-      <c r="M11" s="149"/>
+      <c r="L11" s="168"/>
+      <c r="M11" s="169"/>
       <c r="N11" s="48"/>
-      <c r="O11" s="123"/>
+      <c r="O11" s="148"/>
       <c r="P11" s="49"/>
       <c r="Q11" s="48"/>
       <c r="R11" s="49"/>
@@ -8429,22 +8570,22 @@
       </c>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="157" t="s">
         <v>200</v>
       </c>
       <c r="B12" s="38">
         <v>83</v>
       </c>
-      <c r="C12" s="160" t="s">
+      <c r="C12" s="180" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="161"/>
+      <c r="D12" s="181"/>
       <c r="E12" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="162"/>
-      <c r="G12" s="163"/>
-      <c r="H12" s="123"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="183"/>
+      <c r="H12" s="148"/>
       <c r="I12" s="48">
         <v>6000</v>
       </c>
@@ -8454,12 +8595,12 @@
       <c r="K12" s="52">
         <v>220</v>
       </c>
-      <c r="L12" s="148"/>
-      <c r="M12" s="149"/>
+      <c r="L12" s="168"/>
+      <c r="M12" s="169"/>
       <c r="N12" s="48">
         <v>1200</v>
       </c>
-      <c r="O12" s="123">
+      <c r="O12" s="148">
         <v>240</v>
       </c>
       <c r="P12" s="49">
@@ -8478,24 +8619,24 @@
       </c>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="157" t="s">
         <v>200</v>
       </c>
       <c r="B13" s="38">
         <v>84</v>
       </c>
-      <c r="C13" s="160" t="s">
+      <c r="C13" s="180" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="161"/>
+      <c r="D13" s="181"/>
       <c r="E13" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="162">
+      <c r="F13" s="182">
         <v>240</v>
       </c>
-      <c r="G13" s="163"/>
-      <c r="H13" s="123"/>
+      <c r="G13" s="183"/>
+      <c r="H13" s="148"/>
       <c r="I13" s="48">
         <v>750</v>
       </c>
@@ -8503,12 +8644,12 @@
       <c r="K13" s="52">
         <v>176</v>
       </c>
-      <c r="L13" s="148"/>
-      <c r="M13" s="149"/>
+      <c r="L13" s="168"/>
+      <c r="M13" s="169"/>
       <c r="N13" s="48">
         <v>1080</v>
       </c>
-      <c r="O13" s="123">
+      <c r="O13" s="148">
         <v>912</v>
       </c>
       <c r="P13" s="49">
@@ -8525,22 +8666,22 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1">
-      <c r="A14" s="127" t="s">
+      <c r="A14" s="151" t="s">
         <v>201</v>
       </c>
       <c r="B14" s="38">
         <v>85</v>
       </c>
-      <c r="C14" s="162" t="s">
+      <c r="C14" s="182" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="149"/>
+      <c r="D14" s="169"/>
       <c r="E14" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="F14" s="162"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="123">
+      <c r="F14" s="182"/>
+      <c r="G14" s="183"/>
+      <c r="H14" s="148">
         <v>1800</v>
       </c>
       <c r="I14" s="48">
@@ -8548,16 +8689,16 @@
       </c>
       <c r="J14" s="52"/>
       <c r="K14" s="52"/>
-      <c r="L14" s="148"/>
-      <c r="M14" s="149"/>
-      <c r="N14" s="127"/>
-      <c r="O14" s="123">
+      <c r="L14" s="168"/>
+      <c r="M14" s="169"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="148">
         <v>120</v>
       </c>
       <c r="P14" s="49">
         <v>3840</v>
       </c>
-      <c r="Q14" s="127">
+      <c r="Q14" s="151">
         <v>240</v>
       </c>
       <c r="R14" s="49"/>
@@ -8570,31 +8711,31 @@
       </c>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="139" t="s">
+      <c r="A15" s="151" t="s">
         <v>201</v>
       </c>
       <c r="B15" s="38">
         <v>86</v>
       </c>
-      <c r="C15" s="160" t="s">
+      <c r="C15" s="180" t="s">
         <v>202</v>
       </c>
-      <c r="D15" s="161"/>
+      <c r="D15" s="181"/>
       <c r="E15" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="F15" s="162"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="123"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="183"/>
+      <c r="H15" s="148"/>
       <c r="I15" s="48"/>
       <c r="J15" s="52"/>
       <c r="K15" s="52"/>
-      <c r="L15" s="148"/>
-      <c r="M15" s="149"/>
-      <c r="N15" s="127"/>
-      <c r="O15" s="123"/>
+      <c r="L15" s="168"/>
+      <c r="M15" s="169"/>
+      <c r="N15" s="151"/>
+      <c r="O15" s="148"/>
       <c r="P15" s="49"/>
-      <c r="Q15" s="127">
+      <c r="Q15" s="151">
         <v>24</v>
       </c>
       <c r="R15" s="55"/>
@@ -8605,36 +8746,36 @@
       <c r="T15" s="54">
         <v>9267</v>
       </c>
-      <c r="V15" s="144"/>
+      <c r="V15" s="136"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="127" t="s">
+      <c r="A16" s="151" t="s">
         <v>203</v>
       </c>
       <c r="B16" s="38">
         <v>87</v>
       </c>
-      <c r="C16" s="162" t="s">
+      <c r="C16" s="182" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="149"/>
+      <c r="D16" s="169"/>
       <c r="E16" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="F16" s="162">
+      <c r="F16" s="182">
         <v>72</v>
       </c>
-      <c r="G16" s="163"/>
-      <c r="H16" s="123"/>
+      <c r="G16" s="183"/>
+      <c r="H16" s="148"/>
       <c r="I16" s="48"/>
       <c r="J16" s="52"/>
       <c r="K16" s="52"/>
-      <c r="L16" s="148"/>
-      <c r="M16" s="149"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="123"/>
+      <c r="L16" s="168"/>
+      <c r="M16" s="169"/>
+      <c r="N16" s="151"/>
+      <c r="O16" s="148"/>
       <c r="P16" s="49"/>
-      <c r="Q16" s="127"/>
+      <c r="Q16" s="151"/>
       <c r="R16" s="55"/>
       <c r="S16" s="53">
         <f t="shared" si="0"/>
@@ -8644,34 +8785,34 @@
         <v>24271</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
-      <c r="A17" s="127" t="s">
+    <row r="17" spans="1:22">
+      <c r="A17" s="151" t="s">
         <v>204</v>
       </c>
       <c r="B17" s="38">
         <v>88</v>
       </c>
-      <c r="C17" s="160" t="s">
+      <c r="C17" s="180" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="161"/>
+      <c r="D17" s="181"/>
       <c r="E17" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="F17" s="162"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="123">
+      <c r="F17" s="182"/>
+      <c r="G17" s="183"/>
+      <c r="H17" s="148">
         <v>120</v>
       </c>
       <c r="I17" s="48"/>
       <c r="J17" s="52"/>
       <c r="K17" s="52"/>
-      <c r="L17" s="148"/>
-      <c r="M17" s="149"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="123"/>
+      <c r="L17" s="168"/>
+      <c r="M17" s="169"/>
+      <c r="N17" s="151"/>
+      <c r="O17" s="148"/>
       <c r="P17" s="49"/>
-      <c r="Q17" s="127"/>
+      <c r="Q17" s="151"/>
       <c r="R17" s="55"/>
       <c r="S17" s="53">
         <f>SUM(F17:R17)</f>
@@ -8681,34 +8822,34 @@
         <v>41293</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
-      <c r="A18" s="127" t="s">
+    <row r="18" spans="1:22">
+      <c r="A18" s="151" t="s">
         <v>205</v>
       </c>
       <c r="B18" s="38">
         <v>89</v>
       </c>
-      <c r="C18" s="162" t="s">
+      <c r="C18" s="182" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="149"/>
+      <c r="D18" s="169"/>
       <c r="E18" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="162"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="123"/>
+      <c r="F18" s="182"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="148"/>
       <c r="I18" s="48"/>
       <c r="J18" s="52"/>
       <c r="K18" s="52"/>
-      <c r="L18" s="148"/>
-      <c r="M18" s="149"/>
-      <c r="N18" s="127"/>
-      <c r="O18" s="123"/>
+      <c r="L18" s="168"/>
+      <c r="M18" s="169"/>
+      <c r="N18" s="151"/>
+      <c r="O18" s="148"/>
       <c r="P18" s="49">
         <v>120</v>
       </c>
-      <c r="Q18" s="127">
+      <c r="Q18" s="151">
         <v>12</v>
       </c>
       <c r="R18" s="55"/>
@@ -8721,38 +8862,38 @@
       </c>
       <c r="V18" s="13"/>
     </row>
-    <row r="19" spans="1:24">
-      <c r="A19" s="145" t="s">
+    <row r="19" spans="1:22">
+      <c r="A19" s="151" t="s">
         <v>205</v>
       </c>
       <c r="B19" s="38">
         <v>90</v>
       </c>
-      <c r="C19" s="162" t="s">
+      <c r="C19" s="182" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="149"/>
+      <c r="D19" s="169"/>
       <c r="E19" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="162"/>
-      <c r="G19" s="163"/>
-      <c r="H19" s="123"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="148"/>
       <c r="I19" s="48">
         <v>4800</v>
       </c>
       <c r="J19" s="52"/>
       <c r="K19" s="52"/>
-      <c r="L19" s="148"/>
-      <c r="M19" s="149"/>
-      <c r="N19" s="127"/>
-      <c r="O19" s="123">
+      <c r="L19" s="168"/>
+      <c r="M19" s="169"/>
+      <c r="N19" s="151"/>
+      <c r="O19" s="148">
         <v>120</v>
       </c>
       <c r="P19" s="49">
         <v>3600</v>
       </c>
-      <c r="Q19" s="127">
+      <c r="Q19" s="151">
         <v>3600</v>
       </c>
       <c r="R19" s="55">
@@ -8766,38 +8907,38 @@
         <v>4192621</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
-      <c r="A20" s="146" t="s">
+    <row r="20" spans="1:22">
+      <c r="A20" s="151" t="s">
         <v>205</v>
       </c>
       <c r="B20" s="38">
         <v>91</v>
       </c>
-      <c r="C20" s="162" t="s">
+      <c r="C20" s="182" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="149"/>
+      <c r="D20" s="169"/>
       <c r="E20" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="162"/>
-      <c r="G20" s="163"/>
-      <c r="H20" s="123"/>
+      <c r="F20" s="182"/>
+      <c r="G20" s="183"/>
+      <c r="H20" s="148"/>
       <c r="I20" s="48"/>
       <c r="J20" s="52"/>
       <c r="K20" s="52"/>
-      <c r="L20" s="148"/>
-      <c r="M20" s="149"/>
-      <c r="N20" s="127">
+      <c r="L20" s="168"/>
+      <c r="M20" s="169"/>
+      <c r="N20" s="151">
         <v>600</v>
       </c>
-      <c r="O20" s="123">
+      <c r="O20" s="148">
         <v>600</v>
       </c>
       <c r="P20" s="49">
         <v>1200</v>
       </c>
-      <c r="Q20" s="127"/>
+      <c r="Q20" s="151"/>
       <c r="R20" s="55"/>
       <c r="S20" s="53">
         <f t="shared" si="0"/>
@@ -8807,36 +8948,36 @@
         <v>762854</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
-      <c r="A21" s="147" t="s">
-        <v>207</v>
+    <row r="21" spans="1:22">
+      <c r="A21" s="151" t="s">
+        <v>206</v>
       </c>
       <c r="B21" s="38">
         <v>92</v>
       </c>
-      <c r="C21" s="162" t="s">
+      <c r="C21" s="182" t="s">
         <v>124</v>
       </c>
-      <c r="D21" s="149"/>
+      <c r="D21" s="169"/>
       <c r="E21" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="162"/>
-      <c r="G21" s="163"/>
-      <c r="H21" s="123">
+      <c r="F21" s="182"/>
+      <c r="G21" s="183"/>
+      <c r="H21" s="148">
         <v>24</v>
       </c>
       <c r="I21" s="48"/>
       <c r="J21" s="52"/>
       <c r="K21" s="52"/>
-      <c r="L21" s="148"/>
-      <c r="M21" s="149"/>
-      <c r="N21" s="127"/>
-      <c r="O21" s="123"/>
+      <c r="L21" s="168"/>
+      <c r="M21" s="169"/>
+      <c r="N21" s="151"/>
+      <c r="O21" s="148"/>
       <c r="P21" s="49">
         <v>24</v>
       </c>
-      <c r="Q21" s="127"/>
+      <c r="Q21" s="151"/>
       <c r="R21" s="55"/>
       <c r="S21" s="53">
         <f t="shared" si="0"/>
@@ -8846,40 +8987,40 @@
         <v>16230</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
-      <c r="A22" s="147" t="s">
-        <v>207</v>
+    <row r="22" spans="1:22">
+      <c r="A22" s="151" t="s">
+        <v>206</v>
       </c>
       <c r="B22" s="38">
         <v>93</v>
       </c>
-      <c r="C22" s="160" t="s">
+      <c r="C22" s="180" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="161"/>
+      <c r="D22" s="181"/>
       <c r="E22" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="162"/>
-      <c r="G22" s="163"/>
-      <c r="H22" s="123"/>
+      <c r="F22" s="182"/>
+      <c r="G22" s="183"/>
+      <c r="H22" s="148"/>
       <c r="I22" s="48">
         <v>300</v>
       </c>
       <c r="J22" s="52"/>
       <c r="K22" s="52"/>
-      <c r="L22" s="148"/>
-      <c r="M22" s="149"/>
-      <c r="N22" s="127">
+      <c r="L22" s="168"/>
+      <c r="M22" s="169"/>
+      <c r="N22" s="151">
         <v>960</v>
       </c>
-      <c r="O22" s="123">
+      <c r="O22" s="148">
         <v>480</v>
       </c>
       <c r="P22" s="49">
         <v>960</v>
       </c>
-      <c r="Q22" s="127"/>
+      <c r="Q22" s="151"/>
       <c r="R22" s="55"/>
       <c r="S22" s="53">
         <f t="shared" si="0"/>
@@ -8889,38 +9030,38 @@
         <v>851899</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
-      <c r="A23" s="147" t="s">
-        <v>207</v>
+    <row r="23" spans="1:22">
+      <c r="A23" s="151" t="s">
+        <v>206</v>
       </c>
       <c r="B23" s="38">
         <v>94</v>
       </c>
-      <c r="C23" s="160" t="s">
+      <c r="C23" s="180" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="161"/>
+      <c r="D23" s="181"/>
       <c r="E23" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F23" s="162"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="123"/>
+      <c r="F23" s="182"/>
+      <c r="G23" s="183"/>
+      <c r="H23" s="148"/>
       <c r="I23" s="48">
         <v>450</v>
       </c>
       <c r="J23" s="52"/>
       <c r="K23" s="52"/>
-      <c r="L23" s="148"/>
-      <c r="M23" s="149"/>
-      <c r="N23" s="127"/>
-      <c r="O23" s="123">
+      <c r="L23" s="168"/>
+      <c r="M23" s="169"/>
+      <c r="N23" s="151"/>
+      <c r="O23" s="148">
         <v>240</v>
       </c>
       <c r="P23" s="49">
         <v>1200</v>
       </c>
-      <c r="Q23" s="127"/>
+      <c r="Q23" s="151"/>
       <c r="R23" s="55"/>
       <c r="S23" s="53">
         <f t="shared" si="0"/>
@@ -8930,23 +9071,23 @@
         <v>597342</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
-      <c r="A24" s="147" t="s">
-        <v>207</v>
+    <row r="24" spans="1:22">
+      <c r="A24" s="151" t="s">
+        <v>206</v>
       </c>
       <c r="B24" s="38">
         <v>95</v>
       </c>
-      <c r="C24" s="160" t="s">
+      <c r="C24" s="180" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="161"/>
+      <c r="D24" s="181"/>
       <c r="E24" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="162"/>
-      <c r="G24" s="163"/>
-      <c r="H24" s="123">
+      <c r="F24" s="182"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="148">
         <v>24</v>
       </c>
       <c r="I24" s="48">
@@ -8954,12 +9095,12 @@
       </c>
       <c r="J24" s="52"/>
       <c r="K24" s="52"/>
-      <c r="L24" s="148"/>
-      <c r="M24" s="149"/>
-      <c r="N24" s="127"/>
-      <c r="O24" s="123"/>
+      <c r="L24" s="168"/>
+      <c r="M24" s="169"/>
+      <c r="N24" s="151"/>
+      <c r="O24" s="148"/>
       <c r="P24" s="49"/>
-      <c r="Q24" s="127">
+      <c r="Q24" s="151">
         <v>24</v>
       </c>
       <c r="R24" s="55"/>
@@ -8971,896 +9112,1711 @@
         <v>26007</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
-      <c r="A25" s="126"/>
+    <row r="25" spans="1:22">
+      <c r="A25" s="150" t="s">
+        <v>212</v>
+      </c>
       <c r="B25" s="38">
         <v>96</v>
       </c>
-      <c r="C25" s="160"/>
-      <c r="D25" s="161"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="163"/>
-      <c r="H25" s="123"/>
+      <c r="C25" s="180" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="181"/>
+      <c r="E25" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="F25" s="182"/>
+      <c r="G25" s="183"/>
+      <c r="H25" s="148"/>
       <c r="I25" s="48"/>
       <c r="J25" s="52"/>
       <c r="K25" s="52"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="149"/>
-      <c r="N25" s="127"/>
-      <c r="O25" s="123"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="127"/>
+      <c r="L25" s="168"/>
+      <c r="M25" s="169"/>
+      <c r="N25" s="151"/>
+      <c r="O25" s="148"/>
+      <c r="P25" s="49">
+        <v>120</v>
+      </c>
+      <c r="Q25" s="151"/>
       <c r="R25" s="55"/>
       <c r="S25" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T25" s="54"/>
-    </row>
-    <row r="26" spans="1:24">
-      <c r="A26" s="126"/>
+        <v>120</v>
+      </c>
+      <c r="T25" s="54">
+        <v>39858</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="150" t="s">
+        <v>212</v>
+      </c>
       <c r="B26" s="38">
         <v>97</v>
       </c>
-      <c r="C26" s="162"/>
-      <c r="D26" s="149"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="163"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="57"/>
+      <c r="C26" s="182" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="169"/>
+      <c r="E26" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="182">
+        <v>600</v>
+      </c>
+      <c r="G26" s="183"/>
+      <c r="H26" s="86">
+        <v>1440</v>
+      </c>
+      <c r="I26" s="57">
+        <v>600</v>
+      </c>
       <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="148"/>
-      <c r="M26" s="149"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="126"/>
+      <c r="K26" s="58">
+        <v>110</v>
+      </c>
+      <c r="L26" s="168"/>
+      <c r="M26" s="169"/>
+      <c r="N26" s="150">
+        <v>1200</v>
+      </c>
+      <c r="O26" s="86">
+        <v>600</v>
+      </c>
+      <c r="P26" s="55">
+        <v>5400</v>
+      </c>
+      <c r="Q26" s="150">
+        <v>180</v>
+      </c>
       <c r="R26" s="55"/>
       <c r="S26" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="59"/>
-    </row>
-    <row r="27" spans="1:24">
-      <c r="A27" s="126"/>
+        <v>10130</v>
+      </c>
+      <c r="T26" s="59">
+        <v>3172273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="150" t="s">
+        <v>208</v>
+      </c>
       <c r="B27" s="38">
         <v>98</v>
       </c>
-      <c r="C27" s="162"/>
-      <c r="D27" s="149"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="162"/>
-      <c r="G27" s="163"/>
+      <c r="C27" s="182" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="169"/>
+      <c r="E27" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="182"/>
+      <c r="G27" s="183"/>
       <c r="H27" s="86"/>
-      <c r="I27" s="57"/>
+      <c r="I27" s="57">
+        <v>1800</v>
+      </c>
       <c r="J27" s="58"/>
       <c r="K27" s="58"/>
-      <c r="L27" s="148"/>
-      <c r="M27" s="149"/>
-      <c r="N27" s="126"/>
+      <c r="L27" s="168"/>
+      <c r="M27" s="169"/>
+      <c r="N27" s="150"/>
       <c r="O27" s="86"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="126"/>
+      <c r="P27" s="55">
+        <v>2760</v>
+      </c>
+      <c r="Q27" s="150"/>
       <c r="R27" s="55"/>
       <c r="S27" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="59"/>
-    </row>
-    <row r="28" spans="1:24">
-      <c r="A28" s="126"/>
-      <c r="B28" s="38">
+        <v>4560</v>
+      </c>
+      <c r="T27" s="59">
+        <v>1431388</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="150" t="s">
+        <v>208</v>
+      </c>
+      <c r="B28" s="137">
         <v>99</v>
       </c>
-      <c r="C28" s="162"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="163"/>
+      <c r="C28" s="182" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="169"/>
+      <c r="E28" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="182"/>
+      <c r="G28" s="183"/>
       <c r="H28" s="86"/>
-      <c r="I28" s="57"/>
+      <c r="I28" s="57">
+        <v>300</v>
+      </c>
       <c r="J28" s="58"/>
       <c r="K28" s="58"/>
-      <c r="L28" s="148"/>
-      <c r="M28" s="149"/>
-      <c r="N28" s="126"/>
-      <c r="O28" s="86"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="126"/>
+      <c r="L28" s="168"/>
+      <c r="M28" s="169"/>
+      <c r="N28" s="150">
+        <v>1080</v>
+      </c>
+      <c r="O28" s="86">
+        <v>360</v>
+      </c>
+      <c r="P28" s="55">
+        <v>720</v>
+      </c>
+      <c r="Q28" s="150"/>
       <c r="R28" s="55"/>
       <c r="S28" s="53">
-        <f t="shared" ref="S28" si="1">SUM(F28:R28)</f>
-        <v>0</v>
-      </c>
-      <c r="T28" s="59"/>
-    </row>
-    <row r="29" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A29" s="126"/>
-      <c r="B29" s="38">
+        <f t="shared" ref="S28:S45" si="1">SUM(F28:R28)</f>
+        <v>2460</v>
+      </c>
+      <c r="T28" s="59">
+        <v>774593</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="150" t="s">
+        <v>208</v>
+      </c>
+      <c r="B29" s="137">
         <v>100</v>
       </c>
-      <c r="C29" s="162"/>
-      <c r="D29" s="149"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="162"/>
-      <c r="G29" s="163"/>
+      <c r="C29" s="182" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="169"/>
+      <c r="E29" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="182"/>
+      <c r="G29" s="183"/>
       <c r="H29" s="86"/>
-      <c r="I29" s="57"/>
+      <c r="I29" s="57">
+        <v>750</v>
+      </c>
       <c r="J29" s="58"/>
       <c r="K29" s="58"/>
-      <c r="L29" s="148"/>
-      <c r="M29" s="149"/>
-      <c r="N29" s="126"/>
+      <c r="L29" s="168"/>
+      <c r="M29" s="169"/>
+      <c r="N29" s="150"/>
       <c r="O29" s="86"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="126"/>
+      <c r="P29" s="55">
+        <v>600</v>
+      </c>
+      <c r="Q29" s="150"/>
       <c r="R29" s="55"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="59"/>
-    </row>
-    <row r="30" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A30" s="195" t="s">
+      <c r="S29" s="53">
+        <f t="shared" si="1"/>
+        <v>1350</v>
+      </c>
+      <c r="T29" s="59">
+        <v>420078</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="150" t="s">
+        <v>208</v>
+      </c>
+      <c r="B30" s="137">
+        <v>101</v>
+      </c>
+      <c r="C30" s="180" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="181"/>
+      <c r="E30" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="182"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="168"/>
+      <c r="M30" s="169"/>
+      <c r="N30" s="150"/>
+      <c r="O30" s="86"/>
+      <c r="P30" s="55">
+        <v>480</v>
+      </c>
+      <c r="Q30" s="150"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="53">
+        <f t="shared" si="1"/>
+        <v>480</v>
+      </c>
+      <c r="T30" s="59">
+        <v>159430</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="150" t="s">
+        <v>209</v>
+      </c>
+      <c r="B31" s="137">
+        <v>102</v>
+      </c>
+      <c r="C31" s="182" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="169"/>
+      <c r="E31" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" s="182"/>
+      <c r="G31" s="183"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="168"/>
+      <c r="M31" s="169"/>
+      <c r="N31" s="150"/>
+      <c r="O31" s="86"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="150">
+        <v>60</v>
+      </c>
+      <c r="R31" s="55"/>
+      <c r="S31" s="53">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="T31" s="59">
+        <v>23166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="150" t="s">
+        <v>209</v>
+      </c>
+      <c r="B32" s="137">
+        <v>103</v>
+      </c>
+      <c r="C32" s="182" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="169"/>
+      <c r="E32" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" s="182"/>
+      <c r="G32" s="183"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="57">
+        <v>30</v>
+      </c>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="168"/>
+      <c r="M32" s="169"/>
+      <c r="N32" s="150">
+        <v>120</v>
+      </c>
+      <c r="O32" s="86">
+        <v>240</v>
+      </c>
+      <c r="P32" s="55">
+        <v>576</v>
+      </c>
+      <c r="Q32" s="150">
+        <v>120</v>
+      </c>
+      <c r="R32" s="55"/>
+      <c r="S32" s="53">
+        <f t="shared" si="1"/>
+        <v>1086</v>
+      </c>
+      <c r="T32" s="59">
+        <v>352163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
+      <c r="A33" s="150" t="s">
+        <v>209</v>
+      </c>
+      <c r="B33" s="137">
+        <v>104</v>
+      </c>
+      <c r="C33" s="182" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="169"/>
+      <c r="E33" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="182"/>
+      <c r="G33" s="183"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="168"/>
+      <c r="M33" s="169"/>
+      <c r="N33" s="150">
+        <v>1200</v>
+      </c>
+      <c r="O33" s="86">
+        <v>600</v>
+      </c>
+      <c r="P33" s="55">
+        <v>2400</v>
+      </c>
+      <c r="Q33" s="150">
+        <v>60</v>
+      </c>
+      <c r="R33" s="55"/>
+      <c r="S33" s="53">
+        <f t="shared" si="1"/>
+        <v>4260</v>
+      </c>
+      <c r="T33" s="59">
+        <v>1358128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
+      <c r="A34" s="150" t="s">
+        <v>210</v>
+      </c>
+      <c r="B34" s="137">
+        <v>105</v>
+      </c>
+      <c r="C34" s="182" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="169"/>
+      <c r="E34" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" s="182"/>
+      <c r="G34" s="183"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="168"/>
+      <c r="M34" s="169"/>
+      <c r="N34" s="150"/>
+      <c r="O34" s="86"/>
+      <c r="P34" s="55">
+        <v>360</v>
+      </c>
+      <c r="Q34" s="150"/>
+      <c r="R34" s="55"/>
+      <c r="S34" s="53">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="T34" s="59">
+        <v>119573</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
+      <c r="A35" s="150" t="s">
+        <v>210</v>
+      </c>
+      <c r="B35" s="137">
+        <v>106</v>
+      </c>
+      <c r="C35" s="182" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="169"/>
+      <c r="E35" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="182"/>
+      <c r="G35" s="183"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="57">
+        <v>5400</v>
+      </c>
+      <c r="J35" s="58">
+        <v>72</v>
+      </c>
+      <c r="K35" s="58">
+        <v>440</v>
+      </c>
+      <c r="L35" s="168"/>
+      <c r="M35" s="169"/>
+      <c r="N35" s="150">
+        <v>1200</v>
+      </c>
+      <c r="O35" s="86">
+        <v>720</v>
+      </c>
+      <c r="P35" s="55">
+        <v>4800</v>
+      </c>
+      <c r="Q35" s="150">
+        <v>1020</v>
+      </c>
+      <c r="R35" s="55"/>
+      <c r="S35" s="53">
+        <f t="shared" si="1"/>
+        <v>13652</v>
+      </c>
+      <c r="T35" s="59">
+        <v>4299973</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
+      <c r="A36" s="150" t="s">
+        <v>211</v>
+      </c>
+      <c r="B36" s="137">
+        <v>107</v>
+      </c>
+      <c r="C36" s="182" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="169"/>
+      <c r="E36" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" s="182"/>
+      <c r="G36" s="183"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="168"/>
+      <c r="M36" s="169"/>
+      <c r="N36" s="150"/>
+      <c r="O36" s="86"/>
+      <c r="P36" s="55">
+        <v>120</v>
+      </c>
+      <c r="Q36" s="150"/>
+      <c r="R36" s="55"/>
+      <c r="S36" s="53">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="T36" s="59">
+        <v>39858</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
+      <c r="A37" s="150" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37" s="137">
+        <v>108</v>
+      </c>
+      <c r="C37" s="182" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="169"/>
+      <c r="E37" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37" s="182"/>
+      <c r="G37" s="183"/>
+      <c r="H37" s="86">
+        <v>600</v>
+      </c>
+      <c r="I37" s="57">
+        <v>1800</v>
+      </c>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58">
+        <v>440</v>
+      </c>
+      <c r="L37" s="168">
+        <v>440</v>
+      </c>
+      <c r="M37" s="169"/>
+      <c r="N37" s="150">
+        <v>720</v>
+      </c>
+      <c r="O37" s="86">
+        <v>120</v>
+      </c>
+      <c r="P37" s="55">
+        <v>3600</v>
+      </c>
+      <c r="Q37" s="150"/>
+      <c r="R37" s="55"/>
+      <c r="S37" s="53">
+        <f t="shared" si="1"/>
+        <v>7720</v>
+      </c>
+      <c r="T37" s="59">
+        <v>2398129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
+      <c r="A38" s="150" t="s">
+        <v>214</v>
+      </c>
+      <c r="B38" s="137">
+        <v>109</v>
+      </c>
+      <c r="C38" s="182" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="169"/>
+      <c r="E38" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38" s="182"/>
+      <c r="G38" s="183"/>
+      <c r="H38" s="86">
+        <v>120</v>
+      </c>
+      <c r="I38" s="57"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="168"/>
+      <c r="M38" s="169"/>
+      <c r="N38" s="150"/>
+      <c r="O38" s="86"/>
+      <c r="P38" s="55">
+        <v>120</v>
+      </c>
+      <c r="Q38" s="150"/>
+      <c r="R38" s="55"/>
+      <c r="S38" s="53">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="T38" s="59">
+        <v>81150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A39" s="156" t="s">
+        <v>214</v>
+      </c>
+      <c r="B39" s="141">
+        <v>110</v>
+      </c>
+      <c r="C39" s="267" t="s">
+        <v>215</v>
+      </c>
+      <c r="D39" s="266"/>
+      <c r="E39" s="142" t="s">
+        <v>216</v>
+      </c>
+      <c r="F39" s="267"/>
+      <c r="G39" s="268"/>
+      <c r="H39" s="155"/>
+      <c r="I39" s="143"/>
+      <c r="J39" s="144"/>
+      <c r="K39" s="144"/>
+      <c r="L39" s="265"/>
+      <c r="M39" s="266"/>
+      <c r="N39" s="156"/>
+      <c r="O39" s="155"/>
+      <c r="P39" s="145">
+        <v>480</v>
+      </c>
+      <c r="Q39" s="156"/>
+      <c r="R39" s="145"/>
+      <c r="S39" s="146">
+        <f t="shared" si="1"/>
+        <v>480</v>
+      </c>
+      <c r="T39" s="147">
+        <v>159430</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
+      <c r="A40" s="153" t="s">
+        <v>214</v>
+      </c>
+      <c r="B40" s="158">
+        <v>111</v>
+      </c>
+      <c r="C40" s="186" t="s">
+        <v>172</v>
+      </c>
+      <c r="D40" s="189"/>
+      <c r="E40" s="159" t="s">
+        <v>217</v>
+      </c>
+      <c r="F40" s="186"/>
+      <c r="G40" s="187"/>
+      <c r="H40" s="160"/>
+      <c r="I40" s="161">
+        <v>150</v>
+      </c>
+      <c r="J40" s="162"/>
+      <c r="K40" s="162"/>
+      <c r="L40" s="188"/>
+      <c r="M40" s="189"/>
+      <c r="N40" s="152"/>
+      <c r="O40" s="160"/>
+      <c r="P40" s="163">
+        <v>360</v>
+      </c>
+      <c r="Q40" s="152"/>
+      <c r="R40" s="163"/>
+      <c r="S40" s="164">
+        <f t="shared" si="1"/>
+        <v>510</v>
+      </c>
+      <c r="T40" s="165">
+        <v>166853</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
+      <c r="A41" s="96" t="s">
+        <v>218</v>
+      </c>
+      <c r="B41" s="137">
+        <v>112</v>
+      </c>
+      <c r="C41" s="182" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="169"/>
+      <c r="E41" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" s="182"/>
+      <c r="G41" s="183"/>
+      <c r="H41" s="86">
+        <v>72</v>
+      </c>
+      <c r="I41" s="57">
+        <v>8700</v>
+      </c>
+      <c r="J41" s="58">
+        <v>72</v>
+      </c>
+      <c r="K41" s="58">
+        <v>220</v>
+      </c>
+      <c r="L41" s="168"/>
+      <c r="M41" s="169"/>
+      <c r="N41" s="150">
+        <v>720</v>
+      </c>
+      <c r="O41" s="86">
+        <v>360</v>
+      </c>
+      <c r="P41" s="55">
+        <v>1800</v>
+      </c>
+      <c r="Q41" s="150">
+        <v>1320</v>
+      </c>
+      <c r="R41" s="55"/>
+      <c r="S41" s="53">
+        <f t="shared" si="1"/>
+        <v>13264</v>
+      </c>
+      <c r="T41" s="59">
+        <v>4136203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
+      <c r="A42" s="150" t="s">
+        <v>219</v>
+      </c>
+      <c r="B42" s="137">
+        <v>113</v>
+      </c>
+      <c r="C42" s="182" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="169"/>
+      <c r="E42" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="182"/>
+      <c r="G42" s="183"/>
+      <c r="H42" s="86">
+        <v>720</v>
+      </c>
+      <c r="I42" s="57">
+        <v>300</v>
+      </c>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58">
+        <v>220</v>
+      </c>
+      <c r="L42" s="168"/>
+      <c r="M42" s="169"/>
+      <c r="N42" s="150"/>
+      <c r="O42" s="86"/>
+      <c r="P42" s="55">
+        <v>480</v>
+      </c>
+      <c r="Q42" s="150">
+        <v>600</v>
+      </c>
+      <c r="R42" s="55"/>
+      <c r="S42" s="53">
+        <f t="shared" si="1"/>
+        <v>2320</v>
+      </c>
+      <c r="T42" s="59">
+        <v>767615</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
+      <c r="A43" s="150" t="s">
+        <v>220</v>
+      </c>
+      <c r="B43" s="137">
+        <v>114</v>
+      </c>
+      <c r="C43" s="182" t="s">
+        <v>221</v>
+      </c>
+      <c r="D43" s="169"/>
+      <c r="E43" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="F43" s="182"/>
+      <c r="G43" s="183"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58">
+        <v>22</v>
+      </c>
+      <c r="L43" s="168"/>
+      <c r="M43" s="169"/>
+      <c r="N43" s="150"/>
+      <c r="O43" s="86"/>
+      <c r="P43" s="55"/>
+      <c r="Q43" s="150"/>
+      <c r="R43" s="55"/>
+      <c r="S43" s="53">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="T43" s="59">
+        <v>7887</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
+      <c r="A44" s="150" t="s">
+        <v>220</v>
+      </c>
+      <c r="B44" s="137">
+        <v>115</v>
+      </c>
+      <c r="C44" s="182" t="s">
+        <v>215</v>
+      </c>
+      <c r="D44" s="169"/>
+      <c r="E44" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="F44" s="182"/>
+      <c r="G44" s="183"/>
+      <c r="H44" s="86"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="168"/>
+      <c r="M44" s="169"/>
+      <c r="N44" s="150"/>
+      <c r="O44" s="86"/>
+      <c r="P44" s="55"/>
+      <c r="Q44" s="150">
+        <v>120</v>
+      </c>
+      <c r="R44" s="55"/>
+      <c r="S44" s="53">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="T44" s="59">
+        <v>46333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A45" s="150" t="s">
+        <v>220</v>
+      </c>
+      <c r="B45" s="137">
+        <v>116</v>
+      </c>
+      <c r="C45" s="182" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="169"/>
+      <c r="E45" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" s="182"/>
+      <c r="G45" s="183"/>
+      <c r="H45" s="86"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="168"/>
+      <c r="M45" s="169"/>
+      <c r="N45" s="150">
+        <v>600</v>
+      </c>
+      <c r="O45" s="86"/>
+      <c r="P45" s="55">
+        <v>1800</v>
+      </c>
+      <c r="Q45" s="150"/>
+      <c r="R45" s="55"/>
+      <c r="S45" s="53">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
+      <c r="T45" s="59">
+        <v>765255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A46" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="196"/>
-      <c r="C30" s="196"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="156">
-        <f>SUM(F5:G29)</f>
-        <v>312</v>
-      </c>
-      <c r="G30" s="158"/>
-      <c r="H30" s="34">
-        <f>SUM(H5:H29)</f>
-        <v>3600</v>
-      </c>
-      <c r="I30" s="124">
-        <f>SUM(I5:I29)</f>
-        <v>22140</v>
-      </c>
-      <c r="J30" s="125">
-        <f>SUM(J5:J29)</f>
-        <v>600</v>
-      </c>
-      <c r="K30" s="125">
-        <f>SUM(K5:K29)</f>
-        <v>946</v>
-      </c>
-      <c r="L30" s="159">
-        <f>SUM(L5:M29)</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="157"/>
-      <c r="N30" s="124">
-        <f t="shared" ref="N30:T30" si="2">SUM(N5:N29)</f>
-        <v>4560</v>
-      </c>
-      <c r="O30" s="125">
+      <c r="B46" s="216"/>
+      <c r="C46" s="216"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="176">
+        <f>SUM(F5:G45)</f>
+        <v>912</v>
+      </c>
+      <c r="G46" s="178"/>
+      <c r="H46" s="34">
+        <f>SUM(H5:H45)</f>
+        <v>6552</v>
+      </c>
+      <c r="I46" s="123">
+        <f>SUM(I5:I45)</f>
+        <v>41970</v>
+      </c>
+      <c r="J46" s="124">
+        <f>SUM(J5:J45)</f>
+        <v>744</v>
+      </c>
+      <c r="K46" s="124">
+        <f>SUM(K5:K45)</f>
+        <v>2398</v>
+      </c>
+      <c r="L46" s="179">
+        <f>SUM(L5:M45)</f>
+        <v>440</v>
+      </c>
+      <c r="M46" s="177"/>
+      <c r="N46" s="123">
+        <f t="shared" ref="N46:T46" si="2">SUM(N5:N45)</f>
+        <v>11400</v>
+      </c>
+      <c r="O46" s="124">
         <f t="shared" si="2"/>
-        <v>3432</v>
-      </c>
-      <c r="P30" s="34">
+        <v>6432</v>
+      </c>
+      <c r="P46" s="34">
         <f t="shared" si="2"/>
-        <v>23784</v>
-      </c>
-      <c r="Q30" s="124">
+        <v>50760</v>
+      </c>
+      <c r="Q46" s="123">
         <f t="shared" si="2"/>
-        <v>9564</v>
-      </c>
-      <c r="R30" s="34">
+        <v>13044</v>
+      </c>
+      <c r="R46" s="34">
         <f t="shared" si="2"/>
         <v>2412</v>
       </c>
-      <c r="S30" s="61">
-        <f>SUM(S5:S29)</f>
-        <v>71350</v>
-      </c>
-      <c r="T30" s="36">
+      <c r="S46" s="61">
         <f t="shared" si="2"/>
-        <v>22963922</v>
-      </c>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-    </row>
-    <row r="31" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A31" s="195"/>
-      <c r="B31" s="196"/>
-      <c r="C31" s="196"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="156">
-        <f>F4+F30</f>
-        <v>1896</v>
-      </c>
-      <c r="G31" s="158"/>
-      <c r="H31" s="34">
-        <f>H4+H30</f>
-        <v>12120</v>
-      </c>
-      <c r="I31" s="62">
-        <f>I4+I30</f>
-        <v>69150</v>
-      </c>
-      <c r="J31" s="125">
-        <f>J4+J30</f>
-        <v>960</v>
-      </c>
-      <c r="K31" s="125">
-        <f>K4+K30</f>
-        <v>4158</v>
-      </c>
-      <c r="L31" s="159">
-        <f>L4+L30</f>
-        <v>660</v>
-      </c>
-      <c r="M31" s="157"/>
-      <c r="N31" s="124">
-        <f t="shared" ref="N31:T31" si="3">N4+N30</f>
-        <v>23280</v>
-      </c>
-      <c r="O31" s="125">
+        <v>137064</v>
+      </c>
+      <c r="T46" s="36">
+        <f t="shared" si="2"/>
+        <v>43683258</v>
+      </c>
+      <c r="V46" s="13"/>
+      <c r="W46" s="13"/>
+      <c r="X46" s="13"/>
+    </row>
+    <row r="47" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A47" s="215"/>
+      <c r="B47" s="216"/>
+      <c r="C47" s="216"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="176">
+        <f>F4+F46</f>
+        <v>2496</v>
+      </c>
+      <c r="G47" s="178"/>
+      <c r="H47" s="34">
+        <f>H4+H46</f>
+        <v>15072</v>
+      </c>
+      <c r="I47" s="62">
+        <f>I4+I46</f>
+        <v>88980</v>
+      </c>
+      <c r="J47" s="124">
+        <f>J4+J46</f>
+        <v>1104</v>
+      </c>
+      <c r="K47" s="124">
+        <f>K4+K46</f>
+        <v>5610</v>
+      </c>
+      <c r="L47" s="179">
+        <f>L4+L46</f>
+        <v>1100</v>
+      </c>
+      <c r="M47" s="177"/>
+      <c r="N47" s="123">
+        <f t="shared" ref="N47:T47" si="3">N4+N46</f>
+        <v>30120</v>
+      </c>
+      <c r="O47" s="124">
         <f t="shared" si="3"/>
-        <v>13416</v>
-      </c>
-      <c r="P31" s="34">
+        <v>16416</v>
+      </c>
+      <c r="P47" s="34">
         <f t="shared" si="3"/>
-        <v>110640</v>
-      </c>
-      <c r="Q31" s="62">
+        <v>137616</v>
+      </c>
+      <c r="Q47" s="62">
         <f t="shared" si="3"/>
-        <v>18996</v>
-      </c>
-      <c r="R31" s="125">
+        <v>22476</v>
+      </c>
+      <c r="R47" s="124">
         <f t="shared" si="3"/>
         <v>6444</v>
       </c>
-      <c r="S31" s="63">
+      <c r="S47" s="63">
         <f t="shared" si="3"/>
-        <v>261720</v>
-      </c>
-      <c r="T31" s="36">
+        <v>327434</v>
+      </c>
+      <c r="T47" s="36">
         <f t="shared" si="3"/>
-        <v>83544961</v>
-      </c>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-    </row>
-    <row r="32" spans="1:24" ht="15.75" thickBot="1">
-      <c r="V32" s="13"/>
-    </row>
-    <row r="33" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="197" t="s">
-        <v>206</v>
-      </c>
-      <c r="B33" s="198"/>
-      <c r="C33" s="198"/>
-      <c r="D33" s="198"/>
-      <c r="E33" s="198"/>
-      <c r="F33" s="198"/>
-      <c r="G33" s="198"/>
-      <c r="H33" s="198"/>
-      <c r="I33" s="198"/>
-      <c r="J33" s="198"/>
-      <c r="K33" s="198"/>
-      <c r="L33" s="198"/>
-      <c r="M33" s="198"/>
-      <c r="N33" s="198"/>
-      <c r="O33" s="198"/>
-      <c r="P33" s="198"/>
-      <c r="Q33" s="199"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="28"/>
-    </row>
-    <row r="34" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="200" t="s">
+        <v>104264297</v>
+      </c>
+      <c r="W47" s="13"/>
+      <c r="X47" s="13"/>
+    </row>
+    <row r="48" spans="1:24" ht="15.75" thickBot="1">
+      <c r="V48" s="13"/>
+    </row>
+    <row r="49" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A49" s="217" t="s">
+        <v>213</v>
+      </c>
+      <c r="B49" s="218"/>
+      <c r="C49" s="218"/>
+      <c r="D49" s="218"/>
+      <c r="E49" s="218"/>
+      <c r="F49" s="218"/>
+      <c r="G49" s="218"/>
+      <c r="H49" s="218"/>
+      <c r="I49" s="218"/>
+      <c r="J49" s="218"/>
+      <c r="K49" s="218"/>
+      <c r="L49" s="218"/>
+      <c r="M49" s="218"/>
+      <c r="N49" s="218"/>
+      <c r="O49" s="218"/>
+      <c r="P49" s="218"/>
+      <c r="Q49" s="219"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="28"/>
+    </row>
+    <row r="50" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A50" s="220" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="201"/>
-      <c r="C34" s="204" t="s">
+      <c r="B50" s="221"/>
+      <c r="C50" s="224" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="204" t="s">
+      <c r="D50" s="224" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="207" t="s">
+      <c r="E50" s="227" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="200" t="s">
+      <c r="F50" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="201"/>
-      <c r="H34" s="209" t="s">
+      <c r="G50" s="221"/>
+      <c r="H50" s="229" t="s">
         <v>10</v>
       </c>
-      <c r="I34" s="210"/>
-      <c r="J34" s="211"/>
-      <c r="K34" s="212" t="s">
+      <c r="I50" s="230"/>
+      <c r="J50" s="231"/>
+      <c r="K50" s="232" t="s">
         <v>25</v>
       </c>
-      <c r="L34" s="213"/>
-      <c r="M34" s="213"/>
-      <c r="N34" s="213"/>
-      <c r="O34" s="214"/>
-      <c r="P34" s="204" t="s">
+      <c r="L50" s="233"/>
+      <c r="M50" s="233"/>
+      <c r="N50" s="233"/>
+      <c r="O50" s="234"/>
+      <c r="P50" s="224" t="s">
         <v>20</v>
       </c>
-      <c r="Q34" s="215" t="s">
+      <c r="Q50" s="235" t="s">
         <v>38</v>
       </c>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="28"/>
-    </row>
-    <row r="35" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A35" s="202"/>
-      <c r="B35" s="203"/>
-      <c r="C35" s="205"/>
-      <c r="D35" s="206"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="202"/>
-      <c r="G35" s="203"/>
-      <c r="H35" s="70" t="s">
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="28"/>
+    </row>
+    <row r="51" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A51" s="222"/>
+      <c r="B51" s="223"/>
+      <c r="C51" s="225"/>
+      <c r="D51" s="226"/>
+      <c r="E51" s="228"/>
+      <c r="F51" s="222"/>
+      <c r="G51" s="223"/>
+      <c r="H51" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="I35" s="70" t="s">
+      <c r="I51" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="J35" s="70" t="s">
+      <c r="J51" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="K35" s="70" t="s">
+      <c r="K51" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="L35" s="212" t="s">
+      <c r="L51" s="232" t="s">
         <v>47</v>
       </c>
-      <c r="M35" s="214"/>
-      <c r="N35" s="70" t="s">
+      <c r="M51" s="234"/>
+      <c r="N51" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="O35" s="70" t="s">
+      <c r="O51" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="P35" s="206"/>
-      <c r="Q35" s="216"/>
-      <c r="T35" s="28"/>
-    </row>
-    <row r="36" spans="1:22" ht="15" customHeight="1">
-      <c r="A36" s="200" t="s">
+      <c r="P51" s="226"/>
+      <c r="Q51" s="236"/>
+      <c r="T51" s="28"/>
+    </row>
+    <row r="52" spans="1:22" ht="15" customHeight="1">
+      <c r="A52" s="220" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="201"/>
-      <c r="C36" s="132" t="s">
+      <c r="B52" s="221"/>
+      <c r="C52" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="132"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="222"/>
-      <c r="G36" s="222"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="131"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="131"/>
-      <c r="L36" s="223"/>
-      <c r="M36" s="224"/>
-      <c r="N36" s="131"/>
-      <c r="O36" s="4">
+      <c r="D52" s="128"/>
+      <c r="E52" s="4">
+        <v>600</v>
+      </c>
+      <c r="F52" s="242"/>
+      <c r="G52" s="242"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="127"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="127"/>
+      <c r="L52" s="243"/>
+      <c r="M52" s="244"/>
+      <c r="N52" s="127"/>
+      <c r="O52" s="4">
         <v>72</v>
       </c>
-      <c r="P36" s="131">
+      <c r="P52" s="127">
         <v>240</v>
       </c>
-      <c r="Q36" s="4">
-        <f>SUM(D36:P36)</f>
-        <v>312</v>
-      </c>
-      <c r="T36" s="28"/>
-      <c r="V36" s="13">
-        <f>Q36-F30</f>
+      <c r="Q52" s="4">
+        <f>SUM(D52:P52)</f>
+        <v>912</v>
+      </c>
+      <c r="T52" s="28"/>
+      <c r="V52" s="13">
+        <f>Q52-F46</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A37" s="202"/>
-      <c r="B37" s="203"/>
-      <c r="C37" s="134" t="s">
+    <row r="53" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A53" s="222"/>
+      <c r="B53" s="223"/>
+      <c r="C53" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="134"/>
-      <c r="E37" s="14">
-        <v>1440</v>
-      </c>
-      <c r="F37" s="229">
+      <c r="D53" s="130">
+        <v>72</v>
+      </c>
+      <c r="E53" s="14">
+        <f>1440+1440</f>
+        <v>2880</v>
+      </c>
+      <c r="F53" s="249">
+        <v>3120</v>
+      </c>
+      <c r="G53" s="249"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="129"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="129"/>
+      <c r="L53" s="250"/>
+      <c r="M53" s="251"/>
+      <c r="N53" s="129"/>
+      <c r="O53" s="14">
+        <v>456</v>
+      </c>
+      <c r="P53" s="129">
+        <v>24</v>
+      </c>
+      <c r="Q53" s="16">
+        <f t="shared" ref="Q53:Q62" si="4">SUM(D53:P53)</f>
+        <v>6552</v>
+      </c>
+      <c r="T53" s="28"/>
+      <c r="V53" s="13">
+        <f>H46-Q53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" s="220" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="221"/>
+      <c r="C54" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="4">
+        <v>33000</v>
+      </c>
+      <c r="E54" s="4">
+        <f>600+600</f>
+        <v>1200</v>
+      </c>
+      <c r="F54" s="242">
+        <f>900+1800+300</f>
+        <v>3000</v>
+      </c>
+      <c r="G54" s="242"/>
+      <c r="H54" s="4">
+        <f>300+300</f>
+        <v>600</v>
+      </c>
+      <c r="I54" s="127">
         <v>1800</v>
       </c>
-      <c r="G37" s="229"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="133"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="133"/>
-      <c r="L37" s="230"/>
-      <c r="M37" s="231"/>
-      <c r="N37" s="133"/>
-      <c r="O37" s="14">
-        <v>312</v>
-      </c>
-      <c r="P37" s="133"/>
-      <c r="Q37" s="16">
-        <f t="shared" ref="Q37:Q46" si="4">SUM(D37:P37)</f>
-        <v>3552</v>
-      </c>
-      <c r="T37" s="28"/>
-      <c r="V37" s="13">
-        <f>H30-Q37</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22">
-      <c r="A38" s="200" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="201"/>
-      <c r="C38" s="4" t="s">
+      <c r="J54" s="4">
+        <f>450+750</f>
+        <v>1200</v>
+      </c>
+      <c r="K54" s="127"/>
+      <c r="L54" s="243">
         <v>30</v>
       </c>
-      <c r="D38" s="4">
-        <v>18900</v>
-      </c>
-      <c r="E38" s="4">
-        <v>600</v>
-      </c>
-      <c r="F38" s="222">
-        <v>900</v>
-      </c>
-      <c r="G38" s="222"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="131"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="131"/>
-      <c r="L38" s="223"/>
-      <c r="M38" s="224"/>
-      <c r="N38" s="131"/>
-      <c r="O38" s="4">
-        <v>210</v>
-      </c>
-      <c r="P38" s="131">
-        <v>750</v>
-      </c>
-      <c r="Q38" s="4">
+      <c r="M54" s="244"/>
+      <c r="N54" s="127"/>
+      <c r="O54" s="4">
+        <v>360</v>
+      </c>
+      <c r="P54" s="127">
+        <f>750+30</f>
+        <v>780</v>
+      </c>
+      <c r="Q54" s="4">
         <f t="shared" si="4"/>
-        <v>21360</v>
-      </c>
-      <c r="T38" s="28"/>
-      <c r="V38" s="13">
-        <f>I30-Q38</f>
-        <v>780</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22">
-      <c r="A39" s="237"/>
-      <c r="B39" s="238"/>
-      <c r="C39" s="5" t="s">
+        <v>41970</v>
+      </c>
+      <c r="T54" s="28"/>
+      <c r="V54" s="13">
+        <f>I46-Q54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55" s="257"/>
+      <c r="B55" s="258"/>
+      <c r="C55" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="138">
+      <c r="D55" s="134">
+        <v>264</v>
+      </c>
+      <c r="E55" s="5">
+        <v>480</v>
+      </c>
+      <c r="F55" s="262"/>
+      <c r="G55" s="262"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="133"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="133"/>
+      <c r="L55" s="263"/>
+      <c r="M55" s="264"/>
+      <c r="N55" s="133"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="133"/>
+      <c r="Q55" s="5">
+        <f t="shared" si="4"/>
+        <v>744</v>
+      </c>
+      <c r="T55" s="28"/>
+      <c r="V55" s="13">
+        <f>J46-Q55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="A56" s="257"/>
+      <c r="B56" s="258"/>
+      <c r="C56" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" s="134">
+        <v>1210</v>
+      </c>
+      <c r="E56" s="5">
+        <f>220+110</f>
+        <v>330</v>
+      </c>
+      <c r="F56" s="262">
+        <f>440+220</f>
+        <v>660</v>
+      </c>
+      <c r="G56" s="262"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="133"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="133"/>
+      <c r="L56" s="263"/>
+      <c r="M56" s="264"/>
+      <c r="N56" s="133"/>
+      <c r="O56" s="5">
+        <v>22</v>
+      </c>
+      <c r="P56" s="133">
+        <v>176</v>
+      </c>
+      <c r="Q56" s="5">
+        <f t="shared" si="4"/>
+        <v>2398</v>
+      </c>
+      <c r="T56" s="28"/>
+      <c r="V56" s="13">
+        <f>K46-Q56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A57" s="222"/>
+      <c r="B57" s="223"/>
+      <c r="C57" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" s="126"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="212">
+        <f>440</f>
+        <v>440</v>
+      </c>
+      <c r="G57" s="212"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="125"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="125"/>
+      <c r="L57" s="213"/>
+      <c r="M57" s="214"/>
+      <c r="N57" s="125"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="125"/>
+      <c r="Q57" s="16">
+        <f t="shared" si="4"/>
+        <v>440</v>
+      </c>
+      <c r="T57" s="28"/>
+      <c r="V57" s="13">
+        <f>L46-Q57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="A58" s="220" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="221"/>
+      <c r="C58" s="132" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="132">
+        <v>3360</v>
+      </c>
+      <c r="E58" s="16">
+        <f>480+1200</f>
+        <v>1680</v>
+      </c>
+      <c r="F58" s="259">
+        <f>720</f>
+        <v>720</v>
+      </c>
+      <c r="G58" s="259"/>
+      <c r="H58" s="16">
+        <f>960+1080</f>
+        <v>2040</v>
+      </c>
+      <c r="I58" s="131"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="131"/>
+      <c r="L58" s="260">
         <v>120</v>
       </c>
-      <c r="E39" s="5">
-        <v>480</v>
-      </c>
-      <c r="F39" s="242"/>
-      <c r="G39" s="242"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="137"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="137"/>
-      <c r="L39" s="243"/>
-      <c r="M39" s="244"/>
-      <c r="N39" s="137"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="137"/>
-      <c r="Q39" s="5">
+      <c r="M58" s="261"/>
+      <c r="N58" s="131"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="131">
+        <f>1080+600+1200+600</f>
+        <v>3480</v>
+      </c>
+      <c r="Q58" s="4">
         <f t="shared" si="4"/>
-        <v>600</v>
-      </c>
-      <c r="T39" s="28"/>
-      <c r="V39" s="13">
-        <f>J30-Q39</f>
+        <v>11400</v>
+      </c>
+      <c r="T58" s="28"/>
+      <c r="V58" s="13">
+        <f>N46-Q58</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
-      <c r="A40" s="237"/>
-      <c r="B40" s="238"/>
-      <c r="C40" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="138">
-        <v>550</v>
-      </c>
-      <c r="E40" s="5">
-        <v>220</v>
-      </c>
-      <c r="F40" s="242"/>
-      <c r="G40" s="242"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="137"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="137"/>
-      <c r="L40" s="243"/>
-      <c r="M40" s="244"/>
-      <c r="N40" s="137"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="137">
-        <v>176</v>
-      </c>
-      <c r="Q40" s="5">
+    <row r="59" spans="1:22">
+      <c r="A59" s="257"/>
+      <c r="B59" s="258"/>
+      <c r="C59" s="134" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" s="134">
+        <v>1680</v>
+      </c>
+      <c r="E59" s="5">
+        <f>480+600</f>
+        <v>1080</v>
+      </c>
+      <c r="F59" s="262">
+        <f>120+120</f>
+        <v>240</v>
+      </c>
+      <c r="G59" s="262"/>
+      <c r="H59" s="5">
+        <f>480+360</f>
+        <v>840</v>
+      </c>
+      <c r="I59" s="133"/>
+      <c r="J59" s="5">
+        <v>240</v>
+      </c>
+      <c r="K59" s="133"/>
+      <c r="L59" s="263">
+        <v>240</v>
+      </c>
+      <c r="M59" s="264"/>
+      <c r="N59" s="133"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="133">
+        <f>912+600+600</f>
+        <v>2112</v>
+      </c>
+      <c r="Q59" s="5">
         <f t="shared" si="4"/>
-        <v>946</v>
-      </c>
-      <c r="T40" s="28"/>
-      <c r="V40" s="13">
-        <f>K30-Q40</f>
+        <v>6432</v>
+      </c>
+      <c r="T59" s="28"/>
+      <c r="V59" s="13">
+        <f>O46-Q59</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A41" s="202"/>
-      <c r="B41" s="203"/>
-      <c r="C41" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="129"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="192"/>
-      <c r="G41" s="192"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="128"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="128"/>
-      <c r="L41" s="193"/>
-      <c r="M41" s="194"/>
-      <c r="N41" s="128"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="128"/>
-      <c r="Q41" s="16">
+    <row r="60" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A60" s="222"/>
+      <c r="B60" s="223"/>
+      <c r="C60" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="130">
+        <v>15240</v>
+      </c>
+      <c r="E60" s="14">
+        <f>3600+5400</f>
+        <v>9000</v>
+      </c>
+      <c r="F60" s="249">
+        <f>3840+3600+480</f>
+        <v>7920</v>
+      </c>
+      <c r="G60" s="249"/>
+      <c r="H60" s="14">
+        <f>960+720</f>
+        <v>1680</v>
+      </c>
+      <c r="I60" s="129">
+        <v>2760</v>
+      </c>
+      <c r="J60" s="14">
+        <f>1200+600</f>
+        <v>1800</v>
+      </c>
+      <c r="K60" s="129"/>
+      <c r="L60" s="250">
+        <v>576</v>
+      </c>
+      <c r="M60" s="251"/>
+      <c r="N60" s="129"/>
+      <c r="O60" s="14">
+        <v>2784</v>
+      </c>
+      <c r="P60" s="129">
+        <f>3600+1200+2400+1800</f>
+        <v>9000</v>
+      </c>
+      <c r="Q60" s="16">
         <f t="shared" si="4"/>
+        <v>50760</v>
+      </c>
+      <c r="T60" s="28"/>
+      <c r="V60" s="13">
+        <f>P46-Q60</f>
         <v>0</v>
       </c>
-      <c r="T41" s="28"/>
-      <c r="V41" s="13">
-        <f>L30-Q41</f>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="A61" s="220" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" s="221"/>
+      <c r="C61" s="128" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" s="128">
+        <v>11340</v>
+      </c>
+      <c r="E61" s="4">
+        <f>180+180</f>
+        <v>360</v>
+      </c>
+      <c r="F61" s="242">
+        <f>240+600</f>
+        <v>840</v>
+      </c>
+      <c r="G61" s="242"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="127"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="127"/>
+      <c r="L61" s="243">
+        <v>120</v>
+      </c>
+      <c r="M61" s="244"/>
+      <c r="N61" s="127"/>
+      <c r="O61" s="4">
+        <v>300</v>
+      </c>
+      <c r="P61" s="127">
+        <f>24+60</f>
+        <v>84</v>
+      </c>
+      <c r="Q61" s="4">
+        <f t="shared" si="4"/>
+        <v>13044</v>
+      </c>
+      <c r="T61" s="28"/>
+      <c r="V61" s="13">
+        <f>Q46-Q61</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
-      <c r="A42" s="200" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="201"/>
-      <c r="C42" s="136" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="136">
-        <v>1440</v>
-      </c>
-      <c r="E42" s="16">
-        <v>480</v>
-      </c>
-      <c r="F42" s="239"/>
-      <c r="G42" s="239"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="135"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="135"/>
-      <c r="L42" s="240"/>
-      <c r="M42" s="241"/>
-      <c r="N42" s="135"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="135">
-        <v>1680</v>
-      </c>
-      <c r="Q42" s="4">
-        <f t="shared" si="4"/>
-        <v>3600</v>
-      </c>
-      <c r="T42" s="28"/>
-      <c r="V42" s="13">
-        <f>N30-Q42</f>
-        <v>960</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22">
-      <c r="A43" s="237"/>
-      <c r="B43" s="238"/>
-      <c r="C43" s="138" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="138">
-        <v>600</v>
-      </c>
-      <c r="E43" s="5">
-        <v>480</v>
-      </c>
-      <c r="F43" s="242">
-        <v>120</v>
-      </c>
-      <c r="G43" s="242"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="137"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="137"/>
-      <c r="L43" s="243"/>
-      <c r="M43" s="244"/>
-      <c r="N43" s="137"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="137">
-        <v>1512</v>
-      </c>
-      <c r="Q43" s="5">
-        <f t="shared" si="4"/>
-        <v>2712</v>
-      </c>
-      <c r="T43" s="28"/>
-      <c r="V43" s="13">
-        <f>O30-Q43</f>
-        <v>720</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A44" s="202"/>
-      <c r="B44" s="203"/>
-      <c r="C44" s="65" t="s">
+    <row r="62" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A62" s="222"/>
+      <c r="B62" s="223"/>
+      <c r="C62" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="134">
-        <v>8640</v>
-      </c>
-      <c r="E44" s="14">
-        <v>3600</v>
-      </c>
-      <c r="F44" s="229">
-        <v>3840</v>
-      </c>
-      <c r="G44" s="229"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="133"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="133"/>
-      <c r="L44" s="230"/>
-      <c r="M44" s="231"/>
-      <c r="N44" s="133"/>
-      <c r="O44" s="14">
-        <v>720</v>
-      </c>
-      <c r="P44" s="133">
-        <v>4800</v>
-      </c>
-      <c r="Q44" s="16">
-        <f t="shared" si="4"/>
-        <v>21600</v>
-      </c>
-      <c r="T44" s="28"/>
-      <c r="V44" s="13">
-        <f>P30-Q44</f>
-        <v>2184</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22">
-      <c r="A45" s="200" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="201"/>
-      <c r="C45" s="132" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" s="132">
-        <v>9000</v>
-      </c>
-      <c r="E45" s="4">
-        <v>180</v>
-      </c>
-      <c r="F45" s="222">
-        <v>240</v>
-      </c>
-      <c r="G45" s="222"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="131"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="131"/>
-      <c r="L45" s="223"/>
-      <c r="M45" s="224"/>
-      <c r="N45" s="131"/>
-      <c r="O45" s="4">
-        <v>120</v>
-      </c>
-      <c r="P45" s="131"/>
-      <c r="Q45" s="4">
-        <f t="shared" si="4"/>
-        <v>9540</v>
-      </c>
-      <c r="T45" s="28"/>
-      <c r="V45" s="13">
-        <f>Q30-Q45</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A46" s="202"/>
-      <c r="B46" s="203"/>
-      <c r="C46" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="15">
+      <c r="D62" s="15">
+        <f>1800+612</f>
         <v>2412</v>
       </c>
-      <c r="E46" s="15"/>
-      <c r="F46" s="192"/>
-      <c r="G46" s="192"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="128"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="128"/>
-      <c r="L46" s="193"/>
-      <c r="M46" s="194"/>
-      <c r="N46" s="128"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="128"/>
-      <c r="Q46" s="16">
+      <c r="E62" s="15"/>
+      <c r="F62" s="212"/>
+      <c r="G62" s="212"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="125"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="125"/>
+      <c r="L62" s="213"/>
+      <c r="M62" s="214"/>
+      <c r="N62" s="125"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="125"/>
+      <c r="Q62" s="16">
         <f t="shared" si="4"/>
         <v>2412</v>
       </c>
-      <c r="T46" s="28"/>
-      <c r="V46" s="13">
-        <f>R30-Q46</f>
+      <c r="T62" s="28"/>
+      <c r="V62" s="13">
+        <f>R46-Q62</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A47" s="225" t="s">
+    <row r="63" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A63" s="245" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="226"/>
-      <c r="C47" s="226"/>
-      <c r="D47" s="23">
-        <f>SUM(D36:D46)</f>
-        <v>41662</v>
-      </c>
-      <c r="E47" s="23">
-        <f t="shared" ref="E47" si="5">SUM(E36:E46)</f>
-        <v>7480</v>
-      </c>
-      <c r="F47" s="227">
-        <f>SUM(F36:G46)</f>
-        <v>6900</v>
-      </c>
-      <c r="G47" s="228"/>
-      <c r="H47" s="23">
-        <f>SUM(H36:H46)</f>
+      <c r="B63" s="246"/>
+      <c r="C63" s="246"/>
+      <c r="D63" s="23">
+        <f>SUM(D52:D62)</f>
+        <v>68578</v>
+      </c>
+      <c r="E63" s="23">
+        <f t="shared" ref="E63" si="5">SUM(E52:E62)</f>
+        <v>17610</v>
+      </c>
+      <c r="F63" s="247">
+        <f>SUM(F52:G62)</f>
+        <v>16940</v>
+      </c>
+      <c r="G63" s="248"/>
+      <c r="H63" s="23">
+        <f>SUM(H52:H62)</f>
+        <v>5160</v>
+      </c>
+      <c r="I63" s="23">
+        <f>SUM(I52:I62)</f>
+        <v>4560</v>
+      </c>
+      <c r="J63" s="23">
+        <f>SUM(J52:J62)</f>
+        <v>3240</v>
+      </c>
+      <c r="K63" s="23">
+        <f>SUM(K52:K62)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="23">
-        <f>SUM(I36:I46)</f>
+      <c r="L63" s="247">
+        <f>SUM(L52:M62)</f>
+        <v>1086</v>
+      </c>
+      <c r="M63" s="248"/>
+      <c r="N63" s="23">
+        <f>SUM(N52:N62)</f>
         <v>0</v>
       </c>
-      <c r="J47" s="23">
-        <f>SUM(J36:J46)</f>
+      <c r="O63" s="23">
+        <f>SUM(O52:O62)</f>
+        <v>3994</v>
+      </c>
+      <c r="P63" s="23">
+        <f>SUM(P52:P62)</f>
+        <v>15896</v>
+      </c>
+      <c r="Q63" s="24">
+        <f>SUM(Q52:Q62)</f>
+        <v>137064</v>
+      </c>
+      <c r="R63" s="12"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="28"/>
+      <c r="V63" s="13">
+        <f>S46-Q63</f>
         <v>0</v>
       </c>
-      <c r="K47" s="23">
-        <f>SUM(K36:K46)</f>
+    </row>
+    <row r="64" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A64" s="252" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" s="253"/>
+      <c r="C64" s="253"/>
+      <c r="D64" s="254">
+        <f>D63+E63+F63+H63+I63+J63+K63+L63+N63+O63+P63</f>
+        <v>137064</v>
+      </c>
+      <c r="E64" s="255"/>
+      <c r="F64" s="255"/>
+      <c r="G64" s="255"/>
+      <c r="H64" s="255"/>
+      <c r="I64" s="255"/>
+      <c r="J64" s="255"/>
+      <c r="K64" s="255"/>
+      <c r="L64" s="255"/>
+      <c r="M64" s="255"/>
+      <c r="N64" s="255"/>
+      <c r="O64" s="255"/>
+      <c r="P64" s="255"/>
+      <c r="Q64" s="256"/>
+      <c r="T64" s="28"/>
+      <c r="V64" s="13"/>
+    </row>
+    <row r="65" spans="1:22" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A65" s="237" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="238"/>
+      <c r="C65" s="238"/>
+      <c r="D65" s="22">
+        <v>21986945</v>
+      </c>
+      <c r="E65" s="22">
+        <v>5527651</v>
+      </c>
+      <c r="F65" s="239">
+        <f>2172057+2398129+767615</f>
+        <v>5337801</v>
+      </c>
+      <c r="G65" s="240"/>
+      <c r="H65" s="22">
+        <v>1626492</v>
+      </c>
+      <c r="I65" s="26">
+        <v>1431388</v>
+      </c>
+      <c r="J65" s="22">
+        <v>1017420</v>
+      </c>
+      <c r="K65" s="22"/>
+      <c r="L65" s="241">
+        <v>352163</v>
+      </c>
+      <c r="M65" s="240"/>
+      <c r="N65" s="26"/>
+      <c r="O65" s="22">
+        <v>1343071</v>
+      </c>
+      <c r="P65" s="26">
+        <f>2148083+2146989+765255</f>
+        <v>5060327</v>
+      </c>
+      <c r="Q65" s="135">
+        <f>D65+E65+F65+H65+I65+J65+K65+L65+N65+O65+P65</f>
+        <v>43683258</v>
+      </c>
+      <c r="R65" s="19"/>
+      <c r="S65" s="19"/>
+      <c r="T65" s="29"/>
+      <c r="V65" s="21">
+        <f>T46-Q65</f>
         <v>0</v>
       </c>
-      <c r="L47" s="227">
-        <f>SUM(L36:M46)</f>
-        <v>0</v>
-      </c>
-      <c r="M47" s="228"/>
-      <c r="N47" s="23">
-        <f>SUM(N36:N46)</f>
-        <v>0</v>
-      </c>
-      <c r="O47" s="23">
-        <f>SUM(O36:O46)</f>
-        <v>1434</v>
-      </c>
-      <c r="P47" s="23">
-        <f>SUM(P36:P46)</f>
-        <v>9158</v>
-      </c>
-      <c r="Q47" s="24">
-        <f>SUM(Q36:Q46)</f>
-        <v>66634</v>
-      </c>
-      <c r="R47" s="12"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="28"/>
-      <c r="V47" s="13">
-        <f>S30-Q47</f>
-        <v>4716</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A48" s="232" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="233"/>
-      <c r="C48" s="233"/>
-      <c r="D48" s="234">
-        <f>D47+E47+F47+H47+I47+J47+K47+L47+N47+O47+P47</f>
-        <v>66634</v>
-      </c>
-      <c r="E48" s="235"/>
-      <c r="F48" s="235"/>
-      <c r="G48" s="235"/>
-      <c r="H48" s="235"/>
-      <c r="I48" s="235"/>
-      <c r="J48" s="235"/>
-      <c r="K48" s="235"/>
-      <c r="L48" s="235"/>
-      <c r="M48" s="235"/>
-      <c r="N48" s="235"/>
-      <c r="O48" s="235"/>
-      <c r="P48" s="235"/>
-      <c r="Q48" s="236"/>
-      <c r="T48" s="28"/>
-      <c r="V48" s="13"/>
-    </row>
-    <row r="49" spans="1:22" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A49" s="217" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49" s="218"/>
-      <c r="C49" s="218"/>
-      <c r="D49" s="22">
-        <v>13550769</v>
-      </c>
-      <c r="E49" s="22">
-        <v>2355378</v>
-      </c>
-      <c r="F49" s="219">
-        <v>2172057</v>
-      </c>
-      <c r="G49" s="220"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="221"/>
-      <c r="M49" s="220"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="22">
-        <v>491304</v>
-      </c>
-      <c r="P49" s="26">
-        <v>2148083</v>
-      </c>
-      <c r="Q49" s="143">
-        <f>D49+E49+F49+H49+I49+J49+K49+L49+N49+O49+P49</f>
-        <v>20717591</v>
-      </c>
-      <c r="R49" s="19"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="29"/>
-      <c r="V49" s="21">
-        <f>T30-Q49</f>
-        <v>2246331</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22">
-      <c r="T50" s="28"/>
-      <c r="V50" s="13"/>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="T66" s="28"/>
+      <c r="V66" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="138">
+  <mergeCells count="188">
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -9894,6 +10850,8 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="L13:M13"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="L14:M14"/>
@@ -9939,66 +10897,114 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="L24:M24"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="A36:B37"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="A33:Q33"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:G35"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:O34"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="Q34:Q35"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:Q48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="A45:B46"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="A46:C46"/>
     <mergeCell ref="F46:G46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="F47:G47"/>
     <mergeCell ref="L47:M47"/>
-    <mergeCell ref="A42:B44"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="A49:Q49"/>
+    <mergeCell ref="A50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:G51"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:O50"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:Q64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="A61:B62"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="A58:B60"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="A54:B57"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
     <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
     <mergeCell ref="L42:M42"/>
-    <mergeCell ref="F43:G43"/>
     <mergeCell ref="L43:M43"/>
-    <mergeCell ref="F44:G44"/>
     <mergeCell ref="L44:M44"/>
-    <mergeCell ref="A38:B41"/>
+    <mergeCell ref="L45:M45"/>
   </mergeCells>
   <pageMargins left="0.16" right="0.16" top="0.34" bottom="0.16" header="0.23" footer="0.16"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
